--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
   <si>
     <t>quality</t>
   </si>
@@ -579,19 +579,22 @@
     <t>828.0</t>
   </si>
   <si>
-    <t>0.36407767</t>
-  </si>
-  <si>
-    <t>78,86</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>0,85</t>
   </si>
   <si>
     <t>171.0</t>
   </si>
   <si>
-    <t>16,29</t>
-  </si>
-  <si>
-    <t>На долю планшетов и смартфонов приходится 16,29% трафика</t>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>На долю планшетов и смартфонов приходится 21,14% трафика</t>
   </si>
   <si>
     <t>младше 18 лет</t>
@@ -1146,102 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,6 +1172,102 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10087,8 +10090,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U406"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A67" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280:D280"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A196" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10139,52 +10142,52 @@
     </row>
     <row r="104" spans="6:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="6:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F105" s="126" t="s">
+      <c r="F105" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="126"/>
-      <c r="J105" s="126"/>
-      <c r="K105" s="126"/>
-      <c r="L105" s="126"/>
-      <c r="M105" s="126"/>
-      <c r="N105" s="126"/>
-      <c r="O105" s="126"/>
-      <c r="P105" s="126"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="110"/>
+      <c r="J105" s="110"/>
+      <c r="K105" s="110"/>
+      <c r="L105" s="110"/>
+      <c r="M105" s="110"/>
+      <c r="N105" s="110"/>
+      <c r="O105" s="110"/>
+      <c r="P105" s="110"/>
     </row>
     <row r="106" spans="6:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="6:16" ht="21" x14ac:dyDescent="0.35">
       <c r="K110" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="L110" s="127"/>
-      <c r="M110" s="127"/>
-      <c r="N110" s="127"/>
+      <c r="L110" s="111"/>
+      <c r="M110" s="111"/>
+      <c r="N110" s="111"/>
     </row>
     <row r="113" spans="9:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K113" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="L113" s="127"/>
-      <c r="M113" s="127"/>
-      <c r="N113" s="127"/>
+      <c r="L113" s="111"/>
+      <c r="M113" s="111"/>
+      <c r="N113" s="111"/>
     </row>
     <row r="116" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="K116" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="L116" s="128"/>
-      <c r="M116" s="128"/>
-      <c r="N116" s="128"/>
+      <c r="L116" s="112"/>
+      <c r="M116" s="112"/>
+      <c r="N116" s="112"/>
     </row>
     <row r="120" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="K120" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="L120" s="127"/>
-      <c r="M120" s="127"/>
-      <c r="N120" s="127"/>
+      <c r="L120" s="111"/>
+      <c r="M120" s="111"/>
+      <c r="N120" s="111"/>
     </row>
     <row r="124" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
@@ -10192,20 +10195,20 @@
       <c r="K124" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="L124" s="125"/>
-      <c r="M124" s="125"/>
-      <c r="N124" s="125"/>
+      <c r="L124" s="109"/>
+      <c r="M124" s="109"/>
+      <c r="N124" s="109"/>
     </row>
     <row r="127" spans="9:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="I128" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="J128" s="129"/>
-      <c r="K128" s="129"/>
-      <c r="L128" s="129"/>
-      <c r="M128" s="129"/>
-      <c r="N128" s="129"/>
+      <c r="J128" s="113"/>
+      <c r="K128" s="113"/>
+      <c r="L128" s="113"/>
+      <c r="M128" s="113"/>
+      <c r="N128" s="113"/>
     </row>
     <row r="129" spans="6:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K129" s="16"/>
@@ -10214,35 +10217,35 @@
     </row>
     <row r="134" spans="6:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="6:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F137" s="130" t="s">
+      <c r="F137" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="130"/>
-      <c r="H137" s="131" t="s">
+      <c r="G137" s="114"/>
+      <c r="H137" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="I137" s="131"/>
-      <c r="J137" s="131"/>
-      <c r="K137" s="130" t="s">
+      <c r="I137" s="116"/>
+      <c r="J137" s="116"/>
+      <c r="K137" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="L137" s="130"/>
+      <c r="L137" s="114"/>
       <c r="M137" s="86"/>
     </row>
     <row r="138" spans="6:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F138" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="G138" s="120"/>
+      <c r="G138" s="115"/>
       <c r="H138" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="I138" s="132"/>
-      <c r="J138" s="132"/>
+      <c r="I138" s="117"/>
+      <c r="J138" s="117"/>
       <c r="K138" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="L138" s="120"/>
+      <c r="L138" s="115"/>
       <c r="M138" s="87"/>
     </row>
     <row r="139" spans="6:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10269,13 +10272,13 @@
       <c r="F141" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G141" s="112"/>
-      <c r="H141" s="120" t="s">
+      <c r="G141" s="118"/>
+      <c r="H141" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="I141" s="120"/>
-      <c r="J141" s="120"/>
-      <c r="K141" s="120"/>
+      <c r="I141" s="115"/>
+      <c r="J141" s="115"/>
+      <c r="K141" s="115"/>
       <c r="L141" s="72" t="s">
         <v>129</v>
       </c>
@@ -10285,13 +10288,13 @@
       <c r="F142" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="G142" s="111"/>
-      <c r="H142" s="119" t="s">
+      <c r="G142" s="119"/>
+      <c r="H142" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="I142" s="119"/>
-      <c r="J142" s="119"/>
-      <c r="K142" s="119"/>
+      <c r="I142" s="120"/>
+      <c r="J142" s="120"/>
+      <c r="K142" s="120"/>
       <c r="L142" s="84" t="s">
         <v>131</v>
       </c>
@@ -10301,13 +10304,13 @@
       <c r="F143" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="G143" s="112"/>
-      <c r="H143" s="120" t="s">
+      <c r="G143" s="118"/>
+      <c r="H143" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="I143" s="120"/>
-      <c r="J143" s="120"/>
-      <c r="K143" s="120"/>
+      <c r="I143" s="115"/>
+      <c r="J143" s="115"/>
+      <c r="K143" s="115"/>
       <c r="L143" s="72" t="s">
         <v>133</v>
       </c>
@@ -10317,13 +10320,13 @@
       <c r="F144" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="G144" s="111"/>
-      <c r="H144" s="119" t="s">
+      <c r="G144" s="119"/>
+      <c r="H144" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="I144" s="119"/>
-      <c r="J144" s="119"/>
-      <c r="K144" s="119"/>
+      <c r="I144" s="120"/>
+      <c r="J144" s="120"/>
+      <c r="K144" s="120"/>
       <c r="L144" s="84" t="s">
         <v>135</v>
       </c>
@@ -10333,27 +10336,27 @@
       <c r="F145" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="G145" s="112"/>
-      <c r="H145" s="120" t="s">
+      <c r="G145" s="118"/>
+      <c r="H145" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="I145" s="120"/>
-      <c r="J145" s="120"/>
-      <c r="K145" s="120"/>
+      <c r="I145" s="115"/>
+      <c r="J145" s="115"/>
+      <c r="K145" s="115"/>
       <c r="L145" s="72" t="s">
         <v>137</v>
       </c>
       <c r="M145" s="88"/>
     </row>
     <row r="146" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F146" s="111"/>
-      <c r="G146" s="111"/>
-      <c r="H146" s="119" t="s">
+      <c r="F146" s="119"/>
+      <c r="G146" s="119"/>
+      <c r="H146" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="I146" s="119"/>
-      <c r="J146" s="119"/>
-      <c r="K146" s="119"/>
+      <c r="I146" s="120"/>
+      <c r="J146" s="120"/>
+      <c r="K146" s="120"/>
       <c r="L146" s="68"/>
       <c r="M146" s="88"/>
     </row>
@@ -10361,13 +10364,13 @@
       <c r="F147" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G147" s="112"/>
-      <c r="H147" s="120" t="s">
+      <c r="G147" s="118"/>
+      <c r="H147" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="I147" s="120"/>
-      <c r="J147" s="120"/>
-      <c r="K147" s="120"/>
+      <c r="I147" s="115"/>
+      <c r="J147" s="115"/>
+      <c r="K147" s="115"/>
       <c r="L147" s="72" t="s">
         <v>138</v>
       </c>
@@ -10377,13 +10380,13 @@
       <c r="F148" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="G148" s="111"/>
-      <c r="H148" s="119" t="s">
+      <c r="G148" s="119"/>
+      <c r="H148" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="119"/>
-      <c r="J148" s="119"/>
-      <c r="K148" s="119"/>
+      <c r="I148" s="120"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="120"/>
       <c r="L148" s="84" t="s">
         <v>139</v>
       </c>
@@ -10447,24 +10450,24 @@
       <c r="U195" s="24"/>
     </row>
     <row r="198" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E198" s="121" t="s">
+      <c r="E198" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="F198" s="121"/>
-      <c r="G198" s="122"/>
+      <c r="F198" s="123"/>
+      <c r="G198" s="124"/>
       <c r="H198" s="26"/>
-      <c r="I198" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="J198" s="121"/>
-      <c r="K198" s="123"/>
+      <c r="I198" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="J198" s="123"/>
+      <c r="K198" s="125"/>
       <c r="L198" s="26"/>
       <c r="M198" s="26"/>
-      <c r="N198" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="O198" s="121"/>
-      <c r="P198" s="123"/>
+      <c r="N198" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="O198" s="123"/>
+      <c r="P198" s="125"/>
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E199" s="27"/>
@@ -10540,18 +10543,20 @@
       <c r="F205" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="G205" s="110"/>
+      <c r="G205" s="122"/>
       <c r="H205" s="90"/>
       <c r="I205" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="J205" s="110"/>
-      <c r="K205" s="110"/>
+      <c r="J205" s="122"/>
+      <c r="K205" s="122"/>
       <c r="L205" s="90"/>
       <c r="M205" s="90"/>
-      <c r="N205" s="110"/>
-      <c r="O205" s="110"/>
-      <c r="P205" s="110"/>
+      <c r="N205" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="O205" s="122"/>
+      <c r="P205" s="122"/>
     </row>
     <row r="206" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D206" s="93" t="s">
@@ -10561,18 +10566,20 @@
       <c r="F206" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="G206" s="124"/>
+      <c r="G206" s="126"/>
       <c r="H206" s="91"/>
       <c r="I206" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="J206" s="124"/>
-      <c r="K206" s="124"/>
+      <c r="J206" s="126"/>
+      <c r="K206" s="126"/>
       <c r="L206" s="91"/>
       <c r="M206" s="91"/>
-      <c r="N206" s="124"/>
-      <c r="O206" s="124"/>
-      <c r="P206" s="124"/>
+      <c r="N206" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="O206" s="126"/>
+      <c r="P206" s="126"/>
     </row>
     <row r="207" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D207" s="92" t="s">
@@ -10582,18 +10589,20 @@
       <c r="F207" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="G207" s="110"/>
+      <c r="G207" s="122"/>
       <c r="H207" s="90"/>
       <c r="I207" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="J207" s="110"/>
-      <c r="K207" s="110"/>
+      <c r="J207" s="122"/>
+      <c r="K207" s="122"/>
       <c r="L207" s="90"/>
       <c r="M207" s="90"/>
-      <c r="N207" s="110"/>
-      <c r="O207" s="110"/>
-      <c r="P207" s="110"/>
+      <c r="N207" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="O207" s="122"/>
+      <c r="P207" s="122"/>
     </row>
     <row r="208" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E208" s="23"/>
@@ -10603,7 +10612,7 @@
       <c r="B211" s="89"/>
       <c r="C211" s="89"/>
       <c r="D211" s="78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E211" s="89"/>
       <c r="F211" s="89"/>
@@ -10621,19 +10630,19 @@
       <c r="J212" s="42"/>
     </row>
     <row r="229" spans="7:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="G229" s="106" t="s">
+      <c r="G229" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="H229" s="106"/>
-      <c r="I229" s="106"/>
-      <c r="J229" s="106"/>
-      <c r="K229" s="106"/>
-      <c r="L229" s="106"/>
+      <c r="H229" s="121"/>
+      <c r="I229" s="121"/>
+      <c r="J229" s="121"/>
+      <c r="K229" s="121"/>
+      <c r="L229" s="121"/>
       <c r="M229" s="25"/>
     </row>
     <row r="259" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D259" s="78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E259" s="99"/>
       <c r="F259" s="99"/>
@@ -10643,7 +10652,7 @@
     </row>
     <row r="260" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D260" s="78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E260" s="99"/>
       <c r="F260" s="99"/>
@@ -10652,28 +10661,28 @@
       <c r="J260" s="98"/>
     </row>
     <row r="263" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="G263" s="106" t="s">
+      <c r="G263" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="H263" s="106"/>
-      <c r="I263" s="106"/>
-      <c r="J263" s="106"/>
-      <c r="K263" s="106"/>
-      <c r="L263" s="106"/>
+      <c r="H263" s="121"/>
+      <c r="I263" s="121"/>
+      <c r="J263" s="121"/>
+      <c r="K263" s="121"/>
+      <c r="L263" s="121"/>
       <c r="M263" s="25"/>
     </row>
     <row r="266" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B266" s="115" t="s">
+      <c r="B266" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C266" s="115"/>
-      <c r="D266" s="115"/>
+      <c r="C266" s="130"/>
+      <c r="D266" s="130"/>
       <c r="E266" s="26"/>
       <c r="F266" s="26"/>
-      <c r="G266" s="115" t="s">
+      <c r="G266" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="H266" s="115"/>
+      <c r="H266" s="130"/>
     </row>
     <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E267" s="37"/>
@@ -10712,23 +10721,23 @@
       <c r="E278" s="37"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B279" s="116" t="s">
+      <c r="B279" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="C279" s="116"/>
-      <c r="D279" s="116"/>
+      <c r="C279" s="131"/>
+      <c r="D279" s="131"/>
       <c r="E279" s="37"/>
-      <c r="G279" s="116" t="s">
+      <c r="G279" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="H279" s="116"/>
+      <c r="H279" s="131"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="116"/>
-      <c r="C280" s="116"/>
-      <c r="D280" s="116"/>
-      <c r="G280" s="116"/>
-      <c r="H280" s="116"/>
+      <c r="B280" s="131"/>
+      <c r="C280" s="131"/>
+      <c r="D280" s="131"/>
+      <c r="G280" s="131"/>
+      <c r="H280" s="131"/>
     </row>
     <row r="282" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B282" s="26"/>
@@ -10743,49 +10752,49 @@
       <c r="E283" s="26"/>
     </row>
     <row r="297" spans="7:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G297" s="102" t="s">
+      <c r="G297" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="H297" s="102"/>
-      <c r="I297" s="102"/>
-      <c r="J297" s="102"/>
-      <c r="K297" s="102"/>
-      <c r="L297" s="102"/>
+      <c r="H297" s="132"/>
+      <c r="I297" s="132"/>
+      <c r="J297" s="132"/>
+      <c r="K297" s="132"/>
+      <c r="L297" s="132"/>
     </row>
     <row r="327" spans="4:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="D327" s="113" t="str">
+      <c r="D327" s="128" t="str">
         <f>"Сеансов больше всего по "&amp;popularDayOfWeek</f>
         <v xml:space="preserve">Сеансов больше всего по </v>
       </c>
-      <c r="E327" s="113"/>
-      <c r="F327" s="113"/>
-      <c r="G327" s="113"/>
-      <c r="H327" s="113"/>
-      <c r="I327" s="113"/>
-      <c r="J327" s="113"/>
-      <c r="K327" s="113"/>
+      <c r="E327" s="128"/>
+      <c r="F327" s="128"/>
+      <c r="G327" s="128"/>
+      <c r="H327" s="128"/>
+      <c r="I327" s="128"/>
+      <c r="J327" s="128"/>
+      <c r="K327" s="128"/>
     </row>
     <row r="328" spans="4:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="D328" s="113" t="str">
+      <c r="D328" s="128" t="str">
         <f>"Коэф. конверсий выше по "&amp;moreConversionDayOfWeek</f>
         <v xml:space="preserve">Коэф. конверсий выше по </v>
       </c>
-      <c r="E328" s="113"/>
-      <c r="F328" s="113"/>
-      <c r="G328" s="113"/>
-      <c r="H328" s="113"/>
-      <c r="I328" s="113"/>
-      <c r="J328" s="113"/>
-      <c r="K328" s="113"/>
+      <c r="E328" s="128"/>
+      <c r="F328" s="128"/>
+      <c r="G328" s="128"/>
+      <c r="H328" s="128"/>
+      <c r="I328" s="128"/>
+      <c r="J328" s="128"/>
+      <c r="K328" s="128"/>
     </row>
     <row r="331" spans="4:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="G331" s="106" t="s">
+      <c r="G331" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="H331" s="106"/>
-      <c r="I331" s="106"/>
-      <c r="J331" s="106"/>
-      <c r="K331" s="106"/>
+      <c r="H331" s="121"/>
+      <c r="I331" s="121"/>
+      <c r="J331" s="121"/>
+      <c r="K331" s="121"/>
     </row>
     <row r="361" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D361" s="26" t="s">
@@ -10795,136 +10804,136 @@
       <c r="F361" s="26"/>
       <c r="G361" s="26"/>
       <c r="H361" s="26"/>
-      <c r="K361" s="114">
+      <c r="K361" s="129">
         <f>popularHours</f>
         <v>0</v>
       </c>
-      <c r="L361" s="114"/>
-      <c r="M361" s="114"/>
-      <c r="N361" s="114"/>
+      <c r="L361" s="129"/>
+      <c r="M361" s="129"/>
+      <c r="N361" s="129"/>
     </row>
     <row r="366" spans="4:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F366" s="102" t="s">
+      <c r="F366" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="G366" s="102"/>
-      <c r="H366" s="102"/>
-      <c r="I366" s="102"/>
-      <c r="J366" s="102"/>
-      <c r="K366" s="102"/>
-      <c r="L366" s="102"/>
+      <c r="G366" s="132"/>
+      <c r="H366" s="132"/>
+      <c r="I366" s="132"/>
+      <c r="J366" s="132"/>
+      <c r="K366" s="132"/>
+      <c r="L366" s="132"/>
       <c r="M366" s="43"/>
     </row>
     <row r="370" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="138" t="s">
+      <c r="B370" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C370" s="138"/>
-      <c r="D370" s="138"/>
-      <c r="E370" s="138"/>
-      <c r="F370" s="138"/>
-      <c r="G370" s="138"/>
-      <c r="H370" s="136">
+      <c r="C370" s="106"/>
+      <c r="D370" s="106"/>
+      <c r="E370" s="106"/>
+      <c r="F370" s="106"/>
+      <c r="G370" s="106"/>
+      <c r="H370" s="104">
         <f>keyWasClicked</f>
         <v>0</v>
       </c>
-      <c r="I370" s="136"/>
+      <c r="I370" s="104"/>
     </row>
     <row r="371" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="139" t="s">
+      <c r="B371" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C371" s="139"/>
-      <c r="D371" s="139"/>
-      <c r="E371" s="139"/>
-      <c r="F371" s="139"/>
-      <c r="G371" s="139"/>
-      <c r="H371" s="137">
+      <c r="C371" s="107"/>
+      <c r="D371" s="107"/>
+      <c r="E371" s="107"/>
+      <c r="F371" s="107"/>
+      <c r="G371" s="107"/>
+      <c r="H371" s="105">
         <f>keyReachGoal</f>
         <v>0</v>
       </c>
-      <c r="I371" s="137"/>
+      <c r="I371" s="105"/>
     </row>
     <row r="372" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="140" t="s">
+      <c r="B372" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C372" s="140"/>
-      <c r="D372" s="140"/>
-      <c r="E372" s="140"/>
-      <c r="F372" s="140"/>
-      <c r="G372" s="140"/>
-      <c r="H372" s="136">
+      <c r="C372" s="108"/>
+      <c r="D372" s="108"/>
+      <c r="E372" s="108"/>
+      <c r="F372" s="108"/>
+      <c r="G372" s="108"/>
+      <c r="H372" s="104">
         <f>keyHasConversationPer</f>
         <v>0</v>
       </c>
-      <c r="I372" s="136"/>
+      <c r="I372" s="104"/>
     </row>
     <row r="376" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K376" s="117" t="s">
+      <c r="K376" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="L376" s="117"/>
-      <c r="M376" s="117"/>
-      <c r="N376" s="117"/>
-      <c r="O376" s="133">
+      <c r="L376" s="133"/>
+      <c r="M376" s="133"/>
+      <c r="N376" s="133"/>
+      <c r="O376" s="101">
         <f>sendAll</f>
         <v>0</v>
       </c>
-      <c r="P376" s="133"/>
-      <c r="Q376" s="133"/>
+      <c r="P376" s="101"/>
+      <c r="Q376" s="101"/>
     </row>
     <row r="377" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K377" s="118" t="s">
+      <c r="K377" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="L377" s="118"/>
-      <c r="M377" s="118"/>
-      <c r="N377" s="118"/>
-      <c r="O377" s="134">
+      <c r="L377" s="134"/>
+      <c r="M377" s="134"/>
+      <c r="N377" s="134"/>
+      <c r="O377" s="102">
         <f>costConversation</f>
         <v>0</v>
       </c>
-      <c r="P377" s="134"/>
-      <c r="Q377" s="134"/>
+      <c r="P377" s="102"/>
+      <c r="Q377" s="102"/>
     </row>
     <row r="378" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K378" s="117" t="s">
+      <c r="K378" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="L378" s="117"/>
-      <c r="M378" s="117"/>
-      <c r="N378" s="117"/>
-      <c r="O378" s="135">
+      <c r="L378" s="133"/>
+      <c r="M378" s="133"/>
+      <c r="N378" s="133"/>
+      <c r="O378" s="103">
         <f>effecientConversation</f>
         <v>0</v>
       </c>
-      <c r="P378" s="135"/>
-      <c r="Q378" s="135"/>
+      <c r="P378" s="103"/>
+      <c r="Q378" s="103"/>
     </row>
     <row r="388" spans="3:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G388" s="102" t="s">
+      <c r="G388" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="H388" s="102"/>
-      <c r="I388" s="102"/>
-      <c r="J388" s="102"/>
-      <c r="K388" s="102"/>
-      <c r="L388" s="102"/>
+      <c r="H388" s="132"/>
+      <c r="I388" s="132"/>
+      <c r="J388" s="132"/>
+      <c r="K388" s="132"/>
+      <c r="L388" s="132"/>
       <c r="M388" s="43"/>
     </row>
     <row r="391" spans="3:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C391" s="109" t="s">
+      <c r="C391" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D391" s="109"/>
-      <c r="E391" s="109"/>
-      <c r="F391" s="109" t="s">
+      <c r="D391" s="139"/>
+      <c r="E391" s="139"/>
+      <c r="F391" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="G391" s="109"/>
-      <c r="H391" s="109"/>
-      <c r="I391" s="109"/>
+      <c r="G391" s="139"/>
+      <c r="H391" s="139"/>
+      <c r="I391" s="139"/>
       <c r="J391" s="52"/>
       <c r="K391" s="53" t="s">
         <v>89</v>
@@ -10936,275 +10945,325 @@
       <c r="N391" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="O391" s="109" t="s">
+      <c r="O391" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="P391" s="109"/>
+      <c r="P391" s="139"/>
     </row>
     <row r="392" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C392" s="107"/>
-      <c r="D392" s="107"/>
-      <c r="E392" s="107"/>
-      <c r="F392" s="107"/>
-      <c r="G392" s="107"/>
-      <c r="H392" s="107"/>
-      <c r="I392" s="107"/>
+      <c r="C392" s="138"/>
+      <c r="D392" s="138"/>
+      <c r="E392" s="138"/>
+      <c r="F392" s="138"/>
+      <c r="G392" s="138"/>
+      <c r="H392" s="138"/>
+      <c r="I392" s="138"/>
       <c r="J392" s="47"/>
       <c r="K392" s="48"/>
       <c r="L392" s="49"/>
       <c r="M392" s="49"/>
       <c r="N392" s="47"/>
-      <c r="O392" s="107"/>
-      <c r="P392" s="107"/>
+      <c r="O392" s="138"/>
+      <c r="P392" s="138"/>
     </row>
     <row r="393" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C393" s="108"/>
-      <c r="D393" s="108"/>
-      <c r="E393" s="108"/>
-      <c r="F393" s="108"/>
-      <c r="G393" s="108"/>
-      <c r="H393" s="108"/>
-      <c r="I393" s="108"/>
+      <c r="C393" s="127"/>
+      <c r="D393" s="127"/>
+      <c r="E393" s="127"/>
+      <c r="F393" s="127"/>
+      <c r="G393" s="127"/>
+      <c r="H393" s="127"/>
+      <c r="I393" s="127"/>
       <c r="J393" s="46"/>
       <c r="K393" s="50"/>
       <c r="L393" s="51"/>
       <c r="M393" s="51"/>
       <c r="N393" s="46"/>
-      <c r="O393" s="108"/>
-      <c r="P393" s="108"/>
+      <c r="O393" s="127"/>
+      <c r="P393" s="127"/>
     </row>
     <row r="394" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C394" s="107"/>
-      <c r="D394" s="107"/>
-      <c r="E394" s="107"/>
-      <c r="F394" s="107"/>
-      <c r="G394" s="107"/>
-      <c r="H394" s="107"/>
-      <c r="I394" s="107"/>
+      <c r="C394" s="138"/>
+      <c r="D394" s="138"/>
+      <c r="E394" s="138"/>
+      <c r="F394" s="138"/>
+      <c r="G394" s="138"/>
+      <c r="H394" s="138"/>
+      <c r="I394" s="138"/>
       <c r="J394" s="47"/>
       <c r="K394" s="48"/>
       <c r="L394" s="49"/>
       <c r="M394" s="49"/>
       <c r="N394" s="47"/>
-      <c r="O394" s="107"/>
-      <c r="P394" s="107"/>
+      <c r="O394" s="138"/>
+      <c r="P394" s="138"/>
     </row>
     <row r="395" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C395" s="108"/>
-      <c r="D395" s="108"/>
-      <c r="E395" s="108"/>
-      <c r="F395" s="108"/>
-      <c r="G395" s="108"/>
-      <c r="H395" s="108"/>
-      <c r="I395" s="108"/>
+      <c r="C395" s="127"/>
+      <c r="D395" s="127"/>
+      <c r="E395" s="127"/>
+      <c r="F395" s="127"/>
+      <c r="G395" s="127"/>
+      <c r="H395" s="127"/>
+      <c r="I395" s="127"/>
       <c r="J395" s="46"/>
       <c r="K395" s="50"/>
       <c r="L395" s="51"/>
       <c r="M395" s="51"/>
       <c r="N395" s="46"/>
-      <c r="O395" s="108"/>
-      <c r="P395" s="108"/>
+      <c r="O395" s="127"/>
+      <c r="P395" s="127"/>
     </row>
     <row r="396" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C396" s="107"/>
-      <c r="D396" s="107"/>
-      <c r="E396" s="107"/>
-      <c r="F396" s="107"/>
-      <c r="G396" s="107"/>
-      <c r="H396" s="107"/>
-      <c r="I396" s="107"/>
+      <c r="C396" s="138"/>
+      <c r="D396" s="138"/>
+      <c r="E396" s="138"/>
+      <c r="F396" s="138"/>
+      <c r="G396" s="138"/>
+      <c r="H396" s="138"/>
+      <c r="I396" s="138"/>
       <c r="J396" s="47"/>
       <c r="K396" s="48"/>
       <c r="L396" s="49"/>
       <c r="M396" s="49"/>
       <c r="N396" s="47"/>
-      <c r="O396" s="107"/>
-      <c r="P396" s="107"/>
+      <c r="O396" s="138"/>
+      <c r="P396" s="138"/>
     </row>
     <row r="397" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C397" s="104"/>
-      <c r="D397" s="104"/>
-      <c r="E397" s="104"/>
-      <c r="F397" s="104"/>
-      <c r="G397" s="104"/>
-      <c r="H397" s="104"/>
-      <c r="I397" s="104"/>
+      <c r="C397" s="135"/>
+      <c r="D397" s="135"/>
+      <c r="E397" s="135"/>
+      <c r="F397" s="135"/>
+      <c r="G397" s="135"/>
+      <c r="H397" s="135"/>
+      <c r="I397" s="135"/>
       <c r="J397" s="55"/>
       <c r="K397" s="56"/>
       <c r="L397" s="57"/>
       <c r="M397" s="57"/>
       <c r="N397" s="55"/>
-      <c r="O397" s="104"/>
-      <c r="P397" s="104"/>
+      <c r="O397" s="135"/>
+      <c r="P397" s="135"/>
     </row>
     <row r="398" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C398" s="103"/>
-      <c r="D398" s="103"/>
-      <c r="E398" s="103"/>
-      <c r="F398" s="103"/>
-      <c r="G398" s="103"/>
-      <c r="H398" s="103"/>
-      <c r="I398" s="103"/>
+      <c r="C398" s="140"/>
+      <c r="D398" s="140"/>
+      <c r="E398" s="140"/>
+      <c r="F398" s="140"/>
+      <c r="G398" s="140"/>
+      <c r="H398" s="140"/>
+      <c r="I398" s="140"/>
       <c r="J398" s="58"/>
       <c r="K398" s="59"/>
       <c r="L398" s="60"/>
       <c r="M398" s="60"/>
       <c r="N398" s="58"/>
-      <c r="O398" s="103"/>
-      <c r="P398" s="103"/>
+      <c r="O398" s="140"/>
+      <c r="P398" s="140"/>
     </row>
     <row r="399" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C399" s="104"/>
-      <c r="D399" s="104"/>
-      <c r="E399" s="104"/>
-      <c r="F399" s="104"/>
-      <c r="G399" s="104"/>
-      <c r="H399" s="104"/>
-      <c r="I399" s="104"/>
+      <c r="C399" s="135"/>
+      <c r="D399" s="135"/>
+      <c r="E399" s="135"/>
+      <c r="F399" s="135"/>
+      <c r="G399" s="135"/>
+      <c r="H399" s="135"/>
+      <c r="I399" s="135"/>
       <c r="J399" s="55"/>
       <c r="K399" s="56"/>
       <c r="L399" s="57"/>
       <c r="M399" s="57"/>
       <c r="N399" s="55"/>
-      <c r="O399" s="104"/>
-      <c r="P399" s="104"/>
+      <c r="O399" s="135"/>
+      <c r="P399" s="135"/>
     </row>
     <row r="400" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C400" s="103"/>
-      <c r="D400" s="103"/>
-      <c r="E400" s="103"/>
-      <c r="F400" s="103"/>
-      <c r="G400" s="103"/>
-      <c r="H400" s="103"/>
-      <c r="I400" s="103"/>
+      <c r="C400" s="140"/>
+      <c r="D400" s="140"/>
+      <c r="E400" s="140"/>
+      <c r="F400" s="140"/>
+      <c r="G400" s="140"/>
+      <c r="H400" s="140"/>
+      <c r="I400" s="140"/>
       <c r="J400" s="58"/>
       <c r="K400" s="59"/>
       <c r="L400" s="60"/>
       <c r="M400" s="60"/>
       <c r="N400" s="58"/>
-      <c r="O400" s="103"/>
-      <c r="P400" s="103"/>
+      <c r="O400" s="140"/>
+      <c r="P400" s="140"/>
     </row>
     <row r="401" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C401" s="104"/>
-      <c r="D401" s="104"/>
-      <c r="E401" s="104"/>
-      <c r="F401" s="104"/>
-      <c r="G401" s="104"/>
-      <c r="H401" s="104"/>
-      <c r="I401" s="104"/>
+      <c r="C401" s="135"/>
+      <c r="D401" s="135"/>
+      <c r="E401" s="135"/>
+      <c r="F401" s="135"/>
+      <c r="G401" s="135"/>
+      <c r="H401" s="135"/>
+      <c r="I401" s="135"/>
       <c r="J401" s="55"/>
       <c r="K401" s="56"/>
       <c r="L401" s="57"/>
       <c r="M401" s="57"/>
       <c r="N401" s="55"/>
-      <c r="O401" s="104"/>
-      <c r="P401" s="104"/>
+      <c r="O401" s="135"/>
+      <c r="P401" s="135"/>
     </row>
     <row r="402" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C402" s="101"/>
-      <c r="D402" s="101"/>
-      <c r="E402" s="101"/>
-      <c r="F402" s="101"/>
-      <c r="G402" s="101"/>
-      <c r="H402" s="101"/>
-      <c r="I402" s="101"/>
+      <c r="C402" s="136"/>
+      <c r="D402" s="136"/>
+      <c r="E402" s="136"/>
+      <c r="F402" s="136"/>
+      <c r="G402" s="136"/>
+      <c r="H402" s="136"/>
+      <c r="I402" s="136"/>
       <c r="J402" s="64"/>
       <c r="K402" s="65"/>
       <c r="L402" s="66"/>
       <c r="M402" s="66"/>
       <c r="N402" s="64"/>
-      <c r="O402" s="101"/>
-      <c r="P402" s="101"/>
+      <c r="O402" s="136"/>
+      <c r="P402" s="136"/>
     </row>
     <row r="403" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C403" s="105"/>
-      <c r="D403" s="105"/>
-      <c r="E403" s="105"/>
-      <c r="F403" s="105"/>
-      <c r="G403" s="105"/>
-      <c r="H403" s="105"/>
-      <c r="I403" s="105"/>
+      <c r="C403" s="137"/>
+      <c r="D403" s="137"/>
+      <c r="E403" s="137"/>
+      <c r="F403" s="137"/>
+      <c r="G403" s="137"/>
+      <c r="H403" s="137"/>
+      <c r="I403" s="137"/>
       <c r="J403" s="61"/>
       <c r="K403" s="62"/>
       <c r="L403" s="63"/>
       <c r="M403" s="63"/>
       <c r="N403" s="61"/>
-      <c r="O403" s="105"/>
-      <c r="P403" s="105"/>
+      <c r="O403" s="137"/>
+      <c r="P403" s="137"/>
     </row>
     <row r="404" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C404" s="101"/>
-      <c r="D404" s="101"/>
-      <c r="E404" s="101"/>
-      <c r="F404" s="101"/>
-      <c r="G404" s="101"/>
-      <c r="H404" s="101"/>
-      <c r="I404" s="101"/>
+      <c r="C404" s="136"/>
+      <c r="D404" s="136"/>
+      <c r="E404" s="136"/>
+      <c r="F404" s="136"/>
+      <c r="G404" s="136"/>
+      <c r="H404" s="136"/>
+      <c r="I404" s="136"/>
       <c r="J404" s="64"/>
       <c r="K404" s="65"/>
       <c r="L404" s="66"/>
       <c r="M404" s="66"/>
       <c r="N404" s="64"/>
-      <c r="O404" s="101"/>
-      <c r="P404" s="101"/>
+      <c r="O404" s="136"/>
+      <c r="P404" s="136"/>
     </row>
     <row r="405" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C405" s="105"/>
-      <c r="D405" s="105"/>
-      <c r="E405" s="105"/>
-      <c r="F405" s="105"/>
-      <c r="G405" s="105"/>
-      <c r="H405" s="105"/>
-      <c r="I405" s="105"/>
+      <c r="C405" s="137"/>
+      <c r="D405" s="137"/>
+      <c r="E405" s="137"/>
+      <c r="F405" s="137"/>
+      <c r="G405" s="137"/>
+      <c r="H405" s="137"/>
+      <c r="I405" s="137"/>
       <c r="J405" s="61"/>
       <c r="K405" s="62"/>
       <c r="L405" s="63"/>
       <c r="M405" s="63"/>
       <c r="N405" s="61"/>
-      <c r="O405" s="105"/>
-      <c r="P405" s="105"/>
+      <c r="O405" s="137"/>
+      <c r="P405" s="137"/>
     </row>
     <row r="406" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C406" s="101"/>
-      <c r="D406" s="101"/>
-      <c r="E406" s="101"/>
-      <c r="F406" s="101"/>
-      <c r="G406" s="101"/>
-      <c r="H406" s="101"/>
-      <c r="I406" s="101"/>
+      <c r="C406" s="136"/>
+      <c r="D406" s="136"/>
+      <c r="E406" s="136"/>
+      <c r="F406" s="136"/>
+      <c r="G406" s="136"/>
+      <c r="H406" s="136"/>
+      <c r="I406" s="136"/>
       <c r="J406" s="64"/>
       <c r="K406" s="65"/>
       <c r="L406" s="66"/>
       <c r="M406" s="66"/>
       <c r="N406" s="64"/>
-      <c r="O406" s="101"/>
-      <c r="P406" s="101"/>
+      <c r="O406" s="136"/>
+      <c r="P406" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="O376:Q376"/>
-    <mergeCell ref="O377:Q377"/>
-    <mergeCell ref="O378:Q378"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
-    <mergeCell ref="K124:N124"/>
-    <mergeCell ref="F105:P105"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="K113:N113"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="I128:N128"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="C406:E406"/>
+    <mergeCell ref="F406:I406"/>
+    <mergeCell ref="O406:P406"/>
+    <mergeCell ref="G388:L388"/>
+    <mergeCell ref="C400:E400"/>
+    <mergeCell ref="F400:I400"/>
+    <mergeCell ref="O400:P400"/>
+    <mergeCell ref="C401:E401"/>
+    <mergeCell ref="F401:I401"/>
+    <mergeCell ref="O401:P401"/>
+    <mergeCell ref="C402:E402"/>
+    <mergeCell ref="F402:I402"/>
+    <mergeCell ref="O402:P402"/>
+    <mergeCell ref="C398:E398"/>
+    <mergeCell ref="F398:I398"/>
+    <mergeCell ref="O398:P398"/>
+    <mergeCell ref="C399:E399"/>
+    <mergeCell ref="F399:I399"/>
+    <mergeCell ref="O399:P399"/>
+    <mergeCell ref="C403:E403"/>
+    <mergeCell ref="F403:I403"/>
+    <mergeCell ref="O403:P403"/>
+    <mergeCell ref="C404:E404"/>
+    <mergeCell ref="C397:E397"/>
+    <mergeCell ref="F397:I397"/>
+    <mergeCell ref="O397:P397"/>
+    <mergeCell ref="F404:I404"/>
+    <mergeCell ref="O404:P404"/>
+    <mergeCell ref="C405:E405"/>
+    <mergeCell ref="F405:I405"/>
+    <mergeCell ref="O405:P405"/>
+    <mergeCell ref="L191:O191"/>
+    <mergeCell ref="C394:E394"/>
+    <mergeCell ref="F394:I394"/>
+    <mergeCell ref="O394:P394"/>
+    <mergeCell ref="C395:E395"/>
+    <mergeCell ref="F395:I395"/>
+    <mergeCell ref="O395:P395"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="F396:I396"/>
+    <mergeCell ref="O396:P396"/>
+    <mergeCell ref="O391:P391"/>
+    <mergeCell ref="C391:E391"/>
+    <mergeCell ref="F391:I391"/>
+    <mergeCell ref="C392:E392"/>
+    <mergeCell ref="F392:I392"/>
+    <mergeCell ref="O392:P392"/>
+    <mergeCell ref="C393:E393"/>
+    <mergeCell ref="F393:I393"/>
+    <mergeCell ref="O393:P393"/>
+    <mergeCell ref="I205:K205"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="D327:K327"/>
+    <mergeCell ref="D328:K328"/>
+    <mergeCell ref="G331:K331"/>
+    <mergeCell ref="K361:N361"/>
+    <mergeCell ref="B266:D266"/>
+    <mergeCell ref="G266:H266"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="B279:D279"/>
+    <mergeCell ref="G279:H279"/>
+    <mergeCell ref="G297:L297"/>
+    <mergeCell ref="F366:L366"/>
+    <mergeCell ref="K376:N376"/>
+    <mergeCell ref="K377:N377"/>
+    <mergeCell ref="K378:N378"/>
     <mergeCell ref="F141:G141"/>
     <mergeCell ref="F142:G142"/>
     <mergeCell ref="H146:K146"/>
@@ -11229,78 +11288,28 @@
     <mergeCell ref="I207:K207"/>
     <mergeCell ref="N206:P206"/>
     <mergeCell ref="N207:P207"/>
-    <mergeCell ref="F393:I393"/>
-    <mergeCell ref="O393:P393"/>
-    <mergeCell ref="I205:K205"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="D327:K327"/>
-    <mergeCell ref="D328:K328"/>
-    <mergeCell ref="G331:K331"/>
-    <mergeCell ref="K361:N361"/>
-    <mergeCell ref="B266:D266"/>
-    <mergeCell ref="G266:H266"/>
-    <mergeCell ref="B280:D280"/>
-    <mergeCell ref="G280:H280"/>
-    <mergeCell ref="B279:D279"/>
-    <mergeCell ref="G279:H279"/>
-    <mergeCell ref="G297:L297"/>
-    <mergeCell ref="F366:L366"/>
-    <mergeCell ref="K376:N376"/>
-    <mergeCell ref="K377:N377"/>
-    <mergeCell ref="K378:N378"/>
-    <mergeCell ref="F397:I397"/>
-    <mergeCell ref="O397:P397"/>
-    <mergeCell ref="F404:I404"/>
-    <mergeCell ref="O404:P404"/>
-    <mergeCell ref="C405:E405"/>
-    <mergeCell ref="F405:I405"/>
-    <mergeCell ref="O405:P405"/>
-    <mergeCell ref="L191:O191"/>
-    <mergeCell ref="C394:E394"/>
-    <mergeCell ref="F394:I394"/>
-    <mergeCell ref="O394:P394"/>
-    <mergeCell ref="C395:E395"/>
-    <mergeCell ref="F395:I395"/>
-    <mergeCell ref="O395:P395"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="F396:I396"/>
-    <mergeCell ref="O396:P396"/>
-    <mergeCell ref="O391:P391"/>
-    <mergeCell ref="C391:E391"/>
-    <mergeCell ref="F391:I391"/>
-    <mergeCell ref="C392:E392"/>
-    <mergeCell ref="F392:I392"/>
-    <mergeCell ref="O392:P392"/>
-    <mergeCell ref="C393:E393"/>
-    <mergeCell ref="C406:E406"/>
-    <mergeCell ref="F406:I406"/>
-    <mergeCell ref="O406:P406"/>
-    <mergeCell ref="G388:L388"/>
-    <mergeCell ref="C400:E400"/>
-    <mergeCell ref="F400:I400"/>
-    <mergeCell ref="O400:P400"/>
-    <mergeCell ref="C401:E401"/>
-    <mergeCell ref="F401:I401"/>
-    <mergeCell ref="O401:P401"/>
-    <mergeCell ref="C402:E402"/>
-    <mergeCell ref="F402:I402"/>
-    <mergeCell ref="O402:P402"/>
-    <mergeCell ref="C398:E398"/>
-    <mergeCell ref="F398:I398"/>
-    <mergeCell ref="O398:P398"/>
-    <mergeCell ref="C399:E399"/>
-    <mergeCell ref="F399:I399"/>
-    <mergeCell ref="O399:P399"/>
-    <mergeCell ref="C403:E403"/>
-    <mergeCell ref="F403:I403"/>
-    <mergeCell ref="O403:P403"/>
-    <mergeCell ref="C404:E404"/>
-    <mergeCell ref="C397:E397"/>
+    <mergeCell ref="K124:N124"/>
+    <mergeCell ref="F105:P105"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="K116:N116"/>
+    <mergeCell ref="K113:N113"/>
+    <mergeCell ref="K120:N120"/>
+    <mergeCell ref="I128:N128"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="O376:Q376"/>
+    <mergeCell ref="O377:Q377"/>
+    <mergeCell ref="O378:Q378"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -11502,7 +11511,7 @@
         <v>141.0</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M2" t="n">
         <v>30.0</v>
@@ -11540,7 +11549,7 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M3" t="n">
         <v>182.0</v>
@@ -11578,7 +11587,7 @@
         <v>26.0</v>
       </c>
       <c r="L4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M4" t="n">
         <v>317.0</v>
@@ -11616,7 +11625,7 @@
         <v>18.0</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M5" t="n">
         <v>77.0</v>
@@ -11654,7 +11663,7 @@
         <v>143.0</v>
       </c>
       <c r="L6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M6" t="n">
         <v>352.0</v>
@@ -11703,7 +11712,7 @@
         <v>121</v>
       </c>
       <c r="H8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I8" t="n">
         <v>44.0</v>

--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\analytics\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="averCostOfAvert">report!$K$138</definedName>
     <definedName name="cost">report!$F$138</definedName>
-    <definedName name="costConversation">ChanelTrafic!$AG$2</definedName>
+    <definedName name="costConversation">ChanelTrafic!$AE$2</definedName>
     <definedName name="countAdvert">report!$H$138</definedName>
     <definedName name="countConversation">ChanelTrafic!$H$2:$H$8</definedName>
     <definedName name="countGetGoals">report!$K$120</definedName>
@@ -32,19 +27,19 @@
     <definedName name="detailConversation">report!$D$64</definedName>
     <definedName name="detailVisited">report!$D$63</definedName>
     <definedName name="effecientConversation">report!$K$124</definedName>
-    <definedName name="effectConversationPer">ChanelTrafic!$AH$2</definedName>
+    <definedName name="effectConversationPer">ChanelTrafic!$AF$2</definedName>
     <definedName name="femaleConversation">report!$B$280</definedName>
     <definedName name="femaleConversationPer">report!$B$280</definedName>
     <definedName name="goal">ChanelTrafic!$E$2:$E$2</definedName>
     <definedName name="goalQuality">ChanelTrafic!$F$2:$F$2</definedName>
-    <definedName name="hoursOfDay">ChanelTrafic!$W$2:$W$25</definedName>
-    <definedName name="hoursOfDayConversation">ChanelTrafic!$Y$2:$Y$25</definedName>
-    <definedName name="hoursOfDayVisited">ChanelTrafic!$X$2:$X$25</definedName>
+    <definedName name="hoursOfDay">ChanelTrafic!$U$2:$U$25</definedName>
+    <definedName name="hoursOfDayConversation">ChanelTrafic!$W$2:$W$25</definedName>
+    <definedName name="hoursOfDayVisited">ChanelTrafic!$V$2:$V$25</definedName>
     <definedName name="itemsQualPerTabAndMob">report!$D$211</definedName>
-    <definedName name="keyHasConversationPer">ChanelTrafic!$AD$2</definedName>
-    <definedName name="keyReachGoal">ChanelTrafic!$AC$2</definedName>
-    <definedName name="keyWasClicked">ChanelTrafic!$AA$2</definedName>
-    <definedName name="keyWasNotReachGoal">ChanelTrafic!$AB$2</definedName>
+    <definedName name="keyHasConversationPer">ChanelTrafic!$AB$2</definedName>
+    <definedName name="keyReachGoal">ChanelTrafic!$AA$2</definedName>
+    <definedName name="keyWasClicked">ChanelTrafic!$Y$2</definedName>
+    <definedName name="keyWasNotReachGoal">ChanelTrafic!$Z$2</definedName>
     <definedName name="maleConversationPer">report!$G$280</definedName>
     <definedName name="maleOrFemale">ChanelTrafic!$O$2:$O$3</definedName>
     <definedName name="maleOrFemaleConverstionPer">ChanelTrafic!$Q$2:$Q$3</definedName>
@@ -53,13 +48,13 @@
     <definedName name="mobilConversationPer">report!$N$207</definedName>
     <definedName name="mobilVisited">report!$N$205</definedName>
     <definedName name="moreConversation">report!$D$32</definedName>
-    <definedName name="moreConversionDayOfWeek">ChanelTrafic!$V$2</definedName>
+    <definedName name="moreConversionDayOfWeek">report!$D$328</definedName>
     <definedName name="moreVisited">report!$D$31</definedName>
     <definedName name="pcConversation">report!$F$206</definedName>
     <definedName name="pcConversationPer">report!$F$207</definedName>
     <definedName name="pcVisited">report!$F$205</definedName>
-    <definedName name="popularDayOfWeek">ChanelTrafic!$U$2</definedName>
-    <definedName name="popularHours">ChanelTrafic!$Z$2</definedName>
+    <definedName name="popularDayOfWeek">report!$D$327</definedName>
+    <definedName name="popularHours">ChanelTrafic!$X$2</definedName>
     <definedName name="quality">ChanelTrafic!$A$2:$A$7</definedName>
     <definedName name="qualityClick">report!$K$113</definedName>
     <definedName name="qualityDetail">ChanelTrafic!$C$2:$C$7</definedName>
@@ -87,8 +82,8 @@
     <definedName name="userVisited">ChanelTrafic!$M$2:$M$6</definedName>
     <definedName name="visited">ChanelTrafic!#REF!</definedName>
     <definedName name="visitedDiv10">ChanelTrafic!$I$2:$I$8</definedName>
-    <definedName name="wasSpend">ChanelTrafic!$AE$2</definedName>
-    <definedName name="wasSpendNotReachGoal">ChanelTrafic!$AF$2</definedName>
+    <definedName name="wasSpend">ChanelTrafic!$AC$2</definedName>
+    <definedName name="wasSpendNotReachGoal">ChanelTrafic!$AD$2</definedName>
     <definedName name="whichConversationMore">report!$B$283</definedName>
     <definedName name="whoMoreOnSite">report!$B$282</definedName>
     <definedName name="yaFindAvrCostClick">report!$F$145</definedName>
@@ -108,9 +103,9 @@
     <definedName name="yaNetGetGoal">report!$L$146</definedName>
     <definedName name="yaNetShow">report!$L$142</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -118,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="180">
   <si>
     <t>quality</t>
   </si>
@@ -616,17 +611,59 @@
   </si>
   <si>
     <t>Нет конверсии</t>
+  </si>
+  <si>
+    <t>мужской</t>
+  </si>
+  <si>
+    <t>женский</t>
+  </si>
+  <si>
+    <t>На сайте больше женщин</t>
+  </si>
+  <si>
+    <t>Коэф. конверсии выше у женщин</t>
+  </si>
+  <si>
+    <t>�</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Коэф. конверсий выше в Пятница</t>
+  </si>
+  <si>
+    <t>Сеансов больше в Среда</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -927,11 +964,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -956,7 +993,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1086,7 +1123,7 @@
     <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1104,7 +1141,7 @@
     <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1135,7 +1172,7 @@
     <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1149,10 +1186,103 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1172,102 +1302,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1304,7 +1338,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1358,23 +1392,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1422,7 +1439,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
               </c:ext>
@@ -1463,7 +1480,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
               </c:ext>
@@ -1504,7 +1521,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
               </c:ext>
@@ -1545,7 +1562,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-63C9-44E4-A4B2-57FCDFD4273E}"/>
               </c:ext>
@@ -1586,7 +1603,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-63C9-44E4-A4B2-57FCDFD4273E}"/>
               </c:ext>
@@ -1627,7 +1644,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-63C9-44E4-A4B2-57FCDFD4273E}"/>
               </c:ext>
@@ -1680,7 +1697,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1702,7 +1719,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
             </c:ext>
@@ -1798,7 +1815,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1840,7 +1857,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1855,7 +1872,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-502B-4C03-A6BF-71561E7105D5}"/>
             </c:ext>
@@ -1883,7 +1900,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1898,7 +1915,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-502B-4C03-A6BF-71561E7105D5}"/>
             </c:ext>
@@ -1926,7 +1943,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1941,7 +1958,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-502B-4C03-A6BF-71561E7105D5}"/>
             </c:ext>
@@ -1956,11 +1973,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133063040"/>
-        <c:axId val="133064576"/>
+        <c:axId val="127053184"/>
+        <c:axId val="127059072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133063040"/>
+        <c:axId val="127053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +1986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133064576"/>
+        <c:crossAx val="127059072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1977,7 +1994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133064576"/>
+        <c:axId val="127059072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133063040"/>
+        <c:crossAx val="127053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2047,7 +2064,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2089,7 +2106,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2112,7 +2129,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F08-4288-8CAF-44F2095103FB}"/>
             </c:ext>
@@ -2140,7 +2157,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2163,7 +2180,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F08-4288-8CAF-44F2095103FB}"/>
             </c:ext>
@@ -2191,7 +2208,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2214,7 +2231,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7F08-4288-8CAF-44F2095103FB}"/>
             </c:ext>
@@ -2229,11 +2246,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133096960"/>
-        <c:axId val="133098496"/>
+        <c:axId val="127095552"/>
+        <c:axId val="127097088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133096960"/>
+        <c:axId val="127095552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133098496"/>
+        <c:crossAx val="127097088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2251,7 +2268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133098496"/>
+        <c:axId val="127097088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133096960"/>
+        <c:crossAx val="127095552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,7 +2317,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2347,26 +2364,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2416,7 +2413,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FE8-4CC8-A3E6-CD574745982A}"/>
             </c:ext>
@@ -2431,11 +2428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="96605696"/>
-        <c:axId val="96607232"/>
+        <c:axId val="98371072"/>
+        <c:axId val="98372608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96605696"/>
+        <c:axId val="98371072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2475,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96607232"/>
+        <c:crossAx val="98372608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96607232"/>
+        <c:axId val="98372608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2529,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96605696"/>
+        <c:crossAx val="98371072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2577,7 +2574,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2646,7 +2643,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5B18-40B8-9E6F-B2250215750F}"/>
               </c:ext>
@@ -2666,7 +2663,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5B18-40B8-9E6F-B2250215750F}"/>
               </c:ext>
@@ -2723,7 +2720,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2745,7 +2742,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5B18-40B8-9E6F-B2250215750F}"/>
             </c:ext>
@@ -2834,7 +2831,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2886,26 +2883,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2948,7 +2925,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DCE-4170-A8BA-4BE124766687}"/>
             </c:ext>
@@ -3007,7 +2984,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3060,7 +3037,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6DCE-4170-A8BA-4BE124766687}"/>
             </c:ext>
@@ -3076,11 +3053,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96660096"/>
-        <c:axId val="96661888"/>
+        <c:axId val="99708928"/>
+        <c:axId val="99710464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96660096"/>
+        <c:axId val="99708928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3100,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96661888"/>
+        <c:crossAx val="99710464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3131,7 +3108,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96661888"/>
+        <c:axId val="99710464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,7 +3159,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96660096"/>
+        <c:crossAx val="99708928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3258,7 +3235,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3295,7 +3272,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3317,7 +3294,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9533-424E-9DFF-B9454BE51E98}"/>
             </c:ext>
@@ -3369,7 +3346,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3421,7 +3398,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3445,7 +3422,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C8B-4851-BE55-E5C0FF949603}"/>
             </c:ext>
@@ -3483,7 +3460,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3507,7 +3484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1C8B-4851-BE55-E5C0FF949603}"/>
             </c:ext>
@@ -3522,11 +3499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132593536"/>
-        <c:axId val="132595072"/>
+        <c:axId val="120778752"/>
+        <c:axId val="120780288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132593536"/>
+        <c:axId val="120778752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,7 +3513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132595072"/>
+        <c:crossAx val="120780288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3544,7 +3521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132595072"/>
+        <c:axId val="120780288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132593536"/>
+        <c:crossAx val="120778752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3577,7 +3554,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3597,9 +3574,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0">
-                <a:latin typeface="+mj-lt"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU" b="0">
@@ -3610,7 +3585,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3624,7 +3599,7 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="6"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-1576-4393-8E4F-7B3A075ADDFE}"/>
               </c:ext>
@@ -3639,13 +3614,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3660,14 +3635,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ChanelTrafic!$P$2:$P$3</c:f>
+              <c:f>[0]!maleOrFemaleVisited</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1576-4393-8E4F-7B3A075ADDFE}"/>
             </c:ext>
@@ -3675,10 +3650,10 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3703,7 +3678,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3746,7 +3721,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EA3-48D1-8E98-DC97D53A6E0F}"/>
             </c:ext>
@@ -3776,7 +3751,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EA3-48D1-8E98-DC97D53A6E0F}"/>
             </c:ext>
@@ -3790,11 +3765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133451776"/>
-        <c:axId val="133453312"/>
+        <c:axId val="126711680"/>
+        <c:axId val="126713216"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="133451776"/>
+        <c:axId val="126711680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,7 +3779,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133453312"/>
+        <c:crossAx val="126713216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3812,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133453312"/>
+        <c:axId val="126713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,13 +3798,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133451776"/>
+        <c:crossAx val="126711680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3862,7 +3838,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3896,7 +3872,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5324-4B7B-AB47-40E0FE10B1A4}"/>
             </c:ext>
@@ -3917,7 +3893,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5324-4B7B-AB47-40E0FE10B1A4}"/>
             </c:ext>
@@ -3931,11 +3907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133475712"/>
-        <c:axId val="133481600"/>
+        <c:axId val="126729216"/>
+        <c:axId val="127009536"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="133475712"/>
+        <c:axId val="126729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,7 +3920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133481600"/>
+        <c:crossAx val="127009536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3952,7 +3928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133481600"/>
+        <c:axId val="127009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,13 +3939,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133475712"/>
+        <c:crossAx val="126729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7353,6 +7330,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AFF118AE-0192-452D-9AB7-AD9749DBEBF5}" type="pres">
       <dgm:prSet presAssocID="{D0B5C048-8C24-4F76-8C9D-7762D594F997}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7362,6 +7346,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{79388EF3-A8BE-4117-ACBA-8A08FF47472A}" type="pres">
       <dgm:prSet presAssocID="{A43066EC-58A2-4A7D-AF6B-37D46EA26464}" presName="Name8" presStyleCnt="0"/>
@@ -7375,6 +7366,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{673D1501-484B-4334-879E-3653F69F415A}" type="pres">
       <dgm:prSet presAssocID="{A43066EC-58A2-4A7D-AF6B-37D46EA26464}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7384,6 +7382,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{47D67E14-1695-4B93-9EB1-4CC623CC53C2}" type="pres">
       <dgm:prSet presAssocID="{93154AA3-294E-4A72-A452-A70CA494AC1C}" presName="Name8" presStyleCnt="0"/>
@@ -7397,6 +7402,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E32FEE9D-FC56-4633-B235-BB4BC8FB2096}" type="pres">
       <dgm:prSet presAssocID="{93154AA3-294E-4A72-A452-A70CA494AC1C}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7406,6 +7418,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8AAD1D77-9DFF-4406-995B-9E373EE560D6}" type="pres">
       <dgm:prSet presAssocID="{6F6CEB40-F018-40B7-B43C-BB0F608C1737}" presName="Name8" presStyleCnt="0"/>
@@ -7419,6 +7438,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{166B6DC3-E48C-470D-B319-D777F3D4DA8C}" type="pres">
       <dgm:prSet presAssocID="{6F6CEB40-F018-40B7-B43C-BB0F608C1737}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7428,6 +7454,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7A3E38AC-ABE0-44B1-ABFE-C71AA69B5E79}" type="pres">
       <dgm:prSet presAssocID="{DFB816DE-9FE1-4A03-BBE3-E92EDD0106A3}" presName="Name8" presStyleCnt="0"/>
@@ -7441,6 +7474,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{53E7FBCA-B0EF-4CD3-9E52-80F3A839A7EA}" type="pres">
       <dgm:prSet presAssocID="{DFB816DE-9FE1-4A03-BBE3-E92EDD0106A3}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7450,6 +7490,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{40A0CFF3-5D9A-46B0-B3E9-C705D72172EE}" type="pres">
       <dgm:prSet presAssocID="{9672259E-8D62-4911-A026-2E23FD52D48A}" presName="Name8" presStyleCnt="0"/>
@@ -7463,6 +7510,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{22C6AEA5-B4B3-41C7-AE03-AA0A4D4EB3BF}" type="pres">
       <dgm:prSet presAssocID="{9672259E-8D62-4911-A026-2E23FD52D48A}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7472,6 +7526,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
@@ -7539,7 +7600,7 @@
       <dsp:spPr>
         <a:xfrm rot="10800000">
           <a:off x="0" y="217155"/>
-          <a:ext cx="4721039" cy="836627"/>
+          <a:ext cx="4721038" cy="836627"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
@@ -7589,7 +7650,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7599,7 +7660,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -7677,7 +7737,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7687,7 +7747,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -7765,7 +7824,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7775,7 +7834,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -7853,7 +7911,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7863,7 +7921,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -7941,7 +7998,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7951,7 +8008,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -8026,7 +8082,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
+          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8036,7 +8092,6 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
-            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="2000" kern="1200">
@@ -9606,7 +9661,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>280</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
@@ -10090,8 +10145,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U406"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A196" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A308" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10142,52 +10197,52 @@
     </row>
     <row r="104" spans="6:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="6:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F105" s="110" t="s">
+      <c r="F105" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="110"/>
-      <c r="H105" s="110"/>
-      <c r="I105" s="110"/>
-      <c r="J105" s="110"/>
-      <c r="K105" s="110"/>
-      <c r="L105" s="110"/>
-      <c r="M105" s="110"/>
-      <c r="N105" s="110"/>
-      <c r="O105" s="110"/>
-      <c r="P105" s="110"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="125"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
+      <c r="K105" s="125"/>
+      <c r="L105" s="125"/>
+      <c r="M105" s="125"/>
+      <c r="N105" s="125"/>
+      <c r="O105" s="125"/>
+      <c r="P105" s="125"/>
     </row>
     <row r="106" spans="6:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="6:16" ht="21" x14ac:dyDescent="0.35">
       <c r="K110" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
+      <c r="L110" s="126"/>
+      <c r="M110" s="126"/>
+      <c r="N110" s="126"/>
     </row>
     <row r="113" spans="9:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K113" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="L113" s="111"/>
-      <c r="M113" s="111"/>
-      <c r="N113" s="111"/>
+      <c r="L113" s="126"/>
+      <c r="M113" s="126"/>
+      <c r="N113" s="126"/>
     </row>
     <row r="116" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="K116" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="L116" s="112"/>
-      <c r="M116" s="112"/>
-      <c r="N116" s="112"/>
+      <c r="L116" s="127"/>
+      <c r="M116" s="127"/>
+      <c r="N116" s="127"/>
     </row>
     <row r="120" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="K120" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="L120" s="111"/>
-      <c r="M120" s="111"/>
-      <c r="N120" s="111"/>
+      <c r="L120" s="126"/>
+      <c r="M120" s="126"/>
+      <c r="N120" s="126"/>
     </row>
     <row r="124" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
@@ -10195,20 +10250,20 @@
       <c r="K124" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="L124" s="109"/>
-      <c r="M124" s="109"/>
-      <c r="N124" s="109"/>
+      <c r="L124" s="124"/>
+      <c r="M124" s="124"/>
+      <c r="N124" s="124"/>
     </row>
     <row r="127" spans="9:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="9:14" ht="21" x14ac:dyDescent="0.35">
       <c r="I128" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="J128" s="113"/>
-      <c r="K128" s="113"/>
-      <c r="L128" s="113"/>
-      <c r="M128" s="113"/>
-      <c r="N128" s="113"/>
+      <c r="J128" s="128"/>
+      <c r="K128" s="128"/>
+      <c r="L128" s="128"/>
+      <c r="M128" s="128"/>
+      <c r="N128" s="128"/>
     </row>
     <row r="129" spans="6:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K129" s="16"/>
@@ -10217,35 +10272,35 @@
     </row>
     <row r="134" spans="6:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="6:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F137" s="114" t="s">
+      <c r="F137" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="114"/>
-      <c r="H137" s="116" t="s">
+      <c r="G137" s="129"/>
+      <c r="H137" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="I137" s="116"/>
-      <c r="J137" s="116"/>
-      <c r="K137" s="114" t="s">
+      <c r="I137" s="130"/>
+      <c r="J137" s="130"/>
+      <c r="K137" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="L137" s="114"/>
+      <c r="L137" s="129"/>
       <c r="M137" s="86"/>
     </row>
     <row r="138" spans="6:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F138" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="G138" s="115"/>
+      <c r="G138" s="119"/>
       <c r="H138" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="I138" s="117"/>
-      <c r="J138" s="117"/>
+      <c r="I138" s="131"/>
+      <c r="J138" s="131"/>
       <c r="K138" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="L138" s="115"/>
+      <c r="L138" s="119"/>
       <c r="M138" s="87"/>
     </row>
     <row r="139" spans="6:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10272,13 +10327,13 @@
       <c r="F141" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G141" s="118"/>
-      <c r="H141" s="115" t="s">
+      <c r="G141" s="112"/>
+      <c r="H141" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="I141" s="115"/>
-      <c r="J141" s="115"/>
-      <c r="K141" s="115"/>
+      <c r="I141" s="119"/>
+      <c r="J141" s="119"/>
+      <c r="K141" s="119"/>
       <c r="L141" s="72" t="s">
         <v>129</v>
       </c>
@@ -10288,13 +10343,13 @@
       <c r="F142" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="G142" s="119"/>
-      <c r="H142" s="120" t="s">
+      <c r="G142" s="111"/>
+      <c r="H142" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="I142" s="120"/>
-      <c r="J142" s="120"/>
-      <c r="K142" s="120"/>
+      <c r="I142" s="118"/>
+      <c r="J142" s="118"/>
+      <c r="K142" s="118"/>
       <c r="L142" s="84" t="s">
         <v>131</v>
       </c>
@@ -10304,13 +10359,13 @@
       <c r="F143" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="G143" s="118"/>
-      <c r="H143" s="115" t="s">
+      <c r="G143" s="112"/>
+      <c r="H143" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="I143" s="115"/>
-      <c r="J143" s="115"/>
-      <c r="K143" s="115"/>
+      <c r="I143" s="119"/>
+      <c r="J143" s="119"/>
+      <c r="K143" s="119"/>
       <c r="L143" s="72" t="s">
         <v>133</v>
       </c>
@@ -10320,13 +10375,13 @@
       <c r="F144" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="G144" s="119"/>
-      <c r="H144" s="120" t="s">
+      <c r="G144" s="111"/>
+      <c r="H144" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="I144" s="120"/>
-      <c r="J144" s="120"/>
-      <c r="K144" s="120"/>
+      <c r="I144" s="118"/>
+      <c r="J144" s="118"/>
+      <c r="K144" s="118"/>
       <c r="L144" s="84" t="s">
         <v>135</v>
       </c>
@@ -10336,27 +10391,27 @@
       <c r="F145" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="G145" s="118"/>
-      <c r="H145" s="115" t="s">
+      <c r="G145" s="112"/>
+      <c r="H145" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="I145" s="115"/>
-      <c r="J145" s="115"/>
-      <c r="K145" s="115"/>
+      <c r="I145" s="119"/>
+      <c r="J145" s="119"/>
+      <c r="K145" s="119"/>
       <c r="L145" s="72" t="s">
         <v>137</v>
       </c>
       <c r="M145" s="88"/>
     </row>
     <row r="146" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F146" s="119"/>
-      <c r="G146" s="119"/>
-      <c r="H146" s="120" t="s">
+      <c r="F146" s="111"/>
+      <c r="G146" s="111"/>
+      <c r="H146" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="I146" s="120"/>
-      <c r="J146" s="120"/>
-      <c r="K146" s="120"/>
+      <c r="I146" s="118"/>
+      <c r="J146" s="118"/>
+      <c r="K146" s="118"/>
       <c r="L146" s="68"/>
       <c r="M146" s="88"/>
     </row>
@@ -10364,13 +10419,13 @@
       <c r="F147" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G147" s="118"/>
-      <c r="H147" s="115" t="s">
+      <c r="G147" s="112"/>
+      <c r="H147" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="I147" s="115"/>
-      <c r="J147" s="115"/>
-      <c r="K147" s="115"/>
+      <c r="I147" s="119"/>
+      <c r="J147" s="119"/>
+      <c r="K147" s="119"/>
       <c r="L147" s="72" t="s">
         <v>138</v>
       </c>
@@ -10380,13 +10435,13 @@
       <c r="F148" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="G148" s="119"/>
-      <c r="H148" s="120" t="s">
+      <c r="G148" s="111"/>
+      <c r="H148" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="120"/>
-      <c r="J148" s="120"/>
-      <c r="K148" s="120"/>
+      <c r="I148" s="118"/>
+      <c r="J148" s="118"/>
+      <c r="K148" s="118"/>
       <c r="L148" s="84" t="s">
         <v>139</v>
       </c>
@@ -10450,24 +10505,24 @@
       <c r="U195" s="24"/>
     </row>
     <row r="198" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E198" s="123" t="s">
+      <c r="E198" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="F198" s="123"/>
-      <c r="G198" s="124"/>
+      <c r="F198" s="120"/>
+      <c r="G198" s="121"/>
       <c r="H198" s="26"/>
-      <c r="I198" s="123" t="s">
-        <v>40</v>
-      </c>
-      <c r="J198" s="123"/>
-      <c r="K198" s="125"/>
+      <c r="I198" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="J198" s="120"/>
+      <c r="K198" s="122"/>
       <c r="L198" s="26"/>
       <c r="M198" s="26"/>
-      <c r="N198" s="123" t="s">
-        <v>38</v>
-      </c>
-      <c r="O198" s="123"/>
-      <c r="P198" s="125"/>
+      <c r="N198" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="O198" s="120"/>
+      <c r="P198" s="122"/>
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E199" s="27"/>
@@ -10543,20 +10598,20 @@
       <c r="F205" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="G205" s="122"/>
+      <c r="G205" s="110"/>
       <c r="H205" s="90"/>
       <c r="I205" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="J205" s="122"/>
-      <c r="K205" s="122"/>
+      <c r="J205" s="110"/>
+      <c r="K205" s="110"/>
       <c r="L205" s="90"/>
       <c r="M205" s="90"/>
       <c r="N205" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="O205" s="122"/>
-      <c r="P205" s="122"/>
+      <c r="O205" s="110"/>
+      <c r="P205" s="110"/>
     </row>
     <row r="206" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D206" s="93" t="s">
@@ -10566,20 +10621,20 @@
       <c r="F206" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="G206" s="126"/>
+      <c r="G206" s="123"/>
       <c r="H206" s="91"/>
       <c r="I206" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="J206" s="126"/>
-      <c r="K206" s="126"/>
+      <c r="J206" s="123"/>
+      <c r="K206" s="123"/>
       <c r="L206" s="91"/>
       <c r="M206" s="91"/>
       <c r="N206" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="O206" s="126"/>
-      <c r="P206" s="126"/>
+      <c r="O206" s="123"/>
+      <c r="P206" s="123"/>
     </row>
     <row r="207" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D207" s="92" t="s">
@@ -10589,20 +10644,20 @@
       <c r="F207" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="G207" s="122"/>
+      <c r="G207" s="110"/>
       <c r="H207" s="90"/>
       <c r="I207" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="J207" s="122"/>
-      <c r="K207" s="122"/>
+      <c r="J207" s="110"/>
+      <c r="K207" s="110"/>
       <c r="L207" s="90"/>
       <c r="M207" s="90"/>
       <c r="N207" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="O207" s="122"/>
-      <c r="P207" s="122"/>
+      <c r="O207" s="110"/>
+      <c r="P207" s="110"/>
     </row>
     <row r="208" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E208" s="23"/>
@@ -10630,14 +10685,14 @@
       <c r="J212" s="42"/>
     </row>
     <row r="229" spans="7:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="G229" s="121" t="s">
+      <c r="G229" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="H229" s="121"/>
-      <c r="I229" s="121"/>
-      <c r="J229" s="121"/>
-      <c r="K229" s="121"/>
-      <c r="L229" s="121"/>
+      <c r="H229" s="106"/>
+      <c r="I229" s="106"/>
+      <c r="J229" s="106"/>
+      <c r="K229" s="106"/>
+      <c r="L229" s="106"/>
       <c r="M229" s="25"/>
     </row>
     <row r="259" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10661,28 +10716,28 @@
       <c r="J260" s="98"/>
     </row>
     <row r="263" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="G263" s="121" t="s">
+      <c r="G263" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="H263" s="121"/>
-      <c r="I263" s="121"/>
-      <c r="J263" s="121"/>
-      <c r="K263" s="121"/>
-      <c r="L263" s="121"/>
+      <c r="H263" s="106"/>
+      <c r="I263" s="106"/>
+      <c r="J263" s="106"/>
+      <c r="K263" s="106"/>
+      <c r="L263" s="106"/>
       <c r="M263" s="25"/>
     </row>
     <row r="266" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B266" s="130" t="s">
+      <c r="B266" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C266" s="130"/>
-      <c r="D266" s="130"/>
+      <c r="C266" s="114"/>
+      <c r="D266" s="114"/>
       <c r="E266" s="26"/>
       <c r="F266" s="26"/>
-      <c r="G266" s="130" t="s">
+      <c r="G266" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="H266" s="130"/>
+      <c r="H266" s="114"/>
     </row>
     <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E267" s="37"/>
@@ -10721,80 +10776,72 @@
       <c r="E278" s="37"/>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B279" s="131" t="s">
+      <c r="B279" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="C279" s="131"/>
-      <c r="D279" s="131"/>
+      <c r="C279" s="115"/>
+      <c r="D279" s="115"/>
       <c r="E279" s="37"/>
-      <c r="G279" s="131" t="s">
+      <c r="G279" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="H279" s="131"/>
+      <c r="H279" s="115"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="131"/>
-      <c r="C280" s="131"/>
-      <c r="D280" s="131"/>
-      <c r="G280" s="131"/>
-      <c r="H280" s="131"/>
+      <c r="B280" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C280" s="115"/>
+      <c r="D280" s="115"/>
+      <c r="G280" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H280" s="115"/>
     </row>
     <row r="282" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B282" s="26"/>
+      <c r="B282" s="78" t="s">
+        <v>168</v>
+      </c>
       <c r="C282" s="26"/>
       <c r="D282" s="26"/>
       <c r="G282" s="26"/>
     </row>
     <row r="283" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B283" s="26"/>
+      <c r="B283" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="C283" s="26"/>
       <c r="D283" s="26"/>
       <c r="E283" s="26"/>
     </row>
     <row r="297" spans="7:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G297" s="132" t="s">
+      <c r="G297" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="H297" s="132"/>
-      <c r="I297" s="132"/>
-      <c r="J297" s="132"/>
-      <c r="K297" s="132"/>
-      <c r="L297" s="132"/>
-    </row>
-    <row r="327" spans="4:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="D327" s="128" t="str">
-        <f>"Сеансов больше всего по "&amp;popularDayOfWeek</f>
-        <v xml:space="preserve">Сеансов больше всего по </v>
-      </c>
-      <c r="E327" s="128"/>
-      <c r="F327" s="128"/>
-      <c r="G327" s="128"/>
-      <c r="H327" s="128"/>
-      <c r="I327" s="128"/>
-      <c r="J327" s="128"/>
-      <c r="K327" s="128"/>
-    </row>
-    <row r="328" spans="4:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="D328" s="128" t="str">
-        <f>"Коэф. конверсий выше по "&amp;moreConversionDayOfWeek</f>
-        <v xml:space="preserve">Коэф. конверсий выше по </v>
-      </c>
-      <c r="E328" s="128"/>
-      <c r="F328" s="128"/>
-      <c r="G328" s="128"/>
-      <c r="H328" s="128"/>
-      <c r="I328" s="128"/>
-      <c r="J328" s="128"/>
-      <c r="K328" s="128"/>
-    </row>
-    <row r="331" spans="4:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="G331" s="121" t="s">
+      <c r="H297" s="102"/>
+      <c r="I297" s="102"/>
+      <c r="J297" s="102"/>
+      <c r="K297" s="102"/>
+      <c r="L297" s="102"/>
+    </row>
+    <row r="327">
+      <c r="D327" t="s" s="78">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="D328" t="s" s="78">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="331" spans="4:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="G331" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="H331" s="121"/>
-      <c r="I331" s="121"/>
-      <c r="J331" s="121"/>
-      <c r="K331" s="121"/>
+      <c r="H331" s="106"/>
+      <c r="I331" s="106"/>
+      <c r="J331" s="106"/>
+      <c r="K331" s="106"/>
     </row>
     <row r="361" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D361" s="26" t="s">
@@ -10804,136 +10851,136 @@
       <c r="F361" s="26"/>
       <c r="G361" s="26"/>
       <c r="H361" s="26"/>
-      <c r="K361" s="129">
+      <c r="K361" s="113">
         <f>popularHours</f>
         <v>0</v>
       </c>
-      <c r="L361" s="129"/>
-      <c r="M361" s="129"/>
-      <c r="N361" s="129"/>
+      <c r="L361" s="113"/>
+      <c r="M361" s="113"/>
+      <c r="N361" s="113"/>
     </row>
     <row r="366" spans="4:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F366" s="132" t="s">
+      <c r="F366" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G366" s="132"/>
-      <c r="H366" s="132"/>
-      <c r="I366" s="132"/>
-      <c r="J366" s="132"/>
-      <c r="K366" s="132"/>
-      <c r="L366" s="132"/>
+      <c r="G366" s="102"/>
+      <c r="H366" s="102"/>
+      <c r="I366" s="102"/>
+      <c r="J366" s="102"/>
+      <c r="K366" s="102"/>
+      <c r="L366" s="102"/>
       <c r="M366" s="43"/>
     </row>
     <row r="370" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="106" t="s">
+      <c r="B370" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C370" s="106"/>
-      <c r="D370" s="106"/>
-      <c r="E370" s="106"/>
-      <c r="F370" s="106"/>
-      <c r="G370" s="106"/>
-      <c r="H370" s="104">
+      <c r="C370" s="137"/>
+      <c r="D370" s="137"/>
+      <c r="E370" s="137"/>
+      <c r="F370" s="137"/>
+      <c r="G370" s="137"/>
+      <c r="H370" s="135">
         <f>keyWasClicked</f>
         <v>0</v>
       </c>
-      <c r="I370" s="104"/>
+      <c r="I370" s="135"/>
     </row>
     <row r="371" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="107" t="s">
+      <c r="B371" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="C371" s="107"/>
-      <c r="D371" s="107"/>
-      <c r="E371" s="107"/>
-      <c r="F371" s="107"/>
-      <c r="G371" s="107"/>
-      <c r="H371" s="105">
+      <c r="C371" s="138"/>
+      <c r="D371" s="138"/>
+      <c r="E371" s="138"/>
+      <c r="F371" s="138"/>
+      <c r="G371" s="138"/>
+      <c r="H371" s="136">
         <f>keyReachGoal</f>
         <v>0</v>
       </c>
-      <c r="I371" s="105"/>
+      <c r="I371" s="136"/>
     </row>
     <row r="372" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="108" t="s">
+      <c r="B372" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="C372" s="108"/>
-      <c r="D372" s="108"/>
-      <c r="E372" s="108"/>
-      <c r="F372" s="108"/>
-      <c r="G372" s="108"/>
-      <c r="H372" s="104">
+      <c r="C372" s="139"/>
+      <c r="D372" s="139"/>
+      <c r="E372" s="139"/>
+      <c r="F372" s="139"/>
+      <c r="G372" s="139"/>
+      <c r="H372" s="135">
         <f>keyHasConversationPer</f>
         <v>0</v>
       </c>
-      <c r="I372" s="104"/>
+      <c r="I372" s="135"/>
     </row>
     <row r="376" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K376" s="133" t="s">
+      <c r="K376" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="L376" s="133"/>
-      <c r="M376" s="133"/>
-      <c r="N376" s="133"/>
-      <c r="O376" s="101">
+      <c r="L376" s="116"/>
+      <c r="M376" s="116"/>
+      <c r="N376" s="116"/>
+      <c r="O376" s="132">
         <f>sendAll</f>
         <v>0</v>
       </c>
-      <c r="P376" s="101"/>
-      <c r="Q376" s="101"/>
+      <c r="P376" s="132"/>
+      <c r="Q376" s="132"/>
     </row>
     <row r="377" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K377" s="134" t="s">
+      <c r="K377" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="L377" s="134"/>
-      <c r="M377" s="134"/>
-      <c r="N377" s="134"/>
-      <c r="O377" s="102">
+      <c r="L377" s="117"/>
+      <c r="M377" s="117"/>
+      <c r="N377" s="117"/>
+      <c r="O377" s="133">
         <f>costConversation</f>
         <v>0</v>
       </c>
-      <c r="P377" s="102"/>
-      <c r="Q377" s="102"/>
+      <c r="P377" s="133"/>
+      <c r="Q377" s="133"/>
     </row>
     <row r="378" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K378" s="133" t="s">
+      <c r="K378" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="L378" s="133"/>
-      <c r="M378" s="133"/>
-      <c r="N378" s="133"/>
-      <c r="O378" s="103">
+      <c r="L378" s="116"/>
+      <c r="M378" s="116"/>
+      <c r="N378" s="116"/>
+      <c r="O378" s="134">
         <f>effecientConversation</f>
         <v>0</v>
       </c>
-      <c r="P378" s="103"/>
-      <c r="Q378" s="103"/>
+      <c r="P378" s="134"/>
+      <c r="Q378" s="134"/>
     </row>
     <row r="388" spans="3:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G388" s="132" t="s">
+      <c r="G388" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="H388" s="132"/>
-      <c r="I388" s="132"/>
-      <c r="J388" s="132"/>
-      <c r="K388" s="132"/>
-      <c r="L388" s="132"/>
+      <c r="H388" s="102"/>
+      <c r="I388" s="102"/>
+      <c r="J388" s="102"/>
+      <c r="K388" s="102"/>
+      <c r="L388" s="102"/>
       <c r="M388" s="43"/>
     </row>
     <row r="391" spans="3:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C391" s="139" t="s">
+      <c r="C391" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="D391" s="139"/>
-      <c r="E391" s="139"/>
-      <c r="F391" s="139" t="s">
+      <c r="D391" s="109"/>
+      <c r="E391" s="109"/>
+      <c r="F391" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="G391" s="139"/>
-      <c r="H391" s="139"/>
-      <c r="I391" s="139"/>
+      <c r="G391" s="109"/>
+      <c r="H391" s="109"/>
+      <c r="I391" s="109"/>
       <c r="J391" s="52"/>
       <c r="K391" s="53" t="s">
         <v>89</v>
@@ -10945,253 +10992,345 @@
       <c r="N391" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="O391" s="139" t="s">
+      <c r="O391" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="P391" s="139"/>
+      <c r="P391" s="109"/>
     </row>
     <row r="392" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C392" s="138"/>
-      <c r="D392" s="138"/>
-      <c r="E392" s="138"/>
-      <c r="F392" s="138"/>
-      <c r="G392" s="138"/>
-      <c r="H392" s="138"/>
-      <c r="I392" s="138"/>
+      <c r="C392" s="107"/>
+      <c r="D392" s="107"/>
+      <c r="E392" s="107"/>
+      <c r="F392" s="107"/>
+      <c r="G392" s="107"/>
+      <c r="H392" s="107"/>
+      <c r="I392" s="107"/>
       <c r="J392" s="47"/>
       <c r="K392" s="48"/>
       <c r="L392" s="49"/>
       <c r="M392" s="49"/>
       <c r="N392" s="47"/>
-      <c r="O392" s="138"/>
-      <c r="P392" s="138"/>
+      <c r="O392" s="107"/>
+      <c r="P392" s="107"/>
     </row>
     <row r="393" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C393" s="127"/>
-      <c r="D393" s="127"/>
-      <c r="E393" s="127"/>
-      <c r="F393" s="127"/>
-      <c r="G393" s="127"/>
-      <c r="H393" s="127"/>
-      <c r="I393" s="127"/>
+      <c r="C393" s="108"/>
+      <c r="D393" s="108"/>
+      <c r="E393" s="108"/>
+      <c r="F393" s="108"/>
+      <c r="G393" s="108"/>
+      <c r="H393" s="108"/>
+      <c r="I393" s="108"/>
       <c r="J393" s="46"/>
       <c r="K393" s="50"/>
       <c r="L393" s="51"/>
       <c r="M393" s="51"/>
       <c r="N393" s="46"/>
-      <c r="O393" s="127"/>
-      <c r="P393" s="127"/>
+      <c r="O393" s="108"/>
+      <c r="P393" s="108"/>
     </row>
     <row r="394" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C394" s="138"/>
-      <c r="D394" s="138"/>
-      <c r="E394" s="138"/>
-      <c r="F394" s="138"/>
-      <c r="G394" s="138"/>
-      <c r="H394" s="138"/>
-      <c r="I394" s="138"/>
+      <c r="C394" s="107"/>
+      <c r="D394" s="107"/>
+      <c r="E394" s="107"/>
+      <c r="F394" s="107"/>
+      <c r="G394" s="107"/>
+      <c r="H394" s="107"/>
+      <c r="I394" s="107"/>
       <c r="J394" s="47"/>
       <c r="K394" s="48"/>
       <c r="L394" s="49"/>
       <c r="M394" s="49"/>
       <c r="N394" s="47"/>
-      <c r="O394" s="138"/>
-      <c r="P394" s="138"/>
+      <c r="O394" s="107"/>
+      <c r="P394" s="107"/>
     </row>
     <row r="395" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C395" s="127"/>
-      <c r="D395" s="127"/>
-      <c r="E395" s="127"/>
-      <c r="F395" s="127"/>
-      <c r="G395" s="127"/>
-      <c r="H395" s="127"/>
-      <c r="I395" s="127"/>
+      <c r="C395" s="108"/>
+      <c r="D395" s="108"/>
+      <c r="E395" s="108"/>
+      <c r="F395" s="108"/>
+      <c r="G395" s="108"/>
+      <c r="H395" s="108"/>
+      <c r="I395" s="108"/>
       <c r="J395" s="46"/>
       <c r="K395" s="50"/>
       <c r="L395" s="51"/>
       <c r="M395" s="51"/>
       <c r="N395" s="46"/>
-      <c r="O395" s="127"/>
-      <c r="P395" s="127"/>
+      <c r="O395" s="108"/>
+      <c r="P395" s="108"/>
     </row>
     <row r="396" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C396" s="138"/>
-      <c r="D396" s="138"/>
-      <c r="E396" s="138"/>
-      <c r="F396" s="138"/>
-      <c r="G396" s="138"/>
-      <c r="H396" s="138"/>
-      <c r="I396" s="138"/>
+      <c r="C396" s="107"/>
+      <c r="D396" s="107"/>
+      <c r="E396" s="107"/>
+      <c r="F396" s="107"/>
+      <c r="G396" s="107"/>
+      <c r="H396" s="107"/>
+      <c r="I396" s="107"/>
       <c r="J396" s="47"/>
       <c r="K396" s="48"/>
       <c r="L396" s="49"/>
       <c r="M396" s="49"/>
       <c r="N396" s="47"/>
-      <c r="O396" s="138"/>
-      <c r="P396" s="138"/>
+      <c r="O396" s="107"/>
+      <c r="P396" s="107"/>
     </row>
     <row r="397" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C397" s="135"/>
-      <c r="D397" s="135"/>
-      <c r="E397" s="135"/>
-      <c r="F397" s="135"/>
-      <c r="G397" s="135"/>
-      <c r="H397" s="135"/>
-      <c r="I397" s="135"/>
+      <c r="C397" s="104"/>
+      <c r="D397" s="104"/>
+      <c r="E397" s="104"/>
+      <c r="F397" s="104"/>
+      <c r="G397" s="104"/>
+      <c r="H397" s="104"/>
+      <c r="I397" s="104"/>
       <c r="J397" s="55"/>
       <c r="K397" s="56"/>
       <c r="L397" s="57"/>
       <c r="M397" s="57"/>
       <c r="N397" s="55"/>
-      <c r="O397" s="135"/>
-      <c r="P397" s="135"/>
+      <c r="O397" s="104"/>
+      <c r="P397" s="104"/>
     </row>
     <row r="398" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C398" s="140"/>
-      <c r="D398" s="140"/>
-      <c r="E398" s="140"/>
-      <c r="F398" s="140"/>
-      <c r="G398" s="140"/>
-      <c r="H398" s="140"/>
-      <c r="I398" s="140"/>
+      <c r="C398" s="103"/>
+      <c r="D398" s="103"/>
+      <c r="E398" s="103"/>
+      <c r="F398" s="103"/>
+      <c r="G398" s="103"/>
+      <c r="H398" s="103"/>
+      <c r="I398" s="103"/>
       <c r="J398" s="58"/>
       <c r="K398" s="59"/>
       <c r="L398" s="60"/>
       <c r="M398" s="60"/>
       <c r="N398" s="58"/>
-      <c r="O398" s="140"/>
-      <c r="P398" s="140"/>
+      <c r="O398" s="103"/>
+      <c r="P398" s="103"/>
     </row>
     <row r="399" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C399" s="135"/>
-      <c r="D399" s="135"/>
-      <c r="E399" s="135"/>
-      <c r="F399" s="135"/>
-      <c r="G399" s="135"/>
-      <c r="H399" s="135"/>
-      <c r="I399" s="135"/>
+      <c r="C399" s="104"/>
+      <c r="D399" s="104"/>
+      <c r="E399" s="104"/>
+      <c r="F399" s="104"/>
+      <c r="G399" s="104"/>
+      <c r="H399" s="104"/>
+      <c r="I399" s="104"/>
       <c r="J399" s="55"/>
       <c r="K399" s="56"/>
       <c r="L399" s="57"/>
       <c r="M399" s="57"/>
       <c r="N399" s="55"/>
-      <c r="O399" s="135"/>
-      <c r="P399" s="135"/>
+      <c r="O399" s="104"/>
+      <c r="P399" s="104"/>
     </row>
     <row r="400" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C400" s="140"/>
-      <c r="D400" s="140"/>
-      <c r="E400" s="140"/>
-      <c r="F400" s="140"/>
-      <c r="G400" s="140"/>
-      <c r="H400" s="140"/>
-      <c r="I400" s="140"/>
+      <c r="C400" s="103"/>
+      <c r="D400" s="103"/>
+      <c r="E400" s="103"/>
+      <c r="F400" s="103"/>
+      <c r="G400" s="103"/>
+      <c r="H400" s="103"/>
+      <c r="I400" s="103"/>
       <c r="J400" s="58"/>
       <c r="K400" s="59"/>
       <c r="L400" s="60"/>
       <c r="M400" s="60"/>
       <c r="N400" s="58"/>
-      <c r="O400" s="140"/>
-      <c r="P400" s="140"/>
+      <c r="O400" s="103"/>
+      <c r="P400" s="103"/>
     </row>
     <row r="401" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C401" s="135"/>
-      <c r="D401" s="135"/>
-      <c r="E401" s="135"/>
-      <c r="F401" s="135"/>
-      <c r="G401" s="135"/>
-      <c r="H401" s="135"/>
-      <c r="I401" s="135"/>
+      <c r="C401" s="104"/>
+      <c r="D401" s="104"/>
+      <c r="E401" s="104"/>
+      <c r="F401" s="104"/>
+      <c r="G401" s="104"/>
+      <c r="H401" s="104"/>
+      <c r="I401" s="104"/>
       <c r="J401" s="55"/>
       <c r="K401" s="56"/>
       <c r="L401" s="57"/>
       <c r="M401" s="57"/>
       <c r="N401" s="55"/>
-      <c r="O401" s="135"/>
-      <c r="P401" s="135"/>
+      <c r="O401" s="104"/>
+      <c r="P401" s="104"/>
     </row>
     <row r="402" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C402" s="136"/>
-      <c r="D402" s="136"/>
-      <c r="E402" s="136"/>
-      <c r="F402" s="136"/>
-      <c r="G402" s="136"/>
-      <c r="H402" s="136"/>
-      <c r="I402" s="136"/>
+      <c r="C402" s="101"/>
+      <c r="D402" s="101"/>
+      <c r="E402" s="101"/>
+      <c r="F402" s="101"/>
+      <c r="G402" s="101"/>
+      <c r="H402" s="101"/>
+      <c r="I402" s="101"/>
       <c r="J402" s="64"/>
       <c r="K402" s="65"/>
       <c r="L402" s="66"/>
       <c r="M402" s="66"/>
       <c r="N402" s="64"/>
-      <c r="O402" s="136"/>
-      <c r="P402" s="136"/>
+      <c r="O402" s="101"/>
+      <c r="P402" s="101"/>
     </row>
     <row r="403" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C403" s="137"/>
-      <c r="D403" s="137"/>
-      <c r="E403" s="137"/>
-      <c r="F403" s="137"/>
-      <c r="G403" s="137"/>
-      <c r="H403" s="137"/>
-      <c r="I403" s="137"/>
+      <c r="C403" s="105"/>
+      <c r="D403" s="105"/>
+      <c r="E403" s="105"/>
+      <c r="F403" s="105"/>
+      <c r="G403" s="105"/>
+      <c r="H403" s="105"/>
+      <c r="I403" s="105"/>
       <c r="J403" s="61"/>
       <c r="K403" s="62"/>
       <c r="L403" s="63"/>
       <c r="M403" s="63"/>
       <c r="N403" s="61"/>
-      <c r="O403" s="137"/>
-      <c r="P403" s="137"/>
+      <c r="O403" s="105"/>
+      <c r="P403" s="105"/>
     </row>
     <row r="404" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C404" s="136"/>
-      <c r="D404" s="136"/>
-      <c r="E404" s="136"/>
-      <c r="F404" s="136"/>
-      <c r="G404" s="136"/>
-      <c r="H404" s="136"/>
-      <c r="I404" s="136"/>
+      <c r="C404" s="101"/>
+      <c r="D404" s="101"/>
+      <c r="E404" s="101"/>
+      <c r="F404" s="101"/>
+      <c r="G404" s="101"/>
+      <c r="H404" s="101"/>
+      <c r="I404" s="101"/>
       <c r="J404" s="64"/>
       <c r="K404" s="65"/>
       <c r="L404" s="66"/>
       <c r="M404" s="66"/>
       <c r="N404" s="64"/>
-      <c r="O404" s="136"/>
-      <c r="P404" s="136"/>
+      <c r="O404" s="101"/>
+      <c r="P404" s="101"/>
     </row>
     <row r="405" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C405" s="137"/>
-      <c r="D405" s="137"/>
-      <c r="E405" s="137"/>
-      <c r="F405" s="137"/>
-      <c r="G405" s="137"/>
-      <c r="H405" s="137"/>
-      <c r="I405" s="137"/>
+      <c r="C405" s="105"/>
+      <c r="D405" s="105"/>
+      <c r="E405" s="105"/>
+      <c r="F405" s="105"/>
+      <c r="G405" s="105"/>
+      <c r="H405" s="105"/>
+      <c r="I405" s="105"/>
       <c r="J405" s="61"/>
       <c r="K405" s="62"/>
       <c r="L405" s="63"/>
       <c r="M405" s="63"/>
       <c r="N405" s="61"/>
-      <c r="O405" s="137"/>
-      <c r="P405" s="137"/>
+      <c r="O405" s="105"/>
+      <c r="P405" s="105"/>
     </row>
     <row r="406" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C406" s="136"/>
-      <c r="D406" s="136"/>
-      <c r="E406" s="136"/>
-      <c r="F406" s="136"/>
-      <c r="G406" s="136"/>
-      <c r="H406" s="136"/>
-      <c r="I406" s="136"/>
+      <c r="C406" s="101"/>
+      <c r="D406" s="101"/>
+      <c r="E406" s="101"/>
+      <c r="F406" s="101"/>
+      <c r="G406" s="101"/>
+      <c r="H406" s="101"/>
+      <c r="I406" s="101"/>
       <c r="J406" s="64"/>
       <c r="K406" s="65"/>
       <c r="L406" s="66"/>
       <c r="M406" s="66"/>
       <c r="N406" s="64"/>
-      <c r="O406" s="136"/>
-      <c r="P406" s="136"/>
+      <c r="O406" s="101"/>
+      <c r="P406" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="116">
+    <mergeCell ref="K124:N124"/>
+    <mergeCell ref="F105:P105"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="K116:N116"/>
+    <mergeCell ref="K113:N113"/>
+    <mergeCell ref="K120:N120"/>
+    <mergeCell ref="I128:N128"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="G263:L263"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="N205:P205"/>
+    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L192:O192"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="N198:P198"/>
+    <mergeCell ref="I198:K198"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="I206:K206"/>
+    <mergeCell ref="I207:K207"/>
+    <mergeCell ref="N206:P206"/>
+    <mergeCell ref="N207:P207"/>
+    <mergeCell ref="B266:D266"/>
+    <mergeCell ref="G266:H266"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="B279:D279"/>
+    <mergeCell ref="G279:H279"/>
+    <mergeCell ref="G297:L297"/>
+    <mergeCell ref="F366:L366"/>
+    <mergeCell ref="K376:N376"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
+    <mergeCell ref="F393:I393"/>
+    <mergeCell ref="O393:P393"/>
+    <mergeCell ref="I205:K205"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="G331:K331"/>
+    <mergeCell ref="K361:N361"/>
+    <mergeCell ref="K377:N377"/>
+    <mergeCell ref="K378:N378"/>
+    <mergeCell ref="O376:Q376"/>
+    <mergeCell ref="O377:Q377"/>
+    <mergeCell ref="O378:Q378"/>
+    <mergeCell ref="F397:I397"/>
+    <mergeCell ref="O397:P397"/>
+    <mergeCell ref="F404:I404"/>
+    <mergeCell ref="O404:P404"/>
+    <mergeCell ref="C405:E405"/>
+    <mergeCell ref="F405:I405"/>
+    <mergeCell ref="O405:P405"/>
+    <mergeCell ref="L191:O191"/>
+    <mergeCell ref="C394:E394"/>
+    <mergeCell ref="F394:I394"/>
+    <mergeCell ref="O394:P394"/>
+    <mergeCell ref="C395:E395"/>
+    <mergeCell ref="F395:I395"/>
+    <mergeCell ref="O395:P395"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="F396:I396"/>
+    <mergeCell ref="O396:P396"/>
+    <mergeCell ref="O391:P391"/>
+    <mergeCell ref="C391:E391"/>
+    <mergeCell ref="F391:I391"/>
+    <mergeCell ref="C392:E392"/>
+    <mergeCell ref="F392:I392"/>
+    <mergeCell ref="O392:P392"/>
+    <mergeCell ref="C393:E393"/>
     <mergeCell ref="C406:E406"/>
     <mergeCell ref="F406:I406"/>
     <mergeCell ref="O406:P406"/>
@@ -11216,100 +11355,6 @@
     <mergeCell ref="O403:P403"/>
     <mergeCell ref="C404:E404"/>
     <mergeCell ref="C397:E397"/>
-    <mergeCell ref="F397:I397"/>
-    <mergeCell ref="O397:P397"/>
-    <mergeCell ref="F404:I404"/>
-    <mergeCell ref="O404:P404"/>
-    <mergeCell ref="C405:E405"/>
-    <mergeCell ref="F405:I405"/>
-    <mergeCell ref="O405:P405"/>
-    <mergeCell ref="L191:O191"/>
-    <mergeCell ref="C394:E394"/>
-    <mergeCell ref="F394:I394"/>
-    <mergeCell ref="O394:P394"/>
-    <mergeCell ref="C395:E395"/>
-    <mergeCell ref="F395:I395"/>
-    <mergeCell ref="O395:P395"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="F396:I396"/>
-    <mergeCell ref="O396:P396"/>
-    <mergeCell ref="O391:P391"/>
-    <mergeCell ref="C391:E391"/>
-    <mergeCell ref="F391:I391"/>
-    <mergeCell ref="C392:E392"/>
-    <mergeCell ref="F392:I392"/>
-    <mergeCell ref="O392:P392"/>
-    <mergeCell ref="C393:E393"/>
-    <mergeCell ref="F393:I393"/>
-    <mergeCell ref="O393:P393"/>
-    <mergeCell ref="I205:K205"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="D327:K327"/>
-    <mergeCell ref="D328:K328"/>
-    <mergeCell ref="G331:K331"/>
-    <mergeCell ref="K361:N361"/>
-    <mergeCell ref="B266:D266"/>
-    <mergeCell ref="G266:H266"/>
-    <mergeCell ref="B280:D280"/>
-    <mergeCell ref="G280:H280"/>
-    <mergeCell ref="B279:D279"/>
-    <mergeCell ref="G279:H279"/>
-    <mergeCell ref="G297:L297"/>
-    <mergeCell ref="F366:L366"/>
-    <mergeCell ref="K376:N376"/>
-    <mergeCell ref="K377:N377"/>
-    <mergeCell ref="K378:N378"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="G263:L263"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="N205:P205"/>
-    <mergeCell ref="G229:L229"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="E198:G198"/>
-    <mergeCell ref="N198:P198"/>
-    <mergeCell ref="I198:K198"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="I207:K207"/>
-    <mergeCell ref="N206:P206"/>
-    <mergeCell ref="N207:P207"/>
-    <mergeCell ref="K124:N124"/>
-    <mergeCell ref="F105:P105"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="K113:N113"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="I128:N128"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="O376:Q376"/>
-    <mergeCell ref="O377:Q377"/>
-    <mergeCell ref="O378:Q378"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -11320,10 +11365,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11334,7 +11379,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="43.5703125" collapsed="false"/>
     <col min="5" max="5" customWidth="true" style="12" width="18.7109375" collapsed="false"/>
     <col min="6" max="6" style="12" width="9.140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="14" width="10.140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="13" width="10.140625" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="13" width="16.7109375" collapsed="false"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="11.85546875" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="32" width="19.5703125" collapsed="false"/>
@@ -11348,25 +11393,23 @@
     <col min="18" max="18" bestFit="true" customWidth="true" style="30" width="9.28515625" collapsed="false"/>
     <col min="19" max="19" bestFit="true" customWidth="true" style="30" width="15.7109375" collapsed="false"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="30" width="21.42578125" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="44" width="18.7109375" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="44" width="26.85546875" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="34" width="11.42578125" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="34" width="18.0" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="34" width="23.5703125" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="44" width="23.5703125" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="40" width="14.5703125" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="40" width="20.85546875" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="40" width="13.7109375" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="40" width="22.42578125" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="41" width="10.0" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="41" width="23.0" collapsed="false"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="41" width="16.42578125" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="41" width="21.42578125" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" style="9" width="14.140625" collapsed="false"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="9" width="17.7109375" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="34" width="11.42578125" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="34" width="18.0" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="34" width="23.5703125" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="44" width="23.5703125" collapsed="false"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="40" width="14.5703125" collapsed="false"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="40" width="20.85546875" collapsed="false"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="40" width="13.7109375" collapsed="false"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="40" width="22.42578125" collapsed="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="41" width="10.0" collapsed="false"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="41" width="23.0" collapsed="false"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="41" width="16.42578125" collapsed="false"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="41" width="21.42578125" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" style="9" width="14.140625" collapsed="false"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="9" width="17.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -11385,7 +11428,7 @@
       <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -11427,56 +11470,50 @@
       <c r="T1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>64</v>
+      <c r="U1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="X1" s="44" t="s">
         <v>68</v>
       </c>
+      <c r="Y1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="AA1" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="39" t="s">
         <v>78</v>
       </c>
+      <c r="AC1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="41" t="s">
+        <v>82</v>
+      </c>
       <c r="AE1" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AF1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG1" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
         <v>65.0</v>
       </c>
@@ -11519,8 +11556,26 @@
       <c r="N2" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
         <v>8.0</v>
       </c>
@@ -11557,8 +11612,26 @@
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S3" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
         <v>1.0</v>
       </c>
@@ -11595,8 +11668,17 @@
       <c r="N4" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
         <v>9.0</v>
       </c>
@@ -11633,8 +11715,17 @@
       <c r="N5" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>174</v>
+      </c>
+      <c r="S5" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
         <v>890.0</v>
       </c>
@@ -11671,8 +11762,17 @@
       <c r="N6" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="n">
         <v>76.0</v>
       </c>
@@ -11700,8 +11800,17 @@
       <c r="K7" t="n">
         <v>154.0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
@@ -11723,7 +11832,26 @@
       <c r="K8" t="n">
         <v>8.0</v>
       </c>
-    </row>
+      <c r="R8" t="s">
+        <v>177</v>
+      </c>
+      <c r="S8" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
   <si>
     <t>quality</t>
   </si>
@@ -619,13 +619,10 @@
     <t>женский</t>
   </si>
   <si>
-    <t>На сайте больше женщин</t>
+    <t>На сайте больше мужчин</t>
   </si>
   <si>
     <t>Коэф. конверсии выше у женщин</t>
-  </si>
-  <si>
-    <t>�</t>
   </si>
   <si>
     <t>Пятница</t>
@@ -10794,7 +10791,7 @@
       <c r="C280" s="115"/>
       <c r="D280" s="115"/>
       <c r="G280" s="78" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H280" s="115"/>
     </row>
@@ -10826,12 +10823,12 @@
     </row>
     <row r="327">
       <c r="D327" t="s" s="78">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="328">
       <c r="D328" t="s" s="78">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="331" spans="4:12" ht="21" x14ac:dyDescent="0.35">
@@ -11566,7 +11563,7 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S2" t="n">
         <v>178.0</v>
@@ -11622,7 +11619,7 @@
         <v>0.0</v>
       </c>
       <c r="R3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S3" t="n">
         <v>142.0</v>
@@ -11669,7 +11666,7 @@
         <v>0.0</v>
       </c>
       <c r="R4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S4" t="n">
         <v>170.0</v>
@@ -11716,7 +11713,7 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S5" t="n">
         <v>217.0</v>
@@ -11763,7 +11760,7 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S6" t="n">
         <v>97.0</v>
@@ -11801,7 +11798,7 @@
         <v>154.0</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="n">
         <v>114.0</v>
@@ -11833,7 +11830,7 @@
         <v>8.0</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S8" t="n">
         <v>132.0</v>

--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="547"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,22 @@
     <sheet name="Лист2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="averCostOfAvert">report!$K$138</definedName>
+    <definedName name="ad">report!$F$392</definedName>
+    <definedName name="averCostOfAvert">report!$L$138:$M$138</definedName>
+    <definedName name="clicks">report!$I$392</definedName>
+    <definedName name="company">report!$B$392</definedName>
+    <definedName name="conversation">report!$L$392</definedName>
+    <definedName name="conversationRate">report!$N$392</definedName>
     <definedName name="cost">report!$F$138</definedName>
-    <definedName name="costConversation">ChanelTrafic!$AE$2</definedName>
+    <definedName name="costConversation">report!$P$377</definedName>
+    <definedName name="costOneConversation">report!$S$392</definedName>
+    <definedName name="costs">report!$P$392</definedName>
+    <definedName name="costWithoutConversation">ChanelTrafic!$Y$2</definedName>
     <definedName name="countAdvert">report!$H$138</definedName>
     <definedName name="countConversation">ChanelTrafic!$H$2:$H$8</definedName>
     <definedName name="countGetGoals">report!$K$120</definedName>
     <definedName name="CpaCost">report!$I$128</definedName>
+    <definedName name="ctr">report!$R$392</definedName>
     <definedName name="dayVisited">ChanelTrafic!$G$2:$G$8</definedName>
     <definedName name="dayWeek">ChanelTrafic!$R$2:$R$8</definedName>
     <definedName name="dayWeekConversation">ChanelTrafic!$T$2:$T$8</definedName>
@@ -27,34 +36,39 @@
     <definedName name="detailConversation">report!$D$64</definedName>
     <definedName name="detailVisited">report!$D$63</definedName>
     <definedName name="effecientConversation">report!$K$124</definedName>
-    <definedName name="effectConversationPer">ChanelTrafic!$AF$2</definedName>
+    <definedName name="effecientConversation2">report!$P$378</definedName>
+    <definedName name="effectConversationPer">ChanelTrafic!#REF!</definedName>
+    <definedName name="expansive">report!$N$392:$N$406</definedName>
     <definedName name="femaleConversation">report!$B$280</definedName>
     <definedName name="femaleConversationPer">report!$B$280</definedName>
     <definedName name="goal">ChanelTrafic!$E$2:$E$2</definedName>
     <definedName name="goalQuality">ChanelTrafic!$F$2:$F$2</definedName>
-    <definedName name="hoursOfDay">ChanelTrafic!$U$2:$U$25</definedName>
-    <definedName name="hoursOfDayConversation">ChanelTrafic!$W$2:$W$25</definedName>
-    <definedName name="hoursOfDayVisited">ChanelTrafic!$V$2:$V$25</definedName>
-    <definedName name="itemsQualPerTabAndMob">report!$D$211</definedName>
-    <definedName name="keyHasConversationPer">ChanelTrafic!$AB$2</definedName>
-    <definedName name="keyReachGoal">ChanelTrafic!$AA$2</definedName>
-    <definedName name="keyWasClicked">ChanelTrafic!$Y$2</definedName>
-    <definedName name="keyWasNotReachGoal">ChanelTrafic!$Z$2</definedName>
+    <definedName name="hoursOfDay">ChanelTrafic!$U$2:$U$1</definedName>
+    <definedName name="hoursOfDayConversation">ChanelTrafic!$W$2:$W$1</definedName>
+    <definedName name="hoursOfDayVisited">ChanelTrafic!$V$2:$V$1</definedName>
+    <definedName name="itemsQualPerTabAndMob">report!$D$215</definedName>
+    <definedName name="keyCoversationRate">report!$H$372</definedName>
+    <definedName name="keyReachGoal">ChanelTrafic!#REF!</definedName>
+    <definedName name="keyWasClicked">report!$H$370</definedName>
+    <definedName name="keyWasGaveConversation">report!$H$371</definedName>
+    <definedName name="keyWasNotReachGoal">ChanelTrafic!#REF!</definedName>
+    <definedName name="keyWithoutConversation">ChanelTrafic!$X$2</definedName>
     <definedName name="maleConversationPer">report!$G$280</definedName>
     <definedName name="maleOrFemale">ChanelTrafic!$O$2:$O$3</definedName>
     <definedName name="maleOrFemaleConverstionPer">ChanelTrafic!$Q$2:$Q$3</definedName>
     <definedName name="maleOrFemaleVisited">ChanelTrafic!$P$2:$P$3</definedName>
-    <definedName name="mobilConversation">report!$N$206</definedName>
-    <definedName name="mobilConversationPer">report!$N$207</definedName>
-    <definedName name="mobilVisited">report!$N$205</definedName>
+    <definedName name="mobilConversation">report!$O$212</definedName>
+    <definedName name="mobilConversationPer">report!$O$213</definedName>
+    <definedName name="mobilVisited">report!$O$211</definedName>
     <definedName name="moreConversation">report!$D$32</definedName>
-    <definedName name="moreConversionDayOfWeek">report!$D$328</definedName>
+    <definedName name="moreConversionDayOfWeek">report!$D$326</definedName>
     <definedName name="moreVisited">report!$D$31</definedName>
-    <definedName name="pcConversation">report!$F$206</definedName>
-    <definedName name="pcConversationPer">report!$F$207</definedName>
-    <definedName name="pcVisited">report!$F$205</definedName>
-    <definedName name="popularDayOfWeek">report!$D$327</definedName>
-    <definedName name="popularHours">ChanelTrafic!$X$2</definedName>
+    <definedName name="pcConversation">report!$F$212</definedName>
+    <definedName name="pcConversationPer">report!$F$213</definedName>
+    <definedName name="pcVisited">report!$F$211</definedName>
+    <definedName name="popularDayOfWeek">report!$D$325</definedName>
+    <definedName name="popularHours">report!$D$358</definedName>
+    <definedName name="position">report!$K$392</definedName>
     <definedName name="quality">ChanelTrafic!$A$2:$A$7</definedName>
     <definedName name="qualityClick">report!$K$113</definedName>
     <definedName name="qualityDetail">ChanelTrafic!$C$2:$C$7</definedName>
@@ -72,20 +86,21 @@
     <definedName name="regionName">ChanelTrafic!$J$2:$J$8</definedName>
     <definedName name="regionQuality">ChanelTrafic!$K$2:$K$8</definedName>
     <definedName name="sendAll">report!$K$116</definedName>
+    <definedName name="sendall2">report!$P$376</definedName>
     <definedName name="source">ChanelTrafic!$B$2:$B$7</definedName>
     <definedName name="sourceDetail">ChanelTrafic!$C$2:$C$8</definedName>
     <definedName name="sourceDetailPer">ChanelTrafic!$D$2:$D$8</definedName>
-    <definedName name="tabConversation">report!$I$206</definedName>
-    <definedName name="tabConversationPer">report!$I$207</definedName>
-    <definedName name="tabVisited">report!$I$205</definedName>
+    <definedName name="tabConversation">report!$I$212</definedName>
+    <definedName name="tabConversationPer">report!$I$213</definedName>
+    <definedName name="tabVisited">report!$I$211</definedName>
     <definedName name="userConversation">ChanelTrafic!$N$2:$N$6</definedName>
     <definedName name="userVisited">ChanelTrafic!$M$2:$M$6</definedName>
     <definedName name="visited">ChanelTrafic!#REF!</definedName>
     <definedName name="visitedDiv10">ChanelTrafic!$I$2:$I$8</definedName>
-    <definedName name="wasSpend">ChanelTrafic!$AC$2</definedName>
-    <definedName name="wasSpendNotReachGoal">ChanelTrafic!$AD$2</definedName>
-    <definedName name="whichConversationMore">report!$B$283</definedName>
-    <definedName name="whoMoreOnSite">report!$B$282</definedName>
+    <definedName name="wasSpend">ChanelTrafic!#REF!</definedName>
+    <definedName name="wasSpendNotReachGoal">ChanelTrafic!#REF!</definedName>
+    <definedName name="whichConversationMore">report!$B$285</definedName>
+    <definedName name="whoMoreOnSite">report!$B$284</definedName>
     <definedName name="yaFindAvrCostClick">report!$F$145</definedName>
     <definedName name="yaFindClick">report!$F$143</definedName>
     <definedName name="yaFindConversation">report!$F$147</definedName>
@@ -102,6 +117,7 @@
     <definedName name="yaNetCTR">report!$L$144</definedName>
     <definedName name="yaNetGetGoal">report!$L$146</definedName>
     <definedName name="yaNetShow">report!$L$142</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">report!$391:$391</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -113,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="244">
   <si>
     <t>quality</t>
   </si>
@@ -364,15 +380,6 @@
     <t>wasSpendNotReachGoal</t>
   </si>
   <si>
-    <t>Потрачено денег</t>
-  </si>
-  <si>
-    <t>Стоимость ключей, давших конверсию</t>
-  </si>
-  <si>
-    <t>Эффективный бюджет</t>
-  </si>
-  <si>
     <t>Ключевые слова без конверсий</t>
   </si>
   <si>
@@ -391,12 +398,6 @@
     <t>Затраты</t>
   </si>
   <si>
-    <t>moreVisited</t>
-  </si>
-  <si>
-    <t>moreConversation</t>
-  </si>
-  <si>
     <t>Основные каналы трафика</t>
   </si>
   <si>
@@ -406,6 +407,39 @@
     <t>Текст</t>
   </si>
   <si>
+    <t>Позиция</t>
+  </si>
+  <si>
+    <t>% конверсии</t>
+  </si>
+  <si>
+    <t>Цена одной конверсии</t>
+  </si>
+  <si>
+    <t>Эффективный бюджет, %</t>
+  </si>
+  <si>
+    <t>Стоимость ключей, давших конверсию, тыс. руб</t>
+  </si>
+  <si>
+    <t>Потрачено денег, тыс. руб.</t>
+  </si>
+  <si>
+    <t>costWithoutConversation</t>
+  </si>
+  <si>
+    <t>keyWithoutConversation</t>
+  </si>
+  <si>
+    <t>Трафик по источникам (% конверсии)</t>
+  </si>
+  <si>
+    <t>Что считаем конверсией?</t>
+  </si>
+  <si>
+    <t>ТЕКСТ</t>
+  </si>
+  <si>
     <t>Прямые заходы (5,00%)</t>
   </si>
   <si>
@@ -460,27 +494,6 @@
     <t>Покупка</t>
   </si>
   <si>
-    <t>29.10.2016</t>
-  </si>
-  <si>
-    <t>30.10.2016</t>
-  </si>
-  <si>
-    <t>31.10.2016</t>
-  </si>
-  <si>
-    <t>01.11.2016</t>
-  </si>
-  <si>
-    <t>02.11.2016</t>
-  </si>
-  <si>
-    <t>03.11.2016</t>
-  </si>
-  <si>
-    <t>04.11.2016</t>
-  </si>
-  <si>
     <t>1351</t>
   </si>
   <si>
@@ -499,31 +512,10 @@
     <t>439,28</t>
   </si>
   <si>
-    <t>155,19</t>
-  </si>
-  <si>
-    <t>6555,80</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>334632</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>6.2076</t>
+    <t>4.3428571428571425%</t>
+  </si>
+  <si>
+    <t>45.82857142857143%</t>
   </si>
   <si>
     <t>172.52104</t>
@@ -532,18 +524,6 @@
     <t>0.0%</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>25360.0</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>71,64</t>
-  </si>
-  <si>
     <t>Сибирский федеральный округ (2.20588235%)</t>
   </si>
   <si>
@@ -571,58 +551,46 @@
     <t>% Конверсии больше - Сибирский федеральный округ (2,21%)</t>
   </si>
   <si>
-    <t>828.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>0,85</t>
-  </si>
-  <si>
-    <t>171.0</t>
+    <t>На долю планшетов и смартфонов приходится 16,29% трафика</t>
+  </si>
+  <si>
+    <t>младше 18 лет</t>
+  </si>
+  <si>
+    <t>18‑24 года</t>
+  </si>
+  <si>
+    <t>25‑34 года</t>
+  </si>
+  <si>
+    <t>35‑44 года</t>
+  </si>
+  <si>
+    <t>45 лет и старше</t>
+  </si>
+  <si>
+    <t>Болше всего сеансов у группы - 45 лет и старше (352,00)</t>
+  </si>
+  <si>
+    <t>Нет конверсии</t>
+  </si>
+  <si>
+    <t>мужской</t>
+  </si>
+  <si>
+    <t>женский</t>
+  </si>
+  <si>
+    <t>На сайте больше женщин</t>
+  </si>
+  <si>
+    <t>Коэф. конверсии выше у женщин</t>
   </si>
   <si>
     <t>0,00</t>
   </si>
   <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>На долю планшетов и смартфонов приходится 21,14% трафика</t>
-  </si>
-  <si>
-    <t>младше 18 лет</t>
-  </si>
-  <si>
-    <t>18‑24 года</t>
-  </si>
-  <si>
-    <t>25‑34 года</t>
-  </si>
-  <si>
-    <t>35‑44 года</t>
-  </si>
-  <si>
-    <t>45 лет и старше</t>
-  </si>
-  <si>
-    <t>Болше всего сеансов у группы - 45 лет и старше (352,00)</t>
-  </si>
-  <si>
-    <t>Нет конверсии</t>
-  </si>
-  <si>
-    <t>мужской</t>
-  </si>
-  <si>
-    <t>женский</t>
-  </si>
-  <si>
-    <t>На сайте больше мужчин</t>
-  </si>
-  <si>
-    <t>Коэф. конверсии выше у женщин</t>
+    <t>�</t>
   </si>
   <si>
     <t>Пятница</t>
@@ -646,10 +614,253 @@
     <t>Воскресенье</t>
   </si>
   <si>
-    <t>Коэф. конверсий выше в Пятница</t>
-  </si>
-  <si>
-    <t>Сеансов больше в Среда</t>
+    <t>Пятница - самый высокий коэф. конверсии</t>
+  </si>
+  <si>
+    <t>Среда - больше всего сеансов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конверсии происходят приемущественно в - </t>
+  </si>
+  <si>
+    <t>company 0</t>
+  </si>
+  <si>
+    <t>ad0</t>
+  </si>
+  <si>
+    <t>company 15</t>
+  </si>
+  <si>
+    <t>ad15</t>
+  </si>
+  <si>
+    <t>company 28</t>
+  </si>
+  <si>
+    <t>ad28</t>
+  </si>
+  <si>
+    <t>company 2</t>
+  </si>
+  <si>
+    <t>ad2</t>
+  </si>
+  <si>
+    <t>company 29</t>
+  </si>
+  <si>
+    <t>ad29</t>
+  </si>
+  <si>
+    <t>company 9</t>
+  </si>
+  <si>
+    <t>ad9</t>
+  </si>
+  <si>
+    <t>company 3</t>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>company 10</t>
+  </si>
+  <si>
+    <t>ad10</t>
+  </si>
+  <si>
+    <t>company 5</t>
+  </si>
+  <si>
+    <t>ad5</t>
+  </si>
+  <si>
+    <t>company 4</t>
+  </si>
+  <si>
+    <t>ad4</t>
+  </si>
+  <si>
+    <t>company 22</t>
+  </si>
+  <si>
+    <t>ad22</t>
+  </si>
+  <si>
+    <t>company 31</t>
+  </si>
+  <si>
+    <t>ad31</t>
+  </si>
+  <si>
+    <t>company 11</t>
+  </si>
+  <si>
+    <t>ad11</t>
+  </si>
+  <si>
+    <t>company 24</t>
+  </si>
+  <si>
+    <t>ad24</t>
+  </si>
+  <si>
+    <t>company 39</t>
+  </si>
+  <si>
+    <t>ad39</t>
+  </si>
+  <si>
+    <t>company 14</t>
+  </si>
+  <si>
+    <t>ad14</t>
+  </si>
+  <si>
+    <t>company 23</t>
+  </si>
+  <si>
+    <t>ad23</t>
+  </si>
+  <si>
+    <t>company 17</t>
+  </si>
+  <si>
+    <t>ad17</t>
+  </si>
+  <si>
+    <t>company 18</t>
+  </si>
+  <si>
+    <t>ad18</t>
+  </si>
+  <si>
+    <t>company 37</t>
+  </si>
+  <si>
+    <t>ad37</t>
+  </si>
+  <si>
+    <t>company 35</t>
+  </si>
+  <si>
+    <t>ad35</t>
+  </si>
+  <si>
+    <t>company 26</t>
+  </si>
+  <si>
+    <t>ad26</t>
+  </si>
+  <si>
+    <t>company 38</t>
+  </si>
+  <si>
+    <t>ad38</t>
+  </si>
+  <si>
+    <t>company 30</t>
+  </si>
+  <si>
+    <t>ad30</t>
+  </si>
+  <si>
+    <t>company 1</t>
+  </si>
+  <si>
+    <t>ad1</t>
+  </si>
+  <si>
+    <t>company 6</t>
+  </si>
+  <si>
+    <t>ad6</t>
+  </si>
+  <si>
+    <t>company 7</t>
+  </si>
+  <si>
+    <t>ad7</t>
+  </si>
+  <si>
+    <t>company 8</t>
+  </si>
+  <si>
+    <t>ad8</t>
+  </si>
+  <si>
+    <t>company 12</t>
+  </si>
+  <si>
+    <t>ad12</t>
+  </si>
+  <si>
+    <t>company 13</t>
+  </si>
+  <si>
+    <t>ad13</t>
+  </si>
+  <si>
+    <t>company 16</t>
+  </si>
+  <si>
+    <t>ad16</t>
+  </si>
+  <si>
+    <t>company 19</t>
+  </si>
+  <si>
+    <t>ad19</t>
+  </si>
+  <si>
+    <t>company 20</t>
+  </si>
+  <si>
+    <t>ad20</t>
+  </si>
+  <si>
+    <t>company 21</t>
+  </si>
+  <si>
+    <t>ad21</t>
+  </si>
+  <si>
+    <t>company 25</t>
+  </si>
+  <si>
+    <t>ad25</t>
+  </si>
+  <si>
+    <t>company 27</t>
+  </si>
+  <si>
+    <t>ad27</t>
+  </si>
+  <si>
+    <t>company 32</t>
+  </si>
+  <si>
+    <t>ad32</t>
+  </si>
+  <si>
+    <t>company 33</t>
+  </si>
+  <si>
+    <t>ad33</t>
+  </si>
+  <si>
+    <t>company 34</t>
+  </si>
+  <si>
+    <t>ad34</t>
+  </si>
+  <si>
+    <t>company 36</t>
+  </si>
+  <si>
+    <t>ad36</t>
   </si>
 </sst>
 </file>
@@ -662,7 +873,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,8 +998,32 @@
       <charset val="204"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,8 +1155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -956,16 +1197,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1009,7 +1278,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,125 +1298,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1166,117 +1332,159 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="19" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="19" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="19" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="20" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="20" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="20" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1285,20 +1493,131 @@
     <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1306,10 +1625,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Акцент2" xfId="5" builtinId="33"/>
     <cellStyle name="Денежный" xfId="4" builtinId="4"/>
+    <cellStyle name="Заголовок 2" xfId="6" builtinId="17"/>
     <cellStyle name="Название" xfId="2" builtinId="15"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
@@ -1905,7 +2234,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>[0]!keyWasNotReachGoal</c:f>
+              <c:f>[0]!keyWithoutConversation</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1948,7 +2277,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>[0]!keyReachGoal</c:f>
+              <c:f>[0]!keyWasGaveConversation</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1970,11 +2299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127053184"/>
-        <c:axId val="127059072"/>
+        <c:axId val="119889920"/>
+        <c:axId val="119891456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127053184"/>
+        <c:axId val="119889920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +2312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127059072"/>
+        <c:crossAx val="119891456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1991,7 +2320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127059072"/>
+        <c:axId val="119891456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127053184"/>
+        <c:crossAx val="119889920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2113,15 +2442,15 @@
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>рублей</c:v>
+                <c:v>Тыс. рублей</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!wasSpend</c:f>
+              <c:f>[0]!sendall2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("р."* #,##0.00_);_("р."* \(#,##0.00\);_("р."* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
@@ -2164,15 +2493,15 @@
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>рублей</c:v>
+                <c:v>Тыс. рублей</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!wasSpendNotReachGoal</c:f>
+              <c:f>[0]!costConversation</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("р."* #,##0.00_);_("р."* \(#,##0.00\);_("р."* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
@@ -2215,13 +2544,13 @@
             <c:strLit>
               <c:ptCount val="1"/>
               <c:pt idx="0">
-                <c:v>рублей</c:v>
+                <c:v>Тыс. рублей</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!costConversation</c:f>
+              <c:f>[0]!costWithoutConversation</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2243,21 +2572,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127095552"/>
-        <c:axId val="127097088"/>
+        <c:axId val="126325888"/>
+        <c:axId val="126327424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127095552"/>
+        <c:axId val="126325888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127097088"/>
+        <c:crossAx val="126327424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2265,23 +2594,24 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127097088"/>
+        <c:axId val="126327424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;р.&quot;* #,##0.00_);_(&quot;р.&quot;* \(#,##0.00\);_(&quot;р.&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127095552"/>
+        <c:crossAx val="126325888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2327,42 +2657,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Трафик по источникам (% конверсии)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2425,11 +2720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="98371072"/>
-        <c:axId val="98372608"/>
+        <c:axId val="140464128"/>
+        <c:axId val="140465664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98371072"/>
+        <c:axId val="140464128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2767,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98372608"/>
+        <c:crossAx val="140465664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2480,7 +2775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98372608"/>
+        <c:axId val="140465664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,7 +2821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98371072"/>
+        <c:crossAx val="140464128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,37 +2879,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -2766,6 +3031,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2841,47 +3107,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Динамика</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> конверский за период</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3050,11 +3276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="99708928"/>
-        <c:axId val="99710464"/>
+        <c:axId val="97890688"/>
+        <c:axId val="97892224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99708928"/>
+        <c:axId val="97890688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3323,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99710464"/>
+        <c:crossAx val="97892224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,7 +3331,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99710464"/>
+        <c:axId val="97892224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3382,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99708928"/>
+        <c:crossAx val="97890688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3170,6 +3396,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3311,6 +3538,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3496,11 +3724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120778752"/>
-        <c:axId val="120780288"/>
+        <c:axId val="102066816"/>
+        <c:axId val="102068608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120778752"/>
+        <c:axId val="102066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,7 +3738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120780288"/>
+        <c:crossAx val="102068608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3518,7 +3746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120780288"/>
+        <c:axId val="102068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,13 +3757,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120778752"/>
+        <c:crossAx val="102066816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3582,6 +3811,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3762,11 +3992,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126711680"/>
-        <c:axId val="126713216"/>
+        <c:axId val="119812480"/>
+        <c:axId val="119814016"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="126711680"/>
+        <c:axId val="119812480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,7 +4006,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126713216"/>
+        <c:crossAx val="119814016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3784,7 +4014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126713216"/>
+        <c:axId val="119814016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +4025,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126711680"/>
+        <c:crossAx val="119812480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3904,11 +4134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126729216"/>
-        <c:axId val="127009536"/>
+        <c:axId val="119827840"/>
+        <c:axId val="119837824"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="126729216"/>
+        <c:axId val="119827840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +4147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127009536"/>
+        <c:crossAx val="119837824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3925,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127009536"/>
+        <c:axId val="119837824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +4166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126729216"/>
+        <c:crossAx val="119827840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3970,7 +4200,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7596,12 +7826,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="0" y="217155"/>
-          <a:ext cx="4721038" cy="836627"/>
+          <a:off x="0" y="200912"/>
+          <a:ext cx="5136057" cy="774050"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 44943"/>
+            <a:gd name="adj" fmla="val 52847"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7670,8 +7900,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="826181" y="217155"/>
-        <a:ext cx="3068675" cy="836627"/>
+        <a:off x="898809" y="200912"/>
+        <a:ext cx="3338437" cy="774050"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{69CA1DAA-1002-439B-95E6-9B03B9A978F9}">
@@ -7681,12 +7911,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="152315" y="1005525"/>
-          <a:ext cx="4416408" cy="836627"/>
+          <a:off x="165705" y="930315"/>
+          <a:ext cx="4804646" cy="774050"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 44943"/>
+            <a:gd name="adj" fmla="val 52847"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7757,8 +7987,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="925186" y="1005525"/>
-        <a:ext cx="2870665" cy="836627"/>
+        <a:off x="1006518" y="930315"/>
+        <a:ext cx="3123020" cy="774050"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{238952AD-046B-41C1-B6E4-2C5149FAC37B}">
@@ -7768,12 +7998,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="340001" y="1805960"/>
-          <a:ext cx="4041036" cy="836627"/>
+          <a:off x="369890" y="1670880"/>
+          <a:ext cx="4396276" cy="774050"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 44943"/>
+            <a:gd name="adj" fmla="val 52847"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7844,8 +8074,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1047182" y="1805960"/>
-        <a:ext cx="2626673" cy="836627"/>
+        <a:off x="1139238" y="1670880"/>
+        <a:ext cx="2857579" cy="774050"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{425953AF-BAA2-4E7A-916B-2A82294152AD}">
@@ -7855,12 +8085,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="559899" y="2594331"/>
-          <a:ext cx="3601240" cy="836627"/>
+          <a:off x="609118" y="2400284"/>
+          <a:ext cx="3917819" cy="774050"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 44943"/>
+            <a:gd name="adj" fmla="val 52847"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7931,8 +8161,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1190116" y="2594331"/>
-        <a:ext cx="2340806" cy="836627"/>
+        <a:off x="1294737" y="2400284"/>
+        <a:ext cx="2546582" cy="774050"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A06E787-2B65-46E6-9A04-2968475748A6}">
@@ -7942,12 +8172,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="802364" y="3382702"/>
-          <a:ext cx="3116309" cy="836627"/>
+          <a:off x="872899" y="3129687"/>
+          <a:ext cx="3390258" cy="774050"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 44943"/>
+            <a:gd name="adj" fmla="val 52847"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8018,8 +8248,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1347719" y="3382702"/>
-        <a:ext cx="2025600" cy="836627"/>
+        <a:off x="1466194" y="3129687"/>
+        <a:ext cx="2203667" cy="774050"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D67B753-3B31-4AF4-8047-2E5F38D41F74}">
@@ -8029,12 +8259,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="945316" y="4183137"/>
-          <a:ext cx="2830405" cy="1069059"/>
+          <a:off x="1028418" y="3870252"/>
+          <a:ext cx="3079220" cy="989097"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 44943"/>
+            <a:gd name="adj" fmla="val 52847"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8111,8 +8341,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="945316" y="4183137"/>
-        <a:ext cx="2830405" cy="1069059"/>
+        <a:off x="1028418" y="3870252"/>
+        <a:ext cx="3079220" cy="989097"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9389,14 +9619,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167048</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>437031</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28816</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
@@ -9425,16 +9655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>155281</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>188100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>555492</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>87247</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9463,16 +9693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4804</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:rowOff>55231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>442123</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>144658</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142766</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9503,14 +9733,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>42787</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>406469</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9539,16 +9769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>599521</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3528</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>324970</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>672360</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>377085</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9575,14 +9805,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2642</xdr:colOff>
       <xdr:row>163</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>189</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -9613,14 +9843,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3202</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>256</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
@@ -9657,7 +9887,7 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>280</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
@@ -9690,15 +9920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:colOff>69636</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>241728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>324</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>188901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9728,15 +9958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>78443</xdr:colOff>
-      <xdr:row>332</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>37622</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>180895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>358</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>110457</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9771,7 +10001,7 @@
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>372</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
@@ -9811,8 +10041,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>383</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10140,316 +10370,358 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:U406"/>
+  <dimension ref="B1:W407"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A308" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D328" sqref="D328"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A109" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="X134" sqref="X134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="1.5703125" collapsed="false"/>
     <col min="2" max="3" customWidth="true" width="5.85546875" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="5.28515625" collapsed="false"/>
     <col min="6" max="6" customWidth="true" width="6.7109375" collapsed="false"/>
     <col min="7" max="7" customWidth="true" width="11.0" collapsed="false"/>
     <col min="9" max="9" customWidth="true" width="8.85546875" collapsed="false"/>
     <col min="10" max="10" customWidth="true" width="1.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="13.7109375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="4.7109375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="3.28515625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="6.42578125" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="4.7109375" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="4.28515625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="5.42578125" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="4.7109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="8.42578125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="4.42578125" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="5.85546875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="8.28515625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="8.140625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="3.5703125" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="4.7109375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="4.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="H1" s="70" t="s">
-        <v>94</v>
+      <c r="H1" s="45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s" s="78">
-        <v>103</v>
+      <c r="D31" t="s" s="100">
+        <v>109</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s" s="78">
-        <v>104</v>
+      <c r="D32" t="s" s="100">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G36" s="45" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="s" s="78">
-        <v>112</v>
+      <c r="D63" t="s" s="100">
+        <v>118</v>
       </c>
     </row>
     <row r="64">
-      <c r="D64" t="s" s="78">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="6:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="6:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F105" s="125" t="s">
+      <c r="D64" t="s" s="100">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H70" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H85" s="45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="7:17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="7:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="G105" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="125"/>
-      <c r="J105" s="125"/>
-      <c r="K105" s="125"/>
-      <c r="L105" s="125"/>
-      <c r="M105" s="125"/>
-      <c r="N105" s="125"/>
-      <c r="O105" s="125"/>
-      <c r="P105" s="125"/>
-    </row>
-    <row r="106" spans="6:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="6:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="K110" s="96" t="s">
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+    </row>
+    <row r="106" spans="7:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="7:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="7:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="K110" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="L110" s="127"/>
+      <c r="M110" s="127"/>
+      <c r="N110" s="127"/>
+      <c r="O110" s="127"/>
+    </row>
+    <row r="113" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K113" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="L110" s="126"/>
-      <c r="M110" s="126"/>
-      <c r="N110" s="126"/>
-    </row>
-    <row r="113" spans="9:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K113" s="96" t="s">
+      <c r="L113" s="127"/>
+      <c r="M113" s="127"/>
+      <c r="N113" s="127"/>
+      <c r="O113" s="127"/>
+    </row>
+    <row r="116" spans="9:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="K116" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="L113" s="126"/>
-      <c r="M113" s="126"/>
-      <c r="N113" s="126"/>
-    </row>
-    <row r="116" spans="9:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="K116" s="96" t="s">
+      <c r="L116" s="128"/>
+      <c r="M116" s="128"/>
+      <c r="N116" s="128"/>
+      <c r="O116" s="128"/>
+    </row>
+    <row r="120" spans="9:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="K120" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="L116" s="127"/>
-      <c r="M116" s="127"/>
-      <c r="N116" s="127"/>
-    </row>
-    <row r="120" spans="9:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="K120" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="L120" s="126"/>
-      <c r="M120" s="126"/>
-      <c r="N120" s="126"/>
-    </row>
-    <row r="124" spans="9:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="L120" s="127"/>
+      <c r="M120" s="127"/>
+      <c r="N120" s="127"/>
+      <c r="O120" s="127"/>
+    </row>
+    <row r="124" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
-      <c r="K124" s="96" t="s">
+      <c r="K124" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="L124" s="126"/>
+      <c r="M124" s="126"/>
+      <c r="N124" s="126"/>
+      <c r="O124" s="126"/>
+    </row>
+    <row r="127" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="9:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="I128" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="L124" s="124"/>
-      <c r="M124" s="124"/>
-      <c r="N124" s="124"/>
-    </row>
-    <row r="127" spans="9:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="9:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="I128" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="J128" s="128"/>
-      <c r="K128" s="128"/>
-      <c r="L128" s="128"/>
-      <c r="M128" s="128"/>
-      <c r="N128" s="128"/>
-    </row>
-    <row r="129" spans="6:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="131"/>
+      <c r="K128" s="131"/>
+      <c r="L128" s="131"/>
+      <c r="M128" s="131"/>
+      <c r="N128" s="131"/>
+      <c r="O128" s="131"/>
+    </row>
+    <row r="129" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
-    </row>
-    <row r="134" spans="6:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="6:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F137" s="129" t="s">
+      <c r="N129" s="16"/>
+    </row>
+    <row r="134" spans="6:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="6:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="6:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="129"/>
-      <c r="H137" s="130" t="s">
+      <c r="G137" s="132"/>
+      <c r="H137" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="I137" s="130"/>
-      <c r="J137" s="130"/>
-      <c r="K137" s="129" t="s">
+      <c r="I137" s="132"/>
+      <c r="J137" s="132"/>
+      <c r="K137" s="132"/>
+      <c r="L137" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="L137" s="129"/>
-      <c r="M137" s="86"/>
-    </row>
-    <row r="138" spans="6:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F138" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="G138" s="119"/>
-      <c r="H138" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="I138" s="131"/>
-      <c r="J138" s="131"/>
-      <c r="K138" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="L138" s="119"/>
-      <c r="M138" s="87"/>
-    </row>
-    <row r="139" spans="6:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M137" s="132"/>
+      <c r="N137" s="49"/>
+    </row>
+    <row r="138" spans="6:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="98" t="n">
+        <v>138833.6526184082</v>
+      </c>
+      <c r="G138" s="125"/>
+      <c r="H138" s="98" t="n">
+        <v>336382.0</v>
+      </c>
+      <c r="I138" s="125"/>
+      <c r="J138" s="125"/>
+      <c r="K138" s="125"/>
+      <c r="L138" s="98" t="n">
+        <v>0.4127261643560244</v>
+      </c>
+      <c r="M138" s="125"/>
+      <c r="N138" s="50"/>
+    </row>
+    <row r="139" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
       <c r="J139" s="18"/>
       <c r="K139" s="17"/>
-      <c r="L139" s="17"/>
-      <c r="M139" s="21"/>
-    </row>
-    <row r="140" spans="6:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L139" s="62"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="21"/>
+    </row>
+    <row r="140" spans="6:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
       <c r="J140" s="18"/>
       <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="21"/>
-    </row>
-    <row r="141" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F141" s="72" t="s">
+      <c r="L140" s="62"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="21"/>
+    </row>
+    <row r="141" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F141" s="94" t="n">
+        <v>471.7776184082031</v>
+      </c>
+      <c r="G141" s="114"/>
+      <c r="H141" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="125"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="125"/>
+      <c r="L141" s="94" t="n">
+        <v>138361.875</v>
+      </c>
+      <c r="M141" s="114"/>
+      <c r="N141" s="51"/>
+    </row>
+    <row r="142" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F142" s="98" t="n">
+        <v>1750.0</v>
+      </c>
+      <c r="G142" s="115"/>
+      <c r="H142" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" s="124"/>
+      <c r="J142" s="124"/>
+      <c r="K142" s="124"/>
+      <c r="L142" s="98" t="n">
+        <v>334632.0</v>
+      </c>
+      <c r="M142" s="115"/>
+      <c r="N142" s="51"/>
+    </row>
+    <row r="143" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F143" s="94" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="G143" s="114"/>
+      <c r="H143" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="125"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="125"/>
+      <c r="L143" s="94" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="M143" s="114"/>
+      <c r="N143" s="51"/>
+    </row>
+    <row r="144" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F144" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="G144" s="115"/>
+      <c r="H144" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" s="124"/>
+      <c r="J144" s="124"/>
+      <c r="K144" s="124"/>
+      <c r="L144" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="G141" s="112"/>
-      <c r="H141" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="I141" s="119"/>
-      <c r="J141" s="119"/>
-      <c r="K141" s="119"/>
-      <c r="L141" s="72" t="s">
+      <c r="M144" s="115"/>
+      <c r="N144" s="51"/>
+    </row>
+    <row r="145" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F145" s="94" t="n">
+        <v>6.207600116729736</v>
+      </c>
+      <c r="G145" s="114"/>
+      <c r="H145" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" s="125"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="125"/>
+      <c r="L145" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="M141" s="88"/>
-    </row>
-    <row r="142" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F142" s="84" t="s">
+      <c r="M145" s="114"/>
+      <c r="N145" s="51"/>
+    </row>
+    <row r="146" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F146" s="98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G146" s="115"/>
+      <c r="H146" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="124"/>
+      <c r="J146" s="124"/>
+      <c r="K146" s="124"/>
+      <c r="L146" s="98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M146" s="115"/>
+      <c r="N146" s="51"/>
+    </row>
+    <row r="147" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F147" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="G142" s="111"/>
-      <c r="H142" s="118" t="s">
-        <v>27</v>
-      </c>
-      <c r="I142" s="118"/>
-      <c r="J142" s="118"/>
-      <c r="K142" s="118"/>
-      <c r="L142" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="M142" s="88"/>
-    </row>
-    <row r="143" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F143" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G143" s="112"/>
-      <c r="H143" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="I143" s="119"/>
-      <c r="J143" s="119"/>
-      <c r="K143" s="119"/>
-      <c r="L143" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="M143" s="88"/>
-    </row>
-    <row r="144" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F144" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="G144" s="111"/>
-      <c r="H144" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="I144" s="118"/>
-      <c r="J144" s="118"/>
-      <c r="K144" s="118"/>
-      <c r="L144" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="M144" s="88"/>
-    </row>
-    <row r="145" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F145" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="G145" s="112"/>
-      <c r="H145" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="I145" s="119"/>
-      <c r="J145" s="119"/>
-      <c r="K145" s="119"/>
-      <c r="L145" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="M145" s="88"/>
-    </row>
-    <row r="146" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F146" s="111"/>
-      <c r="G146" s="111"/>
-      <c r="H146" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="118"/>
-      <c r="J146" s="118"/>
-      <c r="K146" s="118"/>
-      <c r="L146" s="68"/>
-      <c r="M146" s="88"/>
-    </row>
-    <row r="147" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F147" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="G147" s="112"/>
-      <c r="H147" s="119" t="s">
+      <c r="G147" s="114"/>
+      <c r="H147" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I147" s="119"/>
-      <c r="J147" s="119"/>
-      <c r="K147" s="119"/>
-      <c r="L147" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="M147" s="88"/>
-    </row>
-    <row r="148" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F148" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="G148" s="111"/>
-      <c r="H148" s="118" t="s">
+      <c r="I147" s="125"/>
+      <c r="J147" s="125"/>
+      <c r="K147" s="125"/>
+      <c r="L147" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="M147" s="114"/>
+      <c r="N147" s="51"/>
+    </row>
+    <row r="148" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F148" s="98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G148" s="115"/>
+      <c r="H148" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="118"/>
-      <c r="J148" s="118"/>
-      <c r="K148" s="118"/>
-      <c r="L148" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="M148" s="88"/>
-    </row>
-    <row r="162" spans="5:21" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="G162" s="22" t="s">
+      <c r="I148" s="124"/>
+      <c r="J148" s="124"/>
+      <c r="K148" s="124"/>
+      <c r="L148" s="98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M148" s="115"/>
+      <c r="N148" s="51"/>
+    </row>
+    <row r="162" spans="5:23" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H162" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="5:21" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:23" ht="23.25" x14ac:dyDescent="0.25">
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
       <c r="H166" s="22"/>
@@ -10457,8 +10729,8 @@
       <c r="J166" s="22"/>
       <c r="K166" s="22"/>
       <c r="L166" s="22"/>
-      <c r="M166" s="20"/>
-      <c r="N166" s="22"/>
+      <c r="M166" s="22"/>
+      <c r="N166" s="20"/>
       <c r="O166" s="22"/>
       <c r="P166" s="22"/>
       <c r="Q166" s="22"/>
@@ -10466,894 +10738,2250 @@
       <c r="S166" s="22"/>
       <c r="T166" s="22"/>
       <c r="U166" s="22"/>
+      <c r="V166" s="22"/>
+      <c r="W166" s="22"/>
     </row>
     <row r="191">
-      <c r="E191" t="s" s="78">
+      <c r="E191" t="s" s="100">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="E192" t="s" s="100">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" spans="2:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="B195" s="23"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="23"/>
+      <c r="Q195" s="23"/>
+      <c r="R195" s="23"/>
+      <c r="S195" s="23"/>
+      <c r="T195" s="23"/>
+      <c r="U195" s="23"/>
+      <c r="V195" s="23"/>
+      <c r="W195" s="23"/>
+    </row>
+    <row r="196" spans="2:23" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H196" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="2:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="D203" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="134"/>
+      <c r="F203" s="134"/>
+      <c r="G203" s="135"/>
+      <c r="H203" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="I203" s="134"/>
+      <c r="J203" s="134"/>
+      <c r="K203" s="137"/>
+      <c r="L203" s="138" t="s">
+        <v>40</v>
+      </c>
+      <c r="M203" s="134"/>
+      <c r="N203" s="134"/>
+      <c r="O203" s="134"/>
+      <c r="P203" s="134"/>
+      <c r="Q203" s="137"/>
+    </row>
+    <row r="204" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E204" s="26"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="27"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26"/>
+      <c r="K204" s="28"/>
+      <c r="L204" s="26"/>
+      <c r="O204" s="26"/>
+      <c r="P204" s="26"/>
+      <c r="Q204" s="28"/>
+    </row>
+    <row r="205" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E205" s="26"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="27"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="26"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="26"/>
+      <c r="O205" s="26"/>
+      <c r="P205" s="26"/>
+      <c r="Q205" s="28"/>
+    </row>
+    <row r="206" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="27"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26"/>
+      <c r="K206" s="28"/>
+      <c r="L206" s="26"/>
+      <c r="O206" s="26"/>
+      <c r="P206" s="26"/>
+      <c r="Q206" s="28"/>
+    </row>
+    <row r="207" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E207" s="26"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="27"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="26"/>
+      <c r="K207" s="28"/>
+      <c r="L207" s="26"/>
+      <c r="O207" s="26"/>
+      <c r="P207" s="26"/>
+      <c r="Q207" s="28"/>
+    </row>
+    <row r="208" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E208" s="26"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="27"/>
+      <c r="I208" s="26"/>
+      <c r="J208" s="26"/>
+      <c r="K208" s="28"/>
+      <c r="L208" s="26"/>
+      <c r="O208" s="26"/>
+      <c r="P208" s="26"/>
+      <c r="Q208" s="28"/>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E209" s="26"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="27"/>
+      <c r="I209" s="26"/>
+      <c r="J209" s="26"/>
+      <c r="K209" s="28"/>
+      <c r="L209" s="26"/>
+      <c r="O209" s="26"/>
+      <c r="P209" s="26"/>
+      <c r="Q209" s="28"/>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G210" s="27"/>
+      <c r="I210" s="26"/>
+      <c r="J210" s="26"/>
+      <c r="K210" s="28"/>
+      <c r="L210" s="26"/>
+      <c r="O210" s="26"/>
+      <c r="P210" s="26"/>
+      <c r="Q210" s="28"/>
+    </row>
+    <row r="211" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E211" s="110"/>
+      <c r="F211" s="99" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="G211" s="133"/>
+      <c r="H211" s="53"/>
+      <c r="I211" s="99" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="J211" s="133"/>
+      <c r="K211" s="133"/>
+      <c r="L211" s="60"/>
+      <c r="M211" s="53"/>
+      <c r="N211" s="53"/>
+      <c r="O211" s="133"/>
+      <c r="P211" s="133"/>
+      <c r="Q211" s="133"/>
+    </row>
+    <row r="212" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B212" s="52"/>
+      <c r="C212" s="52"/>
+      <c r="D212" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E212" s="111"/>
+      <c r="F212" s="95" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G212" s="139"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J212" s="139"/>
+      <c r="K212" s="139"/>
+      <c r="L212" s="61"/>
+      <c r="M212" s="54"/>
+      <c r="N212" s="54"/>
+      <c r="O212" s="139"/>
+      <c r="P212" s="139"/>
+      <c r="Q212" s="139"/>
+    </row>
+    <row r="213" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D213" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E213" s="110"/>
+      <c r="F213" s="99" t="n">
+        <v>78.85714285714286</v>
+      </c>
+      <c r="G213" s="133"/>
+      <c r="H213" s="53"/>
+      <c r="I213" s="99" t="n">
+        <v>16.28571428571429</v>
+      </c>
+      <c r="J213" s="133"/>
+      <c r="K213" s="133"/>
+      <c r="L213" s="60"/>
+      <c r="M213" s="53"/>
+      <c r="N213" s="53"/>
+      <c r="O213" s="133"/>
+      <c r="P213" s="133"/>
+      <c r="Q213" s="133"/>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D215" t="s" s="100">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="229" spans="8:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H229" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J229" s="23"/>
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="23"/>
+      <c r="N229" s="24"/>
+    </row>
+    <row r="259" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D259" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="E259" s="58"/>
+      <c r="F259" s="58"/>
+      <c r="G259" s="58"/>
+      <c r="I259" s="59"/>
+      <c r="J259" s="57"/>
+    </row>
+    <row r="260" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D260" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E260" s="58"/>
+      <c r="F260" s="58"/>
+      <c r="G260" s="58"/>
+      <c r="I260" s="59"/>
+      <c r="J260" s="57"/>
+    </row>
+    <row r="263" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H263" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I263" s="23"/>
+      <c r="J263" s="23"/>
+      <c r="K263" s="23"/>
+      <c r="L263" s="23"/>
+      <c r="M263" s="23"/>
+      <c r="N263" s="24"/>
+    </row>
+    <row r="266" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B266" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="C266" s="116"/>
+      <c r="D266" s="116"/>
+      <c r="E266" s="44"/>
+      <c r="F266" s="44"/>
+      <c r="G266" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H266" s="116"/>
+    </row>
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E267" s="36"/>
+    </row>
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E268" s="36"/>
+    </row>
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E269" s="36"/>
+    </row>
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E270" s="36"/>
+    </row>
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E271" s="36"/>
+    </row>
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E272" s="36"/>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E273" s="36"/>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E274" s="36"/>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E275" s="36"/>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E276" s="36"/>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E277" s="36"/>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E278" s="36"/>
+    </row>
+    <row r="279" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B279" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C279" s="118"/>
+      <c r="D279" s="118"/>
+      <c r="E279" s="36"/>
+      <c r="G279" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="H279" s="118"/>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C280" s="117"/>
+      <c r="D280" s="117"/>
+      <c r="G280" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H280" s="117"/>
+    </row>
+    <row r="282" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C282" s="25"/>
+      <c r="D282" s="25"/>
+      <c r="G282" s="25"/>
+    </row>
+    <row r="283" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C283" s="25"/>
+      <c r="D283" s="25"/>
+      <c r="E283" s="25"/>
+    </row>
+    <row r="284" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B284" s="100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="192">
-      <c r="E192" t="s" s="78">
+    <row r="285" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B285" s="100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="195" spans="2:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I195" s="24"/>
-      <c r="J195" s="24"/>
-      <c r="K195" s="24"/>
-      <c r="L195" s="24"/>
-      <c r="M195" s="24"/>
-      <c r="N195" s="24"/>
-      <c r="O195" s="24"/>
-      <c r="P195" s="24"/>
-      <c r="Q195" s="24"/>
-      <c r="R195" s="24"/>
-      <c r="S195" s="24"/>
-      <c r="T195" s="24"/>
-      <c r="U195" s="24"/>
-    </row>
-    <row r="198" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E198" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="F198" s="120"/>
-      <c r="G198" s="121"/>
-      <c r="H198" s="26"/>
-      <c r="I198" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="J198" s="120"/>
-      <c r="K198" s="122"/>
-      <c r="L198" s="26"/>
-      <c r="M198" s="26"/>
-      <c r="N198" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="O198" s="120"/>
-      <c r="P198" s="122"/>
-    </row>
-    <row r="199" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="28"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="29"/>
-      <c r="N199" s="27"/>
-      <c r="O199" s="27"/>
-      <c r="P199" s="29"/>
-    </row>
-    <row r="200" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="28"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="29"/>
-      <c r="N200" s="27"/>
-      <c r="O200" s="27"/>
-      <c r="P200" s="29"/>
-    </row>
-    <row r="201" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="28"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="29"/>
-      <c r="N201" s="27"/>
-      <c r="O201" s="27"/>
-      <c r="P201" s="29"/>
-    </row>
-    <row r="202" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="28"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="27"/>
-      <c r="K202" s="29"/>
-      <c r="N202" s="27"/>
-      <c r="O202" s="27"/>
-      <c r="P202" s="29"/>
-    </row>
-    <row r="203" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="28"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="27"/>
-      <c r="K203" s="29"/>
-      <c r="N203" s="27"/>
-      <c r="O203" s="27"/>
-      <c r="P203" s="29"/>
-    </row>
-    <row r="204" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="28"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="29"/>
-      <c r="N204" s="27"/>
-      <c r="O204" s="27"/>
-      <c r="P204" s="29"/>
-    </row>
-    <row r="205" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D205" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="E205" s="90"/>
-      <c r="F205" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="G205" s="110"/>
-      <c r="H205" s="90"/>
-      <c r="I205" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="J205" s="110"/>
-      <c r="K205" s="110"/>
-      <c r="L205" s="90"/>
-      <c r="M205" s="90"/>
-      <c r="N205" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="O205" s="110"/>
-      <c r="P205" s="110"/>
-    </row>
-    <row r="206" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D206" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="E206" s="91"/>
-      <c r="F206" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G206" s="123"/>
-      <c r="H206" s="91"/>
-      <c r="I206" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="J206" s="123"/>
-      <c r="K206" s="123"/>
-      <c r="L206" s="91"/>
-      <c r="M206" s="91"/>
-      <c r="N206" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="O206" s="123"/>
-      <c r="P206" s="123"/>
-    </row>
-    <row r="207" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D207" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="E207" s="90"/>
-      <c r="F207" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="G207" s="110"/>
-      <c r="H207" s="90"/>
-      <c r="I207" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="J207" s="110"/>
-      <c r="K207" s="110"/>
-      <c r="L207" s="90"/>
-      <c r="M207" s="90"/>
-      <c r="N207" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="O207" s="110"/>
-      <c r="P207" s="110"/>
-    </row>
-    <row r="208" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E208" s="23"/>
-      <c r="F208" s="23"/>
-    </row>
-    <row r="211" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B211" s="89"/>
-      <c r="C211" s="89"/>
-      <c r="D211" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E211" s="89"/>
-      <c r="F211" s="89"/>
-      <c r="G211" s="89"/>
-      <c r="H211" s="89"/>
-    </row>
-    <row r="212" spans="2:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B212" s="89"/>
-      <c r="C212" s="89"/>
-      <c r="D212" s="89"/>
-      <c r="F212" s="89"/>
-      <c r="G212" s="89"/>
-      <c r="H212" s="89"/>
-      <c r="I212" s="89"/>
-      <c r="J212" s="42"/>
-    </row>
-    <row r="229" spans="7:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="G229" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="H229" s="106"/>
-      <c r="I229" s="106"/>
-      <c r="J229" s="106"/>
-      <c r="K229" s="106"/>
-      <c r="L229" s="106"/>
-      <c r="M229" s="25"/>
-    </row>
-    <row r="259" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D259" s="78" t="s">
+    <row r="296" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H296" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="297" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I297" s="63"/>
+      <c r="J297" s="63"/>
+      <c r="K297" s="63"/>
+      <c r="L297" s="63"/>
+      <c r="M297" s="63"/>
+    </row>
+    <row r="325">
+      <c r="D325" t="s" s="100">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="D326" t="s" s="100">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="327" spans="4:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="E327" s="23"/>
+      <c r="F327" s="23"/>
+      <c r="G327" s="23"/>
+      <c r="H327" s="23"/>
+      <c r="I327" s="23"/>
+      <c r="J327" s="23"/>
+      <c r="K327" s="23"/>
+      <c r="L327" s="23"/>
+      <c r="M327" s="23"/>
+    </row>
+    <row r="328" spans="4:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="E328" s="23"/>
+      <c r="F328" s="23"/>
+      <c r="G328" s="23"/>
+      <c r="H328" s="23"/>
+      <c r="I328" s="23"/>
+      <c r="J328" s="23"/>
+      <c r="K328" s="23"/>
+      <c r="L328" s="23"/>
+      <c r="M328" s="23"/>
+    </row>
+    <row r="329" spans="4:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H329" s="63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="331" spans="4:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="I331" s="23"/>
+      <c r="J331" s="23"/>
+      <c r="K331" s="23"/>
+      <c r="L331" s="23"/>
+    </row>
+    <row r="358">
+      <c r="D358" t="s" s="100">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="361" spans="4:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E361" s="25"/>
+      <c r="F361" s="25"/>
+      <c r="G361" s="25"/>
+      <c r="H361" s="25"/>
+      <c r="K361" s="59"/>
+      <c r="L361" s="59"/>
+      <c r="M361" s="59"/>
+      <c r="N361" s="59"/>
+      <c r="O361" s="59"/>
+    </row>
+    <row r="365" spans="4:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H365" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="366" spans="4:15" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G366" s="63"/>
+      <c r="H366" s="63"/>
+      <c r="I366" s="63"/>
+      <c r="J366" s="63"/>
+      <c r="K366" s="63"/>
+      <c r="L366" s="63"/>
+      <c r="M366" s="63"/>
+      <c r="N366" s="40"/>
+    </row>
+    <row r="367" spans="4:15" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="4:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C370" s="119"/>
+      <c r="D370" s="119"/>
+      <c r="E370" s="119"/>
+      <c r="F370" s="119"/>
+      <c r="G370" s="119"/>
+      <c r="H370" t="n" s="99">
+        <v>40.0</v>
+      </c>
+      <c r="I370" s="120"/>
+    </row>
+    <row r="371" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C371" s="122"/>
+      <c r="D371" s="122"/>
+      <c r="E371" s="122"/>
+      <c r="F371" s="122"/>
+      <c r="G371" s="122"/>
+      <c r="H371" t="n" s="95">
+        <v>16.0</v>
+      </c>
+      <c r="I371" s="121"/>
+    </row>
+    <row r="372" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="C372" s="123"/>
+      <c r="D372" s="123"/>
+      <c r="E372" s="123"/>
+      <c r="F372" s="123"/>
+      <c r="G372" s="123"/>
+      <c r="H372" t="n" s="99">
+        <v>40.0</v>
+      </c>
+      <c r="I372" s="120"/>
+    </row>
+    <row r="376" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K376" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="L376" s="119"/>
+      <c r="M376" s="119"/>
+      <c r="N376" s="119"/>
+      <c r="O376" s="119"/>
+      <c r="P376" t="n" s="99">
+        <v>8.336168641179027</v>
+      </c>
+      <c r="Q376" s="141"/>
+      <c r="R376" s="141"/>
+    </row>
+    <row r="377" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K377" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="L377" s="140"/>
+      <c r="M377" s="140"/>
+      <c r="N377" s="140"/>
+      <c r="O377" s="140"/>
+      <c r="P377" t="n" s="95">
+        <v>3.3503865253624125</v>
+      </c>
+      <c r="Q377" s="112"/>
+      <c r="R377" s="112"/>
+    </row>
+    <row r="378" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K378" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="L378" s="119"/>
+      <c r="M378" s="119"/>
+      <c r="N378" s="119"/>
+      <c r="O378" s="119"/>
+      <c r="P378" t="n" s="99">
+        <v>40.19096385373209</v>
+      </c>
+      <c r="Q378" s="113"/>
+      <c r="R378" s="113"/>
+    </row>
+    <row r="388" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="H388" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I388" s="63"/>
+      <c r="J388" s="63"/>
+      <c r="K388" s="63"/>
+      <c r="L388" s="63"/>
+      <c r="M388" s="63"/>
+      <c r="N388" s="40"/>
+    </row>
+    <row r="391" spans="2:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C391" s="130"/>
+      <c r="D391" s="130"/>
+      <c r="E391" s="130"/>
+      <c r="F391" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="G391" s="130"/>
+      <c r="H391" s="130"/>
+      <c r="I391" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="J391" s="130"/>
+      <c r="K391" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="L391" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="M391" s="129"/>
+      <c r="N391" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="O391" s="129"/>
+      <c r="P391" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q391" s="130"/>
+      <c r="R391" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="S391" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="T391" s="129"/>
+    </row>
+    <row r="392">
+      <c r="B392" t="s" s="75">
         <v>164</v>
       </c>
-      <c r="E259" s="99"/>
-      <c r="F259" s="99"/>
-      <c r="G259" s="99"/>
-      <c r="I259" s="100"/>
-      <c r="J259" s="98"/>
-    </row>
-    <row r="260" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D260" s="78" t="s">
+      <c r="F392" t="s" s="75">
         <v>165</v>
       </c>
-      <c r="E260" s="99"/>
-      <c r="F260" s="99"/>
-      <c r="G260" s="99"/>
-      <c r="I260" s="100"/>
-      <c r="J260" s="98"/>
-    </row>
-    <row r="263" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="G263" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H263" s="106"/>
-      <c r="I263" s="106"/>
-      <c r="J263" s="106"/>
-      <c r="K263" s="106"/>
-      <c r="L263" s="106"/>
-      <c r="M263" s="25"/>
-    </row>
-    <row r="266" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B266" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C266" s="114"/>
-      <c r="D266" s="114"/>
-      <c r="E266" s="26"/>
-      <c r="F266" s="26"/>
-      <c r="G266" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="H266" s="114"/>
-    </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E267" s="37"/>
-    </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E268" s="37"/>
-    </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E269" s="37"/>
-    </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E270" s="37"/>
-    </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E271" s="37"/>
-    </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E272" s="37"/>
-    </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E273" s="37"/>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E274" s="37"/>
-    </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E275" s="37"/>
-    </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E276" s="37"/>
-    </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E277" s="37"/>
-    </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E278" s="37"/>
-    </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B279" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="C279" s="115"/>
-      <c r="D279" s="115"/>
-      <c r="E279" s="37"/>
-      <c r="G279" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="H279" s="115"/>
-    </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C280" s="115"/>
-      <c r="D280" s="115"/>
-      <c r="G280" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H280" s="115"/>
-    </row>
-    <row r="282" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B282" s="78" t="s">
+      <c r="I392" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="K392" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="L392" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="N392" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="P392" t="n" s="75">
+        <v>200.0</v>
+      </c>
+      <c r="R392" t="n" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="S392" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="393" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" t="s" s="106">
+        <v>166</v>
+      </c>
+      <c r="C393" s="72"/>
+      <c r="D393" s="72"/>
+      <c r="E393" s="72"/>
+      <c r="F393" t="s" s="106">
+        <v>167</v>
+      </c>
+      <c r="G393" s="72"/>
+      <c r="H393" s="72"/>
+      <c r="I393" t="n" s="106">
+        <v>35.0</v>
+      </c>
+      <c r="J393" s="72"/>
+      <c r="K393" t="n" s="106">
+        <v>15.0</v>
+      </c>
+      <c r="L393" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M393" s="72"/>
+      <c r="N393" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O393" s="72"/>
+      <c r="P393" t="n" s="106">
+        <v>200.29206433677447</v>
+      </c>
+      <c r="Q393" s="72"/>
+      <c r="R393" t="n" s="106">
+        <v>0.175</v>
+      </c>
+      <c r="S393" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T393" s="72"/>
+    </row>
+    <row r="394" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" t="s" s="75">
         <v>168</v>
       </c>
-      <c r="C282" s="26"/>
-      <c r="D282" s="26"/>
-      <c r="G282" s="26"/>
-    </row>
-    <row r="283" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B283" s="26" t="s">
+      <c r="C394" s="72"/>
+      <c r="D394" s="72"/>
+      <c r="E394" s="72"/>
+      <c r="F394" t="s" s="75">
         <v>169</v>
       </c>
-      <c r="C283" s="26"/>
-      <c r="D283" s="26"/>
-      <c r="E283" s="26"/>
-    </row>
-    <row r="297" spans="7:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G297" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="H297" s="102"/>
-      <c r="I297" s="102"/>
-      <c r="J297" s="102"/>
-      <c r="K297" s="102"/>
-      <c r="L297" s="102"/>
-    </row>
-    <row r="327">
-      <c r="D327" t="s" s="78">
+      <c r="G394" s="72"/>
+      <c r="H394" s="72"/>
+      <c r="I394" t="n" s="75">
+        <v>48.0</v>
+      </c>
+      <c r="J394" s="72"/>
+      <c r="K394" t="n" s="75">
+        <v>28.0</v>
+      </c>
+      <c r="L394" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M394" s="72"/>
+      <c r="N394" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O394" s="72"/>
+      <c r="P394" t="n" s="75">
+        <v>200.7603258314073</v>
+      </c>
+      <c r="Q394" s="72"/>
+      <c r="R394" t="n" s="75">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="S394" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T394" s="72"/>
+    </row>
+    <row r="395" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" t="s" s="106">
+        <v>170</v>
+      </c>
+      <c r="C395" s="72"/>
+      <c r="D395" s="72"/>
+      <c r="E395" s="72"/>
+      <c r="F395" t="s" s="106">
+        <v>171</v>
+      </c>
+      <c r="G395" s="72"/>
+      <c r="H395" s="72"/>
+      <c r="I395" t="n" s="106">
+        <v>20.0</v>
+      </c>
+      <c r="J395" s="72"/>
+      <c r="K395" t="n" s="106">
+        <v>2.0</v>
+      </c>
+      <c r="L395" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M395" s="72"/>
+      <c r="N395" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O395" s="72"/>
+      <c r="P395" t="n" s="106">
+        <v>201.05765990291255</v>
+      </c>
+      <c r="Q395" s="72"/>
+      <c r="R395" t="n" s="106">
+        <v>0.09900990099009901</v>
+      </c>
+      <c r="S395" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T395" s="72"/>
+    </row>
+    <row r="396" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" t="s" s="75">
+        <v>172</v>
+      </c>
+      <c r="C396" s="72"/>
+      <c r="D396" s="72"/>
+      <c r="E396" s="72"/>
+      <c r="F396" t="s" s="75">
+        <v>173</v>
+      </c>
+      <c r="G396" s="72"/>
+      <c r="H396" s="72"/>
+      <c r="I396" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="J396" s="72"/>
+      <c r="K396" t="n" s="75">
+        <v>29.0</v>
+      </c>
+      <c r="L396" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M396" s="72"/>
+      <c r="N396" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O396" s="72"/>
+      <c r="P396" t="n" s="75">
+        <v>201.66351963462736</v>
+      </c>
+      <c r="Q396" s="72"/>
+      <c r="R396" t="n" s="75">
+        <v>0.08733624454148471</v>
+      </c>
+      <c r="S396" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T396" s="72"/>
+    </row>
+    <row r="397" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" t="s" s="106">
+        <v>174</v>
+      </c>
+      <c r="C397" s="72"/>
+      <c r="D397" s="72"/>
+      <c r="E397" s="72"/>
+      <c r="F397" t="s" s="106">
+        <v>175</v>
+      </c>
+      <c r="G397" s="72"/>
+      <c r="H397" s="72"/>
+      <c r="I397" t="n" s="106">
+        <v>29.0</v>
+      </c>
+      <c r="J397" s="72"/>
+      <c r="K397" t="n" s="106">
+        <v>9.0</v>
+      </c>
+      <c r="L397" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M397" s="72"/>
+      <c r="N397" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O397" s="72"/>
+      <c r="P397" t="n" s="106">
+        <v>201.76156325597594</v>
+      </c>
+      <c r="Q397" s="72"/>
+      <c r="R397" t="n" s="106">
+        <v>0.13875598086124402</v>
+      </c>
+      <c r="S397" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T397" s="72"/>
+    </row>
+    <row r="398" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" t="s" s="75">
+        <v>176</v>
+      </c>
+      <c r="C398" s="72"/>
+      <c r="D398" s="72"/>
+      <c r="E398" s="72"/>
+      <c r="F398" t="s" s="75">
+        <v>177</v>
+      </c>
+      <c r="G398" s="72"/>
+      <c r="H398" s="72"/>
+      <c r="I398" t="n" s="75">
+        <v>23.0</v>
+      </c>
+      <c r="J398" s="72"/>
+      <c r="K398" t="n" s="75">
+        <v>3.0</v>
+      </c>
+      <c r="L398" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M398" s="72"/>
+      <c r="N398" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O398" s="72"/>
+      <c r="P398" t="n" s="75">
+        <v>201.82512783135863</v>
+      </c>
+      <c r="Q398" s="72"/>
+      <c r="R398" t="n" s="75">
+        <v>0.11330049261083744</v>
+      </c>
+      <c r="S398" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T398" s="72"/>
+    </row>
+    <row r="399" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" t="s" s="106">
         <v>178</v>
       </c>
-    </row>
-    <row r="328">
-      <c r="D328" t="s" s="78">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="331" spans="4:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="G331" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="H331" s="106"/>
-      <c r="I331" s="106"/>
-      <c r="J331" s="106"/>
-      <c r="K331" s="106"/>
-    </row>
-    <row r="361" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D361" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E361" s="26"/>
-      <c r="F361" s="26"/>
-      <c r="G361" s="26"/>
-      <c r="H361" s="26"/>
-      <c r="K361" s="113">
-        <f>popularHours</f>
-        <v>0</v>
-      </c>
-      <c r="L361" s="113"/>
-      <c r="M361" s="113"/>
-      <c r="N361" s="113"/>
-    </row>
-    <row r="366" spans="4:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="F366" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="G366" s="102"/>
-      <c r="H366" s="102"/>
-      <c r="I366" s="102"/>
-      <c r="J366" s="102"/>
-      <c r="K366" s="102"/>
-      <c r="L366" s="102"/>
-      <c r="M366" s="43"/>
-    </row>
-    <row r="370" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="C370" s="137"/>
-      <c r="D370" s="137"/>
-      <c r="E370" s="137"/>
-      <c r="F370" s="137"/>
-      <c r="G370" s="137"/>
-      <c r="H370" s="135">
-        <f>keyWasClicked</f>
-        <v>0</v>
-      </c>
-      <c r="I370" s="135"/>
-    </row>
-    <row r="371" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="C371" s="138"/>
-      <c r="D371" s="138"/>
-      <c r="E371" s="138"/>
-      <c r="F371" s="138"/>
-      <c r="G371" s="138"/>
-      <c r="H371" s="136">
-        <f>keyReachGoal</f>
-        <v>0</v>
-      </c>
-      <c r="I371" s="136"/>
-    </row>
-    <row r="372" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="C372" s="139"/>
-      <c r="D372" s="139"/>
-      <c r="E372" s="139"/>
-      <c r="F372" s="139"/>
-      <c r="G372" s="139"/>
-      <c r="H372" s="135">
-        <f>keyHasConversationPer</f>
-        <v>0</v>
-      </c>
-      <c r="I372" s="135"/>
-    </row>
-    <row r="376" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K376" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="L376" s="116"/>
-      <c r="M376" s="116"/>
-      <c r="N376" s="116"/>
-      <c r="O376" s="132">
-        <f>sendAll</f>
-        <v>0</v>
-      </c>
-      <c r="P376" s="132"/>
-      <c r="Q376" s="132"/>
-    </row>
-    <row r="377" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K377" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="L377" s="117"/>
-      <c r="M377" s="117"/>
-      <c r="N377" s="117"/>
-      <c r="O377" s="133">
-        <f>costConversation</f>
-        <v>0</v>
-      </c>
-      <c r="P377" s="133"/>
-      <c r="Q377" s="133"/>
-    </row>
-    <row r="378" spans="2:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K378" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="L378" s="116"/>
-      <c r="M378" s="116"/>
-      <c r="N378" s="116"/>
-      <c r="O378" s="134">
-        <f>effecientConversation</f>
-        <v>0</v>
-      </c>
-      <c r="P378" s="134"/>
-      <c r="Q378" s="134"/>
-    </row>
-    <row r="388" spans="3:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G388" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="H388" s="102"/>
-      <c r="I388" s="102"/>
-      <c r="J388" s="102"/>
-      <c r="K388" s="102"/>
-      <c r="L388" s="102"/>
-      <c r="M388" s="43"/>
-    </row>
-    <row r="391" spans="3:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C391" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D391" s="109"/>
-      <c r="E391" s="109"/>
-      <c r="F391" s="109" t="s">
-        <v>88</v>
-      </c>
-      <c r="G391" s="109"/>
-      <c r="H391" s="109"/>
-      <c r="I391" s="109"/>
-      <c r="J391" s="52"/>
-      <c r="K391" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="L391" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="M391" s="54"/>
-      <c r="N391" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="O391" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="P391" s="109"/>
-    </row>
-    <row r="392" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C392" s="107"/>
-      <c r="D392" s="107"/>
-      <c r="E392" s="107"/>
-      <c r="F392" s="107"/>
-      <c r="G392" s="107"/>
-      <c r="H392" s="107"/>
-      <c r="I392" s="107"/>
-      <c r="J392" s="47"/>
-      <c r="K392" s="48"/>
-      <c r="L392" s="49"/>
-      <c r="M392" s="49"/>
-      <c r="N392" s="47"/>
-      <c r="O392" s="107"/>
-      <c r="P392" s="107"/>
-    </row>
-    <row r="393" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C393" s="108"/>
-      <c r="D393" s="108"/>
-      <c r="E393" s="108"/>
-      <c r="F393" s="108"/>
-      <c r="G393" s="108"/>
-      <c r="H393" s="108"/>
-      <c r="I393" s="108"/>
-      <c r="J393" s="46"/>
-      <c r="K393" s="50"/>
-      <c r="L393" s="51"/>
-      <c r="M393" s="51"/>
-      <c r="N393" s="46"/>
-      <c r="O393" s="108"/>
-      <c r="P393" s="108"/>
-    </row>
-    <row r="394" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C394" s="107"/>
-      <c r="D394" s="107"/>
-      <c r="E394" s="107"/>
-      <c r="F394" s="107"/>
-      <c r="G394" s="107"/>
-      <c r="H394" s="107"/>
-      <c r="I394" s="107"/>
-      <c r="J394" s="47"/>
-      <c r="K394" s="48"/>
-      <c r="L394" s="49"/>
-      <c r="M394" s="49"/>
-      <c r="N394" s="47"/>
-      <c r="O394" s="107"/>
-      <c r="P394" s="107"/>
-    </row>
-    <row r="395" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C395" s="108"/>
-      <c r="D395" s="108"/>
-      <c r="E395" s="108"/>
-      <c r="F395" s="108"/>
-      <c r="G395" s="108"/>
-      <c r="H395" s="108"/>
-      <c r="I395" s="108"/>
-      <c r="J395" s="46"/>
-      <c r="K395" s="50"/>
-      <c r="L395" s="51"/>
-      <c r="M395" s="51"/>
-      <c r="N395" s="46"/>
-      <c r="O395" s="108"/>
-      <c r="P395" s="108"/>
-    </row>
-    <row r="396" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C396" s="107"/>
-      <c r="D396" s="107"/>
-      <c r="E396" s="107"/>
-      <c r="F396" s="107"/>
-      <c r="G396" s="107"/>
-      <c r="H396" s="107"/>
-      <c r="I396" s="107"/>
-      <c r="J396" s="47"/>
-      <c r="K396" s="48"/>
-      <c r="L396" s="49"/>
-      <c r="M396" s="49"/>
-      <c r="N396" s="47"/>
-      <c r="O396" s="107"/>
-      <c r="P396" s="107"/>
-    </row>
-    <row r="397" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C397" s="104"/>
-      <c r="D397" s="104"/>
-      <c r="E397" s="104"/>
-      <c r="F397" s="104"/>
-      <c r="G397" s="104"/>
-      <c r="H397" s="104"/>
-      <c r="I397" s="104"/>
-      <c r="J397" s="55"/>
-      <c r="K397" s="56"/>
-      <c r="L397" s="57"/>
-      <c r="M397" s="57"/>
-      <c r="N397" s="55"/>
-      <c r="O397" s="104"/>
-      <c r="P397" s="104"/>
-    </row>
-    <row r="398" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C398" s="103"/>
-      <c r="D398" s="103"/>
-      <c r="E398" s="103"/>
-      <c r="F398" s="103"/>
-      <c r="G398" s="103"/>
-      <c r="H398" s="103"/>
-      <c r="I398" s="103"/>
-      <c r="J398" s="58"/>
-      <c r="K398" s="59"/>
-      <c r="L398" s="60"/>
-      <c r="M398" s="60"/>
-      <c r="N398" s="58"/>
-      <c r="O398" s="103"/>
-      <c r="P398" s="103"/>
-    </row>
-    <row r="399" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C399" s="104"/>
-      <c r="D399" s="104"/>
-      <c r="E399" s="104"/>
-      <c r="F399" s="104"/>
-      <c r="G399" s="104"/>
-      <c r="H399" s="104"/>
-      <c r="I399" s="104"/>
-      <c r="J399" s="55"/>
-      <c r="K399" s="56"/>
-      <c r="L399" s="57"/>
-      <c r="M399" s="57"/>
-      <c r="N399" s="55"/>
-      <c r="O399" s="104"/>
-      <c r="P399" s="104"/>
-    </row>
-    <row r="400" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C400" s="103"/>
-      <c r="D400" s="103"/>
-      <c r="E400" s="103"/>
-      <c r="F400" s="103"/>
-      <c r="G400" s="103"/>
-      <c r="H400" s="103"/>
-      <c r="I400" s="103"/>
-      <c r="J400" s="58"/>
-      <c r="K400" s="59"/>
-      <c r="L400" s="60"/>
-      <c r="M400" s="60"/>
-      <c r="N400" s="58"/>
-      <c r="O400" s="103"/>
-      <c r="P400" s="103"/>
-    </row>
-    <row r="401" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C401" s="104"/>
-      <c r="D401" s="104"/>
-      <c r="E401" s="104"/>
-      <c r="F401" s="104"/>
-      <c r="G401" s="104"/>
-      <c r="H401" s="104"/>
-      <c r="I401" s="104"/>
-      <c r="J401" s="55"/>
-      <c r="K401" s="56"/>
-      <c r="L401" s="57"/>
-      <c r="M401" s="57"/>
-      <c r="N401" s="55"/>
-      <c r="O401" s="104"/>
-      <c r="P401" s="104"/>
-    </row>
-    <row r="402" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C402" s="101"/>
-      <c r="D402" s="101"/>
-      <c r="E402" s="101"/>
-      <c r="F402" s="101"/>
-      <c r="G402" s="101"/>
-      <c r="H402" s="101"/>
-      <c r="I402" s="101"/>
-      <c r="J402" s="64"/>
-      <c r="K402" s="65"/>
-      <c r="L402" s="66"/>
-      <c r="M402" s="66"/>
-      <c r="N402" s="64"/>
-      <c r="O402" s="101"/>
-      <c r="P402" s="101"/>
-    </row>
-    <row r="403" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C403" s="105"/>
-      <c r="D403" s="105"/>
-      <c r="E403" s="105"/>
-      <c r="F403" s="105"/>
-      <c r="G403" s="105"/>
-      <c r="H403" s="105"/>
-      <c r="I403" s="105"/>
-      <c r="J403" s="61"/>
-      <c r="K403" s="62"/>
-      <c r="L403" s="63"/>
-      <c r="M403" s="63"/>
-      <c r="N403" s="61"/>
-      <c r="O403" s="105"/>
-      <c r="P403" s="105"/>
-    </row>
-    <row r="404" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C404" s="101"/>
-      <c r="D404" s="101"/>
-      <c r="E404" s="101"/>
-      <c r="F404" s="101"/>
-      <c r="G404" s="101"/>
-      <c r="H404" s="101"/>
-      <c r="I404" s="101"/>
-      <c r="J404" s="64"/>
-      <c r="K404" s="65"/>
-      <c r="L404" s="66"/>
-      <c r="M404" s="66"/>
-      <c r="N404" s="64"/>
-      <c r="O404" s="101"/>
-      <c r="P404" s="101"/>
-    </row>
-    <row r="405" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C405" s="105"/>
-      <c r="D405" s="105"/>
-      <c r="E405" s="105"/>
-      <c r="F405" s="105"/>
-      <c r="G405" s="105"/>
-      <c r="H405" s="105"/>
-      <c r="I405" s="105"/>
-      <c r="J405" s="61"/>
-      <c r="K405" s="62"/>
-      <c r="L405" s="63"/>
-      <c r="M405" s="63"/>
-      <c r="N405" s="61"/>
-      <c r="O405" s="105"/>
-      <c r="P405" s="105"/>
-    </row>
-    <row r="406" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C406" s="101"/>
-      <c r="D406" s="101"/>
-      <c r="E406" s="101"/>
-      <c r="F406" s="101"/>
-      <c r="G406" s="101"/>
-      <c r="H406" s="101"/>
-      <c r="I406" s="101"/>
-      <c r="J406" s="64"/>
-      <c r="K406" s="65"/>
-      <c r="L406" s="66"/>
-      <c r="M406" s="66"/>
-      <c r="N406" s="64"/>
-      <c r="O406" s="101"/>
-      <c r="P406" s="101"/>
+      <c r="C399" s="72"/>
+      <c r="D399" s="72"/>
+      <c r="E399" s="72"/>
+      <c r="F399" t="s" s="106">
+        <v>179</v>
+      </c>
+      <c r="G399" s="72"/>
+      <c r="H399" s="72"/>
+      <c r="I399" t="n" s="106">
+        <v>30.0</v>
+      </c>
+      <c r="J399" s="72"/>
+      <c r="K399" t="n" s="106">
+        <v>10.0</v>
+      </c>
+      <c r="L399" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M399" s="72"/>
+      <c r="N399" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O399" s="72"/>
+      <c r="P399" t="n" s="106">
+        <v>202.33933995233048</v>
+      </c>
+      <c r="Q399" s="72"/>
+      <c r="R399" t="n" s="106">
+        <v>0.15</v>
+      </c>
+      <c r="S399" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T399" s="72"/>
+    </row>
+    <row r="400" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" t="s" s="75">
+        <v>180</v>
+      </c>
+      <c r="C400" s="72"/>
+      <c r="D400" s="72"/>
+      <c r="E400" s="72"/>
+      <c r="F400" t="s" s="75">
+        <v>181</v>
+      </c>
+      <c r="G400" s="72"/>
+      <c r="H400" s="72"/>
+      <c r="I400" t="n" s="75">
+        <v>25.0</v>
+      </c>
+      <c r="J400" s="72"/>
+      <c r="K400" t="n" s="75">
+        <v>5.0</v>
+      </c>
+      <c r="L400" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M400" s="72"/>
+      <c r="N400" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O400" s="72"/>
+      <c r="P400" t="n" s="75">
+        <v>203.2058886025177</v>
+      </c>
+      <c r="Q400" s="72"/>
+      <c r="R400" t="n" s="75">
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="S400" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T400" s="72"/>
+    </row>
+    <row r="401" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" t="s" s="106">
+        <v>182</v>
+      </c>
+      <c r="C401" s="72"/>
+      <c r="D401" s="72"/>
+      <c r="E401" s="72"/>
+      <c r="F401" t="s" s="106">
+        <v>183</v>
+      </c>
+      <c r="G401" s="72"/>
+      <c r="H401" s="72"/>
+      <c r="I401" t="n" s="106">
+        <v>24.0</v>
+      </c>
+      <c r="J401" s="72"/>
+      <c r="K401" t="n" s="106">
+        <v>4.0</v>
+      </c>
+      <c r="L401" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M401" s="72"/>
+      <c r="N401" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O401" s="72"/>
+      <c r="P401" t="n" s="106">
+        <v>203.64635137591708</v>
+      </c>
+      <c r="Q401" s="72"/>
+      <c r="R401" t="n" s="106">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="S401" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T401" s="72"/>
+    </row>
+    <row r="402" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" t="s" s="75">
+        <v>184</v>
+      </c>
+      <c r="C402" s="72"/>
+      <c r="D402" s="72"/>
+      <c r="E402" s="72"/>
+      <c r="F402" t="s" s="75">
+        <v>185</v>
+      </c>
+      <c r="G402" s="72"/>
+      <c r="H402" s="72"/>
+      <c r="I402" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="J402" s="72"/>
+      <c r="K402" t="n" s="75">
+        <v>22.0</v>
+      </c>
+      <c r="L402" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M402" s="72"/>
+      <c r="N402" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O402" s="72"/>
+      <c r="P402" t="n" s="75">
+        <v>204.39632251639216</v>
+      </c>
+      <c r="Q402" s="72"/>
+      <c r="R402" t="n" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="S402" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T402" s="72"/>
+    </row>
+    <row r="403" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" t="s" s="106">
+        <v>186</v>
+      </c>
+      <c r="C403" s="72"/>
+      <c r="D403" s="72"/>
+      <c r="E403" s="72"/>
+      <c r="F403" t="s" s="106">
+        <v>187</v>
+      </c>
+      <c r="G403" s="72"/>
+      <c r="H403" s="72"/>
+      <c r="I403" t="n" s="106">
+        <v>51.0</v>
+      </c>
+      <c r="J403" s="72"/>
+      <c r="K403" t="n" s="106">
+        <v>31.0</v>
+      </c>
+      <c r="L403" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M403" s="72"/>
+      <c r="N403" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O403" s="72"/>
+      <c r="P403" t="n" s="106">
+        <v>205.07109730297825</v>
+      </c>
+      <c r="Q403" s="72"/>
+      <c r="R403" t="n" s="106">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="S403" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T403" s="72"/>
+    </row>
+    <row r="404" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" t="s" s="75">
+        <v>188</v>
+      </c>
+      <c r="C404" s="72"/>
+      <c r="D404" s="72"/>
+      <c r="E404" s="72"/>
+      <c r="F404" t="s" s="75">
+        <v>189</v>
+      </c>
+      <c r="G404" s="72"/>
+      <c r="H404" s="72"/>
+      <c r="I404" t="n" s="75">
+        <v>31.0</v>
+      </c>
+      <c r="J404" s="72"/>
+      <c r="K404" t="n" s="75">
+        <v>11.0</v>
+      </c>
+      <c r="L404" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M404" s="72"/>
+      <c r="N404" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O404" s="72"/>
+      <c r="P404" t="n" s="75">
+        <v>207.31206444395022</v>
+      </c>
+      <c r="Q404" s="72"/>
+      <c r="R404" t="n" s="75">
+        <v>0.155</v>
+      </c>
+      <c r="S404" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T404" s="72"/>
+    </row>
+    <row r="405" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" t="s" s="106">
+        <v>190</v>
+      </c>
+      <c r="C405" s="72"/>
+      <c r="D405" s="72"/>
+      <c r="E405" s="72"/>
+      <c r="F405" t="s" s="106">
+        <v>191</v>
+      </c>
+      <c r="G405" s="72"/>
+      <c r="H405" s="72"/>
+      <c r="I405" t="n" s="106">
+        <v>20.0</v>
+      </c>
+      <c r="J405" s="72"/>
+      <c r="K405" t="n" s="106">
+        <v>24.0</v>
+      </c>
+      <c r="L405" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M405" s="72"/>
+      <c r="N405" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O405" s="72"/>
+      <c r="P405" t="n" s="106">
+        <v>207.35045643225763</v>
+      </c>
+      <c r="Q405" s="72"/>
+      <c r="R405" t="n" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="S405" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T405" s="72"/>
+    </row>
+    <row r="406" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" t="s" s="75">
+        <v>192</v>
+      </c>
+      <c r="C406" s="72"/>
+      <c r="D406" s="72"/>
+      <c r="E406" s="72"/>
+      <c r="F406" t="s" s="75">
+        <v>193</v>
+      </c>
+      <c r="G406" s="72"/>
+      <c r="H406" s="72"/>
+      <c r="I406" t="n" s="75">
+        <v>59.0</v>
+      </c>
+      <c r="J406" s="72"/>
+      <c r="K406" t="n" s="75">
+        <v>39.0</v>
+      </c>
+      <c r="L406" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="M406" s="72"/>
+      <c r="N406" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="O406" s="72"/>
+      <c r="P406" t="n" s="75">
+        <v>207.51963889086755</v>
+      </c>
+      <c r="Q406" s="72"/>
+      <c r="R406" t="n" s="75">
+        <v>0.295</v>
+      </c>
+      <c r="S406" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T406" s="72"/>
+    </row>
+    <row r="407" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" t="s" s="106">
+        <v>194</v>
+      </c>
+      <c r="C407" s="72"/>
+      <c r="D407" s="72"/>
+      <c r="E407" s="72"/>
+      <c r="F407" t="s" s="106">
+        <v>195</v>
+      </c>
+      <c r="G407" s="72"/>
+      <c r="H407" s="72"/>
+      <c r="I407" t="n" s="106">
+        <v>20.0</v>
+      </c>
+      <c r="J407" s="72"/>
+      <c r="K407" t="n" s="106">
+        <v>14.0</v>
+      </c>
+      <c r="L407" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="M407" s="72"/>
+      <c r="N407" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="O407" s="72"/>
+      <c r="P407" t="n" s="106">
+        <v>209.26879280428793</v>
+      </c>
+      <c r="Q407" s="72"/>
+      <c r="R407" t="n" s="106">
+        <v>0.09345794392523364</v>
+      </c>
+      <c r="S407" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T407" s="72"/>
+    </row>
+    <row r="408">
+      <c r="B408" t="s" s="75">
+        <v>196</v>
+      </c>
+      <c r="F408" t="s" s="75">
+        <v>197</v>
+      </c>
+      <c r="I408" t="n" s="75">
+        <v>43.0</v>
+      </c>
+      <c r="K408" t="n" s="75">
+        <v>23.0</v>
+      </c>
+      <c r="L408" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="N408" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="P408" t="n" s="75">
+        <v>209.69684886219392</v>
+      </c>
+      <c r="R408" t="n" s="75">
+        <v>0.215</v>
+      </c>
+      <c r="S408" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" t="s" s="106">
+        <v>198</v>
+      </c>
+      <c r="F409" t="s" s="106">
+        <v>199</v>
+      </c>
+      <c r="I409" t="n" s="106">
+        <v>37.0</v>
+      </c>
+      <c r="K409" t="n" s="106">
+        <v>17.0</v>
+      </c>
+      <c r="L409" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="N409" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="P409" t="n" s="106">
+        <v>210.0653278381877</v>
+      </c>
+      <c r="R409" t="n" s="106">
+        <v>0.185</v>
+      </c>
+      <c r="S409" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" t="s" s="75">
+        <v>200</v>
+      </c>
+      <c r="F410" t="s" s="75">
+        <v>201</v>
+      </c>
+      <c r="I410" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="K410" t="n" s="75">
+        <v>18.0</v>
+      </c>
+      <c r="L410" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="N410" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="P410" t="n" s="75">
+        <v>210.31313285901282</v>
+      </c>
+      <c r="R410" t="n" s="75">
+        <v>0.09174311926605505</v>
+      </c>
+      <c r="S410" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" t="s" s="106">
+        <v>202</v>
+      </c>
+      <c r="F411" t="s" s="106">
+        <v>203</v>
+      </c>
+      <c r="I411" t="n" s="106">
+        <v>57.0</v>
+      </c>
+      <c r="K411" t="n" s="106">
+        <v>37.0</v>
+      </c>
+      <c r="L411" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="N411" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="P411" t="n" s="106">
+        <v>212.01354026737178</v>
+      </c>
+      <c r="R411" t="n" s="106">
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="S411" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" t="s" s="75">
+        <v>204</v>
+      </c>
+      <c r="F412" t="s" s="75">
+        <v>205</v>
+      </c>
+      <c r="I412" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="K412" t="n" s="75">
+        <v>35.0</v>
+      </c>
+      <c r="L412" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="N412" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="P412" t="n" s="75">
+        <v>212.73643457505412</v>
+      </c>
+      <c r="R412" t="n" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="S412" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" t="s" s="106">
+        <v>206</v>
+      </c>
+      <c r="F413" t="s" s="106">
+        <v>207</v>
+      </c>
+      <c r="I413" t="n" s="106">
+        <v>46.0</v>
+      </c>
+      <c r="K413" t="n" s="106">
+        <v>26.0</v>
+      </c>
+      <c r="L413" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="N413" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="P413" t="n" s="106">
+        <v>216.07122069824328</v>
+      </c>
+      <c r="R413" t="n" s="106">
+        <v>0.20353982300884957</v>
+      </c>
+      <c r="S413" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" t="s" s="75">
+        <v>208</v>
+      </c>
+      <c r="F414" t="s" s="75">
+        <v>209</v>
+      </c>
+      <c r="I414" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="K414" t="n" s="75">
+        <v>38.0</v>
+      </c>
+      <c r="L414" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="N414" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="P414" t="n" s="75">
+        <v>227.50673000849733</v>
+      </c>
+      <c r="R414" t="n" s="75">
+        <v>0.08403361344537816</v>
+      </c>
+      <c r="S414" t="e" s="75">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="s" s="106">
+        <v>210</v>
+      </c>
+      <c r="F415" t="s" s="106">
+        <v>211</v>
+      </c>
+      <c r="I415" t="n" s="106">
+        <v>20.0</v>
+      </c>
+      <c r="K415" t="n" s="106">
+        <v>30.0</v>
+      </c>
+      <c r="L415" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="N415" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="P415" t="n" s="106">
+        <v>229.90866759350024</v>
+      </c>
+      <c r="R415" t="n" s="106">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S415" t="e" s="106">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" t="s" s="81">
+        <v>212</v>
+      </c>
+      <c r="F416" t="s" s="81">
+        <v>213</v>
+      </c>
+      <c r="I416" t="n" s="81">
+        <v>21.0</v>
+      </c>
+      <c r="K416" t="n" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="L416" t="n" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="N416" t="n" s="81">
+        <v>0.047619047619047616</v>
+      </c>
+      <c r="P416" t="n" s="81">
+        <v>200.3570010542816</v>
+      </c>
+      <c r="R416" t="n" s="81">
+        <v>0.105</v>
+      </c>
+      <c r="S416" t="n" s="81">
+        <v>200.3570010542816</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="B417" t="s" s="84">
+        <v>214</v>
+      </c>
+      <c r="F417" t="s" s="84">
+        <v>215</v>
+      </c>
+      <c r="I417" t="n" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="K417" t="n" s="84">
+        <v>6.0</v>
+      </c>
+      <c r="L417" t="n" s="84">
+        <v>6.0</v>
+      </c>
+      <c r="N417" t="n" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="P417" t="n" s="84">
+        <v>205.96245519250908</v>
+      </c>
+      <c r="R417" t="n" s="84">
+        <v>0.0970873786407767</v>
+      </c>
+      <c r="S417" t="n" s="84">
+        <v>34.32707586541818</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="B418" t="s" s="81">
+        <v>216</v>
+      </c>
+      <c r="F418" t="s" s="81">
+        <v>217</v>
+      </c>
+      <c r="I418" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="K418" t="n" s="81">
+        <v>7.0</v>
+      </c>
+      <c r="L418" t="n" s="81">
+        <v>7.0</v>
+      </c>
+      <c r="N418" t="n" s="81">
+        <v>0.35</v>
+      </c>
+      <c r="P418" t="n" s="81">
+        <v>200.72078228825166</v>
+      </c>
+      <c r="R418" t="n" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="S418" t="n" s="81">
+        <v>28.674397469750236</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" t="s" s="84">
+        <v>218</v>
+      </c>
+      <c r="F419" t="s" s="84">
+        <v>219</v>
+      </c>
+      <c r="I419" t="n" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="K419" t="n" s="84">
+        <v>8.0</v>
+      </c>
+      <c r="L419" t="n" s="84">
+        <v>8.0</v>
+      </c>
+      <c r="N419" t="n" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="P419" t="n" s="84">
+        <v>202.60239734512678</v>
+      </c>
+      <c r="R419" t="n" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S419" t="n" s="84">
+        <v>25.325299668140847</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" t="s" s="81">
+        <v>220</v>
+      </c>
+      <c r="F420" t="s" s="81">
+        <v>221</v>
+      </c>
+      <c r="I420" t="n" s="81">
+        <v>32.0</v>
+      </c>
+      <c r="K420" t="n" s="81">
+        <v>12.0</v>
+      </c>
+      <c r="L420" t="n" s="81">
+        <v>12.0</v>
+      </c>
+      <c r="N420" t="n" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="P420" t="n" s="81">
+        <v>200.38297599059015</v>
+      </c>
+      <c r="R420" t="n" s="81">
+        <v>0.16</v>
+      </c>
+      <c r="S420" t="n" s="81">
+        <v>16.69858133254918</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" t="s" s="84">
+        <v>222</v>
+      </c>
+      <c r="F421" t="s" s="84">
+        <v>223</v>
+      </c>
+      <c r="I421" t="n" s="84">
+        <v>33.0</v>
+      </c>
+      <c r="K421" t="n" s="84">
+        <v>13.0</v>
+      </c>
+      <c r="L421" t="n" s="84">
+        <v>13.0</v>
+      </c>
+      <c r="N421" t="n" s="84">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="P421" t="n" s="84">
+        <v>208.19974331512574</v>
+      </c>
+      <c r="R421" t="n" s="84">
+        <v>0.165</v>
+      </c>
+      <c r="S421" t="n" s="84">
+        <v>16.015364870394286</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="B422" t="s" s="81">
+        <v>224</v>
+      </c>
+      <c r="F422" t="s" s="81">
+        <v>225</v>
+      </c>
+      <c r="I422" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="K422" t="n" s="81">
+        <v>16.0</v>
+      </c>
+      <c r="L422" t="n" s="81">
+        <v>16.0</v>
+      </c>
+      <c r="N422" t="n" s="81">
+        <v>0.8</v>
+      </c>
+      <c r="P422" t="n" s="81">
+        <v>210.5856642932553</v>
+      </c>
+      <c r="R422" t="n" s="81">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="S422" t="n" s="81">
+        <v>13.161604018328456</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" t="s" s="84">
+        <v>226</v>
+      </c>
+      <c r="F423" t="s" s="84">
+        <v>227</v>
+      </c>
+      <c r="I423" t="n" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="K423" t="n" s="84">
+        <v>19.0</v>
+      </c>
+      <c r="L423" t="n" s="84">
+        <v>19.0</v>
+      </c>
+      <c r="N423" t="n" s="84">
+        <v>0.95</v>
+      </c>
+      <c r="P423" t="n" s="84">
+        <v>215.786062453386</v>
+      </c>
+      <c r="R423" t="n" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S423" t="n" s="84">
+        <v>11.357161181757158</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" t="s" s="81">
+        <v>228</v>
+      </c>
+      <c r="F424" t="s" s="81">
+        <v>229</v>
+      </c>
+      <c r="I424" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="K424" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="L424" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="N424" t="n" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="P424" t="n" s="81">
+        <v>203.6022490128184</v>
+      </c>
+      <c r="R424" t="n" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="S424" t="n" s="81">
+        <v>10.18011245064092</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" t="s" s="84">
+        <v>230</v>
+      </c>
+      <c r="F425" t="s" s="84">
+        <v>231</v>
+      </c>
+      <c r="I425" t="n" s="84">
+        <v>41.0</v>
+      </c>
+      <c r="K425" t="n" s="84">
+        <v>21.0</v>
+      </c>
+      <c r="L425" t="n" s="84">
+        <v>21.0</v>
+      </c>
+      <c r="N425" t="n" s="84">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="P425" t="n" s="84">
+        <v>203.85758467744876</v>
+      </c>
+      <c r="R425" t="n" s="84">
+        <v>0.18552036199095023</v>
+      </c>
+      <c r="S425" t="n" s="84">
+        <v>9.707504032259465</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="B426" t="s" s="81">
+        <v>232</v>
+      </c>
+      <c r="F426" t="s" s="81">
+        <v>233</v>
+      </c>
+      <c r="I426" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="K426" t="n" s="81">
+        <v>25.0</v>
+      </c>
+      <c r="L426" t="n" s="81">
+        <v>25.0</v>
+      </c>
+      <c r="N426" t="n" s="81">
+        <v>1.25</v>
+      </c>
+      <c r="P426" t="n" s="81">
+        <v>202.81919227691407</v>
+      </c>
+      <c r="R426" t="n" s="81">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="S426" t="n" s="81">
+        <v>8.112767691076563</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" t="s" s="84">
+        <v>234</v>
+      </c>
+      <c r="F427" t="s" s="84">
+        <v>235</v>
+      </c>
+      <c r="I427" t="n" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="K427" t="n" s="84">
+        <v>27.0</v>
+      </c>
+      <c r="L427" t="n" s="84">
+        <v>27.0</v>
+      </c>
+      <c r="N427" t="n" s="84">
+        <v>1.35</v>
+      </c>
+      <c r="P427" t="n" s="84">
+        <v>212.6210872443308</v>
+      </c>
+      <c r="R427" t="n" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S427" t="n" s="84">
+        <v>7.874855083123363</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" t="s" s="81">
+        <v>236</v>
+      </c>
+      <c r="F428" t="s" s="81">
+        <v>237</v>
+      </c>
+      <c r="I428" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="K428" t="n" s="81">
+        <v>32.0</v>
+      </c>
+      <c r="L428" t="n" s="81">
+        <v>32.0</v>
+      </c>
+      <c r="N428" t="n" s="81">
+        <v>1.6</v>
+      </c>
+      <c r="P428" t="n" s="81">
+        <v>222.7495936734462</v>
+      </c>
+      <c r="R428" t="n" s="81">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="S428" t="n" s="81">
+        <v>6.960924802295194</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="B429" t="s" s="84">
+        <v>238</v>
+      </c>
+      <c r="F429" t="s" s="84">
+        <v>239</v>
+      </c>
+      <c r="I429" t="n" s="84">
+        <v>53.0</v>
+      </c>
+      <c r="K429" t="n" s="84">
+        <v>33.0</v>
+      </c>
+      <c r="L429" t="n" s="84">
+        <v>33.0</v>
+      </c>
+      <c r="N429" t="n" s="84">
+        <v>0.6226415094339622</v>
+      </c>
+      <c r="P429" t="n" s="84">
+        <v>224.9745083885974</v>
+      </c>
+      <c r="R429" t="n" s="84">
+        <v>0.22746781115879827</v>
+      </c>
+      <c r="S429" t="n" s="84">
+        <v>6.817409345109012</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" t="s" s="81">
+        <v>240</v>
+      </c>
+      <c r="F430" t="s" s="81">
+        <v>241</v>
+      </c>
+      <c r="I430" t="n" s="81">
+        <v>54.0</v>
+      </c>
+      <c r="K430" t="n" s="81">
+        <v>34.0</v>
+      </c>
+      <c r="L430" t="n" s="81">
+        <v>34.0</v>
+      </c>
+      <c r="N430" t="n" s="81">
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="P430" t="n" s="81">
+        <v>223.7427637274603</v>
+      </c>
+      <c r="R430" t="n" s="81">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="S430" t="n" s="81">
+        <v>6.580669521395891</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" t="s" s="84">
+        <v>242</v>
+      </c>
+      <c r="F431" t="s" s="84">
+        <v>243</v>
+      </c>
+      <c r="I431" t="n" s="84">
+        <v>56.0</v>
+      </c>
+      <c r="K431" t="n" s="84">
+        <v>36.0</v>
+      </c>
+      <c r="L431" t="n" s="84">
+        <v>36.0</v>
+      </c>
+      <c r="N431" t="n" s="84">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="P431" t="n" s="84">
+        <v>211.42246442887023</v>
+      </c>
+      <c r="R431" t="n" s="84">
+        <v>0.23728813559322035</v>
+      </c>
+      <c r="S431" t="n" s="84">
+        <v>5.8728462341352845</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="116">
-    <mergeCell ref="K124:N124"/>
-    <mergeCell ref="F105:P105"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="K113:N113"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="I128:N128"/>
+  <mergeCells count="75">
+    <mergeCell ref="D203:G203"/>
+    <mergeCell ref="H203:K203"/>
+    <mergeCell ref="L203:Q203"/>
+    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="F391:H391"/>
+    <mergeCell ref="L391:M391"/>
+    <mergeCell ref="N391:O391"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="I212:K212"/>
+    <mergeCell ref="I213:K213"/>
+    <mergeCell ref="O212:Q212"/>
+    <mergeCell ref="O213:Q213"/>
+    <mergeCell ref="K377:O377"/>
+    <mergeCell ref="K378:O378"/>
+    <mergeCell ref="P376:R376"/>
+    <mergeCell ref="S391:T391"/>
+    <mergeCell ref="I391:J391"/>
+    <mergeCell ref="P391:Q391"/>
+    <mergeCell ref="I128:O128"/>
     <mergeCell ref="F137:G137"/>
     <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="I211:K211"/>
+    <mergeCell ref="O211:Q211"/>
+    <mergeCell ref="M192:P192"/>
+    <mergeCell ref="M191:P191"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="K124:O124"/>
+    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="K116:O116"/>
+    <mergeCell ref="K113:O113"/>
+    <mergeCell ref="K120:O120"/>
     <mergeCell ref="F141:G141"/>
     <mergeCell ref="F142:G142"/>
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="H147:K147"/>
     <mergeCell ref="H148:K148"/>
-    <mergeCell ref="G263:L263"/>
     <mergeCell ref="H141:K141"/>
-    <mergeCell ref="N205:P205"/>
-    <mergeCell ref="G229:L229"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="H145:K145"/>
-    <mergeCell ref="L192:O192"/>
-    <mergeCell ref="E198:G198"/>
-    <mergeCell ref="N198:P198"/>
-    <mergeCell ref="I198:K198"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="I206:K206"/>
-    <mergeCell ref="I207:K207"/>
-    <mergeCell ref="N206:P206"/>
-    <mergeCell ref="N207:P207"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
     <mergeCell ref="B266:D266"/>
     <mergeCell ref="G266:H266"/>
     <mergeCell ref="B280:D280"/>
     <mergeCell ref="G280:H280"/>
     <mergeCell ref="B279:D279"/>
     <mergeCell ref="G279:H279"/>
-    <mergeCell ref="G297:L297"/>
-    <mergeCell ref="F366:L366"/>
-    <mergeCell ref="K376:N376"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
-    <mergeCell ref="F393:I393"/>
-    <mergeCell ref="O393:P393"/>
-    <mergeCell ref="I205:K205"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="G331:K331"/>
-    <mergeCell ref="K361:N361"/>
-    <mergeCell ref="K377:N377"/>
-    <mergeCell ref="K378:N378"/>
-    <mergeCell ref="O376:Q376"/>
-    <mergeCell ref="O377:Q377"/>
-    <mergeCell ref="O378:Q378"/>
-    <mergeCell ref="F397:I397"/>
-    <mergeCell ref="O397:P397"/>
-    <mergeCell ref="F404:I404"/>
-    <mergeCell ref="O404:P404"/>
-    <mergeCell ref="C405:E405"/>
-    <mergeCell ref="F405:I405"/>
-    <mergeCell ref="O405:P405"/>
-    <mergeCell ref="L191:O191"/>
-    <mergeCell ref="C394:E394"/>
-    <mergeCell ref="F394:I394"/>
-    <mergeCell ref="O394:P394"/>
-    <mergeCell ref="C395:E395"/>
-    <mergeCell ref="F395:I395"/>
-    <mergeCell ref="O395:P395"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="F396:I396"/>
-    <mergeCell ref="O396:P396"/>
-    <mergeCell ref="O391:P391"/>
-    <mergeCell ref="C391:E391"/>
-    <mergeCell ref="F391:I391"/>
-    <mergeCell ref="C392:E392"/>
-    <mergeCell ref="F392:I392"/>
-    <mergeCell ref="O392:P392"/>
-    <mergeCell ref="C393:E393"/>
-    <mergeCell ref="C406:E406"/>
-    <mergeCell ref="F406:I406"/>
-    <mergeCell ref="O406:P406"/>
-    <mergeCell ref="G388:L388"/>
-    <mergeCell ref="C400:E400"/>
-    <mergeCell ref="F400:I400"/>
-    <mergeCell ref="O400:P400"/>
-    <mergeCell ref="C401:E401"/>
-    <mergeCell ref="F401:I401"/>
-    <mergeCell ref="O401:P401"/>
-    <mergeCell ref="C402:E402"/>
-    <mergeCell ref="F402:I402"/>
-    <mergeCell ref="O402:P402"/>
-    <mergeCell ref="C398:E398"/>
-    <mergeCell ref="F398:I398"/>
-    <mergeCell ref="O398:P398"/>
-    <mergeCell ref="C399:E399"/>
-    <mergeCell ref="F399:I399"/>
-    <mergeCell ref="O399:P399"/>
-    <mergeCell ref="C403:E403"/>
-    <mergeCell ref="F403:I403"/>
-    <mergeCell ref="O403:P403"/>
-    <mergeCell ref="C404:E404"/>
-    <mergeCell ref="C397:E397"/>
+    <mergeCell ref="P377:R377"/>
+    <mergeCell ref="P378:R378"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="K376:O376"/>
+    <mergeCell ref="B392:E392"/>
+    <mergeCell ref="F392:H392"/>
+    <mergeCell ref="I392:J392"/>
+    <mergeCell ref="L392:M392"/>
+    <mergeCell ref="N392:O392"/>
+    <mergeCell ref="P392:Q392"/>
+    <mergeCell ref="S392:T392"/>
+    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="F393:H393"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="L393:M393"/>
+    <mergeCell ref="N393:O393"/>
+    <mergeCell ref="P393:Q393"/>
+    <mergeCell ref="S393:T393"/>
+    <mergeCell ref="B394:E394"/>
+    <mergeCell ref="F394:H394"/>
+    <mergeCell ref="I394:J394"/>
+    <mergeCell ref="L394:M394"/>
+    <mergeCell ref="N394:O394"/>
+    <mergeCell ref="P394:Q394"/>
+    <mergeCell ref="S394:T394"/>
+    <mergeCell ref="B395:E395"/>
+    <mergeCell ref="F395:H395"/>
+    <mergeCell ref="I395:J395"/>
+    <mergeCell ref="L395:M395"/>
+    <mergeCell ref="N395:O395"/>
+    <mergeCell ref="P395:Q395"/>
+    <mergeCell ref="S395:T395"/>
+    <mergeCell ref="B396:E396"/>
+    <mergeCell ref="F396:H396"/>
+    <mergeCell ref="I396:J396"/>
+    <mergeCell ref="L396:M396"/>
+    <mergeCell ref="N396:O396"/>
+    <mergeCell ref="P396:Q396"/>
+    <mergeCell ref="S396:T396"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="F397:H397"/>
+    <mergeCell ref="I397:J397"/>
+    <mergeCell ref="L397:M397"/>
+    <mergeCell ref="N397:O397"/>
+    <mergeCell ref="P397:Q397"/>
+    <mergeCell ref="S397:T397"/>
+    <mergeCell ref="B398:E398"/>
+    <mergeCell ref="F398:H398"/>
+    <mergeCell ref="I398:J398"/>
+    <mergeCell ref="L398:M398"/>
+    <mergeCell ref="N398:O398"/>
+    <mergeCell ref="P398:Q398"/>
+    <mergeCell ref="S398:T398"/>
+    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="F399:H399"/>
+    <mergeCell ref="I399:J399"/>
+    <mergeCell ref="L399:M399"/>
+    <mergeCell ref="N399:O399"/>
+    <mergeCell ref="P399:Q399"/>
+    <mergeCell ref="S399:T399"/>
+    <mergeCell ref="B400:E400"/>
+    <mergeCell ref="F400:H400"/>
+    <mergeCell ref="I400:J400"/>
+    <mergeCell ref="L400:M400"/>
+    <mergeCell ref="N400:O400"/>
+    <mergeCell ref="P400:Q400"/>
+    <mergeCell ref="S400:T400"/>
+    <mergeCell ref="B401:E401"/>
+    <mergeCell ref="F401:H401"/>
+    <mergeCell ref="I401:J401"/>
+    <mergeCell ref="L401:M401"/>
+    <mergeCell ref="N401:O401"/>
+    <mergeCell ref="P401:Q401"/>
+    <mergeCell ref="S401:T401"/>
+    <mergeCell ref="B402:E402"/>
+    <mergeCell ref="F402:H402"/>
+    <mergeCell ref="I402:J402"/>
+    <mergeCell ref="L402:M402"/>
+    <mergeCell ref="N402:O402"/>
+    <mergeCell ref="P402:Q402"/>
+    <mergeCell ref="S402:T402"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="F403:H403"/>
+    <mergeCell ref="I403:J403"/>
+    <mergeCell ref="L403:M403"/>
+    <mergeCell ref="N403:O403"/>
+    <mergeCell ref="P403:Q403"/>
+    <mergeCell ref="S403:T403"/>
+    <mergeCell ref="B404:E404"/>
+    <mergeCell ref="F404:H404"/>
+    <mergeCell ref="I404:J404"/>
+    <mergeCell ref="L404:M404"/>
+    <mergeCell ref="N404:O404"/>
+    <mergeCell ref="P404:Q404"/>
+    <mergeCell ref="S404:T404"/>
+    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="F405:H405"/>
+    <mergeCell ref="I405:J405"/>
+    <mergeCell ref="L405:M405"/>
+    <mergeCell ref="N405:O405"/>
+    <mergeCell ref="P405:Q405"/>
+    <mergeCell ref="S405:T405"/>
+    <mergeCell ref="B406:E406"/>
+    <mergeCell ref="F406:H406"/>
+    <mergeCell ref="I406:J406"/>
+    <mergeCell ref="L406:M406"/>
+    <mergeCell ref="N406:O406"/>
+    <mergeCell ref="P406:Q406"/>
+    <mergeCell ref="S406:T406"/>
+    <mergeCell ref="B407:E407"/>
+    <mergeCell ref="F407:H407"/>
+    <mergeCell ref="I407:J407"/>
+    <mergeCell ref="L407:M407"/>
+    <mergeCell ref="N407:O407"/>
+    <mergeCell ref="P407:Q407"/>
+    <mergeCell ref="S407:T407"/>
+    <mergeCell ref="B408:E408"/>
+    <mergeCell ref="F408:H408"/>
+    <mergeCell ref="I408:J408"/>
+    <mergeCell ref="L408:M408"/>
+    <mergeCell ref="N408:O408"/>
+    <mergeCell ref="P408:Q408"/>
+    <mergeCell ref="S408:T408"/>
+    <mergeCell ref="B409:E409"/>
+    <mergeCell ref="F409:H409"/>
+    <mergeCell ref="I409:J409"/>
+    <mergeCell ref="L409:M409"/>
+    <mergeCell ref="N409:O409"/>
+    <mergeCell ref="P409:Q409"/>
+    <mergeCell ref="S409:T409"/>
+    <mergeCell ref="B410:E410"/>
+    <mergeCell ref="F410:H410"/>
+    <mergeCell ref="I410:J410"/>
+    <mergeCell ref="L410:M410"/>
+    <mergeCell ref="N410:O410"/>
+    <mergeCell ref="P410:Q410"/>
+    <mergeCell ref="S410:T410"/>
+    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="F411:H411"/>
+    <mergeCell ref="I411:J411"/>
+    <mergeCell ref="L411:M411"/>
+    <mergeCell ref="N411:O411"/>
+    <mergeCell ref="P411:Q411"/>
+    <mergeCell ref="S411:T411"/>
+    <mergeCell ref="B412:E412"/>
+    <mergeCell ref="F412:H412"/>
+    <mergeCell ref="I412:J412"/>
+    <mergeCell ref="L412:M412"/>
+    <mergeCell ref="N412:O412"/>
+    <mergeCell ref="P412:Q412"/>
+    <mergeCell ref="S412:T412"/>
+    <mergeCell ref="B413:E413"/>
+    <mergeCell ref="F413:H413"/>
+    <mergeCell ref="I413:J413"/>
+    <mergeCell ref="L413:M413"/>
+    <mergeCell ref="N413:O413"/>
+    <mergeCell ref="P413:Q413"/>
+    <mergeCell ref="S413:T413"/>
+    <mergeCell ref="B414:E414"/>
+    <mergeCell ref="F414:H414"/>
+    <mergeCell ref="I414:J414"/>
+    <mergeCell ref="L414:M414"/>
+    <mergeCell ref="N414:O414"/>
+    <mergeCell ref="P414:Q414"/>
+    <mergeCell ref="S414:T414"/>
+    <mergeCell ref="B415:E415"/>
+    <mergeCell ref="F415:H415"/>
+    <mergeCell ref="I415:J415"/>
+    <mergeCell ref="L415:M415"/>
+    <mergeCell ref="N415:O415"/>
+    <mergeCell ref="P415:Q415"/>
+    <mergeCell ref="S415:T415"/>
+    <mergeCell ref="B416:E416"/>
+    <mergeCell ref="F416:H416"/>
+    <mergeCell ref="I416:J416"/>
+    <mergeCell ref="L416:M416"/>
+    <mergeCell ref="N416:O416"/>
+    <mergeCell ref="P416:Q416"/>
+    <mergeCell ref="S416:T416"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="F417:H417"/>
+    <mergeCell ref="I417:J417"/>
+    <mergeCell ref="L417:M417"/>
+    <mergeCell ref="N417:O417"/>
+    <mergeCell ref="P417:Q417"/>
+    <mergeCell ref="S417:T417"/>
+    <mergeCell ref="B418:E418"/>
+    <mergeCell ref="F418:H418"/>
+    <mergeCell ref="I418:J418"/>
+    <mergeCell ref="L418:M418"/>
+    <mergeCell ref="N418:O418"/>
+    <mergeCell ref="P418:Q418"/>
+    <mergeCell ref="S418:T418"/>
+    <mergeCell ref="B419:E419"/>
+    <mergeCell ref="F419:H419"/>
+    <mergeCell ref="I419:J419"/>
+    <mergeCell ref="L419:M419"/>
+    <mergeCell ref="N419:O419"/>
+    <mergeCell ref="P419:Q419"/>
+    <mergeCell ref="S419:T419"/>
+    <mergeCell ref="B420:E420"/>
+    <mergeCell ref="F420:H420"/>
+    <mergeCell ref="I420:J420"/>
+    <mergeCell ref="L420:M420"/>
+    <mergeCell ref="N420:O420"/>
+    <mergeCell ref="P420:Q420"/>
+    <mergeCell ref="S420:T420"/>
+    <mergeCell ref="B421:E421"/>
+    <mergeCell ref="F421:H421"/>
+    <mergeCell ref="I421:J421"/>
+    <mergeCell ref="L421:M421"/>
+    <mergeCell ref="N421:O421"/>
+    <mergeCell ref="P421:Q421"/>
+    <mergeCell ref="S421:T421"/>
+    <mergeCell ref="B422:E422"/>
+    <mergeCell ref="F422:H422"/>
+    <mergeCell ref="I422:J422"/>
+    <mergeCell ref="L422:M422"/>
+    <mergeCell ref="N422:O422"/>
+    <mergeCell ref="P422:Q422"/>
+    <mergeCell ref="S422:T422"/>
+    <mergeCell ref="B423:E423"/>
+    <mergeCell ref="F423:H423"/>
+    <mergeCell ref="I423:J423"/>
+    <mergeCell ref="L423:M423"/>
+    <mergeCell ref="N423:O423"/>
+    <mergeCell ref="P423:Q423"/>
+    <mergeCell ref="S423:T423"/>
+    <mergeCell ref="B424:E424"/>
+    <mergeCell ref="F424:H424"/>
+    <mergeCell ref="I424:J424"/>
+    <mergeCell ref="L424:M424"/>
+    <mergeCell ref="N424:O424"/>
+    <mergeCell ref="P424:Q424"/>
+    <mergeCell ref="S424:T424"/>
+    <mergeCell ref="B425:E425"/>
+    <mergeCell ref="F425:H425"/>
+    <mergeCell ref="I425:J425"/>
+    <mergeCell ref="L425:M425"/>
+    <mergeCell ref="N425:O425"/>
+    <mergeCell ref="P425:Q425"/>
+    <mergeCell ref="S425:T425"/>
+    <mergeCell ref="B426:E426"/>
+    <mergeCell ref="F426:H426"/>
+    <mergeCell ref="I426:J426"/>
+    <mergeCell ref="L426:M426"/>
+    <mergeCell ref="N426:O426"/>
+    <mergeCell ref="P426:Q426"/>
+    <mergeCell ref="S426:T426"/>
+    <mergeCell ref="B427:E427"/>
+    <mergeCell ref="F427:H427"/>
+    <mergeCell ref="I427:J427"/>
+    <mergeCell ref="L427:M427"/>
+    <mergeCell ref="N427:O427"/>
+    <mergeCell ref="P427:Q427"/>
+    <mergeCell ref="S427:T427"/>
+    <mergeCell ref="B428:E428"/>
+    <mergeCell ref="F428:H428"/>
+    <mergeCell ref="I428:J428"/>
+    <mergeCell ref="L428:M428"/>
+    <mergeCell ref="N428:O428"/>
+    <mergeCell ref="P428:Q428"/>
+    <mergeCell ref="S428:T428"/>
+    <mergeCell ref="B429:E429"/>
+    <mergeCell ref="F429:H429"/>
+    <mergeCell ref="I429:J429"/>
+    <mergeCell ref="L429:M429"/>
+    <mergeCell ref="N429:O429"/>
+    <mergeCell ref="P429:Q429"/>
+    <mergeCell ref="S429:T429"/>
+    <mergeCell ref="B430:E430"/>
+    <mergeCell ref="F430:H430"/>
+    <mergeCell ref="I430:J430"/>
+    <mergeCell ref="L430:M430"/>
+    <mergeCell ref="N430:O430"/>
+    <mergeCell ref="P430:Q430"/>
+    <mergeCell ref="S430:T430"/>
+    <mergeCell ref="B431:E431"/>
+    <mergeCell ref="F431:H431"/>
+    <mergeCell ref="I431:J431"/>
+    <mergeCell ref="L431:M431"/>
+    <mergeCell ref="N431:O431"/>
+    <mergeCell ref="P431:Q431"/>
+    <mergeCell ref="S431:T431"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11362,10 +12990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:V1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11379,34 +13007,23 @@
     <col min="7" max="7" customWidth="true" style="13" width="10.140625" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="13" width="16.7109375" collapsed="false"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="11.85546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="32" width="19.5703125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="32" width="13.28515625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="35" width="13.5703125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="35" width="11.28515625" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="35" width="16.85546875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="38" width="14.28515625" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="38" width="20.7109375" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="38" width="28.42578125" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="30" width="9.28515625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="30" width="15.7109375" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="30" width="21.42578125" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="34" width="11.42578125" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="34" width="18.0" collapsed="false"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="34" width="23.5703125" collapsed="false"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="44" width="23.5703125" collapsed="false"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="40" width="14.5703125" collapsed="false"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="40" width="20.85546875" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="40" width="13.7109375" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="40" width="22.42578125" collapsed="false"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="41" width="10.0" collapsed="false"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="41" width="23.0" collapsed="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="41" width="16.42578125" collapsed="false"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="41" width="21.42578125" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" style="9" width="14.140625" collapsed="false"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="9" width="17.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="31" width="19.5703125" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="31" width="13.28515625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="34" width="13.5703125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="34" width="11.28515625" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="34" width="16.85546875" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="37" width="14.28515625" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="37" width="20.7109375" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="37" width="28.42578125" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="29" width="9.28515625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="29" width="15.7109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="29" width="21.42578125" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="33" width="11.42578125" collapsed="false"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="33" width="18.0" collapsed="false"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="33" width="23.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -11434,103 +13051,76 @@
       <c r="I1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF1" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
         <v>65.0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
         <v>7.0</v>
       </c>
-      <c r="G2" t="s">
-        <v>115</v>
+      <c r="G2" t="n" s="109">
+        <v>42672.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -11539,13 +13129,13 @@
         <v>1.0</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K2" t="n">
         <v>141.0</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M2" t="n">
         <v>30.0</v>
@@ -11554,7 +13144,7 @@
         <v>0.0</v>
       </c>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="P2" t="n">
         <v>473.0</v>
@@ -11563,7 +13153,7 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="S2" t="n">
         <v>178.0</v>
@@ -11571,22 +13161,28 @@
       <c r="T2" t="n">
         <v>7.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="X2" t="n" s="99">
+        <v>24.0</v>
+      </c>
+      <c r="Y2" t="n" s="99">
+        <v>4.985782115816616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
         <v>8.0</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="G3" t="n" s="109">
+        <v>42673.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -11595,13 +13191,13 @@
         <v>1.0</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K3" t="n">
         <v>1.0</v>
       </c>
       <c r="L3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M3" t="n">
         <v>182.0</v>
@@ -11610,7 +13206,7 @@
         <v>0.0</v>
       </c>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="P3" t="n">
         <v>467.0</v>
@@ -11619,7 +13215,7 @@
         <v>0.0</v>
       </c>
       <c r="R3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="S3" t="n">
         <v>142.0</v>
@@ -11628,21 +13224,21 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
         <v>1.0</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="G4" t="n" s="109">
+        <v>42674.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -11651,13 +13247,13 @@
         <v>4.0</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K4" t="n">
         <v>26.0</v>
       </c>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="M4" t="n">
         <v>317.0</v>
@@ -11666,7 +13262,7 @@
         <v>0.0</v>
       </c>
       <c r="R4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="S4" t="n">
         <v>170.0</v>
@@ -11675,21 +13271,21 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
         <v>9.0</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="G5" t="n" s="109">
+        <v>42675.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -11698,13 +13294,13 @@
         <v>37.0</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K5" t="n">
         <v>18.0</v>
       </c>
       <c r="L5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="M5" t="n">
         <v>77.0</v>
@@ -11713,7 +13309,7 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="S5" t="n">
         <v>217.0</v>
@@ -11722,21 +13318,21 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
         <v>890.0</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C6" t="n">
         <v>839.0</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="G6" t="n" s="109">
+        <v>42676.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -11745,13 +13341,13 @@
         <v>70.0</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
         <v>143.0</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M6" t="n">
         <v>352.0</v>
@@ -11760,7 +13356,7 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="S6" t="n">
         <v>97.0</v>
@@ -11769,21 +13365,21 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="n">
         <v>76.0</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C7" t="n">
         <v>57.0</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="G7" t="n" s="109">
+        <v>42677.0</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -11792,13 +13388,13 @@
         <v>36.0</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K7" t="n">
         <v>154.0</v>
       </c>
       <c r="R7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="S7" t="n">
         <v>114.0</v>
@@ -11807,15 +13403,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="G8" t="n" s="109">
+        <v>42678.0</v>
       </c>
       <c r="H8" t="n">
         <v>7.0</v>
@@ -11824,13 +13420,13 @@
         <v>44.0</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K8" t="n">
         <v>8.0</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="S8" t="n">
         <v>132.0</v>
@@ -11839,14 +13435,14 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25"/>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25"/>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11858,155 +13454,470 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="2" max="2" style="71" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="2" max="2" style="46" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>96</v>
+      <c r="A1" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>96</v>
+      <c r="A2" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>95</v>
+      <c r="A3" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>95</v>
+      <c r="A4" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>95</v>
+      <c r="A5" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="83"/>
+      <c r="A6" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="77"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="77"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="77"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="77"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="77"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="77"/>
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="77"/>
+      <c r="A14" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="47"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
+      <c r="A15" s="109">
+        <v>42370</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="155"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="155"/>
+      <c r="J24" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="152"/>
+      <c r="O24" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="S24" s="152"/>
+    </row>
+    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="153"/>
+      <c r="J25" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="154"/>
+      <c r="O25" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="154"/>
+    </row>
+    <row r="26" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="151"/>
+      <c r="J26" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="N26" s="148"/>
+      <c r="O26" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="S26" s="148"/>
+    </row>
+    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="149"/>
+      <c r="J27" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="150"/>
+      <c r="O27" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="R27" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="S27" s="150"/>
+    </row>
+    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="147"/>
+      <c r="J28" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="144"/>
+      <c r="O28" s="147" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="R28" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28" s="144"/>
+    </row>
+    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="145"/>
+      <c r="J29" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="146"/>
+      <c r="O29" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="R29" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" s="146"/>
+    </row>
+    <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="143"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="142"/>
+    </row>
   </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12155,7 +14066,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B17">
@@ -12163,7 +14074,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B18">
@@ -12171,7 +14082,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B19">
@@ -12179,7 +14090,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>46</v>
       </c>
       <c r="B20">
@@ -12187,7 +14098,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B21">
@@ -12195,7 +14106,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B22">
@@ -12203,7 +14114,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B23">
@@ -12211,7 +14122,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B24">
@@ -12219,7 +14130,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B25">
@@ -12227,7 +14138,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B26">
@@ -12235,7 +14146,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B27">
@@ -12243,7 +14154,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B28">
@@ -12251,7 +14162,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B29">
@@ -12259,7 +14170,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="41" t="s">
         <v>63</v>
       </c>
       <c r="B30">
@@ -12267,7 +14178,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B31">
@@ -12275,7 +14186,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B32">
@@ -12283,7 +14194,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B33">
@@ -12291,7 +14202,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>67</v>
       </c>
       <c r="B34">
@@ -12299,7 +14210,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B35">
@@ -12307,7 +14218,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B36">
@@ -12315,7 +14226,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>76</v>
       </c>
       <c r="B37">
@@ -12323,7 +14234,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B38">
@@ -12331,7 +14242,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B39">
@@ -12339,7 +14250,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B40">
@@ -12347,7 +14258,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B41">
@@ -12355,7 +14266,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B42">
@@ -12363,7 +14274,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B43">

--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr codeName="ЭтаКнига"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\analytics\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="547"/>
   </bookViews>
@@ -41,8 +46,8 @@
     <definedName name="expansive">report!$N$392:$N$406</definedName>
     <definedName name="femaleConversation">report!$B$280</definedName>
     <definedName name="femaleConversationPer">report!$B$280</definedName>
-    <definedName name="goal">ChanelTrafic!$E$2:$E$2</definedName>
-    <definedName name="goalQuality">ChanelTrafic!$F$2:$F$2</definedName>
+    <definedName name="goal">ChanelTrafic!$E$2:$E$8</definedName>
+    <definedName name="goalQuality">ChanelTrafic!$F$2:$F$8</definedName>
     <definedName name="hoursOfDay">ChanelTrafic!$U$2:$U$1</definedName>
     <definedName name="hoursOfDayConversation">ChanelTrafic!$W$2:$W$1</definedName>
     <definedName name="hoursOfDayVisited">ChanelTrafic!$V$2:$V$1</definedName>
@@ -121,7 +126,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -129,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="249">
   <si>
     <t>quality</t>
   </si>
@@ -440,58 +445,76 @@
     <t>ТЕКСТ</t>
   </si>
   <si>
-    <t>Прямые заходы (5,00%)</t>
-  </si>
-  <si>
-    <t>Внутренние переходы (0,00%)</t>
-  </si>
-  <si>
-    <t>Переходы по ссылкам на сайтах (0,00%)</t>
-  </si>
-  <si>
-    <t>Переходы из поисковых систем (0,00%)</t>
-  </si>
-  <si>
-    <t>Переходы по рекламе (0,00%)</t>
-  </si>
-  <si>
-    <t>Переходы из социальных сетей (0,00%)</t>
-  </si>
-  <si>
-    <t>Болше всего трафика - Переходы по рекламе (890,00)</t>
-  </si>
-  <si>
-    <t>Самый высокий % конверсии - Прямые заходы (5,00%)</t>
-  </si>
-  <si>
-    <t>youtube.com (0,00)</t>
-  </si>
-  <si>
-    <t>Яндекс (0,00)</t>
-  </si>
-  <si>
-    <t>Google (0,00)</t>
-  </si>
-  <si>
-    <t>Другая реклама: определено по меткам (0,00)</t>
-  </si>
-  <si>
-    <t>Яндекс: Директ (0,00)</t>
-  </si>
-  <si>
-    <t>Яндекс: Не определено (0,00)</t>
-  </si>
-  <si>
-    <t>ВКонтакте (0,00)</t>
-  </si>
-  <si>
-    <t>Болше всего трафика - Яндекс: Директ (839,00)</t>
-  </si>
-  <si>
-    <t>Нет конверсий по источникам</t>
-  </si>
-  <si>
-    <t>Покупка</t>
+    <t>Переходы из социальных сетей (50,00%)</t>
+  </si>
+  <si>
+    <t>Переходы из поисковых систем (79,86%)</t>
+  </si>
+  <si>
+    <t>Переходы по ссылкам на сайтах (67,40%)</t>
+  </si>
+  <si>
+    <t>Переходы по рекламе (49,74%)</t>
+  </si>
+  <si>
+    <t>Внутренние переходы (40,79%)</t>
+  </si>
+  <si>
+    <t>Прямые заходы (37,52%)</t>
+  </si>
+  <si>
+    <t>Болше всего трафика - Переходы по рекламе (1585,00)</t>
+  </si>
+  <si>
+    <t>Самый высокий % конверсии - Переходы из поисковых систем (79,86%)</t>
+  </si>
+  <si>
+    <t>mosgid.ru (0,00)</t>
+  </si>
+  <si>
+    <t>novosibirsk.big-book-money.ru (0,00)</t>
+  </si>
+  <si>
+    <t>weburlopener.com (0,00)</t>
+  </si>
+  <si>
+    <t>zaim.com (0,00)</t>
+  </si>
+  <si>
+    <t>Mail.ru (60,00)</t>
+  </si>
+  <si>
+    <t>news.ngs.ru (0,00)</t>
+  </si>
+  <si>
+    <t>pro2b.net (0,00)</t>
+  </si>
+  <si>
+    <t>Болше всего трафика - Mail.ru (5,00)</t>
+  </si>
+  <si>
+    <t>Самый высокий % конверсии - Mail.ru (60,00%)</t>
+  </si>
+  <si>
+    <t>Просмотр 3 страниц</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>Получить бесплатную консультацию (Открытие)</t>
+  </si>
+  <si>
+    <t>Получить бесплатную консультацию (Отправка)</t>
+  </si>
+  <si>
+    <t>Консультация арбитражного управляющего (Нажатие)</t>
+  </si>
+  <si>
+    <t>Заказать звонок (Открытие)</t>
+  </si>
+  <si>
+    <t>Заказать звонок (Отправка)</t>
   </si>
   <si>
     <t>1351</t>
@@ -512,112 +535,109 @@
     <t>439,28</t>
   </si>
   <si>
-    <t>4.3428571428571425%</t>
-  </si>
-  <si>
-    <t>45.82857142857143%</t>
-  </si>
-  <si>
-    <t>172.52104</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>Сибирский федеральный округ (2.20588235%)</t>
-  </si>
-  <si>
-    <t>Англия (0.0%)</t>
-  </si>
-  <si>
-    <t>Дальневосточный федеральный округ (0.0%)</t>
-  </si>
-  <si>
-    <t>Крымский федеральный округ (0.0%)</t>
-  </si>
-  <si>
-    <t>Приволжский федеральный округ (0.0%)</t>
-  </si>
-  <si>
-    <t>Северо-Западный федеральный округ (0.0%)</t>
-  </si>
-  <si>
-    <t>Северо-Кавказский федеральный округ (0.0%)</t>
-  </si>
-  <si>
-    <t>Лидер по посетителям - Северо-Западный федеральный округ (154,00)</t>
-  </si>
-  <si>
-    <t>% Конверсии больше - Сибирский федеральный округ (2,21%)</t>
-  </si>
-  <si>
-    <t>На долю планшетов и смартфонов приходится 16,29% трафика</t>
+    <t>5.532162044431538%</t>
+  </si>
+  <si>
+    <t>13.852185276608104%</t>
+  </si>
+  <si>
+    <t>94.08621</t>
+  </si>
+  <si>
+    <t>2398,58%</t>
+  </si>
+  <si>
+    <t>3488,67%</t>
+  </si>
+  <si>
+    <t>Сибирский федеральный округ (55,52%)</t>
+  </si>
+  <si>
+    <t>Приволжский федеральный округ (49,44%)</t>
+  </si>
+  <si>
+    <t>Южный федеральный округ (46,74%)</t>
+  </si>
+  <si>
+    <t>Уральский федеральный округ (36,67%)</t>
+  </si>
+  <si>
+    <t>Центральный федеральный округ (40,95%)</t>
+  </si>
+  <si>
+    <t>Дальневосточный федеральный округ (10,53%)</t>
+  </si>
+  <si>
+    <t>Северо-Западный федеральный округ (11,54%)</t>
+  </si>
+  <si>
+    <t>Лидер по посетителям - Сибирский федеральный округ (2022,00)</t>
+  </si>
+  <si>
+    <t>% Конверсии больше - Сибирский федеральный округ (55,52%)</t>
+  </si>
+  <si>
+    <t>На долю планшетов и смартфонов приходится 29,20% трафика</t>
+  </si>
+  <si>
+    <t>25‑34 года</t>
+  </si>
+  <si>
+    <t>45 лет и старше</t>
+  </si>
+  <si>
+    <t>18‑24 года</t>
+  </si>
+  <si>
+    <t>35‑44 года</t>
   </si>
   <si>
     <t>младше 18 лет</t>
   </si>
   <si>
-    <t>18‑24 года</t>
-  </si>
-  <si>
-    <t>25‑34 года</t>
-  </si>
-  <si>
-    <t>35‑44 года</t>
-  </si>
-  <si>
-    <t>45 лет и старше</t>
-  </si>
-  <si>
-    <t>Болше всего сеансов у группы - 45 лет и старше (352,00)</t>
-  </si>
-  <si>
-    <t>Нет конверсии</t>
+    <t>Болше всего сеансов у группы - 25‑34 года (752,00)</t>
+  </si>
+  <si>
+    <t>Лучший коэффициент конверсии у группы младше 18 лет (50,00%)</t>
+  </si>
+  <si>
+    <t>женский</t>
   </si>
   <si>
     <t>мужской</t>
   </si>
   <si>
-    <t>женский</t>
-  </si>
-  <si>
     <t>На сайте больше женщин</t>
   </si>
   <si>
     <t>Коэф. конверсии выше у женщин</t>
   </si>
   <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>�</t>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Вторник</t>
   </si>
   <si>
     <t>Пятница</t>
   </si>
   <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
     <t>Суббота</t>
   </si>
   <si>
     <t>Воскресенье</t>
   </si>
   <si>
-    <t>Пятница - самый высокий коэф. конверсии</t>
-  </si>
-  <si>
-    <t>Среда - больше всего сеансов</t>
+    <t>Четверг - самый высокий коэф. конверсии</t>
+  </si>
+  <si>
+    <t>Понедельник - больше всего сеансов</t>
   </si>
   <si>
     <t xml:space="preserve">Конверсии происходят приемущественно в - </t>
@@ -629,22 +649,220 @@
     <t>ad0</t>
   </si>
   <si>
+    <t>company 16</t>
+  </si>
+  <si>
+    <t>ad16</t>
+  </si>
+  <si>
+    <t>company 12</t>
+  </si>
+  <si>
+    <t>ad12</t>
+  </si>
+  <si>
+    <t>company 2</t>
+  </si>
+  <si>
+    <t>ad2</t>
+  </si>
+  <si>
+    <t>company 1</t>
+  </si>
+  <si>
+    <t>ad1</t>
+  </si>
+  <si>
+    <t>company 11</t>
+  </si>
+  <si>
+    <t>ad11</t>
+  </si>
+  <si>
+    <t>company 5</t>
+  </si>
+  <si>
+    <t>ad5</t>
+  </si>
+  <si>
+    <t>company 20</t>
+  </si>
+  <si>
+    <t>ad20</t>
+  </si>
+  <si>
+    <t>company 23</t>
+  </si>
+  <si>
+    <t>ad23</t>
+  </si>
+  <si>
+    <t>company 38</t>
+  </si>
+  <si>
+    <t>ad38</t>
+  </si>
+  <si>
+    <t>company 7</t>
+  </si>
+  <si>
+    <t>ad7</t>
+  </si>
+  <si>
+    <t>company 19</t>
+  </si>
+  <si>
+    <t>ad19</t>
+  </si>
+  <si>
+    <t>company 35</t>
+  </si>
+  <si>
+    <t>ad35</t>
+  </si>
+  <si>
+    <t>company 6</t>
+  </si>
+  <si>
+    <t>ad6</t>
+  </si>
+  <si>
+    <t>company 17</t>
+  </si>
+  <si>
+    <t>ad17</t>
+  </si>
+  <si>
+    <t>company 30</t>
+  </si>
+  <si>
+    <t>ad30</t>
+  </si>
+  <si>
+    <t>company 32</t>
+  </si>
+  <si>
+    <t>ad32</t>
+  </si>
+  <si>
+    <t>company 22</t>
+  </si>
+  <si>
+    <t>ad22</t>
+  </si>
+  <si>
+    <t>company 31</t>
+  </si>
+  <si>
+    <t>ad31</t>
+  </si>
+  <si>
+    <t>company 27</t>
+  </si>
+  <si>
+    <t>ad27</t>
+  </si>
+  <si>
+    <t>company 26</t>
+  </si>
+  <si>
+    <t>ad26</t>
+  </si>
+  <si>
+    <t>company 37</t>
+  </si>
+  <si>
+    <t>ad37</t>
+  </si>
+  <si>
+    <t>company 39</t>
+  </si>
+  <si>
+    <t>ad39</t>
+  </si>
+  <si>
+    <t>company 28</t>
+  </si>
+  <si>
+    <t>ad28</t>
+  </si>
+  <si>
+    <t>company 34</t>
+  </si>
+  <si>
+    <t>ad34</t>
+  </si>
+  <si>
+    <t>company 3</t>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>company 4</t>
+  </si>
+  <si>
+    <t>ad4</t>
+  </si>
+  <si>
+    <t>company 8</t>
+  </si>
+  <si>
+    <t>ad8</t>
+  </si>
+  <si>
+    <t>company 9</t>
+  </si>
+  <si>
+    <t>ad9</t>
+  </si>
+  <si>
+    <t>company 10</t>
+  </si>
+  <si>
+    <t>ad10</t>
+  </si>
+  <si>
+    <t>company 13</t>
+  </si>
+  <si>
+    <t>ad13</t>
+  </si>
+  <si>
+    <t>company 14</t>
+  </si>
+  <si>
+    <t>ad14</t>
+  </si>
+  <si>
     <t>company 15</t>
   </si>
   <si>
     <t>ad15</t>
   </si>
   <si>
-    <t>company 28</t>
-  </si>
-  <si>
-    <t>ad28</t>
-  </si>
-  <si>
-    <t>company 2</t>
-  </si>
-  <si>
-    <t>ad2</t>
+    <t>company 18</t>
+  </si>
+  <si>
+    <t>ad18</t>
+  </si>
+  <si>
+    <t>company 21</t>
+  </si>
+  <si>
+    <t>ad21</t>
+  </si>
+  <si>
+    <t>company 25</t>
+  </si>
+  <si>
+    <t>ad25</t>
+  </si>
+  <si>
+    <t>company 24</t>
+  </si>
+  <si>
+    <t>ad24</t>
   </si>
   <si>
     <t>company 29</t>
@@ -653,208 +871,10 @@
     <t>ad29</t>
   </si>
   <si>
-    <t>company 9</t>
-  </si>
-  <si>
-    <t>ad9</t>
-  </si>
-  <si>
-    <t>company 3</t>
-  </si>
-  <si>
-    <t>ad3</t>
-  </si>
-  <si>
-    <t>company 10</t>
-  </si>
-  <si>
-    <t>ad10</t>
-  </si>
-  <si>
-    <t>company 5</t>
-  </si>
-  <si>
-    <t>ad5</t>
-  </si>
-  <si>
-    <t>company 4</t>
-  </si>
-  <si>
-    <t>ad4</t>
-  </si>
-  <si>
-    <t>company 22</t>
-  </si>
-  <si>
-    <t>ad22</t>
-  </si>
-  <si>
-    <t>company 31</t>
-  </si>
-  <si>
-    <t>ad31</t>
-  </si>
-  <si>
-    <t>company 11</t>
-  </si>
-  <si>
-    <t>ad11</t>
-  </si>
-  <si>
-    <t>company 24</t>
-  </si>
-  <si>
-    <t>ad24</t>
-  </si>
-  <si>
-    <t>company 39</t>
-  </si>
-  <si>
-    <t>ad39</t>
-  </si>
-  <si>
-    <t>company 14</t>
-  </si>
-  <si>
-    <t>ad14</t>
-  </si>
-  <si>
-    <t>company 23</t>
-  </si>
-  <si>
-    <t>ad23</t>
-  </si>
-  <si>
-    <t>company 17</t>
-  </si>
-  <si>
-    <t>ad17</t>
-  </si>
-  <si>
-    <t>company 18</t>
-  </si>
-  <si>
-    <t>ad18</t>
-  </si>
-  <si>
-    <t>company 37</t>
-  </si>
-  <si>
-    <t>ad37</t>
-  </si>
-  <si>
-    <t>company 35</t>
-  </si>
-  <si>
-    <t>ad35</t>
-  </si>
-  <si>
-    <t>company 26</t>
-  </si>
-  <si>
-    <t>ad26</t>
-  </si>
-  <si>
-    <t>company 38</t>
-  </si>
-  <si>
-    <t>ad38</t>
-  </si>
-  <si>
-    <t>company 30</t>
-  </si>
-  <si>
-    <t>ad30</t>
-  </si>
-  <si>
-    <t>company 1</t>
-  </si>
-  <si>
-    <t>ad1</t>
-  </si>
-  <si>
-    <t>company 6</t>
-  </si>
-  <si>
-    <t>ad6</t>
-  </si>
-  <si>
-    <t>company 7</t>
-  </si>
-  <si>
-    <t>ad7</t>
-  </si>
-  <si>
-    <t>company 8</t>
-  </si>
-  <si>
-    <t>ad8</t>
-  </si>
-  <si>
-    <t>company 12</t>
-  </si>
-  <si>
-    <t>ad12</t>
-  </si>
-  <si>
-    <t>company 13</t>
-  </si>
-  <si>
-    <t>ad13</t>
-  </si>
-  <si>
-    <t>company 16</t>
-  </si>
-  <si>
-    <t>ad16</t>
-  </si>
-  <si>
-    <t>company 19</t>
-  </si>
-  <si>
-    <t>ad19</t>
-  </si>
-  <si>
-    <t>company 20</t>
-  </si>
-  <si>
-    <t>ad20</t>
-  </si>
-  <si>
-    <t>company 21</t>
-  </si>
-  <si>
-    <t>ad21</t>
-  </si>
-  <si>
-    <t>company 25</t>
-  </si>
-  <si>
-    <t>ad25</t>
-  </si>
-  <si>
-    <t>company 27</t>
-  </si>
-  <si>
-    <t>ad27</t>
-  </si>
-  <si>
-    <t>company 32</t>
-  </si>
-  <si>
-    <t>ad32</t>
-  </si>
-  <si>
     <t>company 33</t>
   </si>
   <si>
     <t>ad33</t>
-  </si>
-  <si>
-    <t>company 34</t>
-  </si>
-  <si>
-    <t>ad34</t>
   </si>
   <si>
     <t>company 36</t>
@@ -866,12 +886,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot;р.&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;р.&quot;"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1229,8 +1249,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1259,7 +1279,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1487,72 +1507,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1568,19 +1522,103 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1595,28 +1633,10 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1664,7 +1684,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1718,6 +1738,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1765,7 +1802,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
               </c:ext>
@@ -1806,7 +1843,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
               </c:ext>
@@ -1847,7 +1884,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
               </c:ext>
@@ -1888,7 +1925,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-63C9-44E4-A4B2-57FCDFD4273E}"/>
               </c:ext>
@@ -1929,7 +1966,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-63C9-44E4-A4B2-57FCDFD4273E}"/>
               </c:ext>
@@ -1970,7 +2007,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-63C9-44E4-A4B2-57FCDFD4273E}"/>
               </c:ext>
@@ -2023,7 +2060,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -2045,7 +2082,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AA7C-4F56-B0BD-6A18C5CDB58F}"/>
             </c:ext>
@@ -2141,7 +2178,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2183,7 +2220,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2198,7 +2235,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-502B-4C03-A6BF-71561E7105D5}"/>
             </c:ext>
@@ -2226,7 +2263,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2241,7 +2278,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-502B-4C03-A6BF-71561E7105D5}"/>
             </c:ext>
@@ -2269,7 +2306,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2284,7 +2321,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-502B-4C03-A6BF-71561E7105D5}"/>
             </c:ext>
@@ -2390,7 +2427,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2432,7 +2469,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2450,12 +2487,12 @@
             <c:numRef>
               <c:f>[0]!sendall2</c:f>
               <c:numCache>
-                <c:formatCode>_("р."* #,##0.00_);_("р."* \(#,##0.00\);_("р."* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00"р."_-;\-* #\ ##0.00"р."_-;_-* "-"??"р."_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F08-4288-8CAF-44F2095103FB}"/>
             </c:ext>
@@ -2483,7 +2520,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2501,12 +2538,12 @@
             <c:numRef>
               <c:f>[0]!costConversation</c:f>
               <c:numCache>
-                <c:formatCode>_("р."* #,##0.00_);_("р."* \(#,##0.00\);_("р."* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #\ ##0.00"р."_-;\-* #\ ##0.00"р."_-;_-* "-"??"р."_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F08-4288-8CAF-44F2095103FB}"/>
             </c:ext>
@@ -2534,7 +2571,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -2557,7 +2594,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7F08-4288-8CAF-44F2095103FB}"/>
             </c:ext>
@@ -2600,7 +2637,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_(&quot;р.&quot;* #,##0.00_);_(&quot;р.&quot;* \(#,##0.00\);_(&quot;р.&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #\ ##0.00&quot;р.&quot;_-;\-* #\ ##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2611,7 +2648,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2644,7 +2680,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2705,7 +2741,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FE8-4CC8-A3E6-CD574745982A}"/>
             </c:ext>
@@ -2866,7 +2902,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2905,7 +2941,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-5B18-40B8-9E6F-B2250215750F}"/>
               </c:ext>
@@ -2925,7 +2961,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-5B18-40B8-9E6F-B2250215750F}"/>
               </c:ext>
@@ -2946,14 +2982,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+                    <a:latin typeface="+mj-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2982,7 +3018,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3004,7 +3040,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5B18-40B8-9E6F-B2250215750F}"/>
             </c:ext>
@@ -3031,7 +3067,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3052,7 +3087,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3094,7 +3129,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3148,7 +3183,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DCE-4170-A8BA-4BE124766687}"/>
             </c:ext>
@@ -3207,7 +3242,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3260,7 +3295,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6DCE-4170-A8BA-4BE124766687}"/>
             </c:ext>
@@ -3396,7 +3431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3459,7 +3493,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3496,7 +3530,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3518,7 +3552,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9533-424E-9DFF-B9454BE51E98}"/>
             </c:ext>
@@ -3538,7 +3572,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3571,7 +3604,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3623,7 +3656,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3647,7 +3680,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1C8B-4851-BE55-E5C0FF949603}"/>
             </c:ext>
@@ -3685,7 +3718,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -3709,7 +3742,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1C8B-4851-BE55-E5C0FF949603}"/>
             </c:ext>
@@ -3764,7 +3797,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3780,7 +3812,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3811,7 +3843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3826,7 +3857,7 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:explosion val="6"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-1576-4393-8E4F-7B3A075ADDFE}"/>
               </c:ext>
@@ -3847,7 +3878,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3869,7 +3900,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1576-4393-8E4F-7B3A075ADDFE}"/>
             </c:ext>
@@ -3905,7 +3936,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3948,7 +3979,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3EA3-48D1-8E98-DC97D53A6E0F}"/>
             </c:ext>
@@ -3978,7 +4009,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3EA3-48D1-8E98-DC97D53A6E0F}"/>
             </c:ext>
@@ -4032,7 +4063,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4065,7 +4095,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4099,7 +4129,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5324-4B7B-AB47-40E0FE10B1A4}"/>
             </c:ext>
@@ -4120,7 +4150,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5324-4B7B-AB47-40E0FE10B1A4}"/>
             </c:ext>
@@ -4173,7 +4203,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7557,13 +7586,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AFF118AE-0192-452D-9AB7-AD9749DBEBF5}" type="pres">
       <dgm:prSet presAssocID="{D0B5C048-8C24-4F76-8C9D-7762D594F997}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7573,13 +7595,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{79388EF3-A8BE-4117-ACBA-8A08FF47472A}" type="pres">
       <dgm:prSet presAssocID="{A43066EC-58A2-4A7D-AF6B-37D46EA26464}" presName="Name8" presStyleCnt="0"/>
@@ -7593,13 +7608,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{673D1501-484B-4334-879E-3653F69F415A}" type="pres">
       <dgm:prSet presAssocID="{A43066EC-58A2-4A7D-AF6B-37D46EA26464}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7609,13 +7617,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{47D67E14-1695-4B93-9EB1-4CC623CC53C2}" type="pres">
       <dgm:prSet presAssocID="{93154AA3-294E-4A72-A452-A70CA494AC1C}" presName="Name8" presStyleCnt="0"/>
@@ -7629,13 +7630,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E32FEE9D-FC56-4633-B235-BB4BC8FB2096}" type="pres">
       <dgm:prSet presAssocID="{93154AA3-294E-4A72-A452-A70CA494AC1C}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7645,13 +7639,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8AAD1D77-9DFF-4406-995B-9E373EE560D6}" type="pres">
       <dgm:prSet presAssocID="{6F6CEB40-F018-40B7-B43C-BB0F608C1737}" presName="Name8" presStyleCnt="0"/>
@@ -7665,13 +7652,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{166B6DC3-E48C-470D-B319-D777F3D4DA8C}" type="pres">
       <dgm:prSet presAssocID="{6F6CEB40-F018-40B7-B43C-BB0F608C1737}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7681,13 +7661,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7A3E38AC-ABE0-44B1-ABFE-C71AA69B5E79}" type="pres">
       <dgm:prSet presAssocID="{DFB816DE-9FE1-4A03-BBE3-E92EDD0106A3}" presName="Name8" presStyleCnt="0"/>
@@ -7701,13 +7674,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{53E7FBCA-B0EF-4CD3-9E52-80F3A839A7EA}" type="pres">
       <dgm:prSet presAssocID="{DFB816DE-9FE1-4A03-BBE3-E92EDD0106A3}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7717,13 +7683,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{40A0CFF3-5D9A-46B0-B3E9-C705D72172EE}" type="pres">
       <dgm:prSet presAssocID="{9672259E-8D62-4911-A026-2E23FD52D48A}" presName="Name8" presStyleCnt="0"/>
@@ -7737,13 +7696,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{22C6AEA5-B4B3-41C7-AE03-AA0A4D4EB3BF}" type="pres">
       <dgm:prSet presAssocID="{9672259E-8D62-4911-A026-2E23FD52D48A}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
@@ -7753,13 +7705,6 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
@@ -7826,12 +7771,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="0" y="200912"/>
-          <a:ext cx="5136057" cy="774050"/>
+          <a:off x="0" y="200482"/>
+          <a:ext cx="5225704" cy="772392"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 52847"/>
+            <a:gd name="adj" fmla="val 53885"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7877,7 +7822,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7887,6 +7832,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -7900,8 +7846,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="898809" y="200912"/>
-        <a:ext cx="3338437" cy="774050"/>
+        <a:off x="914498" y="200482"/>
+        <a:ext cx="3396707" cy="772392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{69CA1DAA-1002-439B-95E6-9B03B9A978F9}">
@@ -7911,12 +7857,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="165705" y="930315"/>
-          <a:ext cx="4804646" cy="774050"/>
+          <a:off x="168597" y="928323"/>
+          <a:ext cx="4888508" cy="772392"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 52847"/>
+            <a:gd name="adj" fmla="val 53885"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7964,7 +7910,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7974,6 +7920,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -7987,8 +7934,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1006518" y="930315"/>
-        <a:ext cx="3123020" cy="774050"/>
+        <a:off x="1024086" y="928323"/>
+        <a:ext cx="3177530" cy="772392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{238952AD-046B-41C1-B6E4-2C5149FAC37B}">
@@ -7998,12 +7945,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="369890" y="1670880"/>
-          <a:ext cx="4396276" cy="774050"/>
+          <a:off x="376346" y="1667302"/>
+          <a:ext cx="4473010" cy="772392"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 52847"/>
+            <a:gd name="adj" fmla="val 53885"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8051,7 +7998,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8061,6 +8008,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -8074,8 +8022,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1139238" y="1670880"/>
-        <a:ext cx="2857579" cy="774050"/>
+        <a:off x="1159123" y="1667302"/>
+        <a:ext cx="2907457" cy="772392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{425953AF-BAA2-4E7A-916B-2A82294152AD}">
@@ -8085,12 +8033,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="609118" y="2400284"/>
-          <a:ext cx="3917819" cy="774050"/>
+          <a:off x="619750" y="2395144"/>
+          <a:ext cx="3986202" cy="772392"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 52847"/>
+            <a:gd name="adj" fmla="val 53885"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8138,7 +8086,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8148,6 +8096,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -8161,8 +8110,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1294737" y="2400284"/>
-        <a:ext cx="2546582" cy="774050"/>
+        <a:off x="1317336" y="2395144"/>
+        <a:ext cx="2591031" cy="772392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A06E787-2B65-46E6-9A04-2968475748A6}">
@@ -8172,12 +8121,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="872899" y="3129687"/>
-          <a:ext cx="3390258" cy="774050"/>
+          <a:off x="888135" y="3122985"/>
+          <a:ext cx="3449433" cy="772392"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 52847"/>
+            <a:gd name="adj" fmla="val 53885"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8225,7 +8174,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8235,6 +8184,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="2000" kern="1200">
@@ -8248,8 +8198,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1466194" y="3129687"/>
-        <a:ext cx="2203667" cy="774050"/>
+        <a:off x="1491786" y="3122985"/>
+        <a:ext cx="2242131" cy="772392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D67B753-3B31-4AF4-8047-2E5F38D41F74}">
@@ -8259,12 +8209,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1028418" y="3870252"/>
-          <a:ext cx="3079220" cy="989097"/>
+          <a:off x="1046368" y="3861964"/>
+          <a:ext cx="3132966" cy="986979"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 52847"/>
+            <a:gd name="adj" fmla="val 53885"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8309,7 +8259,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="889000">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="889000">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -8319,6 +8269,7 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="2000" kern="1200">
@@ -8341,8 +8292,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1028418" y="3870252"/>
-        <a:ext cx="3079220" cy="989097"/>
+        <a:off x="1046368" y="3861964"/>
+        <a:ext cx="3132966" cy="986979"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -10372,8 +10323,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:W407"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A109" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X134" sqref="X134"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M193" sqref="M193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,62 +10410,62 @@
     <row r="107" spans="7:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="7:17" ht="21" x14ac:dyDescent="0.35">
       <c r="K110" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="L110" s="127"/>
-      <c r="M110" s="127"/>
-      <c r="N110" s="127"/>
-      <c r="O110" s="127"/>
+        <v>127</v>
+      </c>
+      <c r="L110" s="130"/>
+      <c r="M110" s="130"/>
+      <c r="N110" s="130"/>
+      <c r="O110" s="130"/>
     </row>
     <row r="113" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K113" s="95" t="s">
-        <v>122</v>
-      </c>
-      <c r="L113" s="127"/>
-      <c r="M113" s="127"/>
-      <c r="N113" s="127"/>
-      <c r="O113" s="127"/>
+        <v>128</v>
+      </c>
+      <c r="L113" s="130"/>
+      <c r="M113" s="130"/>
+      <c r="N113" s="130"/>
+      <c r="O113" s="130"/>
     </row>
     <row r="116" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="K116" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="L116" s="128"/>
-      <c r="M116" s="128"/>
-      <c r="N116" s="128"/>
-      <c r="O116" s="128"/>
+        <v>129</v>
+      </c>
+      <c r="L116" s="131"/>
+      <c r="M116" s="131"/>
+      <c r="N116" s="131"/>
+      <c r="O116" s="131"/>
     </row>
     <row r="120" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="K120" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="L120" s="127"/>
-      <c r="M120" s="127"/>
-      <c r="N120" s="127"/>
-      <c r="O120" s="127"/>
+        <v>130</v>
+      </c>
+      <c r="L120" s="130"/>
+      <c r="M120" s="130"/>
+      <c r="N120" s="130"/>
+      <c r="O120" s="130"/>
     </row>
     <row r="124" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
       <c r="K124" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="L124" s="126"/>
-      <c r="M124" s="126"/>
-      <c r="N124" s="126"/>
-      <c r="O124" s="126"/>
+        <v>131</v>
+      </c>
+      <c r="L124" s="129"/>
+      <c r="M124" s="129"/>
+      <c r="N124" s="129"/>
+      <c r="O124" s="129"/>
     </row>
     <row r="127" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="I128" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="J128" s="131"/>
-      <c r="K128" s="131"/>
-      <c r="L128" s="131"/>
-      <c r="M128" s="131"/>
-      <c r="N128" s="131"/>
-      <c r="O128" s="131"/>
+        <v>132</v>
+      </c>
+      <c r="J128" s="124"/>
+      <c r="K128" s="124"/>
+      <c r="L128" s="124"/>
+      <c r="M128" s="124"/>
+      <c r="N128" s="124"/>
+      <c r="O128" s="124"/>
     </row>
     <row r="129" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K129" s="16"/>
@@ -10525,37 +10476,37 @@
     <row r="134" spans="6:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="6:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="6:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F137" s="132" t="s">
+      <c r="F137" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="132"/>
-      <c r="H137" s="132" t="s">
+      <c r="G137" s="125"/>
+      <c r="H137" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="I137" s="132"/>
-      <c r="J137" s="132"/>
-      <c r="K137" s="132"/>
-      <c r="L137" s="132" t="s">
+      <c r="I137" s="125"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="125"/>
+      <c r="L137" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="M137" s="132"/>
+      <c r="M137" s="125"/>
       <c r="N137" s="49"/>
     </row>
     <row r="138" spans="6:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F138" s="98" t="n">
-        <v>138833.6526184082</v>
-      </c>
-      <c r="G138" s="125"/>
+        <v>98987.5869140625</v>
+      </c>
+      <c r="G138" s="126"/>
       <c r="H138" s="98" t="n">
-        <v>336382.0</v>
-      </c>
-      <c r="I138" s="125"/>
-      <c r="J138" s="125"/>
-      <c r="K138" s="125"/>
+        <v>1232048.0</v>
+      </c>
+      <c r="I138" s="126"/>
+      <c r="J138" s="126"/>
+      <c r="K138" s="126"/>
       <c r="L138" s="98" t="n">
-        <v>0.4127261643560244</v>
-      </c>
-      <c r="M138" s="125"/>
+        <v>0.080343937017115</v>
+      </c>
+      <c r="M138" s="126"/>
       <c r="N138" s="50"/>
     </row>
     <row r="139" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10582,138 +10533,138 @@
     </row>
     <row r="141" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F141" s="94" t="n">
-        <v>471.7776184082031</v>
-      </c>
-      <c r="G141" s="114"/>
-      <c r="H141" s="125" t="s">
+        <v>9229.3369140625</v>
+      </c>
+      <c r="G141" s="132"/>
+      <c r="H141" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="I141" s="125"/>
-      <c r="J141" s="125"/>
-      <c r="K141" s="125"/>
+      <c r="I141" s="126"/>
+      <c r="J141" s="126"/>
+      <c r="K141" s="126"/>
       <c r="L141" s="94" t="n">
-        <v>138361.875</v>
-      </c>
-      <c r="M141" s="114"/>
+        <v>89758.25</v>
+      </c>
+      <c r="M141" s="132"/>
       <c r="N141" s="51"/>
     </row>
     <row r="142" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F142" s="98" t="n">
-        <v>1750.0</v>
-      </c>
-      <c r="G142" s="115"/>
-      <c r="H142" s="124" t="s">
+        <v>6887.0</v>
+      </c>
+      <c r="G142" s="128"/>
+      <c r="H142" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="I142" s="124"/>
-      <c r="J142" s="124"/>
-      <c r="K142" s="124"/>
+      <c r="I142" s="133"/>
+      <c r="J142" s="133"/>
+      <c r="K142" s="133"/>
       <c r="L142" s="98" t="n">
-        <v>334632.0</v>
-      </c>
-      <c r="M142" s="115"/>
+        <v>1225161.0</v>
+      </c>
+      <c r="M142" s="128"/>
       <c r="N142" s="51"/>
     </row>
     <row r="143" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F143" s="94" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="G143" s="114"/>
-      <c r="H143" s="125" t="s">
+        <v>381.0</v>
+      </c>
+      <c r="G143" s="132"/>
+      <c r="H143" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="I143" s="125"/>
-      <c r="J143" s="125"/>
-      <c r="K143" s="125"/>
+      <c r="I143" s="126"/>
+      <c r="J143" s="126"/>
+      <c r="K143" s="126"/>
       <c r="L143" s="94" t="n">
-        <v>802.0</v>
-      </c>
-      <c r="M143" s="114"/>
+        <v>954.0</v>
+      </c>
+      <c r="M143" s="132"/>
       <c r="N143" s="51"/>
     </row>
     <row r="144" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F144" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="G144" s="115"/>
-      <c r="H144" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="G144" s="128"/>
+      <c r="H144" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="I144" s="124"/>
-      <c r="J144" s="124"/>
-      <c r="K144" s="124"/>
+      <c r="I144" s="133"/>
+      <c r="J144" s="133"/>
+      <c r="K144" s="133"/>
       <c r="L144" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="M144" s="115"/>
+        <v>134</v>
+      </c>
+      <c r="M144" s="128"/>
       <c r="N144" s="51"/>
     </row>
     <row r="145" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F145" s="94" t="n">
-        <v>6.207600116729736</v>
-      </c>
-      <c r="G145" s="114"/>
-      <c r="H145" s="125" t="s">
+        <v>24.223981857299805</v>
+      </c>
+      <c r="G145" s="132"/>
+      <c r="H145" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I145" s="125"/>
-      <c r="J145" s="125"/>
-      <c r="K145" s="125"/>
+      <c r="I145" s="126"/>
+      <c r="J145" s="126"/>
+      <c r="K145" s="126"/>
       <c r="L145" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="M145" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="M145" s="132"/>
       <c r="N145" s="51"/>
     </row>
     <row r="146" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F146" s="98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G146" s="115"/>
-      <c r="H146" s="124" t="s">
+        <v>2398.580078125</v>
+      </c>
+      <c r="G146" s="128"/>
+      <c r="H146" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="I146" s="124"/>
-      <c r="J146" s="124"/>
-      <c r="K146" s="124"/>
+      <c r="I146" s="133"/>
+      <c r="J146" s="133"/>
+      <c r="K146" s="133"/>
       <c r="L146" s="98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M146" s="115"/>
+        <v>3488.67041015625</v>
+      </c>
+      <c r="M146" s="128"/>
       <c r="N146" s="51"/>
     </row>
     <row r="147" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F147" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="G147" s="114"/>
-      <c r="H147" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="G147" s="132"/>
+      <c r="H147" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="I147" s="125"/>
-      <c r="J147" s="125"/>
-      <c r="K147" s="125"/>
+      <c r="I147" s="126"/>
+      <c r="J147" s="126"/>
+      <c r="K147" s="126"/>
       <c r="L147" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="M147" s="114"/>
+        <v>137</v>
+      </c>
+      <c r="M147" s="132"/>
       <c r="N147" s="51"/>
     </row>
     <row r="148" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F148" s="98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G148" s="115"/>
-      <c r="H148" s="124" t="s">
+        <v>111.20999908447266</v>
+      </c>
+      <c r="G148" s="128"/>
+      <c r="H148" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="124"/>
-      <c r="J148" s="124"/>
-      <c r="K148" s="124"/>
+      <c r="I148" s="133"/>
+      <c r="J148" s="133"/>
+      <c r="K148" s="133"/>
       <c r="L148" s="98" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M148" s="115"/>
+        <v>574.7398071289062</v>
+      </c>
+      <c r="M148" s="128"/>
       <c r="N148" s="51"/>
     </row>
     <row r="162" spans="5:23" ht="23.25" x14ac:dyDescent="0.25">
@@ -10743,12 +10694,12 @@
     </row>
     <row r="191">
       <c r="E191" t="s" s="100">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" t="s" s="100">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="2:23" ht="21" x14ac:dyDescent="0.35">
@@ -10780,26 +10731,26 @@
       </c>
     </row>
     <row r="203" spans="2:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="D203" s="134" t="s">
+      <c r="D203" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="E203" s="134"/>
-      <c r="F203" s="134"/>
-      <c r="G203" s="135"/>
-      <c r="H203" s="136" t="s">
+      <c r="E203" s="112"/>
+      <c r="F203" s="112"/>
+      <c r="G203" s="113"/>
+      <c r="H203" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="I203" s="134"/>
-      <c r="J203" s="134"/>
-      <c r="K203" s="137"/>
-      <c r="L203" s="138" t="s">
+      <c r="I203" s="112"/>
+      <c r="J203" s="112"/>
+      <c r="K203" s="115"/>
+      <c r="L203" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="M203" s="134"/>
-      <c r="N203" s="134"/>
-      <c r="O203" s="134"/>
-      <c r="P203" s="134"/>
-      <c r="Q203" s="137"/>
+      <c r="M203" s="112"/>
+      <c r="N203" s="112"/>
+      <c r="O203" s="112"/>
+      <c r="P203" s="112"/>
+      <c r="Q203" s="115"/>
     </row>
     <row r="204" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E204" s="26"/>
@@ -10891,21 +10842,23 @@
       </c>
       <c r="E211" s="110"/>
       <c r="F211" s="99" t="n">
-        <v>828.0</v>
-      </c>
-      <c r="G211" s="133"/>
+        <v>1645.0</v>
+      </c>
+      <c r="G211" s="120"/>
       <c r="H211" s="53"/>
       <c r="I211" s="99" t="n">
-        <v>171.0</v>
-      </c>
-      <c r="J211" s="133"/>
-      <c r="K211" s="133"/>
+        <v>482.0</v>
+      </c>
+      <c r="J211" s="120"/>
+      <c r="K211" s="120"/>
       <c r="L211" s="60"/>
       <c r="M211" s="53"/>
       <c r="N211" s="53"/>
-      <c r="O211" s="133"/>
-      <c r="P211" s="133"/>
-      <c r="Q211" s="133"/>
+      <c r="O211" s="99" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="P211" s="120"/>
+      <c r="Q211" s="120"/>
     </row>
     <row r="212" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B212" s="52"/>
@@ -10915,21 +10868,23 @@
       </c>
       <c r="E212" s="111"/>
       <c r="F212" s="95" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G212" s="139"/>
+        <v>619.0</v>
+      </c>
+      <c r="G212" s="119"/>
       <c r="H212" s="54"/>
       <c r="I212" s="95" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J212" s="139"/>
-      <c r="K212" s="139"/>
+        <v>128.0</v>
+      </c>
+      <c r="J212" s="119"/>
+      <c r="K212" s="119"/>
       <c r="L212" s="61"/>
       <c r="M212" s="54"/>
       <c r="N212" s="54"/>
-      <c r="O212" s="139"/>
-      <c r="P212" s="139"/>
-      <c r="Q212" s="139"/>
+      <c r="O212" s="95" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="P212" s="119"/>
+      <c r="Q212" s="119"/>
     </row>
     <row r="213" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D213" s="55" t="s">
@@ -10937,25 +10892,27 @@
       </c>
       <c r="E213" s="110"/>
       <c r="F213" s="99" t="n">
-        <v>78.85714285714286</v>
-      </c>
-      <c r="G213" s="133"/>
+        <v>70.63117217689995</v>
+      </c>
+      <c r="G213" s="120"/>
       <c r="H213" s="53"/>
       <c r="I213" s="99" t="n">
-        <v>16.28571428571429</v>
-      </c>
-      <c r="J213" s="133"/>
-      <c r="K213" s="133"/>
+        <v>20.695577501073423</v>
+      </c>
+      <c r="J213" s="120"/>
+      <c r="K213" s="120"/>
       <c r="L213" s="60"/>
       <c r="M213" s="53"/>
       <c r="N213" s="53"/>
-      <c r="O213" s="133"/>
-      <c r="P213" s="133"/>
-      <c r="Q213" s="133"/>
+      <c r="O213" s="99" t="n">
+        <v>8.50150279089738</v>
+      </c>
+      <c r="P213" s="120"/>
+      <c r="Q213" s="120"/>
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D215" t="s" s="100">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="229" spans="8:14" ht="23.25" x14ac:dyDescent="0.35">
@@ -10970,7 +10927,7 @@
     </row>
     <row r="259" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D259" s="100" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E259" s="58"/>
       <c r="F259" s="58"/>
@@ -10980,7 +10937,7 @@
     </row>
     <row r="260" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D260" s="100" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E260" s="58"/>
       <c r="F260" s="58"/>
@@ -11000,17 +10957,17 @@
       <c r="N263" s="24"/>
     </row>
     <row r="266" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B266" s="116" t="s">
+      <c r="B266" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="C266" s="116"/>
-      <c r="D266" s="116"/>
+      <c r="C266" s="127"/>
+      <c r="D266" s="127"/>
       <c r="E266" s="44"/>
       <c r="F266" s="44"/>
-      <c r="G266" s="116" t="s">
+      <c r="G266" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="H266" s="116"/>
+      <c r="H266" s="127"/>
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E267" s="36"/>
@@ -11049,27 +11006,27 @@
       <c r="E278" s="36"/>
     </row>
     <row r="279" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B279" s="118" t="s">
+      <c r="B279" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="C279" s="118"/>
-      <c r="D279" s="118"/>
+      <c r="C279" s="139"/>
+      <c r="D279" s="139"/>
       <c r="E279" s="36"/>
-      <c r="G279" s="118" t="s">
+      <c r="G279" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="H279" s="118"/>
+      <c r="H279" s="139"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="C280" s="117"/>
-      <c r="D280" s="117"/>
-      <c r="G280" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="H280" s="117"/>
+      <c r="B280" s="101" t="n">
+        <v>35.76998050682261</v>
+      </c>
+      <c r="C280" s="138"/>
+      <c r="D280" s="138"/>
+      <c r="G280" s="101" t="n">
+        <v>36.25410733844468</v>
+      </c>
+      <c r="H280" s="138"/>
     </row>
     <row r="282" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C282" s="25"/>
@@ -11083,12 +11040,12 @@
     </row>
     <row r="284" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B284" s="100" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B285" s="100" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
@@ -11105,12 +11062,12 @@
     </row>
     <row r="325">
       <c r="D325" t="s" s="100">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="326">
       <c r="D326" t="s" s="100">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="327" spans="4:13" ht="21" x14ac:dyDescent="0.35">
@@ -11148,7 +11105,7 @@
     </row>
     <row r="358">
       <c r="D358" t="s" s="100">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="4:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -11180,88 +11137,88 @@
     <row r="367" spans="4:15" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="368" spans="4:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="370" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="119" t="s">
+      <c r="B370" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C370" s="119"/>
-      <c r="D370" s="119"/>
-      <c r="E370" s="119"/>
-      <c r="F370" s="119"/>
-      <c r="G370" s="119"/>
+      <c r="C370" s="122"/>
+      <c r="D370" s="122"/>
+      <c r="E370" s="122"/>
+      <c r="F370" s="122"/>
+      <c r="G370" s="122"/>
       <c r="H370" t="n" s="99">
         <v>40.0</v>
       </c>
-      <c r="I370" s="120"/>
+      <c r="I370" s="134"/>
     </row>
     <row r="371" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="122" t="s">
+      <c r="B371" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="C371" s="122"/>
-      <c r="D371" s="122"/>
-      <c r="E371" s="122"/>
-      <c r="F371" s="122"/>
-      <c r="G371" s="122"/>
+      <c r="C371" s="136"/>
+      <c r="D371" s="136"/>
+      <c r="E371" s="136"/>
+      <c r="F371" s="136"/>
+      <c r="G371" s="136"/>
       <c r="H371" t="n" s="95">
-        <v>16.0</v>
-      </c>
-      <c r="I371" s="121"/>
+        <v>15.0</v>
+      </c>
+      <c r="I371" s="135"/>
     </row>
     <row r="372" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="123" t="s">
+      <c r="B372" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C372" s="123"/>
-      <c r="D372" s="123"/>
-      <c r="E372" s="123"/>
-      <c r="F372" s="123"/>
-      <c r="G372" s="123"/>
+      <c r="C372" s="137"/>
+      <c r="D372" s="137"/>
+      <c r="E372" s="137"/>
+      <c r="F372" s="137"/>
+      <c r="G372" s="137"/>
       <c r="H372" t="n" s="99">
-        <v>40.0</v>
-      </c>
-      <c r="I372" s="120"/>
+        <v>37.5</v>
+      </c>
+      <c r="I372" s="134"/>
     </row>
     <row r="376" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K376" s="119" t="s">
+      <c r="K376" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="L376" s="119"/>
-      <c r="M376" s="119"/>
-      <c r="N376" s="119"/>
-      <c r="O376" s="119"/>
+      <c r="L376" s="122"/>
+      <c r="M376" s="122"/>
+      <c r="N376" s="122"/>
+      <c r="O376" s="122"/>
       <c r="P376" t="n" s="99">
-        <v>8.336168641179027</v>
-      </c>
-      <c r="Q376" s="141"/>
-      <c r="R376" s="141"/>
+        <v>8.355472028061193</v>
+      </c>
+      <c r="Q376" s="123"/>
+      <c r="R376" s="123"/>
     </row>
     <row r="377" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K377" s="140" t="s">
+      <c r="K377" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="L377" s="140"/>
-      <c r="M377" s="140"/>
-      <c r="N377" s="140"/>
-      <c r="O377" s="140"/>
+      <c r="L377" s="121"/>
+      <c r="M377" s="121"/>
+      <c r="N377" s="121"/>
+      <c r="O377" s="121"/>
       <c r="P377" t="n" s="95">
-        <v>3.3503865253624125</v>
-      </c>
-      <c r="Q377" s="112"/>
-      <c r="R377" s="112"/>
+        <v>3.122447764058507</v>
+      </c>
+      <c r="Q377" s="140"/>
+      <c r="R377" s="140"/>
     </row>
     <row r="378" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K378" s="119" t="s">
+      <c r="K378" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="L378" s="119"/>
-      <c r="M378" s="119"/>
-      <c r="N378" s="119"/>
-      <c r="O378" s="119"/>
+      <c r="L378" s="122"/>
+      <c r="M378" s="122"/>
+      <c r="N378" s="122"/>
+      <c r="O378" s="122"/>
       <c r="P378" t="n" s="99">
-        <v>40.19096385373209</v>
-      </c>
-      <c r="Q378" s="113"/>
-      <c r="R378" s="113"/>
+        <v>37.370094155925756</v>
+      </c>
+      <c r="Q378" s="141"/>
+      <c r="R378" s="141"/>
     </row>
     <row r="388" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H388" s="63" t="s">
@@ -11275,50 +11232,50 @@
       <c r="N388" s="40"/>
     </row>
     <row r="391" spans="2:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="130" t="s">
+      <c r="B391" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="C391" s="130"/>
-      <c r="D391" s="130"/>
-      <c r="E391" s="130"/>
-      <c r="F391" s="130" t="s">
+      <c r="C391" s="117"/>
+      <c r="D391" s="117"/>
+      <c r="E391" s="117"/>
+      <c r="F391" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="G391" s="130"/>
-      <c r="H391" s="130"/>
-      <c r="I391" s="130" t="s">
+      <c r="G391" s="117"/>
+      <c r="H391" s="117"/>
+      <c r="I391" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="J391" s="130"/>
+      <c r="J391" s="117"/>
       <c r="K391" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="L391" s="129" t="s">
+      <c r="L391" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="M391" s="129"/>
-      <c r="N391" s="129" t="s">
+      <c r="M391" s="118"/>
+      <c r="N391" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="O391" s="129"/>
-      <c r="P391" s="130" t="s">
+      <c r="O391" s="118"/>
+      <c r="P391" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="Q391" s="130"/>
+      <c r="Q391" s="117"/>
       <c r="R391" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="S391" s="129" t="s">
+      <c r="S391" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="T391" s="129"/>
+      <c r="T391" s="118"/>
     </row>
     <row r="392">
       <c r="B392" t="s" s="75">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F392" t="s" s="75">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I392" t="n" s="75">
         <v>20.0</v>
@@ -11344,22 +11301,22 @@
     </row>
     <row r="393" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" t="s" s="106">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C393" s="72"/>
       <c r="D393" s="72"/>
       <c r="E393" s="72"/>
       <c r="F393" t="s" s="106">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G393" s="72"/>
       <c r="H393" s="72"/>
       <c r="I393" t="n" s="106">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="J393" s="72"/>
       <c r="K393" t="n" s="106">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L393" t="n" s="106">
         <v>0.0</v>
@@ -11370,11 +11327,11 @@
       </c>
       <c r="O393" s="72"/>
       <c r="P393" t="n" s="106">
-        <v>200.29206433677447</v>
+        <v>200.1070411417046</v>
       </c>
       <c r="Q393" s="72"/>
       <c r="R393" t="n" s="106">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="S393" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11383,22 +11340,22 @@
     </row>
     <row r="394" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" t="s" s="75">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C394" s="72"/>
       <c r="D394" s="72"/>
       <c r="E394" s="72"/>
       <c r="F394" t="s" s="75">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G394" s="72"/>
       <c r="H394" s="72"/>
       <c r="I394" t="n" s="75">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="J394" s="72"/>
       <c r="K394" t="n" s="75">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="L394" t="n" s="75">
         <v>0.0</v>
@@ -11409,11 +11366,11 @@
       </c>
       <c r="O394" s="72"/>
       <c r="P394" t="n" s="75">
-        <v>200.7603258314073</v>
+        <v>200.4020765570366</v>
       </c>
       <c r="Q394" s="72"/>
       <c r="R394" t="n" s="75">
-        <v>0.21052631578947367</v>
+        <v>0.16</v>
       </c>
       <c r="S394" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11422,18 +11379,18 @@
     </row>
     <row r="395" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" t="s" s="106">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C395" s="72"/>
       <c r="D395" s="72"/>
       <c r="E395" s="72"/>
       <c r="F395" t="s" s="106">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G395" s="72"/>
       <c r="H395" s="72"/>
       <c r="I395" t="n" s="106">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="J395" s="72"/>
       <c r="K395" t="n" s="106">
@@ -11448,11 +11405,11 @@
       </c>
       <c r="O395" s="72"/>
       <c r="P395" t="n" s="106">
-        <v>201.05765990291255</v>
+        <v>200.42647262214527</v>
       </c>
       <c r="Q395" s="72"/>
       <c r="R395" t="n" s="106">
-        <v>0.09900990099009901</v>
+        <v>0.10891089108910891</v>
       </c>
       <c r="S395" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11461,22 +11418,22 @@
     </row>
     <row r="396" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" t="s" s="75">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C396" s="72"/>
       <c r="D396" s="72"/>
       <c r="E396" s="72"/>
       <c r="F396" t="s" s="75">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G396" s="72"/>
       <c r="H396" s="72"/>
       <c r="I396" t="n" s="75">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="J396" s="72"/>
       <c r="K396" t="n" s="75">
-        <v>29.0</v>
+        <v>1.0</v>
       </c>
       <c r="L396" t="n" s="75">
         <v>0.0</v>
@@ -11487,11 +11444,11 @@
       </c>
       <c r="O396" s="72"/>
       <c r="P396" t="n" s="75">
-        <v>201.66351963462736</v>
+        <v>200.51022145196285</v>
       </c>
       <c r="Q396" s="72"/>
       <c r="R396" t="n" s="75">
-        <v>0.08733624454148471</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="S396" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11500,22 +11457,22 @@
     </row>
     <row r="397" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" t="s" s="106">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C397" s="72"/>
       <c r="D397" s="72"/>
       <c r="E397" s="72"/>
       <c r="F397" t="s" s="106">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G397" s="72"/>
       <c r="H397" s="72"/>
       <c r="I397" t="n" s="106">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="J397" s="72"/>
       <c r="K397" t="n" s="106">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L397" t="n" s="106">
         <v>0.0</v>
@@ -11526,11 +11483,11 @@
       </c>
       <c r="O397" s="72"/>
       <c r="P397" t="n" s="106">
-        <v>201.76156325597594</v>
+        <v>201.13918241394538</v>
       </c>
       <c r="Q397" s="72"/>
       <c r="R397" t="n" s="106">
-        <v>0.13875598086124402</v>
+        <v>0.155</v>
       </c>
       <c r="S397" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11539,22 +11496,22 @@
     </row>
     <row r="398" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" t="s" s="75">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C398" s="72"/>
       <c r="D398" s="72"/>
       <c r="E398" s="72"/>
       <c r="F398" t="s" s="75">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G398" s="72"/>
       <c r="H398" s="72"/>
       <c r="I398" t="n" s="75">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="J398" s="72"/>
       <c r="K398" t="n" s="75">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L398" t="n" s="75">
         <v>0.0</v>
@@ -11565,11 +11522,11 @@
       </c>
       <c r="O398" s="72"/>
       <c r="P398" t="n" s="75">
-        <v>201.82512783135863</v>
+        <v>201.68648233664902</v>
       </c>
       <c r="Q398" s="72"/>
       <c r="R398" t="n" s="75">
-        <v>0.11330049261083744</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="S398" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11578,22 +11535,22 @@
     </row>
     <row r="399" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" t="s" s="106">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C399" s="72"/>
       <c r="D399" s="72"/>
       <c r="E399" s="72"/>
       <c r="F399" t="s" s="106">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G399" s="72"/>
       <c r="H399" s="72"/>
       <c r="I399" t="n" s="106">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J399" s="72"/>
       <c r="K399" t="n" s="106">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="L399" t="n" s="106">
         <v>0.0</v>
@@ -11604,11 +11561,11 @@
       </c>
       <c r="O399" s="72"/>
       <c r="P399" t="n" s="106">
-        <v>202.33933995233048</v>
+        <v>201.98644081191176</v>
       </c>
       <c r="Q399" s="72"/>
       <c r="R399" t="n" s="106">
-        <v>0.15</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="S399" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11617,22 +11574,22 @@
     </row>
     <row r="400" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" t="s" s="75">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C400" s="72"/>
       <c r="D400" s="72"/>
       <c r="E400" s="72"/>
       <c r="F400" t="s" s="75">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G400" s="72"/>
       <c r="H400" s="72"/>
       <c r="I400" t="n" s="75">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="J400" s="72"/>
       <c r="K400" t="n" s="75">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="L400" t="n" s="75">
         <v>0.0</v>
@@ -11643,11 +11600,11 @@
       </c>
       <c r="O400" s="72"/>
       <c r="P400" t="n" s="75">
-        <v>203.2058886025177</v>
+        <v>202.5466004164461</v>
       </c>
       <c r="Q400" s="72"/>
       <c r="R400" t="n" s="75">
-        <v>0.12195121951219512</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="S400" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11656,22 +11613,22 @@
     </row>
     <row r="401" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" t="s" s="106">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C401" s="72"/>
       <c r="D401" s="72"/>
       <c r="E401" s="72"/>
       <c r="F401" t="s" s="106">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G401" s="72"/>
       <c r="H401" s="72"/>
       <c r="I401" t="n" s="106">
-        <v>24.0</v>
+        <v>58.0</v>
       </c>
       <c r="J401" s="72"/>
       <c r="K401" t="n" s="106">
-        <v>4.0</v>
+        <v>38.0</v>
       </c>
       <c r="L401" t="n" s="106">
         <v>0.0</v>
@@ -11682,11 +11639,11 @@
       </c>
       <c r="O401" s="72"/>
       <c r="P401" t="n" s="106">
-        <v>203.64635137591708</v>
+        <v>202.7722771986069</v>
       </c>
       <c r="Q401" s="72"/>
       <c r="R401" t="n" s="106">
-        <v>0.11764705882352941</v>
+        <v>0.29</v>
       </c>
       <c r="S401" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11695,13 +11652,13 @@
     </row>
     <row r="402" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" t="s" s="75">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C402" s="72"/>
       <c r="D402" s="72"/>
       <c r="E402" s="72"/>
       <c r="F402" t="s" s="75">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G402" s="72"/>
       <c r="H402" s="72"/>
@@ -11710,7 +11667,7 @@
       </c>
       <c r="J402" s="72"/>
       <c r="K402" t="n" s="75">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="L402" t="n" s="75">
         <v>0.0</v>
@@ -11721,7 +11678,7 @@
       </c>
       <c r="O402" s="72"/>
       <c r="P402" t="n" s="75">
-        <v>204.39632251639216</v>
+        <v>203.67741227199917</v>
       </c>
       <c r="Q402" s="72"/>
       <c r="R402" t="n" s="75">
@@ -11734,22 +11691,22 @@
     </row>
     <row r="403" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" t="s" s="106">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C403" s="72"/>
       <c r="D403" s="72"/>
       <c r="E403" s="72"/>
       <c r="F403" t="s" s="106">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G403" s="72"/>
       <c r="H403" s="72"/>
       <c r="I403" t="n" s="106">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
       <c r="J403" s="72"/>
       <c r="K403" t="n" s="106">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="L403" t="n" s="106">
         <v>0.0</v>
@@ -11760,11 +11717,11 @@
       </c>
       <c r="O403" s="72"/>
       <c r="P403" t="n" s="106">
-        <v>205.07109730297825</v>
+        <v>204.07750203849187</v>
       </c>
       <c r="Q403" s="72"/>
       <c r="R403" t="n" s="106">
-        <v>0.22077922077922077</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="S403" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11773,22 +11730,22 @@
     </row>
     <row r="404" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" t="s" s="75">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C404" s="72"/>
       <c r="D404" s="72"/>
       <c r="E404" s="72"/>
       <c r="F404" t="s" s="75">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G404" s="72"/>
       <c r="H404" s="72"/>
       <c r="I404" t="n" s="75">
-        <v>31.0</v>
+        <v>55.0</v>
       </c>
       <c r="J404" s="72"/>
       <c r="K404" t="n" s="75">
-        <v>11.0</v>
+        <v>35.0</v>
       </c>
       <c r="L404" t="n" s="75">
         <v>0.0</v>
@@ -11799,11 +11756,11 @@
       </c>
       <c r="O404" s="72"/>
       <c r="P404" t="n" s="75">
-        <v>207.31206444395022</v>
+        <v>204.51330537593805</v>
       </c>
       <c r="Q404" s="72"/>
       <c r="R404" t="n" s="75">
-        <v>0.155</v>
+        <v>0.275</v>
       </c>
       <c r="S404" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11812,22 +11769,22 @@
     </row>
     <row r="405" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" t="s" s="106">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C405" s="72"/>
       <c r="D405" s="72"/>
       <c r="E405" s="72"/>
       <c r="F405" t="s" s="106">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G405" s="72"/>
       <c r="H405" s="72"/>
       <c r="I405" t="n" s="106">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J405" s="72"/>
       <c r="K405" t="n" s="106">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="L405" t="n" s="106">
         <v>0.0</v>
@@ -11838,11 +11795,11 @@
       </c>
       <c r="O405" s="72"/>
       <c r="P405" t="n" s="106">
-        <v>207.35045643225763</v>
+        <v>205.83335054338426</v>
       </c>
       <c r="Q405" s="72"/>
       <c r="R405" t="n" s="106">
-        <v>0.1</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="S405" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11851,22 +11808,22 @@
     </row>
     <row r="406" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" t="s" s="75">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C406" s="72"/>
       <c r="D406" s="72"/>
       <c r="E406" s="72"/>
       <c r="F406" t="s" s="75">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G406" s="72"/>
       <c r="H406" s="72"/>
       <c r="I406" t="n" s="75">
-        <v>59.0</v>
+        <v>20.0</v>
       </c>
       <c r="J406" s="72"/>
       <c r="K406" t="n" s="75">
-        <v>39.0</v>
+        <v>17.0</v>
       </c>
       <c r="L406" t="n" s="75">
         <v>0.0</v>
@@ -11877,11 +11834,11 @@
       </c>
       <c r="O406" s="72"/>
       <c r="P406" t="n" s="75">
-        <v>207.51963889086755</v>
+        <v>205.96503117416836</v>
       </c>
       <c r="Q406" s="72"/>
       <c r="R406" t="n" s="75">
-        <v>0.295</v>
+        <v>0.1</v>
       </c>
       <c r="S406" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11890,13 +11847,13 @@
     </row>
     <row r="407" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" t="s" s="106">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C407" s="72"/>
       <c r="D407" s="72"/>
       <c r="E407" s="72"/>
       <c r="F407" t="s" s="106">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G407" s="72"/>
       <c r="H407" s="72"/>
@@ -11905,7 +11862,7 @@
       </c>
       <c r="J407" s="72"/>
       <c r="K407" t="n" s="106">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="L407" t="n" s="106">
         <v>0.0</v>
@@ -11916,11 +11873,11 @@
       </c>
       <c r="O407" s="72"/>
       <c r="P407" t="n" s="106">
-        <v>209.26879280428793</v>
+        <v>208.60913845824123</v>
       </c>
       <c r="Q407" s="72"/>
       <c r="R407" t="n" s="106">
-        <v>0.09345794392523364</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S407" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11929,16 +11886,16 @@
     </row>
     <row r="408">
       <c r="B408" t="s" s="75">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F408" t="s" s="75">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I408" t="n" s="75">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="K408" t="n" s="75">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="L408" t="n" s="75">
         <v>0.0</v>
@@ -11947,10 +11904,10 @@
         <v>0.0</v>
       </c>
       <c r="P408" t="n" s="75">
-        <v>209.69684886219392</v>
+        <v>213.59999275833945</v>
       </c>
       <c r="R408" t="n" s="75">
-        <v>0.215</v>
+        <v>0.1</v>
       </c>
       <c r="S408" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11958,16 +11915,16 @@
     </row>
     <row r="409">
       <c r="B409" t="s" s="106">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F409" t="s" s="106">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I409" t="n" s="106">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="K409" t="n" s="106">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="L409" t="n" s="106">
         <v>0.0</v>
@@ -11976,10 +11933,10 @@
         <v>0.0</v>
       </c>
       <c r="P409" t="n" s="106">
-        <v>210.0653278381877</v>
+        <v>215.95766804387554</v>
       </c>
       <c r="R409" t="n" s="106">
-        <v>0.185</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="S409" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11987,16 +11944,16 @@
     </row>
     <row r="410">
       <c r="B410" t="s" s="75">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F410" t="s" s="75">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I410" t="n" s="75">
         <v>20.0</v>
       </c>
       <c r="K410" t="n" s="75">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="L410" t="n" s="75">
         <v>0.0</v>
@@ -12005,10 +11962,10 @@
         <v>0.0</v>
       </c>
       <c r="P410" t="n" s="75">
-        <v>210.31313285901282</v>
+        <v>216.95428846107487</v>
       </c>
       <c r="R410" t="n" s="75">
-        <v>0.09174311926605505</v>
+        <v>0.1</v>
       </c>
       <c r="S410" t="e" s="75">
         <v>#DIV/0!</v>
@@ -12016,16 +11973,16 @@
     </row>
     <row r="411">
       <c r="B411" t="s" s="106">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F411" t="s" s="106">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I411" t="n" s="106">
-        <v>57.0</v>
+        <v>20.0</v>
       </c>
       <c r="K411" t="n" s="106">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="L411" t="n" s="106">
         <v>0.0</v>
@@ -12034,10 +11991,10 @@
         <v>0.0</v>
       </c>
       <c r="P411" t="n" s="106">
-        <v>212.01354026737178</v>
+        <v>219.1720212622064</v>
       </c>
       <c r="R411" t="n" s="106">
-        <v>0.24050632911392406</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="S411" t="e" s="106">
         <v>#DIV/0!</v>
@@ -12045,16 +12002,16 @@
     </row>
     <row r="412">
       <c r="B412" t="s" s="75">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F412" t="s" s="75">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I412" t="n" s="75">
-        <v>20.0</v>
+        <v>46.0</v>
       </c>
       <c r="K412" t="n" s="75">
-        <v>35.0</v>
+        <v>26.0</v>
       </c>
       <c r="L412" t="n" s="75">
         <v>0.0</v>
@@ -12063,10 +12020,10 @@
         <v>0.0</v>
       </c>
       <c r="P412" t="n" s="75">
-        <v>212.73643457505412</v>
+        <v>219.37143761819823</v>
       </c>
       <c r="R412" t="n" s="75">
-        <v>0.1</v>
+        <v>0.20353982300884957</v>
       </c>
       <c r="S412" t="e" s="75">
         <v>#DIV/0!</v>
@@ -12074,16 +12031,16 @@
     </row>
     <row r="413">
       <c r="B413" t="s" s="106">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F413" t="s" s="106">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I413" t="n" s="106">
-        <v>46.0</v>
+        <v>20.0</v>
       </c>
       <c r="K413" t="n" s="106">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="L413" t="n" s="106">
         <v>0.0</v>
@@ -12092,10 +12049,10 @@
         <v>0.0</v>
       </c>
       <c r="P413" t="n" s="106">
-        <v>216.07122069824328</v>
+        <v>223.99625716144516</v>
       </c>
       <c r="R413" t="n" s="106">
-        <v>0.20353982300884957</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="S413" t="e" s="106">
         <v>#DIV/0!</v>
@@ -12103,16 +12060,16 @@
     </row>
     <row r="414">
       <c r="B414" t="s" s="75">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F414" t="s" s="75">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I414" t="n" s="75">
-        <v>20.0</v>
+        <v>59.0</v>
       </c>
       <c r="K414" t="n" s="75">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="L414" t="n" s="75">
         <v>0.0</v>
@@ -12121,10 +12078,10 @@
         <v>0.0</v>
       </c>
       <c r="P414" t="n" s="75">
-        <v>227.50673000849733</v>
+        <v>225.5806580097885</v>
       </c>
       <c r="R414" t="n" s="75">
-        <v>0.08403361344537816</v>
+        <v>0.24686192468619247</v>
       </c>
       <c r="S414" t="e" s="75">
         <v>#DIV/0!</v>
@@ -12132,16 +12089,16 @@
     </row>
     <row r="415">
       <c r="B415" t="s" s="106">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F415" t="s" s="106">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I415" t="n" s="106">
         <v>20.0</v>
       </c>
       <c r="K415" t="n" s="106">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="L415" t="n" s="106">
         <v>0.0</v>
@@ -12150,111 +12107,111 @@
         <v>0.0</v>
       </c>
       <c r="P415" t="n" s="106">
-        <v>229.90866759350024</v>
+        <v>226.80846604926367</v>
       </c>
       <c r="R415" t="n" s="106">
-        <v>0.08695652173913043</v>
+        <v>0.1</v>
       </c>
       <c r="S415" t="e" s="106">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="81">
-        <v>212</v>
-      </c>
-      <c r="F416" t="s" s="81">
-        <v>213</v>
-      </c>
-      <c r="I416" t="n" s="81">
-        <v>21.0</v>
-      </c>
-      <c r="K416" t="n" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="L416" t="n" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="N416" t="n" s="81">
-        <v>0.047619047619047616</v>
-      </c>
-      <c r="P416" t="n" s="81">
-        <v>200.3570010542816</v>
-      </c>
-      <c r="R416" t="n" s="81">
-        <v>0.105</v>
-      </c>
-      <c r="S416" t="n" s="81">
-        <v>200.3570010542816</v>
+      <c r="B416" t="s" s="75">
+        <v>217</v>
+      </c>
+      <c r="F416" t="s" s="75">
+        <v>218</v>
+      </c>
+      <c r="I416" t="n" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="K416" t="n" s="75">
+        <v>34.0</v>
+      </c>
+      <c r="L416" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="N416" t="n" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="P416" t="n" s="75">
+        <v>227.33093982586036</v>
+      </c>
+      <c r="R416" t="n" s="75">
+        <v>0.08547008547008547</v>
+      </c>
+      <c r="S416" t="e" s="75">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" t="s" s="84">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F417" t="s" s="84">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I417" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K417" t="n" s="84">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="L417" t="n" s="84">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="N417" t="n" s="84">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P417" t="n" s="84">
-        <v>205.96245519250908</v>
+        <v>201.91716198600332</v>
       </c>
       <c r="R417" t="n" s="84">
-        <v>0.0970873786407767</v>
+        <v>0.1</v>
       </c>
       <c r="S417" t="n" s="84">
-        <v>34.32707586541818</v>
+        <v>67.30572066200111</v>
       </c>
     </row>
     <row r="418">
       <c r="B418" t="s" s="81">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F418" t="s" s="81">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I418" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K418" t="n" s="81">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="L418" t="n" s="81">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="N418" t="n" s="81">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="P418" t="n" s="81">
-        <v>200.72078228825166</v>
+        <v>200.77525625411704</v>
       </c>
       <c r="R418" t="n" s="81">
         <v>0.1</v>
       </c>
       <c r="S418" t="n" s="81">
-        <v>28.674397469750236</v>
+        <v>50.19381406352926</v>
       </c>
     </row>
     <row r="419">
       <c r="B419" t="s" s="84">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F419" t="s" s="84">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I419" t="n" s="84">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="K419" t="n" s="84">
         <v>8.0</v>
@@ -12263,346 +12220,346 @@
         <v>8.0</v>
       </c>
       <c r="N419" t="n" s="84">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P419" t="n" s="84">
-        <v>202.60239734512678</v>
+        <v>200.9167078121143</v>
       </c>
       <c r="R419" t="n" s="84">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="S419" t="n" s="84">
-        <v>25.325299668140847</v>
+        <v>25.11458847651429</v>
       </c>
     </row>
     <row r="420">
       <c r="B420" t="s" s="81">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F420" t="s" s="81">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I420" t="n" s="81">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="K420" t="n" s="81">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="L420" t="n" s="81">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="N420" t="n" s="81">
-        <v>0.375</v>
+        <v>0.45</v>
       </c>
       <c r="P420" t="n" s="81">
-        <v>200.38297599059015</v>
+        <v>201.0755631236244</v>
       </c>
       <c r="R420" t="n" s="81">
-        <v>0.16</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="S420" t="n" s="81">
-        <v>16.69858133254918</v>
+        <v>22.341729235958265</v>
       </c>
     </row>
     <row r="421">
       <c r="B421" t="s" s="84">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F421" t="s" s="84">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I421" t="n" s="84">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="K421" t="n" s="84">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="L421" t="n" s="84">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="N421" t="n" s="84">
-        <v>0.3939393939393939</v>
+        <v>0.5</v>
       </c>
       <c r="P421" t="n" s="84">
-        <v>208.19974331512574</v>
+        <v>206.76226578511148</v>
       </c>
       <c r="R421" t="n" s="84">
-        <v>0.165</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S421" t="n" s="84">
-        <v>16.015364870394286</v>
+        <v>20.676226578511148</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" t="s" s="81">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F422" t="s" s="81">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I422" t="n" s="81">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="K422" t="n" s="81">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="L422" t="n" s="81">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="N422" t="n" s="81">
-        <v>0.8</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="P422" t="n" s="81">
-        <v>210.5856642932553</v>
+        <v>200.87324797436426</v>
       </c>
       <c r="R422" t="n" s="81">
-        <v>0.09259259259259259</v>
+        <v>0.165</v>
       </c>
       <c r="S422" t="n" s="81">
-        <v>13.161604018328456</v>
+        <v>15.451788305720328</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="s" s="84">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F423" t="s" s="84">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I423" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K423" t="n" s="84">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="L423" t="n" s="84">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="N423" t="n" s="84">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="P423" t="n" s="84">
-        <v>215.786062453386</v>
+        <v>201.48914008343203</v>
       </c>
       <c r="R423" t="n" s="84">
-        <v>0.1</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="S423" t="n" s="84">
-        <v>11.357161181757158</v>
+        <v>14.39208143453086</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="s" s="81">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F424" t="s" s="81">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I424" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K424" t="n" s="81">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="L424" t="n" s="81">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="N424" t="n" s="81">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="P424" t="n" s="81">
-        <v>203.6022490128184</v>
+        <v>201.81975167795787</v>
       </c>
       <c r="R424" t="n" s="81">
         <v>0.1</v>
       </c>
       <c r="S424" t="n" s="81">
-        <v>10.18011245064092</v>
+        <v>13.454650111863858</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" t="s" s="84">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F425" t="s" s="84">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I425" t="n" s="84">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="K425" t="n" s="84">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="L425" t="n" s="84">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="N425" t="n" s="84">
-        <v>0.5121951219512195</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="P425" t="n" s="84">
-        <v>203.85758467744876</v>
+        <v>207.15800089457431</v>
       </c>
       <c r="R425" t="n" s="84">
-        <v>0.18552036199095023</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="S425" t="n" s="84">
-        <v>9.707504032259465</v>
+        <v>11.50877782747635</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" t="s" s="81">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F426" t="s" s="81">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I426" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K426" t="n" s="81">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="L426" t="n" s="81">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="N426" t="n" s="81">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="P426" t="n" s="81">
-        <v>202.81919227691407</v>
+        <v>211.60164426356513</v>
       </c>
       <c r="R426" t="n" s="81">
-        <v>0.08888888888888889</v>
+        <v>0.1</v>
       </c>
       <c r="S426" t="n" s="81">
-        <v>8.112767691076563</v>
+        <v>10.076268774455482</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" t="s" s="84">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F427" t="s" s="84">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I427" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K427" t="n" s="84">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="L427" t="n" s="84">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="N427" t="n" s="84">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P427" t="n" s="84">
-        <v>212.6210872443308</v>
+        <v>218.62023600033672</v>
       </c>
       <c r="R427" t="n" s="84">
         <v>0.1</v>
       </c>
       <c r="S427" t="n" s="84">
-        <v>7.874855083123363</v>
+        <v>8.74480944001347</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" t="s" s="81">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F428" t="s" s="81">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I428" t="n" s="81">
-        <v>20.0</v>
+        <v>44.0</v>
       </c>
       <c r="K428" t="n" s="81">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="L428" t="n" s="81">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="N428" t="n" s="81">
-        <v>1.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="P428" t="n" s="81">
-        <v>222.7495936734462</v>
+        <v>209.27378763252955</v>
       </c>
       <c r="R428" t="n" s="81">
-        <v>0.08620689655172414</v>
+        <v>0.22</v>
       </c>
       <c r="S428" t="n" s="81">
-        <v>6.960924802295194</v>
+        <v>8.719741151355398</v>
       </c>
     </row>
     <row r="429">
       <c r="B429" t="s" s="84">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F429" t="s" s="84">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I429" t="n" s="84">
-        <v>53.0</v>
+        <v>49.0</v>
       </c>
       <c r="K429" t="n" s="84">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="L429" t="n" s="84">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="N429" t="n" s="84">
-        <v>0.6226415094339622</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="P429" t="n" s="84">
-        <v>224.9745083885974</v>
+        <v>220.3205832802435</v>
       </c>
       <c r="R429" t="n" s="84">
-        <v>0.22746781115879827</v>
+        <v>0.245</v>
       </c>
       <c r="S429" t="n" s="84">
-        <v>6.817409345109012</v>
+        <v>7.59726149242219</v>
       </c>
     </row>
     <row r="430">
       <c r="B430" t="s" s="81">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F430" t="s" s="81">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I430" t="n" s="81">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="K430" t="n" s="81">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="L430" t="n" s="81">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="N430" t="n" s="81">
-        <v>0.6296296296296297</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="P430" t="n" s="81">
-        <v>223.7427637274603</v>
+        <v>224.10570481153545</v>
       </c>
       <c r="R430" t="n" s="81">
-        <v>0.23076923076923078</v>
+        <v>0.265</v>
       </c>
       <c r="S430" t="n" s="81">
-        <v>6.580669521395891</v>
+        <v>6.791081963985922</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" t="s" s="84">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F431" t="s" s="84">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I431" t="n" s="84">
-        <v>56.0</v>
+        <v>20.0</v>
       </c>
       <c r="K431" t="n" s="84">
         <v>36.0</v>
@@ -12611,20 +12568,77 @@
         <v>36.0</v>
       </c>
       <c r="N431" t="n" s="84">
-        <v>0.6428571428571429</v>
+        <v>1.8</v>
       </c>
       <c r="P431" t="n" s="84">
-        <v>211.42246442887023</v>
+        <v>215.73871247899805</v>
       </c>
       <c r="R431" t="n" s="84">
-        <v>0.23728813559322035</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S431" t="n" s="84">
-        <v>5.8728462341352845</v>
+        <v>5.992742013305501</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="73">
+    <mergeCell ref="P377:R377"/>
+    <mergeCell ref="P378:R378"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="K376:O376"/>
+    <mergeCell ref="B266:D266"/>
+    <mergeCell ref="G266:H266"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="B279:D279"/>
+    <mergeCell ref="G279:H279"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="K124:O124"/>
+    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="K116:O116"/>
+    <mergeCell ref="K113:O113"/>
+    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="S391:T391"/>
+    <mergeCell ref="I391:J391"/>
+    <mergeCell ref="P391:Q391"/>
+    <mergeCell ref="I128:O128"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="I211:K211"/>
+    <mergeCell ref="O211:Q211"/>
+    <mergeCell ref="L146:M146"/>
     <mergeCell ref="D203:G203"/>
     <mergeCell ref="H203:K203"/>
     <mergeCell ref="L203:Q203"/>
@@ -12641,65 +12655,6 @@
     <mergeCell ref="K377:O377"/>
     <mergeCell ref="K378:O378"/>
     <mergeCell ref="P376:R376"/>
-    <mergeCell ref="S391:T391"/>
-    <mergeCell ref="I391:J391"/>
-    <mergeCell ref="P391:Q391"/>
-    <mergeCell ref="I128:O128"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:K138"/>
-    <mergeCell ref="L137:M137"/>
-    <mergeCell ref="H137:K137"/>
-    <mergeCell ref="L138:M138"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="I211:K211"/>
-    <mergeCell ref="O211:Q211"/>
-    <mergeCell ref="M192:P192"/>
-    <mergeCell ref="M191:P191"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="K124:O124"/>
-    <mergeCell ref="K110:O110"/>
-    <mergeCell ref="K116:O116"/>
-    <mergeCell ref="K113:O113"/>
-    <mergeCell ref="K120:O120"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H146:K146"/>
-    <mergeCell ref="H147:K147"/>
-    <mergeCell ref="H148:K148"/>
-    <mergeCell ref="H141:K141"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H142:K142"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="H144:K144"/>
-    <mergeCell ref="H145:K145"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
-    <mergeCell ref="B266:D266"/>
-    <mergeCell ref="G266:H266"/>
-    <mergeCell ref="B280:D280"/>
-    <mergeCell ref="G280:H280"/>
-    <mergeCell ref="B279:D279"/>
-    <mergeCell ref="G279:H279"/>
-    <mergeCell ref="P377:R377"/>
-    <mergeCell ref="P378:R378"/>
-    <mergeCell ref="L141:M141"/>
-    <mergeCell ref="L142:M142"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="L144:M144"/>
-    <mergeCell ref="L145:M145"/>
-    <mergeCell ref="L147:M147"/>
-    <mergeCell ref="L148:M148"/>
-    <mergeCell ref="K376:O376"/>
     <mergeCell ref="B392:E392"/>
     <mergeCell ref="F392:H392"/>
     <mergeCell ref="I392:J392"/>
@@ -12993,7 +12948,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="E2" sqref="E2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13102,7 +13057,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>65.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -13117,290 +13072,320 @@
         <v>120</v>
       </c>
       <c r="F2" t="n">
-        <v>7.0</v>
+        <v>669.0</v>
       </c>
       <c r="G2" t="n" s="109">
-        <v>42672.0</v>
+        <v>42704.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>107.0</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K2" t="n">
-        <v>141.0</v>
+        <v>2022.0</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M2" t="n">
-        <v>30.0</v>
+        <v>752.0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>283.0</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P2" t="n">
-        <v>473.0</v>
+        <v>1026.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0</v>
+        <v>367.0</v>
       </c>
       <c r="R2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="S2" t="n">
-        <v>178.0</v>
+        <v>433.0</v>
       </c>
       <c r="T2" t="n">
-        <v>7.0</v>
+        <v>159.0</v>
       </c>
       <c r="X2" t="n" s="99">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y2" t="n" s="99">
-        <v>4.985782115816616</v>
+        <v>5.233024264002685</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>8.0</v>
+        <v>205.0</v>
       </c>
       <c r="B3" t="s">
         <v>104</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
       </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="n">
+        <v>226.0</v>
+      </c>
       <c r="G3" t="n" s="109">
-        <v>42673.0</v>
+        <v>42705.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>107.0</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0</v>
+        <v>53.0</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M3" t="n">
-        <v>182.0</v>
+        <v>715.0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>264.0</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P3" t="n">
-        <v>467.0</v>
+        <v>913.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0</v>
+        <v>331.0</v>
       </c>
       <c r="R3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="S3" t="n">
-        <v>142.0</v>
+        <v>417.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>202.0</v>
       </c>
       <c r="B4" t="s">
         <v>105</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="s">
         <v>113</v>
       </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="n">
+        <v>152.0</v>
+      </c>
       <c r="G4" t="n" s="109">
-        <v>42674.0</v>
+        <v>42706.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.0</v>
+        <v>92.0</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M4" t="n">
-        <v>317.0</v>
+        <v>238.0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="R4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="S4" t="n">
-        <v>170.0</v>
+        <v>375.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>9.0</v>
+        <v>1585.0</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
       </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74.0</v>
+      </c>
       <c r="G5" t="n" s="109">
-        <v>42675.0</v>
+        <v>42709.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="I5" t="n">
-        <v>37.0</v>
+        <v>179.0</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K5" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M5" t="n">
-        <v>77.0</v>
+        <v>201.0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="R5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="S5" t="n">
-        <v>217.0</v>
+        <v>402.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
-        <v>890.0</v>
+        <v>139.0</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="n">
-        <v>839.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
       </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="n">
+        <v>41.0</v>
+      </c>
       <c r="G6" t="n" s="109">
-        <v>42676.0</v>
+        <v>42710.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="I6" t="n">
-        <v>70.0</v>
+        <v>106.0</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K6" t="n">
-        <v>143.0</v>
+        <v>57.0</v>
       </c>
       <c r="L6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="M6" t="n">
-        <v>352.0</v>
+        <v>68.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="R6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S6" t="n">
-        <v>97.0</v>
+        <v>277.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="n">
-        <v>76.0</v>
+        <v>196.0</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
       </c>
       <c r="C7" t="n">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
       </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>39.0</v>
+      </c>
       <c r="G7" t="n" s="109">
-        <v>42677.0</v>
+        <v>42711.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="I7" t="n">
-        <v>36.0</v>
+        <v>112.0</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K7" t="n">
-        <v>154.0</v>
+        <v>19.0</v>
       </c>
       <c r="R7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="S7" t="n">
-        <v>114.0</v>
+        <v>227.0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -13410,29 +13395,35 @@
       <c r="D8" t="s">
         <v>117</v>
       </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.0</v>
+      </c>
       <c r="G8" t="n" s="109">
-        <v>42678.0</v>
+        <v>42716.0</v>
       </c>
       <c r="H8" t="n">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.0</v>
+        <v>93.0</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K8" t="n">
-        <v>8.0</v>
+        <v>33.0</v>
       </c>
       <c r="R8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="S8" t="n">
-        <v>132.0</v>
+        <v>198.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25"/>
@@ -13612,262 +13603,297 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155" t="s">
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="155"/>
+      <c r="I24" s="145"/>
       <c r="J24" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="152" t="s">
+      <c r="K24" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152" t="s">
+      <c r="L24" s="142"/>
+      <c r="M24" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="152"/>
-      <c r="O24" s="155" t="s">
+      <c r="N24" s="142"/>
+      <c r="O24" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="P24" s="155"/>
+      <c r="P24" s="145"/>
       <c r="Q24" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="R24" s="152" t="s">
+      <c r="R24" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="152"/>
+      <c r="S24" s="142"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153" t="s">
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153" t="s">
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="153"/>
+      <c r="I25" s="143"/>
       <c r="J25" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="154" t="s">
+      <c r="K25" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154" t="s">
+      <c r="L25" s="144"/>
+      <c r="M25" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="N25" s="154"/>
-      <c r="O25" s="153" t="s">
+      <c r="N25" s="144"/>
+      <c r="O25" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="153"/>
+      <c r="P25" s="143"/>
       <c r="Q25" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="R25" s="154" t="s">
+      <c r="R25" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="S25" s="154"/>
+      <c r="S25" s="144"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151" t="s">
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151" t="s">
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="151"/>
+      <c r="I26" s="149"/>
       <c r="J26" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="K26" s="148" t="s">
+      <c r="K26" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148" t="s">
+      <c r="L26" s="146"/>
+      <c r="M26" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="N26" s="148"/>
-      <c r="O26" s="151" t="s">
+      <c r="N26" s="146"/>
+      <c r="O26" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="P26" s="151"/>
+      <c r="P26" s="149"/>
       <c r="Q26" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="R26" s="148" t="s">
+      <c r="R26" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="148"/>
+      <c r="S26" s="146"/>
     </row>
     <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149" t="s">
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149" t="s">
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="147"/>
       <c r="J27" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="K27" s="150" t="s">
+      <c r="K27" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150" t="s">
+      <c r="L27" s="148"/>
+      <c r="M27" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="150"/>
-      <c r="O27" s="149" t="s">
+      <c r="N27" s="148"/>
+      <c r="O27" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="149"/>
+      <c r="P27" s="147"/>
       <c r="Q27" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="R27" s="150" t="s">
+      <c r="R27" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="150"/>
+      <c r="S27" s="148"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147" t="s">
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147" t="s">
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="147"/>
+      <c r="I28" s="153"/>
       <c r="J28" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="144" t="s">
+      <c r="K28" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144" t="s">
+      <c r="L28" s="150"/>
+      <c r="M28" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="N28" s="144"/>
-      <c r="O28" s="147" t="s">
+      <c r="N28" s="150"/>
+      <c r="O28" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="147"/>
+      <c r="P28" s="153"/>
       <c r="Q28" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="R28" s="144" t="s">
+      <c r="R28" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="S28" s="144"/>
+      <c r="S28" s="150"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145" t="s">
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145" t="s">
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="145"/>
+      <c r="I29" s="151"/>
       <c r="J29" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="146" t="s">
+      <c r="K29" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146" t="s">
+      <c r="L29" s="152"/>
+      <c r="M29" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="146"/>
-      <c r="O29" s="145" t="s">
+      <c r="N29" s="152"/>
+      <c r="O29" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="145"/>
+      <c r="P29" s="151"/>
       <c r="Q29" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="146" t="s">
+      <c r="R29" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="146"/>
+      <c r="S29" s="152"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
       <c r="J30" s="65"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
       <c r="Q30" s="64"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -13882,41 +13908,6 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -30,14 +30,14 @@
     <definedName name="costs">report!$P$392</definedName>
     <definedName name="costWithoutConversation">ChanelTrafic!$Y$2</definedName>
     <definedName name="countAdvert">report!$H$138</definedName>
-    <definedName name="countConversation">ChanelTrafic!$H$2:$H$8</definedName>
+    <definedName name="countConversation">ChanelTrafic!$H$2:$H$6</definedName>
     <definedName name="countGetGoals">report!$K$120</definedName>
     <definedName name="CpaCost">report!$I$128</definedName>
     <definedName name="ctr">report!$R$392</definedName>
-    <definedName name="dayVisited">ChanelTrafic!$G$2:$G$8</definedName>
-    <definedName name="dayWeek">ChanelTrafic!$R$2:$R$8</definedName>
-    <definedName name="dayWeekConversation">ChanelTrafic!$T$2:$T$8</definedName>
-    <definedName name="dayWeekVisited">ChanelTrafic!$S$2:$S$8</definedName>
+    <definedName name="dayVisited">ChanelTrafic!$G$2:$G$6</definedName>
+    <definedName name="dayWeek">ChanelTrafic!$R$2:$R$6</definedName>
+    <definedName name="dayWeekConversation">ChanelTrafic!$T$2:$T$6</definedName>
+    <definedName name="dayWeekVisited">ChanelTrafic!$S$2:$S$6</definedName>
     <definedName name="detailConversation">report!$D$64</definedName>
     <definedName name="detailVisited">report!$D$63</definedName>
     <definedName name="effecientConversation">report!$K$124</definedName>
@@ -46,8 +46,8 @@
     <definedName name="expansive">report!$N$392:$N$406</definedName>
     <definedName name="femaleConversation">report!$B$280</definedName>
     <definedName name="femaleConversationPer">report!$B$280</definedName>
-    <definedName name="goal">ChanelTrafic!$E$2:$E$8</definedName>
-    <definedName name="goalQuality">ChanelTrafic!$F$2:$F$8</definedName>
+    <definedName name="goal">ChanelTrafic!$E$2:$E$7</definedName>
+    <definedName name="goalQuality">ChanelTrafic!$F$2:$F$7</definedName>
     <definedName name="hoursOfDay">ChanelTrafic!$U$2:$U$1</definedName>
     <definedName name="hoursOfDayConversation">ChanelTrafic!$W$2:$W$1</definedName>
     <definedName name="hoursOfDayVisited">ChanelTrafic!$V$2:$V$1</definedName>
@@ -74,7 +74,7 @@
     <definedName name="popularDayOfWeek">report!$D$325</definedName>
     <definedName name="popularHours">report!$D$358</definedName>
     <definedName name="position">report!$K$392</definedName>
-    <definedName name="quality">ChanelTrafic!$A$2:$A$7</definedName>
+    <definedName name="quality">ChanelTrafic!$A$2:$A$6</definedName>
     <definedName name="qualityClick">report!$K$113</definedName>
     <definedName name="qualityDetail">ChanelTrafic!$C$2:$C$7</definedName>
     <definedName name="qualityDetailper">ChanelTrafic!#REF!</definedName>
@@ -88,11 +88,11 @@
     <definedName name="regionAgeLider">report!$D$259</definedName>
     <definedName name="regionConversLider">report!$E$192</definedName>
     <definedName name="regionLider">report!$E$191</definedName>
-    <definedName name="regionName">ChanelTrafic!$J$2:$J$8</definedName>
-    <definedName name="regionQuality">ChanelTrafic!$K$2:$K$8</definedName>
+    <definedName name="regionName">ChanelTrafic!$J$2:$J$7</definedName>
+    <definedName name="regionQuality">ChanelTrafic!$K$2:$K$7</definedName>
     <definedName name="sendAll">report!$K$116</definedName>
     <definedName name="sendall2">report!$P$376</definedName>
-    <definedName name="source">ChanelTrafic!$B$2:$B$7</definedName>
+    <definedName name="source">ChanelTrafic!$B$2:$B$6</definedName>
     <definedName name="sourceDetail">ChanelTrafic!$C$2:$C$8</definedName>
     <definedName name="sourceDetailPer">ChanelTrafic!$D$2:$D$8</definedName>
     <definedName name="tabConversation">report!$I$212</definedName>
@@ -101,7 +101,7 @@
     <definedName name="userConversation">ChanelTrafic!$N$2:$N$6</definedName>
     <definedName name="userVisited">ChanelTrafic!$M$2:$M$6</definedName>
     <definedName name="visited">ChanelTrafic!#REF!</definedName>
-    <definedName name="visitedDiv10">ChanelTrafic!$I$2:$I$8</definedName>
+    <definedName name="visitedDiv10">ChanelTrafic!$I$2:$I$6</definedName>
     <definedName name="wasSpend">ChanelTrafic!#REF!</definedName>
     <definedName name="wasSpendNotReachGoal">ChanelTrafic!#REF!</definedName>
     <definedName name="whichConversationMore">report!$B$285</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="244">
   <si>
     <t>quality</t>
   </si>
@@ -445,139 +445,130 @@
     <t>ТЕКСТ</t>
   </si>
   <si>
-    <t>Переходы из социальных сетей (50,00%)</t>
-  </si>
-  <si>
-    <t>Переходы из поисковых систем (79,86%)</t>
-  </si>
-  <si>
-    <t>Переходы по ссылкам на сайтах (67,40%)</t>
-  </si>
-  <si>
-    <t>Переходы по рекламе (49,74%)</t>
-  </si>
-  <si>
-    <t>Внутренние переходы (40,79%)</t>
-  </si>
-  <si>
-    <t>Прямые заходы (37,52%)</t>
-  </si>
-  <si>
-    <t>Болше всего трафика - Переходы по рекламе (1585,00)</t>
-  </si>
-  <si>
-    <t>Самый высокий % конверсии - Переходы из поисковых систем (79,86%)</t>
+    <t>Переходы из поисковых систем (38,46%)</t>
+  </si>
+  <si>
+    <t>Переходы по ссылкам на сайтах (30,43%)</t>
+  </si>
+  <si>
+    <t>Переходы по рекламе (21,94%)</t>
+  </si>
+  <si>
+    <t>Прямые заходы (21,43%)</t>
+  </si>
+  <si>
+    <t>Внутренние переходы (11,54%)</t>
+  </si>
+  <si>
+    <t>Болше всего трафика - Переходы по рекламе (155,00)</t>
+  </si>
+  <si>
+    <t>Самый высокий % конверсии - Переходы из поисковых систем (38,46%)</t>
   </si>
   <si>
     <t>mosgid.ru (0,00)</t>
   </si>
   <si>
-    <t>novosibirsk.big-book-money.ru (0,00)</t>
-  </si>
-  <si>
-    <t>weburlopener.com (0,00)</t>
-  </si>
-  <si>
-    <t>zaim.com (0,00)</t>
-  </si>
-  <si>
-    <t>Mail.ru (60,00)</t>
-  </si>
-  <si>
-    <t>news.ngs.ru (0,00)</t>
-  </si>
-  <si>
-    <t>pro2b.net (0,00)</t>
-  </si>
-  <si>
-    <t>Болше всего трафика - Mail.ru (5,00)</t>
-  </si>
-  <si>
-    <t>Самый высокий % конверсии - Mail.ru (60,00%)</t>
+    <t>Яндекс (50,00)</t>
+  </si>
+  <si>
+    <t>Google (33,33)</t>
+  </si>
+  <si>
+    <t>Google Adwords (29,73)</t>
+  </si>
+  <si>
+    <t>link.2gis.ru (0,00)</t>
+  </si>
+  <si>
+    <t>Яндекс: Директ (19,08)</t>
+  </si>
+  <si>
+    <t>Яндекс: Не определено (9,09)</t>
+  </si>
+  <si>
+    <t>Болше всего трафика - Яндекс: Директ (131,00)</t>
+  </si>
+  <si>
+    <t>Самый высокий % конверсии - Яндекс (50,00%)</t>
   </si>
   <si>
     <t>Просмотр 3 страниц</t>
   </si>
   <si>
+    <t>Получить бесплатную консультацию (Открытие)</t>
+  </si>
+  <si>
     <t>Контакты</t>
   </si>
   <si>
-    <t>Получить бесплатную консультацию (Открытие)</t>
-  </si>
-  <si>
     <t>Получить бесплатную консультацию (Отправка)</t>
   </si>
   <si>
+    <t>Заказать звонок (Открытие)</t>
+  </si>
+  <si>
     <t>Консультация арбитражного управляющего (Нажатие)</t>
   </si>
   <si>
-    <t>Заказать звонок (Открытие)</t>
-  </si>
-  <si>
-    <t>Заказать звонок (Отправка)</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>6589,15</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0,043</t>
-  </si>
-  <si>
-    <t>439,28</t>
-  </si>
-  <si>
-    <t>5.532162044431538%</t>
-  </si>
-  <si>
-    <t>13.852185276608104%</t>
-  </si>
-  <si>
-    <t>94.08621</t>
-  </si>
-  <si>
-    <t>2398,58%</t>
-  </si>
-  <si>
-    <t>3488,67%</t>
-  </si>
-  <si>
-    <t>Сибирский федеральный округ (55,52%)</t>
-  </si>
-  <si>
-    <t>Приволжский федеральный округ (49,44%)</t>
-  </si>
-  <si>
-    <t>Южный федеральный округ (46,74%)</t>
-  </si>
-  <si>
-    <t>Уральский федеральный округ (36,67%)</t>
-  </si>
-  <si>
-    <t>Центральный федеральный округ (40,95%)</t>
-  </si>
-  <si>
-    <t>Дальневосточный федеральный округ (10,53%)</t>
-  </si>
-  <si>
-    <t>Северо-Западный федеральный округ (11,54%)</t>
-  </si>
-  <si>
-    <t>Лидер по посетителям - Сибирский федеральный округ (2022,00)</t>
-  </si>
-  <si>
-    <t>% Конверсии больше - Сибирский федеральный округ (55,52%)</t>
-  </si>
-  <si>
-    <t>На долю планшетов и смартфонов приходится 29,20% трафика</t>
+    <t>120910</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>4658,30</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0,256</t>
+  </si>
+  <si>
+    <t>141,16</t>
+  </si>
+  <si>
+    <t>8.552631578947368%</t>
+  </si>
+  <si>
+    <t>33.881578947368425%</t>
+  </si>
+  <si>
+    <t>81.93353</t>
+  </si>
+  <si>
+    <t>225,00%</t>
+  </si>
+  <si>
+    <t>436,01%</t>
+  </si>
+  <si>
+    <t>Приволжский федеральный округ (50,00%)</t>
+  </si>
+  <si>
+    <t>Сибирский федеральный округ (24,48%)</t>
+  </si>
+  <si>
+    <t>Северо-Западный федеральный округ (0,00%)</t>
+  </si>
+  <si>
+    <t>Уральский федеральный округ (0,00%)</t>
+  </si>
+  <si>
+    <t>Центральный федеральный округ (0,00%)</t>
+  </si>
+  <si>
+    <t>Южный федеральный округ (0,00%)</t>
+  </si>
+  <si>
+    <t>Лидер по посетителям - Сибирский федеральный округ (241,00)</t>
+  </si>
+  <si>
+    <t>% Конверсии больше - Приволжский федеральный округ (50,00%)</t>
+  </si>
+  <si>
+    <t>На долю планшетов и смартфонов приходится 37,60% трафика</t>
   </si>
   <si>
     <t>25‑34 года</t>
@@ -589,40 +580,37 @@
     <t>18‑24 года</t>
   </si>
   <si>
+    <t>младше 18 лет</t>
+  </si>
+  <si>
     <t>35‑44 года</t>
   </si>
   <si>
-    <t>младше 18 лет</t>
-  </si>
-  <si>
-    <t>Болше всего сеансов у группы - 25‑34 года (752,00)</t>
-  </si>
-  <si>
-    <t>Лучший коэффициент конверсии у группы младше 18 лет (50,00%)</t>
+    <t>Болше всего сеансов у группы - 25‑34 года (94,00)</t>
+  </si>
+  <si>
+    <t>Лучший коэффициент конверсии у группы младше 18 лет (57,14%)</t>
+  </si>
+  <si>
+    <t>мужской</t>
   </si>
   <si>
     <t>женский</t>
   </si>
   <si>
-    <t>мужской</t>
-  </si>
-  <si>
     <t>На сайте больше женщин</t>
   </si>
   <si>
-    <t>Коэф. конверсии выше у женщин</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
+    <t>Коэф. конверсии выше у мужчин</t>
+  </si>
+  <si>
+    <t>Четверг</t>
   </si>
   <si>
     <t>Среда</t>
   </si>
   <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Вторник</t>
+    <t>Воскресенье</t>
   </si>
   <si>
     <t>Пятница</t>
@@ -631,13 +619,10 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
     <t>Четверг - самый высокий коэф. конверсии</t>
   </si>
   <si>
-    <t>Понедельник - больше всего сеансов</t>
+    <t>Воскресенье - больше всего сеансов</t>
   </si>
   <si>
     <t xml:space="preserve">Конверсии происходят приемущественно в - </t>
@@ -649,40 +634,184 @@
     <t>ad0</t>
   </si>
   <si>
+    <t>company 2</t>
+  </si>
+  <si>
+    <t>ad2</t>
+  </si>
+  <si>
+    <t>company 9</t>
+  </si>
+  <si>
+    <t>ad9</t>
+  </si>
+  <si>
+    <t>company 12</t>
+  </si>
+  <si>
+    <t>ad12</t>
+  </si>
+  <si>
+    <t>company 4</t>
+  </si>
+  <si>
+    <t>ad4</t>
+  </si>
+  <si>
+    <t>company 17</t>
+  </si>
+  <si>
+    <t>ad17</t>
+  </si>
+  <si>
+    <t>company 5</t>
+  </si>
+  <si>
+    <t>ad5</t>
+  </si>
+  <si>
+    <t>company 37</t>
+  </si>
+  <si>
+    <t>ad37</t>
+  </si>
+  <si>
+    <t>company 10</t>
+  </si>
+  <si>
+    <t>ad10</t>
+  </si>
+  <si>
+    <t>company 21</t>
+  </si>
+  <si>
+    <t>ad21</t>
+  </si>
+  <si>
+    <t>company 31</t>
+  </si>
+  <si>
+    <t>ad31</t>
+  </si>
+  <si>
+    <t>company 14</t>
+  </si>
+  <si>
+    <t>ad14</t>
+  </si>
+  <si>
+    <t>company 11</t>
+  </si>
+  <si>
+    <t>ad11</t>
+  </si>
+  <si>
+    <t>company 26</t>
+  </si>
+  <si>
+    <t>ad26</t>
+  </si>
+  <si>
+    <t>company 28</t>
+  </si>
+  <si>
+    <t>ad28</t>
+  </si>
+  <si>
+    <t>company 34</t>
+  </si>
+  <si>
+    <t>ad34</t>
+  </si>
+  <si>
+    <t>company 23</t>
+  </si>
+  <si>
+    <t>ad23</t>
+  </si>
+  <si>
+    <t>company 22</t>
+  </si>
+  <si>
+    <t>ad22</t>
+  </si>
+  <si>
+    <t>company 38</t>
+  </si>
+  <si>
+    <t>ad38</t>
+  </si>
+  <si>
+    <t>company 29</t>
+  </si>
+  <si>
+    <t>ad29</t>
+  </si>
+  <si>
+    <t>company 36</t>
+  </si>
+  <si>
+    <t>ad36</t>
+  </si>
+  <si>
+    <t>company 1</t>
+  </si>
+  <si>
+    <t>ad1</t>
+  </si>
+  <si>
+    <t>company 3</t>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>company 6</t>
+  </si>
+  <si>
+    <t>ad6</t>
+  </si>
+  <si>
+    <t>company 7</t>
+  </si>
+  <si>
+    <t>ad7</t>
+  </si>
+  <si>
+    <t>company 8</t>
+  </si>
+  <si>
+    <t>ad8</t>
+  </si>
+  <si>
+    <t>company 13</t>
+  </si>
+  <si>
+    <t>ad13</t>
+  </si>
+  <si>
+    <t>company 15</t>
+  </si>
+  <si>
+    <t>ad15</t>
+  </si>
+  <si>
     <t>company 16</t>
   </si>
   <si>
     <t>ad16</t>
   </si>
   <si>
-    <t>company 12</t>
-  </si>
-  <si>
-    <t>ad12</t>
-  </si>
-  <si>
-    <t>company 2</t>
-  </si>
-  <si>
-    <t>ad2</t>
-  </si>
-  <si>
-    <t>company 1</t>
-  </si>
-  <si>
-    <t>ad1</t>
-  </si>
-  <si>
-    <t>company 11</t>
-  </si>
-  <si>
-    <t>ad11</t>
-  </si>
-  <si>
-    <t>company 5</t>
-  </si>
-  <si>
-    <t>ad5</t>
+    <t>company 18</t>
+  </si>
+  <si>
+    <t>ad18</t>
+  </si>
+  <si>
+    <t>company 19</t>
+  </si>
+  <si>
+    <t>ad19</t>
   </si>
   <si>
     <t>company 20</t>
@@ -691,28 +820,28 @@
     <t>ad20</t>
   </si>
   <si>
-    <t>company 23</t>
-  </si>
-  <si>
-    <t>ad23</t>
-  </si>
-  <si>
-    <t>company 38</t>
-  </si>
-  <si>
-    <t>ad38</t>
-  </si>
-  <si>
-    <t>company 7</t>
-  </si>
-  <si>
-    <t>ad7</t>
-  </si>
-  <si>
-    <t>company 19</t>
-  </si>
-  <si>
-    <t>ad19</t>
+    <t>company 24</t>
+  </si>
+  <si>
+    <t>ad24</t>
+  </si>
+  <si>
+    <t>company 27</t>
+  </si>
+  <si>
+    <t>ad27</t>
+  </si>
+  <si>
+    <t>company 25</t>
+  </si>
+  <si>
+    <t>ad25</t>
+  </si>
+  <si>
+    <t>company 30</t>
+  </si>
+  <si>
+    <t>ad30</t>
   </si>
   <si>
     <t>company 35</t>
@@ -721,22 +850,10 @@
     <t>ad35</t>
   </si>
   <si>
-    <t>company 6</t>
-  </si>
-  <si>
-    <t>ad6</t>
-  </si>
-  <si>
-    <t>company 17</t>
-  </si>
-  <si>
-    <t>ad17</t>
-  </si>
-  <si>
-    <t>company 30</t>
-  </si>
-  <si>
-    <t>ad30</t>
+    <t>company 33</t>
+  </si>
+  <si>
+    <t>ad33</t>
   </si>
   <si>
     <t>company 32</t>
@@ -745,142 +862,10 @@
     <t>ad32</t>
   </si>
   <si>
-    <t>company 22</t>
-  </si>
-  <si>
-    <t>ad22</t>
-  </si>
-  <si>
-    <t>company 31</t>
-  </si>
-  <si>
-    <t>ad31</t>
-  </si>
-  <si>
-    <t>company 27</t>
-  </si>
-  <si>
-    <t>ad27</t>
-  </si>
-  <si>
-    <t>company 26</t>
-  </si>
-  <si>
-    <t>ad26</t>
-  </si>
-  <si>
-    <t>company 37</t>
-  </si>
-  <si>
-    <t>ad37</t>
-  </si>
-  <si>
     <t>company 39</t>
   </si>
   <si>
     <t>ad39</t>
-  </si>
-  <si>
-    <t>company 28</t>
-  </si>
-  <si>
-    <t>ad28</t>
-  </si>
-  <si>
-    <t>company 34</t>
-  </si>
-  <si>
-    <t>ad34</t>
-  </si>
-  <si>
-    <t>company 3</t>
-  </si>
-  <si>
-    <t>ad3</t>
-  </si>
-  <si>
-    <t>company 4</t>
-  </si>
-  <si>
-    <t>ad4</t>
-  </si>
-  <si>
-    <t>company 8</t>
-  </si>
-  <si>
-    <t>ad8</t>
-  </si>
-  <si>
-    <t>company 9</t>
-  </si>
-  <si>
-    <t>ad9</t>
-  </si>
-  <si>
-    <t>company 10</t>
-  </si>
-  <si>
-    <t>ad10</t>
-  </si>
-  <si>
-    <t>company 13</t>
-  </si>
-  <si>
-    <t>ad13</t>
-  </si>
-  <si>
-    <t>company 14</t>
-  </si>
-  <si>
-    <t>ad14</t>
-  </si>
-  <si>
-    <t>company 15</t>
-  </si>
-  <si>
-    <t>ad15</t>
-  </si>
-  <si>
-    <t>company 18</t>
-  </si>
-  <si>
-    <t>ad18</t>
-  </si>
-  <si>
-    <t>company 21</t>
-  </si>
-  <si>
-    <t>ad21</t>
-  </si>
-  <si>
-    <t>company 25</t>
-  </si>
-  <si>
-    <t>ad25</t>
-  </si>
-  <si>
-    <t>company 24</t>
-  </si>
-  <si>
-    <t>ad24</t>
-  </si>
-  <si>
-    <t>company 29</t>
-  </si>
-  <si>
-    <t>ad29</t>
-  </si>
-  <si>
-    <t>company 33</t>
-  </si>
-  <si>
-    <t>ad33</t>
-  </si>
-  <si>
-    <t>company 36</t>
-  </si>
-  <si>
-    <t>ad36</t>
   </si>
 </sst>
 </file>
@@ -10357,12 +10342,12 @@
     </row>
     <row r="31">
       <c r="D31" t="s" s="100">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="s" s="100">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="7:7" ht="23.25" x14ac:dyDescent="0.35">
@@ -10372,12 +10357,12 @@
     </row>
     <row r="63">
       <c r="D63" t="s" s="100">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="s" s="100">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -10410,7 +10395,7 @@
     <row r="107" spans="7:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="7:17" ht="21" x14ac:dyDescent="0.35">
       <c r="K110" s="95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L110" s="130"/>
       <c r="M110" s="130"/>
@@ -10419,7 +10404,7 @@
     </row>
     <row r="113" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K113" s="95" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L113" s="130"/>
       <c r="M113" s="130"/>
@@ -10428,7 +10413,7 @@
     </row>
     <row r="116" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="K116" s="95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L116" s="131"/>
       <c r="M116" s="131"/>
@@ -10437,7 +10422,7 @@
     </row>
     <row r="120" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="K120" s="95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L120" s="130"/>
       <c r="M120" s="130"/>
@@ -10448,7 +10433,7 @@
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
       <c r="K124" s="95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L124" s="129"/>
       <c r="M124" s="129"/>
@@ -10458,7 +10443,7 @@
     <row r="127" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="I128" s="95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J128" s="124"/>
       <c r="K128" s="124"/>
@@ -10494,17 +10479,17 @@
     </row>
     <row r="138" spans="6:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F138" s="98" t="n">
-        <v>98987.5869140625</v>
+        <v>8573.725967407227</v>
       </c>
       <c r="G138" s="126"/>
       <c r="H138" s="98" t="n">
-        <v>1232048.0</v>
+        <v>120910.0</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="126"/>
       <c r="K138" s="126"/>
       <c r="L138" s="98" t="n">
-        <v>0.080343937017115</v>
+        <v>0.07090998236214727</v>
       </c>
       <c r="M138" s="126"/>
       <c r="N138" s="50"/>
@@ -10533,7 +10518,7 @@
     </row>
     <row r="141" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F141" s="94" t="n">
-        <v>9229.3369140625</v>
+        <v>134.57167053222656</v>
       </c>
       <c r="G141" s="132"/>
       <c r="H141" s="126" t="s">
@@ -10543,14 +10528,14 @@
       <c r="J141" s="126"/>
       <c r="K141" s="126"/>
       <c r="L141" s="94" t="n">
-        <v>89758.25</v>
+        <v>8439.154296875</v>
       </c>
       <c r="M141" s="132"/>
       <c r="N141" s="51"/>
     </row>
     <row r="142" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F142" s="98" t="n">
-        <v>6887.0</v>
+        <v>304.0</v>
       </c>
       <c r="G142" s="128"/>
       <c r="H142" s="133" t="s">
@@ -10560,14 +10545,14 @@
       <c r="J142" s="133"/>
       <c r="K142" s="133"/>
       <c r="L142" s="98" t="n">
-        <v>1225161.0</v>
+        <v>120606.0</v>
       </c>
       <c r="M142" s="128"/>
       <c r="N142" s="51"/>
     </row>
     <row r="143" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F143" s="94" t="n">
-        <v>381.0</v>
+        <v>26.0</v>
       </c>
       <c r="G143" s="132"/>
       <c r="H143" s="126" t="s">
@@ -10577,14 +10562,14 @@
       <c r="J143" s="126"/>
       <c r="K143" s="126"/>
       <c r="L143" s="94" t="n">
-        <v>954.0</v>
+        <v>103.0</v>
       </c>
       <c r="M143" s="132"/>
       <c r="N143" s="51"/>
     </row>
     <row r="144" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F144" s="98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G144" s="128"/>
       <c r="H144" s="133" t="s">
@@ -10594,14 +10579,14 @@
       <c r="J144" s="133"/>
       <c r="K144" s="133"/>
       <c r="L144" s="98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M144" s="128"/>
       <c r="N144" s="51"/>
     </row>
     <row r="145" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F145" s="94" t="n">
-        <v>24.223981857299805</v>
+        <v>5.175833225250244</v>
       </c>
       <c r="G145" s="132"/>
       <c r="H145" s="126" t="s">
@@ -10611,14 +10596,14 @@
       <c r="J145" s="126"/>
       <c r="K145" s="126"/>
       <c r="L145" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M145" s="132"/>
       <c r="N145" s="51"/>
     </row>
     <row r="146" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F146" s="98" t="n">
-        <v>2398.580078125</v>
+        <v>225.0</v>
       </c>
       <c r="G146" s="128"/>
       <c r="H146" s="133" t="s">
@@ -10628,14 +10613,14 @@
       <c r="J146" s="133"/>
       <c r="K146" s="133"/>
       <c r="L146" s="98" t="n">
-        <v>3488.67041015625</v>
+        <v>436.010009765625</v>
       </c>
       <c r="M146" s="128"/>
       <c r="N146" s="51"/>
     </row>
     <row r="147" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F147" s="94" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G147" s="132"/>
       <c r="H147" s="126" t="s">
@@ -10645,14 +10630,14 @@
       <c r="J147" s="126"/>
       <c r="K147" s="126"/>
       <c r="L147" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M147" s="132"/>
       <c r="N147" s="51"/>
     </row>
     <row r="148" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F148" s="98" t="n">
-        <v>111.20999908447266</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="G148" s="128"/>
       <c r="H148" s="133" t="s">
@@ -10662,7 +10647,7 @@
       <c r="J148" s="133"/>
       <c r="K148" s="133"/>
       <c r="L148" s="98" t="n">
-        <v>574.7398071289062</v>
+        <v>81.11000061035156</v>
       </c>
       <c r="M148" s="128"/>
       <c r="N148" s="51"/>
@@ -10694,12 +10679,12 @@
     </row>
     <row r="191">
       <c r="E191" t="s" s="100">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" t="s" s="100">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="2:23" ht="21" x14ac:dyDescent="0.35">
@@ -10842,12 +10827,12 @@
       </c>
       <c r="E211" s="110"/>
       <c r="F211" s="99" t="n">
-        <v>1645.0</v>
+        <v>160.0</v>
       </c>
       <c r="G211" s="120"/>
       <c r="H211" s="53"/>
       <c r="I211" s="99" t="n">
-        <v>482.0</v>
+        <v>64.0</v>
       </c>
       <c r="J211" s="120"/>
       <c r="K211" s="120"/>
@@ -10855,7 +10840,7 @@
       <c r="M211" s="53"/>
       <c r="N211" s="53"/>
       <c r="O211" s="99" t="n">
-        <v>198.0</v>
+        <v>33.0</v>
       </c>
       <c r="P211" s="120"/>
       <c r="Q211" s="120"/>
@@ -10868,12 +10853,12 @@
       </c>
       <c r="E212" s="111"/>
       <c r="F212" s="95" t="n">
-        <v>619.0</v>
+        <v>53.0</v>
       </c>
       <c r="G212" s="119"/>
       <c r="H212" s="54"/>
       <c r="I212" s="95" t="n">
-        <v>128.0</v>
+        <v>25.0</v>
       </c>
       <c r="J212" s="119"/>
       <c r="K212" s="119"/>
@@ -10881,7 +10866,7 @@
       <c r="M212" s="54"/>
       <c r="N212" s="54"/>
       <c r="O212" s="95" t="n">
-        <v>48.0</v>
+        <v>7.0</v>
       </c>
       <c r="P212" s="119"/>
       <c r="Q212" s="119"/>
@@ -10892,12 +10877,12 @@
       </c>
       <c r="E213" s="110"/>
       <c r="F213" s="99" t="n">
-        <v>70.63117217689995</v>
+        <v>62.01550387596899</v>
       </c>
       <c r="G213" s="120"/>
       <c r="H213" s="53"/>
       <c r="I213" s="99" t="n">
-        <v>20.695577501073423</v>
+        <v>24.8062015503876</v>
       </c>
       <c r="J213" s="120"/>
       <c r="K213" s="120"/>
@@ -10905,14 +10890,14 @@
       <c r="M213" s="53"/>
       <c r="N213" s="53"/>
       <c r="O213" s="99" t="n">
-        <v>8.50150279089738</v>
+        <v>12.790697674418606</v>
       </c>
       <c r="P213" s="120"/>
       <c r="Q213" s="120"/>
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D215" t="s" s="100">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="8:14" ht="23.25" x14ac:dyDescent="0.35">
@@ -10927,7 +10912,7 @@
     </row>
     <row r="259" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D259" s="100" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E259" s="58"/>
       <c r="F259" s="58"/>
@@ -10937,7 +10922,7 @@
     </row>
     <row r="260" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D260" s="100" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E260" s="58"/>
       <c r="F260" s="58"/>
@@ -11019,12 +11004,12 @@
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="101" t="n">
-        <v>35.76998050682261</v>
+        <v>29.20353982300885</v>
       </c>
       <c r="C280" s="138"/>
       <c r="D280" s="138"/>
       <c r="G280" s="101" t="n">
-        <v>36.25410733844468</v>
+        <v>43.56435643564357</v>
       </c>
       <c r="H280" s="138"/>
     </row>
@@ -11040,12 +11025,12 @@
     </row>
     <row r="284" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B284" s="100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B285" s="100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="296" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
@@ -11062,12 +11047,12 @@
     </row>
     <row r="325">
       <c r="D325" t="s" s="100">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="326">
       <c r="D326" t="s" s="100">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="327" spans="4:13" ht="21" x14ac:dyDescent="0.35">
@@ -11105,7 +11090,7 @@
     </row>
     <row r="358">
       <c r="D358" t="s" s="100">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="361" spans="4:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -11160,7 +11145,7 @@
       <c r="F371" s="136"/>
       <c r="G371" s="136"/>
       <c r="H371" t="n" s="95">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="I371" s="135"/>
     </row>
@@ -11174,7 +11159,7 @@
       <c r="F372" s="137"/>
       <c r="G372" s="137"/>
       <c r="H372" t="n" s="99">
-        <v>37.5</v>
+        <v>47.5</v>
       </c>
       <c r="I372" s="134"/>
     </row>
@@ -11187,7 +11172,7 @@
       <c r="N376" s="122"/>
       <c r="O376" s="122"/>
       <c r="P376" t="n" s="99">
-        <v>8.355472028061193</v>
+        <v>8.432134913892863</v>
       </c>
       <c r="Q376" s="123"/>
       <c r="R376" s="123"/>
@@ -11201,7 +11186,7 @@
       <c r="N377" s="121"/>
       <c r="O377" s="121"/>
       <c r="P377" t="n" s="95">
-        <v>3.122447764058507</v>
+        <v>4.00516885342107</v>
       </c>
       <c r="Q377" s="140"/>
       <c r="R377" s="140"/>
@@ -11215,7 +11200,7 @@
       <c r="N378" s="122"/>
       <c r="O378" s="122"/>
       <c r="P378" t="n" s="99">
-        <v>37.370094155925756</v>
+        <v>47.49887062198349</v>
       </c>
       <c r="Q378" s="141"/>
       <c r="R378" s="141"/>
@@ -11272,10 +11257,10 @@
     </row>
     <row r="392">
       <c r="B392" t="s" s="75">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F392" t="s" s="75">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I392" t="n" s="75">
         <v>20.0</v>
@@ -11301,22 +11286,22 @@
     </row>
     <row r="393" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" t="s" s="106">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C393" s="72"/>
       <c r="D393" s="72"/>
       <c r="E393" s="72"/>
       <c r="F393" t="s" s="106">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G393" s="72"/>
       <c r="H393" s="72"/>
       <c r="I393" t="n" s="106">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="J393" s="72"/>
       <c r="K393" t="n" s="106">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="L393" t="n" s="106">
         <v>0.0</v>
@@ -11327,11 +11312,11 @@
       </c>
       <c r="O393" s="72"/>
       <c r="P393" t="n" s="106">
-        <v>200.1070411417046</v>
+        <v>200.27115127779632</v>
       </c>
       <c r="Q393" s="72"/>
       <c r="R393" t="n" s="106">
-        <v>0.18</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="S393" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11340,22 +11325,22 @@
     </row>
     <row r="394" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" t="s" s="75">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C394" s="72"/>
       <c r="D394" s="72"/>
       <c r="E394" s="72"/>
       <c r="F394" t="s" s="75">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G394" s="72"/>
       <c r="H394" s="72"/>
       <c r="I394" t="n" s="75">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="J394" s="72"/>
       <c r="K394" t="n" s="75">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="L394" t="n" s="75">
         <v>0.0</v>
@@ -11366,11 +11351,11 @@
       </c>
       <c r="O394" s="72"/>
       <c r="P394" t="n" s="75">
-        <v>200.4020765570366</v>
+        <v>200.50758166174148</v>
       </c>
       <c r="Q394" s="72"/>
       <c r="R394" t="n" s="75">
-        <v>0.16</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="S394" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11379,22 +11364,22 @@
     </row>
     <row r="395" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" t="s" s="106">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C395" s="72"/>
       <c r="D395" s="72"/>
       <c r="E395" s="72"/>
       <c r="F395" t="s" s="106">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G395" s="72"/>
       <c r="H395" s="72"/>
       <c r="I395" t="n" s="106">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="J395" s="72"/>
       <c r="K395" t="n" s="106">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="L395" t="n" s="106">
         <v>0.0</v>
@@ -11405,11 +11390,11 @@
       </c>
       <c r="O395" s="72"/>
       <c r="P395" t="n" s="106">
-        <v>200.42647262214527</v>
+        <v>200.83821110502524</v>
       </c>
       <c r="Q395" s="72"/>
       <c r="R395" t="n" s="106">
-        <v>0.10891089108910891</v>
+        <v>0.1</v>
       </c>
       <c r="S395" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11418,22 +11403,22 @@
     </row>
     <row r="396" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" t="s" s="75">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C396" s="72"/>
       <c r="D396" s="72"/>
       <c r="E396" s="72"/>
       <c r="F396" t="s" s="75">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G396" s="72"/>
       <c r="H396" s="72"/>
       <c r="I396" t="n" s="75">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="J396" s="72"/>
       <c r="K396" t="n" s="75">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L396" t="n" s="75">
         <v>0.0</v>
@@ -11444,11 +11429,11 @@
       </c>
       <c r="O396" s="72"/>
       <c r="P396" t="n" s="75">
-        <v>200.51022145196285</v>
+        <v>202.2229957947878</v>
       </c>
       <c r="Q396" s="72"/>
       <c r="R396" t="n" s="75">
-        <v>0.1044776119402985</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="S396" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11457,22 +11442,22 @@
     </row>
     <row r="397" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" t="s" s="106">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C397" s="72"/>
       <c r="D397" s="72"/>
       <c r="E397" s="72"/>
       <c r="F397" t="s" s="106">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G397" s="72"/>
       <c r="H397" s="72"/>
       <c r="I397" t="n" s="106">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="J397" s="72"/>
       <c r="K397" t="n" s="106">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="L397" t="n" s="106">
         <v>0.0</v>
@@ -11483,11 +11468,11 @@
       </c>
       <c r="O397" s="72"/>
       <c r="P397" t="n" s="106">
-        <v>201.13918241394538</v>
+        <v>203.21111547220062</v>
       </c>
       <c r="Q397" s="72"/>
       <c r="R397" t="n" s="106">
-        <v>0.155</v>
+        <v>0.185</v>
       </c>
       <c r="S397" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11496,13 +11481,13 @@
     </row>
     <row r="398" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" t="s" s="75">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C398" s="72"/>
       <c r="D398" s="72"/>
       <c r="E398" s="72"/>
       <c r="F398" t="s" s="75">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G398" s="72"/>
       <c r="H398" s="72"/>
@@ -11522,11 +11507,11 @@
       </c>
       <c r="O398" s="72"/>
       <c r="P398" t="n" s="75">
-        <v>201.68648233664902</v>
+        <v>204.41718498684304</v>
       </c>
       <c r="Q398" s="72"/>
       <c r="R398" t="n" s="75">
-        <v>0.0975609756097561</v>
+        <v>0.1</v>
       </c>
       <c r="S398" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11535,22 +11520,22 @@
     </row>
     <row r="399" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" t="s" s="106">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C399" s="72"/>
       <c r="D399" s="72"/>
       <c r="E399" s="72"/>
       <c r="F399" t="s" s="106">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G399" s="72"/>
       <c r="H399" s="72"/>
       <c r="I399" t="n" s="106">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J399" s="72"/>
       <c r="K399" t="n" s="106">
-        <v>20.0</v>
+        <v>37.0</v>
       </c>
       <c r="L399" t="n" s="106">
         <v>0.0</v>
@@ -11561,11 +11546,11 @@
       </c>
       <c r="O399" s="72"/>
       <c r="P399" t="n" s="106">
-        <v>201.98644081191176</v>
+        <v>204.5833943540974</v>
       </c>
       <c r="Q399" s="72"/>
       <c r="R399" t="n" s="106">
-        <v>0.18181818181818182</v>
+        <v>0.1</v>
       </c>
       <c r="S399" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11574,22 +11559,22 @@
     </row>
     <row r="400" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" t="s" s="75">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C400" s="72"/>
       <c r="D400" s="72"/>
       <c r="E400" s="72"/>
       <c r="F400" t="s" s="75">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G400" s="72"/>
       <c r="H400" s="72"/>
       <c r="I400" t="n" s="75">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J400" s="72"/>
       <c r="K400" t="n" s="75">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="L400" t="n" s="75">
         <v>0.0</v>
@@ -11600,11 +11585,11 @@
       </c>
       <c r="O400" s="72"/>
       <c r="P400" t="n" s="75">
-        <v>202.5466004164461</v>
+        <v>206.63090715523134</v>
       </c>
       <c r="Q400" s="72"/>
       <c r="R400" t="n" s="75">
-        <v>0.08968609865470852</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S400" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11613,22 +11598,22 @@
     </row>
     <row r="401" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" t="s" s="106">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C401" s="72"/>
       <c r="D401" s="72"/>
       <c r="E401" s="72"/>
       <c r="F401" t="s" s="106">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G401" s="72"/>
       <c r="H401" s="72"/>
       <c r="I401" t="n" s="106">
-        <v>58.0</v>
+        <v>20.0</v>
       </c>
       <c r="J401" s="72"/>
       <c r="K401" t="n" s="106">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="L401" t="n" s="106">
         <v>0.0</v>
@@ -11639,11 +11624,11 @@
       </c>
       <c r="O401" s="72"/>
       <c r="P401" t="n" s="106">
-        <v>202.7722771986069</v>
+        <v>206.93729166221215</v>
       </c>
       <c r="Q401" s="72"/>
       <c r="R401" t="n" s="106">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="S401" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11652,13 +11637,13 @@
     </row>
     <row r="402" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" t="s" s="75">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C402" s="72"/>
       <c r="D402" s="72"/>
       <c r="E402" s="72"/>
       <c r="F402" t="s" s="75">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G402" s="72"/>
       <c r="H402" s="72"/>
@@ -11667,7 +11652,7 @@
       </c>
       <c r="J402" s="72"/>
       <c r="K402" t="n" s="75">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="L402" t="n" s="75">
         <v>0.0</v>
@@ -11678,11 +11663,11 @@
       </c>
       <c r="O402" s="72"/>
       <c r="P402" t="n" s="75">
-        <v>203.67741227199917</v>
+        <v>207.2150669472843</v>
       </c>
       <c r="Q402" s="72"/>
       <c r="R402" t="n" s="75">
-        <v>0.1</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S402" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11691,22 +11676,22 @@
     </row>
     <row r="403" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" t="s" s="106">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C403" s="72"/>
       <c r="D403" s="72"/>
       <c r="E403" s="72"/>
       <c r="F403" t="s" s="106">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G403" s="72"/>
       <c r="H403" s="72"/>
       <c r="I403" t="n" s="106">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="J403" s="72"/>
       <c r="K403" t="n" s="106">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="L403" t="n" s="106">
         <v>0.0</v>
@@ -11717,11 +11702,11 @@
       </c>
       <c r="O403" s="72"/>
       <c r="P403" t="n" s="106">
-        <v>204.07750203849187</v>
+        <v>209.16695849871326</v>
       </c>
       <c r="Q403" s="72"/>
       <c r="R403" t="n" s="106">
-        <v>0.1780821917808219</v>
+        <v>0.17</v>
       </c>
       <c r="S403" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11730,22 +11715,22 @@
     </row>
     <row r="404" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" t="s" s="75">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C404" s="72"/>
       <c r="D404" s="72"/>
       <c r="E404" s="72"/>
       <c r="F404" t="s" s="75">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G404" s="72"/>
       <c r="H404" s="72"/>
       <c r="I404" t="n" s="75">
-        <v>55.0</v>
+        <v>20.0</v>
       </c>
       <c r="J404" s="72"/>
       <c r="K404" t="n" s="75">
-        <v>35.0</v>
+        <v>11.0</v>
       </c>
       <c r="L404" t="n" s="75">
         <v>0.0</v>
@@ -11756,11 +11741,11 @@
       </c>
       <c r="O404" s="72"/>
       <c r="P404" t="n" s="75">
-        <v>204.51330537593805</v>
+        <v>210.16568436417663</v>
       </c>
       <c r="Q404" s="72"/>
       <c r="R404" t="n" s="75">
-        <v>0.275</v>
+        <v>0.1</v>
       </c>
       <c r="S404" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11769,22 +11754,22 @@
     </row>
     <row r="405" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" t="s" s="106">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C405" s="72"/>
       <c r="D405" s="72"/>
       <c r="E405" s="72"/>
       <c r="F405" t="s" s="106">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G405" s="72"/>
       <c r="H405" s="72"/>
       <c r="I405" t="n" s="106">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="J405" s="72"/>
       <c r="K405" t="n" s="106">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="L405" t="n" s="106">
         <v>0.0</v>
@@ -11795,11 +11780,11 @@
       </c>
       <c r="O405" s="72"/>
       <c r="P405" t="n" s="106">
-        <v>205.83335054338426</v>
+        <v>213.63527902505842</v>
       </c>
       <c r="Q405" s="72"/>
       <c r="R405" t="n" s="106">
-        <v>0.1262135922330097</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="S405" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11808,22 +11793,22 @@
     </row>
     <row r="406" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" t="s" s="75">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C406" s="72"/>
       <c r="D406" s="72"/>
       <c r="E406" s="72"/>
       <c r="F406" t="s" s="75">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G406" s="72"/>
       <c r="H406" s="72"/>
       <c r="I406" t="n" s="75">
-        <v>20.0</v>
+        <v>48.0</v>
       </c>
       <c r="J406" s="72"/>
       <c r="K406" t="n" s="75">
-        <v>17.0</v>
+        <v>28.0</v>
       </c>
       <c r="L406" t="n" s="75">
         <v>0.0</v>
@@ -11834,11 +11819,11 @@
       </c>
       <c r="O406" s="72"/>
       <c r="P406" t="n" s="75">
-        <v>205.96503117416836</v>
+        <v>217.62270883817868</v>
       </c>
       <c r="Q406" s="72"/>
       <c r="R406" t="n" s="75">
-        <v>0.1</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="S406" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11847,22 +11832,22 @@
     </row>
     <row r="407" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" t="s" s="106">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C407" s="72"/>
       <c r="D407" s="72"/>
       <c r="E407" s="72"/>
       <c r="F407" t="s" s="106">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G407" s="72"/>
       <c r="H407" s="72"/>
       <c r="I407" t="n" s="106">
-        <v>20.0</v>
+        <v>54.0</v>
       </c>
       <c r="J407" s="72"/>
       <c r="K407" t="n" s="106">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="L407" t="n" s="106">
         <v>0.0</v>
@@ -11873,11 +11858,11 @@
       </c>
       <c r="O407" s="72"/>
       <c r="P407" t="n" s="106">
-        <v>208.60913845824123</v>
+        <v>218.80423391235743</v>
       </c>
       <c r="Q407" s="72"/>
       <c r="R407" t="n" s="106">
-        <v>0.08695652173913043</v>
+        <v>0.27</v>
       </c>
       <c r="S407" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11886,16 +11871,16 @@
     </row>
     <row r="408">
       <c r="B408" t="s" s="75">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F408" t="s" s="75">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I408" t="n" s="75">
         <v>20.0</v>
       </c>
       <c r="K408" t="n" s="75">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="L408" t="n" s="75">
         <v>0.0</v>
@@ -11904,10 +11889,10 @@
         <v>0.0</v>
       </c>
       <c r="P408" t="n" s="75">
-        <v>213.59999275833945</v>
+        <v>220.37946694522722</v>
       </c>
       <c r="R408" t="n" s="75">
-        <v>0.1</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="S408" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11915,13 +11900,13 @@
     </row>
     <row r="409">
       <c r="B409" t="s" s="106">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F409" t="s" s="106">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I409" t="n" s="106">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="K409" t="n" s="106">
         <v>22.0</v>
@@ -11933,10 +11918,10 @@
         <v>0.0</v>
       </c>
       <c r="P409" t="n" s="106">
-        <v>215.95766804387554</v>
+        <v>220.6014734326706</v>
       </c>
       <c r="R409" t="n" s="106">
-        <v>0.1891891891891892</v>
+        <v>0.1</v>
       </c>
       <c r="S409" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11944,16 +11929,16 @@
     </row>
     <row r="410">
       <c r="B410" t="s" s="75">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F410" t="s" s="75">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I410" t="n" s="75">
-        <v>20.0</v>
+        <v>58.0</v>
       </c>
       <c r="K410" t="n" s="75">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="L410" t="n" s="75">
         <v>0.0</v>
@@ -11962,10 +11947,10 @@
         <v>0.0</v>
       </c>
       <c r="P410" t="n" s="75">
-        <v>216.95428846107487</v>
+        <v>223.87658306534837</v>
       </c>
       <c r="R410" t="n" s="75">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="S410" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11973,16 +11958,16 @@
     </row>
     <row r="411">
       <c r="B411" t="s" s="106">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F411" t="s" s="106">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I411" t="n" s="106">
         <v>20.0</v>
       </c>
       <c r="K411" t="n" s="106">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="L411" t="n" s="106">
         <v>0.0</v>
@@ -11991,10 +11976,10 @@
         <v>0.0</v>
       </c>
       <c r="P411" t="n" s="106">
-        <v>219.1720212622064</v>
+        <v>225.8384325183242</v>
       </c>
       <c r="R411" t="n" s="106">
-        <v>0.0881057268722467</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="S411" t="e" s="106">
         <v>#DIV/0!</v>
@@ -12002,16 +11987,16 @@
     </row>
     <row r="412">
       <c r="B412" t="s" s="75">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F412" t="s" s="75">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I412" t="n" s="75">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
       <c r="K412" t="n" s="75">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="L412" t="n" s="75">
         <v>0.0</v>
@@ -12020,564 +12005,564 @@
         <v>0.0</v>
       </c>
       <c r="P412" t="n" s="75">
-        <v>219.37143761819823</v>
+        <v>230.04033945451658</v>
       </c>
       <c r="R412" t="n" s="75">
-        <v>0.20353982300884957</v>
+        <v>0.28</v>
       </c>
       <c r="S412" t="e" s="75">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="413">
-      <c r="B413" t="s" s="106">
+      <c r="B413" t="s" s="84">
+        <v>206</v>
+      </c>
+      <c r="F413" t="s" s="84">
+        <v>207</v>
+      </c>
+      <c r="I413" t="n" s="84">
+        <v>21.0</v>
+      </c>
+      <c r="K413" t="n" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="L413" t="n" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="N413" t="n" s="84">
+        <v>0.047619047619047616</v>
+      </c>
+      <c r="P413" t="n" s="84">
+        <v>200.7927804980524</v>
+      </c>
+      <c r="R413" t="n" s="84">
+        <v>0.105</v>
+      </c>
+      <c r="S413" t="n" s="84">
+        <v>200.7927804980524</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" t="s" s="81">
+        <v>208</v>
+      </c>
+      <c r="F414" t="s" s="81">
+        <v>209</v>
+      </c>
+      <c r="I414" t="n" s="81">
+        <v>20.0</v>
+      </c>
+      <c r="K414" t="n" s="81">
+        <v>3.0</v>
+      </c>
+      <c r="L414" t="n" s="81">
+        <v>3.0</v>
+      </c>
+      <c r="N414" t="n" s="81">
+        <v>0.15</v>
+      </c>
+      <c r="P414" t="n" s="81">
+        <v>201.97596530465432</v>
+      </c>
+      <c r="R414" t="n" s="81">
+        <v>0.1</v>
+      </c>
+      <c r="S414" t="n" s="81">
+        <v>67.3253217682181</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="s" s="84">
+        <v>210</v>
+      </c>
+      <c r="F415" t="s" s="84">
         <v>211</v>
       </c>
-      <c r="F413" t="s" s="106">
+      <c r="I415" t="n" s="84">
+        <v>20.0</v>
+      </c>
+      <c r="K415" t="n" s="84">
+        <v>6.0</v>
+      </c>
+      <c r="L415" t="n" s="84">
+        <v>6.0</v>
+      </c>
+      <c r="N415" t="n" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="P415" t="n" s="84">
+        <v>204.44460952520998</v>
+      </c>
+      <c r="R415" t="n" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S415" t="n" s="84">
+        <v>34.074101587535</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" t="s" s="81">
         <v>212</v>
       </c>
-      <c r="I413" t="n" s="106">
-        <v>20.0</v>
-      </c>
-      <c r="K413" t="n" s="106">
-        <v>37.0</v>
-      </c>
-      <c r="L413" t="n" s="106">
-        <v>0.0</v>
-      </c>
-      <c r="N413" t="n" s="106">
-        <v>0.0</v>
-      </c>
-      <c r="P413" t="n" s="106">
-        <v>223.99625716144516</v>
-      </c>
-      <c r="R413" t="n" s="106">
-        <v>0.08438818565400844</v>
-      </c>
-      <c r="S413" t="e" s="106">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="B414" t="s" s="75">
+      <c r="F416" t="s" s="81">
         <v>213</v>
       </c>
-      <c r="F414" t="s" s="75">
-        <v>214</v>
-      </c>
-      <c r="I414" t="n" s="75">
-        <v>59.0</v>
-      </c>
-      <c r="K414" t="n" s="75">
-        <v>39.0</v>
-      </c>
-      <c r="L414" t="n" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="N414" t="n" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="P414" t="n" s="75">
-        <v>225.5806580097885</v>
-      </c>
-      <c r="R414" t="n" s="75">
-        <v>0.24686192468619247</v>
-      </c>
-      <c r="S414" t="e" s="75">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="B415" t="s" s="106">
-        <v>215</v>
-      </c>
-      <c r="F415" t="s" s="106">
-        <v>216</v>
-      </c>
-      <c r="I415" t="n" s="106">
-        <v>20.0</v>
-      </c>
-      <c r="K415" t="n" s="106">
-        <v>28.0</v>
-      </c>
-      <c r="L415" t="n" s="106">
-        <v>0.0</v>
-      </c>
-      <c r="N415" t="n" s="106">
-        <v>0.0</v>
-      </c>
-      <c r="P415" t="n" s="106">
-        <v>226.80846604926367</v>
-      </c>
-      <c r="R415" t="n" s="106">
-        <v>0.1</v>
-      </c>
-      <c r="S415" t="e" s="106">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="B416" t="s" s="75">
-        <v>217</v>
-      </c>
-      <c r="F416" t="s" s="75">
-        <v>218</v>
-      </c>
-      <c r="I416" t="n" s="75">
-        <v>20.0</v>
-      </c>
-      <c r="K416" t="n" s="75">
-        <v>34.0</v>
-      </c>
-      <c r="L416" t="n" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="N416" t="n" s="75">
-        <v>0.0</v>
-      </c>
-      <c r="P416" t="n" s="75">
-        <v>227.33093982586036</v>
-      </c>
-      <c r="R416" t="n" s="75">
-        <v>0.08547008547008547</v>
-      </c>
-      <c r="S416" t="e" s="75">
-        <v>#DIV/0!</v>
+      <c r="I416" t="n" s="81">
+        <v>27.0</v>
+      </c>
+      <c r="K416" t="n" s="81">
+        <v>7.0</v>
+      </c>
+      <c r="L416" t="n" s="81">
+        <v>7.0</v>
+      </c>
+      <c r="N416" t="n" s="81">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="P416" t="n" s="81">
+        <v>206.61383722314906</v>
+      </c>
+      <c r="R416" t="n" s="81">
+        <v>0.135</v>
+      </c>
+      <c r="S416" t="n" s="81">
+        <v>29.516262460449866</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" t="s" s="84">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F417" t="s" s="84">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I417" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K417" t="n" s="84">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="L417" t="n" s="84">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="N417" t="n" s="84">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="P417" t="n" s="84">
-        <v>201.91716198600332</v>
+        <v>203.43207135632107</v>
       </c>
       <c r="R417" t="n" s="84">
-        <v>0.1</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="S417" t="n" s="84">
-        <v>67.30572066200111</v>
+        <v>25.429008919540134</v>
       </c>
     </row>
     <row r="418">
       <c r="B418" t="s" s="81">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F418" t="s" s="81">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I418" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K418" t="n" s="81">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="L418" t="n" s="81">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="N418" t="n" s="81">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="P418" t="n" s="81">
-        <v>200.77525625411704</v>
+        <v>207.41548201385626</v>
       </c>
       <c r="R418" t="n" s="81">
-        <v>0.1</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="S418" t="n" s="81">
-        <v>50.19381406352926</v>
+        <v>15.955037077988944</v>
       </c>
     </row>
     <row r="419">
       <c r="B419" t="s" s="84">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F419" t="s" s="84">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I419" t="n" s="84">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="K419" t="n" s="84">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="L419" t="n" s="84">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="N419" t="n" s="84">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P419" t="n" s="84">
-        <v>200.9167078121143</v>
+        <v>213.9782319324611</v>
       </c>
       <c r="R419" t="n" s="84">
-        <v>0.14</v>
+        <v>0.175</v>
       </c>
       <c r="S419" t="n" s="84">
-        <v>25.11458847651429</v>
+        <v>14.265215462164074</v>
       </c>
     </row>
     <row r="420">
       <c r="B420" t="s" s="81">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F420" t="s" s="81">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I420" t="n" s="81">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="K420" t="n" s="81">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="L420" t="n" s="81">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="N420" t="n" s="81">
-        <v>0.45</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="P420" t="n" s="81">
-        <v>201.0755631236244</v>
+        <v>207.0875218409998</v>
       </c>
       <c r="R420" t="n" s="81">
-        <v>0.09569377990430622</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S420" t="n" s="81">
-        <v>22.341729235958265</v>
+        <v>12.942970115062488</v>
       </c>
     </row>
     <row r="421">
       <c r="B421" t="s" s="84">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F421" t="s" s="84">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I421" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K421" t="n" s="84">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="L421" t="n" s="84">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="N421" t="n" s="84">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="P421" t="n" s="84">
-        <v>206.76226578511148</v>
+        <v>209.8739111016345</v>
       </c>
       <c r="R421" t="n" s="84">
-        <v>0.09523809523809523</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="S421" t="n" s="84">
-        <v>20.676226578511148</v>
+        <v>11.659661727868583</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" t="s" s="81">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F422" t="s" s="81">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I422" t="n" s="81">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="K422" t="n" s="81">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="L422" t="n" s="81">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="N422" t="n" s="81">
-        <v>0.3939393939393939</v>
+        <v>0.95</v>
       </c>
       <c r="P422" t="n" s="81">
-        <v>200.87324797436426</v>
+        <v>200.62865057700844</v>
       </c>
       <c r="R422" t="n" s="81">
-        <v>0.165</v>
+        <v>0.1</v>
       </c>
       <c r="S422" t="n" s="81">
-        <v>15.451788305720328</v>
+        <v>10.559402661947813</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="s" s="84">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F423" t="s" s="84">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I423" t="n" s="84">
+        <v>40.0</v>
+      </c>
+      <c r="K423" t="n" s="84">
         <v>20.0</v>
       </c>
-      <c r="K423" t="n" s="84">
-        <v>14.0</v>
-      </c>
       <c r="L423" t="n" s="84">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="N423" t="n" s="84">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="P423" t="n" s="84">
-        <v>201.48914008343203</v>
+        <v>210.09474471953683</v>
       </c>
       <c r="R423" t="n" s="84">
-        <v>0.09345794392523364</v>
+        <v>0.2</v>
       </c>
       <c r="S423" t="n" s="84">
-        <v>14.39208143453086</v>
+        <v>10.504737235976842</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="s" s="81">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F424" t="s" s="81">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I424" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K424" t="n" s="81">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="L424" t="n" s="81">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="N424" t="n" s="81">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="P424" t="n" s="81">
-        <v>201.81975167795787</v>
+        <v>221.77886692473353</v>
       </c>
       <c r="R424" t="n" s="81">
-        <v>0.1</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="S424" t="n" s="81">
-        <v>13.454650111863858</v>
+        <v>9.240786121863897</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" t="s" s="84">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F425" t="s" s="84">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I425" t="n" s="84">
-        <v>38.0</v>
+        <v>20.0</v>
       </c>
       <c r="K425" t="n" s="84">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="L425" t="n" s="84">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="N425" t="n" s="84">
-        <v>0.47368421052631576</v>
+        <v>1.35</v>
       </c>
       <c r="P425" t="n" s="84">
-        <v>207.15800089457431</v>
+        <v>224.47698134167211</v>
       </c>
       <c r="R425" t="n" s="84">
-        <v>0.1743119266055046</v>
+        <v>0.1</v>
       </c>
       <c r="S425" t="n" s="84">
-        <v>11.50877782747635</v>
+        <v>8.313962271913782</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" t="s" s="81">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F426" t="s" s="81">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I426" t="n" s="81">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="K426" t="n" s="81">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="L426" t="n" s="81">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="N426" t="n" s="81">
-        <v>1.05</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="P426" t="n" s="81">
-        <v>211.60164426356513</v>
+        <v>206.7458301716731</v>
       </c>
       <c r="R426" t="n" s="81">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S426" t="n" s="81">
-        <v>10.076268774455482</v>
+        <v>8.269833206866924</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" t="s" s="84">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F427" t="s" s="84">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I427" t="n" s="84">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="K427" t="n" s="84">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="L427" t="n" s="84">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="N427" t="n" s="84">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="P427" t="n" s="84">
-        <v>218.62023600033672</v>
+        <v>219.88916526372157</v>
       </c>
       <c r="R427" t="n" s="84">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="S427" t="n" s="84">
-        <v>8.74480944001347</v>
+        <v>7.329638842124052</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" t="s" s="81">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F428" t="s" s="81">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I428" t="n" s="81">
-        <v>44.0</v>
+        <v>55.0</v>
       </c>
       <c r="K428" t="n" s="81">
-        <v>24.0</v>
+        <v>35.0</v>
       </c>
       <c r="L428" t="n" s="81">
-        <v>24.0</v>
+        <v>35.0</v>
       </c>
       <c r="N428" t="n" s="81">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="P428" t="n" s="81">
-        <v>209.27378763252955</v>
+        <v>234.6862198246963</v>
       </c>
       <c r="R428" t="n" s="81">
-        <v>0.22</v>
+        <v>0.275</v>
       </c>
       <c r="S428" t="n" s="81">
-        <v>8.719741151355398</v>
+        <v>6.7053205664198945</v>
       </c>
     </row>
     <row r="429">
       <c r="B429" t="s" s="84">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F429" t="s" s="84">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I429" t="n" s="84">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="K429" t="n" s="84">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="L429" t="n" s="84">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="N429" t="n" s="84">
-        <v>0.5918367346938775</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="P429" t="n" s="84">
-        <v>220.3205832802435</v>
+        <v>216.13387558812212</v>
       </c>
       <c r="R429" t="n" s="84">
-        <v>0.245</v>
+        <v>0.22746781115879827</v>
       </c>
       <c r="S429" t="n" s="84">
-        <v>7.59726149242219</v>
+        <v>6.549511381458246</v>
       </c>
     </row>
     <row r="430">
       <c r="B430" t="s" s="81">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F430" t="s" s="81">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I430" t="n" s="81">
-        <v>53.0</v>
+        <v>20.0</v>
       </c>
       <c r="K430" t="n" s="81">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="L430" t="n" s="81">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="N430" t="n" s="81">
-        <v>0.6226415094339622</v>
+        <v>1.6</v>
       </c>
       <c r="P430" t="n" s="81">
-        <v>224.10570481153545</v>
+        <v>200.97835987708768</v>
       </c>
       <c r="R430" t="n" s="81">
-        <v>0.265</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="S430" t="n" s="81">
-        <v>6.791081963985922</v>
+        <v>6.28057374615899</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" t="s" s="84">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F431" t="s" s="84">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I431" t="n" s="84">
-        <v>20.0</v>
+        <v>59.0</v>
       </c>
       <c r="K431" t="n" s="84">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="L431" t="n" s="84">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="N431" t="n" s="84">
-        <v>1.8</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="P431" t="n" s="84">
-        <v>215.73871247899805</v>
+        <v>214.14174833648048</v>
       </c>
       <c r="R431" t="n" s="84">
-        <v>0.0847457627118644</v>
+        <v>0.295</v>
       </c>
       <c r="S431" t="n" s="84">
-        <v>5.992742013305501</v>
+        <v>5.490814059909756</v>
       </c>
     </row>
   </sheetData>
@@ -13057,7 +13042,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -13066,364 +13051,310 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>669.0</v>
+        <v>75.0</v>
       </c>
       <c r="G2" t="n" s="109">
-        <v>42704.0</v>
+        <v>42697.0</v>
       </c>
       <c r="H2" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="I2" t="n">
-        <v>107.0</v>
+        <v>52.0</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K2" t="n">
-        <v>2022.0</v>
+        <v>2.0</v>
       </c>
       <c r="L2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M2" t="n">
-        <v>752.0</v>
+        <v>94.0</v>
       </c>
       <c r="N2" t="n">
-        <v>283.0</v>
+        <v>36.0</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P2" t="n">
-        <v>1026.0</v>
+        <v>101.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>367.0</v>
+        <v>44.0</v>
       </c>
       <c r="R2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S2" t="n">
-        <v>433.0</v>
+        <v>56.0</v>
       </c>
       <c r="T2" t="n">
-        <v>159.0</v>
+        <v>28.0</v>
       </c>
       <c r="X2" t="n" s="99">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y2" t="n" s="99">
-        <v>5.233024264002685</v>
+        <v>4.426966060471791</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>205.0</v>
+        <v>23.0</v>
       </c>
       <c r="B3" t="s">
         <v>104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" t="n">
-        <v>226.0</v>
+        <v>28.0</v>
       </c>
       <c r="G3" t="n" s="109">
-        <v>42705.0</v>
+        <v>42698.0</v>
       </c>
       <c r="H3" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="I3" t="n">
-        <v>107.0</v>
+        <v>56.0</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K3" t="n">
-        <v>53.0</v>
+        <v>241.0</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M3" t="n">
-        <v>715.0</v>
+        <v>66.0</v>
       </c>
       <c r="N3" t="n">
-        <v>264.0</v>
+        <v>21.0</v>
       </c>
       <c r="O3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P3" t="n">
-        <v>913.0</v>
+        <v>113.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>331.0</v>
+        <v>33.0</v>
       </c>
       <c r="R3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S3" t="n">
-        <v>417.0</v>
+        <v>52.0</v>
       </c>
       <c r="T3" t="n">
-        <v>148.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>202.0</v>
+        <v>155.0</v>
       </c>
       <c r="B4" t="s">
         <v>105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" t="n">
-        <v>152.0</v>
+        <v>24.0</v>
       </c>
       <c r="G4" t="n" s="109">
-        <v>42706.0</v>
+        <v>42699.0</v>
       </c>
       <c r="H4" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="I4" t="n">
-        <v>92.0</v>
+        <v>45.0</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K4" t="n">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M4" t="n">
-        <v>238.0</v>
+        <v>30.0</v>
       </c>
       <c r="N4" t="n">
-        <v>79.0</v>
+        <v>13.0</v>
       </c>
       <c r="R4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S4" t="n">
-        <v>375.0</v>
+        <v>58.0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>1585.0</v>
+        <v>28.0</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" t="n">
-        <v>74.0</v>
+        <v>17.0</v>
       </c>
       <c r="G5" t="n" s="109">
-        <v>42709.0</v>
+        <v>42700.0</v>
       </c>
       <c r="H5" t="n">
-        <v>93.0</v>
+        <v>8.0</v>
       </c>
       <c r="I5" t="n">
-        <v>179.0</v>
+        <v>47.0</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K5" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="L5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M5" t="n">
-        <v>201.0</v>
+        <v>7.0</v>
       </c>
       <c r="N5" t="n">
-        <v>47.0</v>
+        <v>4.0</v>
       </c>
       <c r="R5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S5" t="n">
-        <v>402.0</v>
+        <v>45.0</v>
       </c>
       <c r="T5" t="n">
-        <v>121.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
-        <v>139.0</v>
+        <v>26.0</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G6" t="n" s="109">
+        <v>42701.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C7" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="n">
         <v>5.0</v>
       </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="G6" t="n" s="109">
-        <v>42710.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>152</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>163</v>
-      </c>
-      <c r="S6" t="n">
-        <v>277.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G7" t="n" s="109">
-        <v>42711.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>112.0</v>
-      </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>164</v>
-      </c>
-      <c r="S7" t="n">
-        <v>227.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>78.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G8" t="n" s="109">
-        <v>42716.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S8" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>59.0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25"/>

--- a/ready/report1.xlsx
+++ b/ready/report1.xlsx
@@ -30,14 +30,14 @@
     <definedName name="costs">report!$P$392</definedName>
     <definedName name="costWithoutConversation">ChanelTrafic!$Y$2</definedName>
     <definedName name="countAdvert">report!$H$138</definedName>
-    <definedName name="countConversation">ChanelTrafic!$H$2:$H$6</definedName>
+    <definedName name="countConversation">ChanelTrafic!$H$2:$H$8</definedName>
     <definedName name="countGetGoals">report!$K$120</definedName>
     <definedName name="CpaCost">report!$I$128</definedName>
     <definedName name="ctr">report!$R$392</definedName>
-    <definedName name="dayVisited">ChanelTrafic!$G$2:$G$6</definedName>
-    <definedName name="dayWeek">ChanelTrafic!$R$2:$R$6</definedName>
-    <definedName name="dayWeekConversation">ChanelTrafic!$T$2:$T$6</definedName>
-    <definedName name="dayWeekVisited">ChanelTrafic!$S$2:$S$6</definedName>
+    <definedName name="dayVisited">ChanelTrafic!$G$2:$G$8</definedName>
+    <definedName name="dayWeek">ChanelTrafic!$R$2:$R$8</definedName>
+    <definedName name="dayWeekConversation">ChanelTrafic!$T$2:$T$8</definedName>
+    <definedName name="dayWeekVisited">ChanelTrafic!$S$2:$S$8</definedName>
     <definedName name="detailConversation">report!$D$64</definedName>
     <definedName name="detailVisited">report!$D$63</definedName>
     <definedName name="effecientConversation">report!$K$124</definedName>
@@ -46,8 +46,8 @@
     <definedName name="expansive">report!$N$392:$N$406</definedName>
     <definedName name="femaleConversation">report!$B$280</definedName>
     <definedName name="femaleConversationPer">report!$B$280</definedName>
-    <definedName name="goal">ChanelTrafic!$E$2:$E$7</definedName>
-    <definedName name="goalQuality">ChanelTrafic!$F$2:$F$7</definedName>
+    <definedName name="goal">ChanelTrafic!$E$2:$E$8</definedName>
+    <definedName name="goalQuality">ChanelTrafic!$F$2:$F$8</definedName>
     <definedName name="hoursOfDay">ChanelTrafic!$U$2:$U$1</definedName>
     <definedName name="hoursOfDayConversation">ChanelTrafic!$W$2:$W$1</definedName>
     <definedName name="hoursOfDayVisited">ChanelTrafic!$V$2:$V$1</definedName>
@@ -74,7 +74,7 @@
     <definedName name="popularDayOfWeek">report!$D$325</definedName>
     <definedName name="popularHours">report!$D$358</definedName>
     <definedName name="position">report!$K$392</definedName>
-    <definedName name="quality">ChanelTrafic!$A$2:$A$6</definedName>
+    <definedName name="quality">ChanelTrafic!$A$2:$A$7</definedName>
     <definedName name="qualityClick">report!$K$113</definedName>
     <definedName name="qualityDetail">ChanelTrafic!$C$2:$C$7</definedName>
     <definedName name="qualityDetailper">ChanelTrafic!#REF!</definedName>
@@ -88,11 +88,11 @@
     <definedName name="regionAgeLider">report!$D$259</definedName>
     <definedName name="regionConversLider">report!$E$192</definedName>
     <definedName name="regionLider">report!$E$191</definedName>
-    <definedName name="regionName">ChanelTrafic!$J$2:$J$7</definedName>
-    <definedName name="regionQuality">ChanelTrafic!$K$2:$K$7</definedName>
+    <definedName name="regionName">ChanelTrafic!$J$2:$J$8</definedName>
+    <definedName name="regionQuality">ChanelTrafic!$K$2:$K$8</definedName>
     <definedName name="sendAll">report!$K$116</definedName>
     <definedName name="sendall2">report!$P$376</definedName>
-    <definedName name="source">ChanelTrafic!$B$2:$B$6</definedName>
+    <definedName name="source">ChanelTrafic!$B$2:$B$7</definedName>
     <definedName name="sourceDetail">ChanelTrafic!$C$2:$C$8</definedName>
     <definedName name="sourceDetailPer">ChanelTrafic!$D$2:$D$8</definedName>
     <definedName name="tabConversation">report!$I$212</definedName>
@@ -101,7 +101,7 @@
     <definedName name="userConversation">ChanelTrafic!$N$2:$N$6</definedName>
     <definedName name="userVisited">ChanelTrafic!$M$2:$M$6</definedName>
     <definedName name="visited">ChanelTrafic!#REF!</definedName>
-    <definedName name="visitedDiv10">ChanelTrafic!$I$2:$I$6</definedName>
+    <definedName name="visitedDiv10">ChanelTrafic!$I$2:$I$8</definedName>
     <definedName name="wasSpend">ChanelTrafic!#REF!</definedName>
     <definedName name="wasSpendNotReachGoal">ChanelTrafic!#REF!</definedName>
     <definedName name="whichConversationMore">report!$B$285</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="245">
   <si>
     <t>quality</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Стоимость</t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
     <t>Цена 1-го</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>ОБРАЩЕНИЙ</t>
   </si>
   <si>
-    <t>КОНВЕРСИЯ</t>
-  </si>
-  <si>
     <t>ЦЕНА ОБРАЩЕНИЯ</t>
   </si>
   <si>
@@ -445,130 +439,133 @@
     <t>ТЕКСТ</t>
   </si>
   <si>
-    <t>Переходы из поисковых систем (38,46%)</t>
-  </si>
-  <si>
-    <t>Переходы по ссылкам на сайтах (30,43%)</t>
-  </si>
-  <si>
-    <t>Переходы по рекламе (21,94%)</t>
-  </si>
-  <si>
-    <t>Прямые заходы (21,43%)</t>
-  </si>
-  <si>
-    <t>Внутренние переходы (11,54%)</t>
-  </si>
-  <si>
-    <t>Болше всего трафика - Переходы по рекламе (155,00)</t>
-  </si>
-  <si>
-    <t>Самый высокий % конверсии - Переходы из поисковых систем (38,46%)</t>
-  </si>
-  <si>
-    <t>mosgid.ru (0,00)</t>
-  </si>
-  <si>
-    <t>Яндекс (50,00)</t>
-  </si>
-  <si>
-    <t>Google (33,33)</t>
-  </si>
-  <si>
-    <t>Google Adwords (29,73)</t>
-  </si>
-  <si>
-    <t>link.2gis.ru (0,00)</t>
-  </si>
-  <si>
-    <t>Яндекс: Директ (19,08)</t>
-  </si>
-  <si>
-    <t>Яндекс: Не определено (9,09)</t>
-  </si>
-  <si>
-    <t>Болше всего трафика - Яндекс: Директ (131,00)</t>
-  </si>
-  <si>
-    <t>Самый высокий % конверсии - Яндекс (50,00%)</t>
+    <t>CTR %</t>
+  </si>
+  <si>
+    <t>КОНВЕРСИЯ %</t>
+  </si>
+  <si>
+    <t>Количество обращений</t>
+  </si>
+  <si>
+    <t>Переходы из социальных сетей (50,00%)</t>
+  </si>
+  <si>
+    <t>Переходы по ссылкам на сайтах (65,58%)</t>
+  </si>
+  <si>
+    <t>Переходы из поисковых систем (76,10%)</t>
+  </si>
+  <si>
+    <t>Внутренние переходы (43,11%)</t>
+  </si>
+  <si>
+    <t>Переходы по рекламе (48,85%)</t>
+  </si>
+  <si>
+    <t>Прямые заходы (38,13%)</t>
+  </si>
+  <si>
+    <t>Болше всего трафика - Переходы по рекламе (1573,00)</t>
+  </si>
+  <si>
+    <t>Самый высокий % конверсии - Переходы из поисковых систем (76,10%)</t>
+  </si>
+  <si>
+    <t>Яндекс: Директ (33,48)</t>
+  </si>
+  <si>
+    <t>Google Adwords (39,92)</t>
+  </si>
+  <si>
+    <t>Google (52,38)</t>
+  </si>
+  <si>
+    <t>link.2gis.ru (45,13)</t>
+  </si>
+  <si>
+    <t>Яндекс (52,75)</t>
+  </si>
+  <si>
+    <t>aristokrat-nsk.ru (28,99)</t>
+  </si>
+  <si>
+    <t>news.ngs.ru (58,06)</t>
+  </si>
+  <si>
+    <t>Болше всего трафика - Яндекс: Директ (1156,00)</t>
+  </si>
+  <si>
+    <t>Самый высокий % конверсии - news.ngs.ru (58,06%)</t>
   </si>
   <si>
     <t>Просмотр 3 страниц</t>
   </si>
   <si>
+    <t>Контакты</t>
+  </si>
+  <si>
     <t>Получить бесплатную консультацию (Открытие)</t>
   </si>
   <si>
-    <t>Контакты</t>
-  </si>
-  <si>
     <t>Получить бесплатную консультацию (Отправка)</t>
   </si>
   <si>
+    <t>Консультация арбитражного управляющего (Нажатие)</t>
+  </si>
+  <si>
     <t>Заказать звонок (Открытие)</t>
   </si>
   <si>
-    <t>Консультация арбитражного управляющего (Нажатие)</t>
-  </si>
-  <si>
-    <t>120910</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>4658,30</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>0,256</t>
-  </si>
-  <si>
-    <t>141,16</t>
-  </si>
-  <si>
-    <t>8.552631578947368%</t>
-  </si>
-  <si>
-    <t>33.881578947368425%</t>
-  </si>
-  <si>
-    <t>81.93353</t>
-  </si>
-  <si>
-    <t>225,00%</t>
-  </si>
-  <si>
-    <t>436,01%</t>
-  </si>
-  <si>
-    <t>Приволжский федеральный округ (50,00%)</t>
-  </si>
-  <si>
-    <t>Сибирский федеральный округ (24,48%)</t>
-  </si>
-  <si>
-    <t>Северо-Западный федеральный округ (0,00%)</t>
-  </si>
-  <si>
-    <t>Уральский федеральный округ (0,00%)</t>
-  </si>
-  <si>
-    <t>Центральный федеральный округ (0,00%)</t>
-  </si>
-  <si>
-    <t>Южный федеральный округ (0,00%)</t>
-  </si>
-  <si>
-    <t>Лидер по посетителям - Сибирский федеральный округ (241,00)</t>
-  </si>
-  <si>
-    <t>% Конверсии больше - Приволжский федеральный округ (50,00%)</t>
-  </si>
-  <si>
-    <t>На долю планшетов и смартфонов приходится 37,60% трафика</t>
+    <t>Заказать звонок (Отправка)</t>
+  </si>
+  <si>
+    <t>1221914</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>42726,18</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>123,84</t>
+  </si>
+  <si>
+    <t>Сибирский федеральный округ (54,42%)</t>
+  </si>
+  <si>
+    <t>Приволжский федеральный округ (50,53%)</t>
+  </si>
+  <si>
+    <t>Южный федеральный округ (46,74%)</t>
+  </si>
+  <si>
+    <t>Центральный федеральный округ (42,86%)</t>
+  </si>
+  <si>
+    <t>Уральский федеральный округ (36,67%)</t>
+  </si>
+  <si>
+    <t>Дальневосточный федеральный округ (10,53%)</t>
+  </si>
+  <si>
+    <t>Северо-Западный федеральный округ (11,54%)</t>
+  </si>
+  <si>
+    <t>Лидер по посетителям - Сибирский федеральный округ (2004,00)</t>
+  </si>
+  <si>
+    <t>% Конверсии больше - Сибирский федеральный округ (54,42%)</t>
+  </si>
+  <si>
+    <t>На долю планшетов и смартфонов приходится 29,38% трафика</t>
   </si>
   <si>
     <t>25‑34 года</t>
@@ -580,49 +577,55 @@
     <t>18‑24 года</t>
   </si>
   <si>
+    <t>35‑44 года</t>
+  </si>
+  <si>
     <t>младше 18 лет</t>
   </si>
   <si>
-    <t>35‑44 года</t>
-  </si>
-  <si>
-    <t>Болше всего сеансов у группы - 25‑34 года (94,00)</t>
-  </si>
-  <si>
-    <t>Лучший коэффициент конверсии у группы младше 18 лет (57,14%)</t>
+    <t>Болше всего сеансов у группы - 25‑34 года (739,00)</t>
+  </si>
+  <si>
+    <t>Лучший коэффициент конверсии у группы младше 18 лет (47,89%)</t>
+  </si>
+  <si>
+    <t>женский</t>
   </si>
   <si>
     <t>мужской</t>
   </si>
   <si>
-    <t>женский</t>
-  </si>
-  <si>
     <t>На сайте больше женщин</t>
   </si>
   <si>
-    <t>Коэф. конверсии выше у мужчин</t>
+    <t>Коэф. конверсии выше у женщин</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Среда</t>
   </si>
   <si>
     <t>Четверг</t>
   </si>
   <si>
-    <t>Среда</t>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Суббота</t>
   </si>
   <si>
     <t>Воскресенье</t>
   </si>
   <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
     <t>Четверг - самый высокий коэф. конверсии</t>
   </si>
   <si>
-    <t>Воскресенье - больше всего сеансов</t>
+    <t>Понедельник - больше всего сеансов</t>
   </si>
   <si>
     <t xml:space="preserve">Конверсии происходят приемущественно в - </t>
@@ -640,16 +643,58 @@
     <t>ad2</t>
   </si>
   <si>
+    <t>company 21</t>
+  </si>
+  <si>
+    <t>ad21</t>
+  </si>
+  <si>
+    <t>company 1</t>
+  </si>
+  <si>
+    <t>ad1</t>
+  </si>
+  <si>
+    <t>company 3</t>
+  </si>
+  <si>
+    <t>ad3</t>
+  </si>
+  <si>
+    <t>company 12</t>
+  </si>
+  <si>
+    <t>ad12</t>
+  </si>
+  <si>
+    <t>company 38</t>
+  </si>
+  <si>
+    <t>ad38</t>
+  </si>
+  <si>
+    <t>company 5</t>
+  </si>
+  <si>
+    <t>ad5</t>
+  </si>
+  <si>
+    <t>company 14</t>
+  </si>
+  <si>
+    <t>ad14</t>
+  </si>
+  <si>
     <t>company 9</t>
   </si>
   <si>
     <t>ad9</t>
   </si>
   <si>
-    <t>company 12</t>
-  </si>
-  <si>
-    <t>ad12</t>
+    <t>company 27</t>
+  </si>
+  <si>
+    <t>ad27</t>
   </si>
   <si>
     <t>company 4</t>
@@ -658,214 +703,172 @@
     <t>ad4</t>
   </si>
   <si>
+    <t>company 8</t>
+  </si>
+  <si>
+    <t>ad8</t>
+  </si>
+  <si>
+    <t>company 24</t>
+  </si>
+  <si>
+    <t>ad24</t>
+  </si>
+  <si>
+    <t>company 6</t>
+  </si>
+  <si>
+    <t>ad6</t>
+  </si>
+  <si>
+    <t>company 19</t>
+  </si>
+  <si>
+    <t>ad19</t>
+  </si>
+  <si>
+    <t>company 20</t>
+  </si>
+  <si>
+    <t>ad20</t>
+  </si>
+  <si>
+    <t>company 13</t>
+  </si>
+  <si>
+    <t>ad13</t>
+  </si>
+  <si>
     <t>company 17</t>
   </si>
   <si>
     <t>ad17</t>
   </si>
   <si>
-    <t>company 5</t>
-  </si>
-  <si>
-    <t>ad5</t>
+    <t>company 29</t>
+  </si>
+  <si>
+    <t>ad29</t>
+  </si>
+  <si>
+    <t>company 28</t>
+  </si>
+  <si>
+    <t>ad28</t>
+  </si>
+  <si>
+    <t>company 35</t>
+  </si>
+  <si>
+    <t>ad35</t>
+  </si>
+  <si>
+    <t>company 7</t>
+  </si>
+  <si>
+    <t>ad7</t>
+  </si>
+  <si>
+    <t>company 10</t>
+  </si>
+  <si>
+    <t>ad10</t>
+  </si>
+  <si>
+    <t>company 11</t>
+  </si>
+  <si>
+    <t>ad11</t>
+  </si>
+  <si>
+    <t>company 15</t>
+  </si>
+  <si>
+    <t>ad15</t>
+  </si>
+  <si>
+    <t>company 16</t>
+  </si>
+  <si>
+    <t>ad16</t>
+  </si>
+  <si>
+    <t>company 18</t>
+  </si>
+  <si>
+    <t>ad18</t>
+  </si>
+  <si>
+    <t>company 22</t>
+  </si>
+  <si>
+    <t>ad22</t>
+  </si>
+  <si>
+    <t>company 23</t>
+  </si>
+  <si>
+    <t>ad23</t>
+  </si>
+  <si>
+    <t>company 25</t>
+  </si>
+  <si>
+    <t>ad25</t>
+  </si>
+  <si>
+    <t>company 26</t>
+  </si>
+  <si>
+    <t>ad26</t>
+  </si>
+  <si>
+    <t>company 30</t>
+  </si>
+  <si>
+    <t>ad30</t>
+  </si>
+  <si>
+    <t>company 31</t>
+  </si>
+  <si>
+    <t>ad31</t>
+  </si>
+  <si>
+    <t>company 34</t>
+  </si>
+  <si>
+    <t>ad34</t>
+  </si>
+  <si>
+    <t>company 32</t>
+  </si>
+  <si>
+    <t>ad32</t>
+  </si>
+  <si>
+    <t>company 33</t>
+  </si>
+  <si>
+    <t>ad33</t>
+  </si>
+  <si>
+    <t>company 36</t>
+  </si>
+  <si>
+    <t>ad36</t>
+  </si>
+  <si>
+    <t>company 39</t>
+  </si>
+  <si>
+    <t>ad39</t>
   </si>
   <si>
     <t>company 37</t>
   </si>
   <si>
     <t>ad37</t>
-  </si>
-  <si>
-    <t>company 10</t>
-  </si>
-  <si>
-    <t>ad10</t>
-  </si>
-  <si>
-    <t>company 21</t>
-  </si>
-  <si>
-    <t>ad21</t>
-  </si>
-  <si>
-    <t>company 31</t>
-  </si>
-  <si>
-    <t>ad31</t>
-  </si>
-  <si>
-    <t>company 14</t>
-  </si>
-  <si>
-    <t>ad14</t>
-  </si>
-  <si>
-    <t>company 11</t>
-  </si>
-  <si>
-    <t>ad11</t>
-  </si>
-  <si>
-    <t>company 26</t>
-  </si>
-  <si>
-    <t>ad26</t>
-  </si>
-  <si>
-    <t>company 28</t>
-  </si>
-  <si>
-    <t>ad28</t>
-  </si>
-  <si>
-    <t>company 34</t>
-  </si>
-  <si>
-    <t>ad34</t>
-  </si>
-  <si>
-    <t>company 23</t>
-  </si>
-  <si>
-    <t>ad23</t>
-  </si>
-  <si>
-    <t>company 22</t>
-  </si>
-  <si>
-    <t>ad22</t>
-  </si>
-  <si>
-    <t>company 38</t>
-  </si>
-  <si>
-    <t>ad38</t>
-  </si>
-  <si>
-    <t>company 29</t>
-  </si>
-  <si>
-    <t>ad29</t>
-  </si>
-  <si>
-    <t>company 36</t>
-  </si>
-  <si>
-    <t>ad36</t>
-  </si>
-  <si>
-    <t>company 1</t>
-  </si>
-  <si>
-    <t>ad1</t>
-  </si>
-  <si>
-    <t>company 3</t>
-  </si>
-  <si>
-    <t>ad3</t>
-  </si>
-  <si>
-    <t>company 6</t>
-  </si>
-  <si>
-    <t>ad6</t>
-  </si>
-  <si>
-    <t>company 7</t>
-  </si>
-  <si>
-    <t>ad7</t>
-  </si>
-  <si>
-    <t>company 8</t>
-  </si>
-  <si>
-    <t>ad8</t>
-  </si>
-  <si>
-    <t>company 13</t>
-  </si>
-  <si>
-    <t>ad13</t>
-  </si>
-  <si>
-    <t>company 15</t>
-  </si>
-  <si>
-    <t>ad15</t>
-  </si>
-  <si>
-    <t>company 16</t>
-  </si>
-  <si>
-    <t>ad16</t>
-  </si>
-  <si>
-    <t>company 18</t>
-  </si>
-  <si>
-    <t>ad18</t>
-  </si>
-  <si>
-    <t>company 19</t>
-  </si>
-  <si>
-    <t>ad19</t>
-  </si>
-  <si>
-    <t>company 20</t>
-  </si>
-  <si>
-    <t>ad20</t>
-  </si>
-  <si>
-    <t>company 24</t>
-  </si>
-  <si>
-    <t>ad24</t>
-  </si>
-  <si>
-    <t>company 27</t>
-  </si>
-  <si>
-    <t>ad27</t>
-  </si>
-  <si>
-    <t>company 25</t>
-  </si>
-  <si>
-    <t>ad25</t>
-  </si>
-  <si>
-    <t>company 30</t>
-  </si>
-  <si>
-    <t>ad30</t>
-  </si>
-  <si>
-    <t>company 35</t>
-  </si>
-  <si>
-    <t>ad35</t>
-  </si>
-  <si>
-    <t>company 33</t>
-  </si>
-  <si>
-    <t>ad33</t>
-  </si>
-  <si>
-    <t>company 32</t>
-  </si>
-  <si>
-    <t>ad32</t>
-  </si>
-  <si>
-    <t>company 39</t>
-  </si>
-  <si>
-    <t>ad39</t>
   </si>
 </sst>
 </file>
@@ -1492,21 +1495,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="4" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,10 +1525,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1570,6 +1567,9 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,6 +1581,9 @@
     </xf>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7756,12 +7759,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="0" y="200482"/>
-          <a:ext cx="5225704" cy="772392"/>
+          <a:off x="0" y="199787"/>
+          <a:ext cx="4840782" cy="769715"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 53885"/>
+            <a:gd name="adj" fmla="val 50089"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7831,8 +7834,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="914498" y="200482"/>
-        <a:ext cx="3396707" cy="772392"/>
+        <a:off x="847136" y="199787"/>
+        <a:ext cx="3146508" cy="769715"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{69CA1DAA-1002-439B-95E6-9B03B9A978F9}">
@@ -7842,12 +7845,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="168597" y="928323"/>
-          <a:ext cx="4888508" cy="772392"/>
+          <a:off x="156178" y="925105"/>
+          <a:ext cx="4528424" cy="769715"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 53885"/>
+            <a:gd name="adj" fmla="val 50089"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -7919,8 +7922,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1024086" y="928323"/>
-        <a:ext cx="3177530" cy="772392"/>
+        <a:off x="948653" y="925105"/>
+        <a:ext cx="2943475" cy="769715"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{238952AD-046B-41C1-B6E4-2C5149FAC37B}">
@@ -7930,12 +7933,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="376346" y="1667302"/>
-          <a:ext cx="4473010" cy="772392"/>
+          <a:off x="348625" y="1661523"/>
+          <a:ext cx="4143531" cy="769715"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 53885"/>
+            <a:gd name="adj" fmla="val 50089"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8007,8 +8010,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1159123" y="1667302"/>
-        <a:ext cx="2907457" cy="772392"/>
+        <a:off x="1073743" y="1661523"/>
+        <a:ext cx="2693295" cy="769715"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{425953AF-BAA2-4E7A-916B-2A82294152AD}">
@@ -8018,12 +8021,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="619750" y="2395144"/>
-          <a:ext cx="3986202" cy="772392"/>
+          <a:off x="574100" y="2386841"/>
+          <a:ext cx="3692581" cy="769715"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 53885"/>
+            <a:gd name="adj" fmla="val 50089"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8095,8 +8098,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1317336" y="2395144"/>
-        <a:ext cx="2591031" cy="772392"/>
+        <a:off x="1220302" y="2386841"/>
+        <a:ext cx="2400177" cy="769715"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A06E787-2B65-46E6-9A04-2968475748A6}">
@@ -8106,12 +8109,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="888135" y="3122985"/>
-          <a:ext cx="3449433" cy="772392"/>
+          <a:off x="822715" y="3112160"/>
+          <a:ext cx="3195350" cy="769715"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 53885"/>
+            <a:gd name="adj" fmla="val 50089"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8183,8 +8186,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1491786" y="3122985"/>
-        <a:ext cx="2242131" cy="772392"/>
+        <a:off x="1381902" y="3112160"/>
+        <a:ext cx="2076977" cy="769715"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D67B753-3B31-4AF4-8047-2E5F38D41F74}">
@@ -8194,12 +8197,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1046368" y="3861964"/>
-          <a:ext cx="3132966" cy="986979"/>
+          <a:off x="969293" y="3848578"/>
+          <a:ext cx="2902194" cy="983557"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 53885"/>
+            <a:gd name="adj" fmla="val 50089"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -8277,8 +8280,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-10800000">
-        <a:off x="1046368" y="3861964"/>
-        <a:ext cx="3132966" cy="986979"/>
+        <a:off x="969293" y="3848578"/>
+        <a:ext cx="2902194" cy="983557"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -10308,8 +10311,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:W407"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A216" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M193" sqref="M193"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138:K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10337,37 +10340,37 @@
   <sheetData>
     <row r="1" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H1" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="s" s="100">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="s" s="100">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="7:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G36" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D63" t="s" s="100">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="s" s="100">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H70" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="8:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -10395,62 +10398,62 @@
     <row r="107" spans="7:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="7:17" ht="21" x14ac:dyDescent="0.35">
       <c r="K110" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="L110" s="130"/>
-      <c r="M110" s="130"/>
-      <c r="N110" s="130"/>
-      <c r="O110" s="130"/>
+        <v>128</v>
+      </c>
+      <c r="L110" s="128"/>
+      <c r="M110" s="128"/>
+      <c r="N110" s="128"/>
+      <c r="O110" s="128"/>
     </row>
     <row r="113" spans="9:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K113" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="L113" s="130"/>
-      <c r="M113" s="130"/>
-      <c r="N113" s="130"/>
-      <c r="O113" s="130"/>
+        <v>129</v>
+      </c>
+      <c r="L113" s="128"/>
+      <c r="M113" s="128"/>
+      <c r="N113" s="128"/>
+      <c r="O113" s="128"/>
     </row>
     <row r="116" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="K116" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="L116" s="131"/>
-      <c r="M116" s="131"/>
-      <c r="N116" s="131"/>
-      <c r="O116" s="131"/>
+        <v>130</v>
+      </c>
+      <c r="L116" s="129"/>
+      <c r="M116" s="129"/>
+      <c r="N116" s="129"/>
+      <c r="O116" s="129"/>
     </row>
     <row r="120" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="K120" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="L120" s="130"/>
-      <c r="M120" s="130"/>
-      <c r="N120" s="130"/>
-      <c r="O120" s="130"/>
+        <v>131</v>
+      </c>
+      <c r="L120" s="128"/>
+      <c r="M120" s="128"/>
+      <c r="N120" s="128"/>
+      <c r="O120" s="128"/>
     </row>
     <row r="124" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="I124" s="19"/>
       <c r="J124" s="19"/>
       <c r="K124" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="L124" s="129"/>
-      <c r="M124" s="129"/>
-      <c r="N124" s="129"/>
-      <c r="O124" s="129"/>
+        <v>132</v>
+      </c>
+      <c r="L124" s="127"/>
+      <c r="M124" s="127"/>
+      <c r="N124" s="127"/>
+      <c r="O124" s="127"/>
     </row>
     <row r="127" spans="9:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="9:15" ht="21" x14ac:dyDescent="0.35">
       <c r="I128" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="J128" s="124"/>
-      <c r="K128" s="124"/>
-      <c r="L128" s="124"/>
-      <c r="M128" s="124"/>
-      <c r="N128" s="124"/>
-      <c r="O128" s="124"/>
+        <v>133</v>
+      </c>
+      <c r="J128" s="119"/>
+      <c r="K128" s="119"/>
+      <c r="L128" s="119"/>
+      <c r="M128" s="119"/>
+      <c r="N128" s="119"/>
+      <c r="O128" s="119"/>
     </row>
     <row r="129" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K129" s="16"/>
@@ -10461,37 +10464,37 @@
     <row r="134" spans="6:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="6:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="6:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F137" s="125" t="s">
+      <c r="F137" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="G137" s="125"/>
-      <c r="H137" s="125" t="s">
+      <c r="G137" s="120"/>
+      <c r="H137" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="I137" s="120"/>
+      <c r="J137" s="120"/>
+      <c r="K137" s="120"/>
+      <c r="L137" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="I137" s="125"/>
-      <c r="J137" s="125"/>
-      <c r="K137" s="125"/>
-      <c r="L137" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="M137" s="125"/>
+      <c r="M137" s="120"/>
       <c r="N137" s="49"/>
     </row>
     <row r="138" spans="6:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F138" s="98" t="n">
-        <v>8573.725967407227</v>
-      </c>
-      <c r="G138" s="126"/>
+        <v>42726.1796875</v>
+      </c>
+      <c r="G138" s="121"/>
       <c r="H138" s="98" t="n">
-        <v>120910.0</v>
-      </c>
-      <c r="I138" s="126"/>
-      <c r="J138" s="126"/>
-      <c r="K138" s="126"/>
+        <v>345.0</v>
+      </c>
+      <c r="I138" s="121"/>
+      <c r="J138" s="121"/>
+      <c r="K138" s="121"/>
       <c r="L138" s="98" t="n">
-        <v>0.07090998236214727</v>
-      </c>
-      <c r="M138" s="126"/>
+        <v>123.84400177001953</v>
+      </c>
+      <c r="M138" s="121"/>
       <c r="N138" s="50"/>
     </row>
     <row r="139" spans="6:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10518,143 +10521,143 @@
     </row>
     <row r="141" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F141" s="94" t="n">
-        <v>134.57167053222656</v>
-      </c>
-      <c r="G141" s="132"/>
-      <c r="H141" s="126" t="s">
-        <v>26</v>
-      </c>
-      <c r="I141" s="126"/>
-      <c r="J141" s="126"/>
-      <c r="K141" s="126"/>
+        <v>10725.3701171875</v>
+      </c>
+      <c r="G141" s="130"/>
+      <c r="H141" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="121"/>
+      <c r="J141" s="121"/>
+      <c r="K141" s="121"/>
       <c r="L141" s="94" t="n">
-        <v>8439.154296875</v>
-      </c>
-      <c r="M141" s="132"/>
+        <v>32000.810546875</v>
+      </c>
+      <c r="M141" s="130"/>
       <c r="N141" s="51"/>
     </row>
     <row r="142" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F142" s="98" t="n">
-        <v>304.0</v>
-      </c>
-      <c r="G142" s="128"/>
-      <c r="H142" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="I142" s="133"/>
-      <c r="J142" s="133"/>
-      <c r="K142" s="133"/>
+        <v>6811.0</v>
+      </c>
+      <c r="G142" s="122"/>
+      <c r="H142" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" s="131"/>
+      <c r="J142" s="131"/>
+      <c r="K142" s="131"/>
       <c r="L142" s="98" t="n">
-        <v>120606.0</v>
-      </c>
-      <c r="M142" s="128"/>
+        <v>1215103.0</v>
+      </c>
+      <c r="M142" s="122"/>
       <c r="N142" s="51"/>
     </row>
     <row r="143" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F143" s="94" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G143" s="132"/>
-      <c r="H143" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="I143" s="126"/>
-      <c r="J143" s="126"/>
-      <c r="K143" s="126"/>
+        <v>372.0</v>
+      </c>
+      <c r="G143" s="130"/>
+      <c r="H143" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="121"/>
+      <c r="J143" s="121"/>
+      <c r="K143" s="121"/>
       <c r="L143" s="94" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="M143" s="132"/>
+        <v>951.0</v>
+      </c>
+      <c r="M143" s="130"/>
       <c r="N143" s="51"/>
     </row>
     <row r="144" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F144" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="G144" s="128"/>
-      <c r="H144" s="133" t="s">
-        <v>29</v>
-      </c>
-      <c r="I144" s="133"/>
-      <c r="J144" s="133"/>
-      <c r="K144" s="133"/>
-      <c r="L144" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="M144" s="128"/>
+      <c r="F144" s="98" t="n">
+        <v>5.461753046542358</v>
+      </c>
+      <c r="G144" s="122"/>
+      <c r="H144" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="I144" s="131"/>
+      <c r="J144" s="131"/>
+      <c r="K144" s="131"/>
+      <c r="L144" s="98" t="n">
+        <v>0.0782649701301042</v>
+      </c>
+      <c r="M144" s="122"/>
       <c r="N144" s="51"/>
     </row>
     <row r="145" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F145" s="94" t="n">
-        <v>5.175833225250244</v>
-      </c>
-      <c r="G145" s="132"/>
-      <c r="H145" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="I145" s="126"/>
-      <c r="J145" s="126"/>
-      <c r="K145" s="126"/>
-      <c r="L145" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="M145" s="132"/>
+        <v>28.831640243530273</v>
+      </c>
+      <c r="G145" s="130"/>
+      <c r="H145" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="I145" s="121"/>
+      <c r="J145" s="121"/>
+      <c r="K145" s="121"/>
+      <c r="L145" s="94" t="n">
+        <v>33.64964294433594</v>
+      </c>
+      <c r="M145" s="130"/>
       <c r="N145" s="51"/>
     </row>
     <row r="146" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F146" s="98" t="n">
-        <v>225.0</v>
-      </c>
-      <c r="G146" s="128"/>
-      <c r="H146" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="133"/>
-      <c r="J146" s="133"/>
-      <c r="K146" s="133"/>
+        <v>111.0</v>
+      </c>
+      <c r="G146" s="122"/>
+      <c r="H146" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" s="131"/>
+      <c r="J146" s="131"/>
+      <c r="K146" s="131"/>
       <c r="L146" s="98" t="n">
-        <v>436.010009765625</v>
-      </c>
-      <c r="M146" s="128"/>
+        <v>234.0</v>
+      </c>
+      <c r="M146" s="122"/>
       <c r="N146" s="51"/>
     </row>
     <row r="147" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F147" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="G147" s="132"/>
-      <c r="H147" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="I147" s="126"/>
-      <c r="J147" s="126"/>
-      <c r="K147" s="126"/>
-      <c r="L147" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="M147" s="132"/>
+      <c r="F147" s="94" t="n">
+        <v>29.838709677419356</v>
+      </c>
+      <c r="G147" s="130"/>
+      <c r="H147" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="I147" s="121"/>
+      <c r="J147" s="121"/>
+      <c r="K147" s="121"/>
+      <c r="L147" s="94" t="n">
+        <v>24.605678233438486</v>
+      </c>
+      <c r="M147" s="130"/>
       <c r="N147" s="51"/>
     </row>
     <row r="148" spans="6:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F148" s="98" t="n">
-        <v>8.619999885559082</v>
-      </c>
-      <c r="G148" s="128"/>
-      <c r="H148" s="133" t="s">
-        <v>33</v>
-      </c>
-      <c r="I148" s="133"/>
-      <c r="J148" s="133"/>
-      <c r="K148" s="133"/>
+        <v>3291.81005859375</v>
+      </c>
+      <c r="G148" s="122"/>
+      <c r="H148" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="131"/>
+      <c r="J148" s="131"/>
+      <c r="K148" s="131"/>
       <c r="L148" s="98" t="n">
-        <v>81.11000061035156</v>
-      </c>
-      <c r="M148" s="128"/>
+        <v>16487.75</v>
+      </c>
+      <c r="M148" s="122"/>
       <c r="N148" s="51"/>
     </row>
     <row r="162" spans="5:23" ht="23.25" x14ac:dyDescent="0.25">
       <c r="H162" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="5:23" ht="23.25" x14ac:dyDescent="0.25">
@@ -10679,12 +10682,12 @@
     </row>
     <row r="191">
       <c r="E191" t="s" s="100">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192">
       <c r="E192" t="s" s="100">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="195" spans="2:23" ht="21" x14ac:dyDescent="0.35">
@@ -10712,30 +10715,30 @@
     </row>
     <row r="196" spans="2:23" ht="23.25" x14ac:dyDescent="0.25">
       <c r="H196" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="2:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="D203" s="123" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="203" spans="2:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="D203" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="E203" s="112"/>
-      <c r="F203" s="112"/>
-      <c r="G203" s="113"/>
-      <c r="H203" s="114" t="s">
+      <c r="E203" s="123"/>
+      <c r="F203" s="123"/>
+      <c r="G203" s="124"/>
+      <c r="H203" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" s="123"/>
+      <c r="J203" s="123"/>
+      <c r="K203" s="126"/>
+      <c r="L203" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="I203" s="112"/>
-      <c r="J203" s="112"/>
-      <c r="K203" s="115"/>
-      <c r="L203" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="M203" s="112"/>
-      <c r="N203" s="112"/>
-      <c r="O203" s="112"/>
-      <c r="P203" s="112"/>
-      <c r="Q203" s="115"/>
+      <c r="M203" s="123"/>
+      <c r="N203" s="123"/>
+      <c r="O203" s="123"/>
+      <c r="P203" s="123"/>
+      <c r="Q203" s="126"/>
     </row>
     <row r="204" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E204" s="26"/>
@@ -10823,86 +10826,86 @@
       <c r="B211" s="52"/>
       <c r="C211" s="52"/>
       <c r="D211" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E211" s="110"/>
       <c r="F211" s="99" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="G211" s="120"/>
+        <v>1628.0</v>
+      </c>
+      <c r="G211" s="115"/>
       <c r="H211" s="53"/>
       <c r="I211" s="99" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="J211" s="120"/>
-      <c r="K211" s="120"/>
+        <v>479.0</v>
+      </c>
+      <c r="J211" s="115"/>
+      <c r="K211" s="115"/>
       <c r="L211" s="60"/>
       <c r="M211" s="53"/>
       <c r="N211" s="53"/>
       <c r="O211" s="99" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="P211" s="120"/>
-      <c r="Q211" s="120"/>
+        <v>200.0</v>
+      </c>
+      <c r="P211" s="115"/>
+      <c r="Q211" s="115"/>
     </row>
     <row r="212" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B212" s="52"/>
       <c r="C212" s="52"/>
       <c r="D212" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E212" s="111"/>
       <c r="F212" s="95" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="G212" s="119"/>
+        <v>617.0</v>
+      </c>
+      <c r="G212" s="114"/>
       <c r="H212" s="54"/>
       <c r="I212" s="95" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J212" s="119"/>
-      <c r="K212" s="119"/>
+        <v>128.0</v>
+      </c>
+      <c r="J212" s="114"/>
+      <c r="K212" s="114"/>
       <c r="L212" s="61"/>
       <c r="M212" s="54"/>
       <c r="N212" s="54"/>
       <c r="O212" s="95" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P212" s="119"/>
-      <c r="Q212" s="119"/>
+        <v>49.0</v>
+      </c>
+      <c r="P212" s="114"/>
+      <c r="Q212" s="114"/>
     </row>
     <row r="213" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D213" s="55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E213" s="110"/>
       <c r="F213" s="99" t="n">
-        <v>62.01550387596899</v>
-      </c>
-      <c r="G213" s="120"/>
+        <v>70.44569450454348</v>
+      </c>
+      <c r="G213" s="115"/>
       <c r="H213" s="53"/>
       <c r="I213" s="99" t="n">
-        <v>24.8062015503876</v>
-      </c>
-      <c r="J213" s="120"/>
-      <c r="K213" s="120"/>
+        <v>20.726958026828214</v>
+      </c>
+      <c r="J213" s="115"/>
+      <c r="K213" s="115"/>
       <c r="L213" s="60"/>
       <c r="M213" s="53"/>
       <c r="N213" s="53"/>
       <c r="O213" s="99" t="n">
-        <v>12.790697674418606</v>
-      </c>
-      <c r="P213" s="120"/>
-      <c r="Q213" s="120"/>
+        <v>8.654262224145391</v>
+      </c>
+      <c r="P213" s="115"/>
+      <c r="Q213" s="115"/>
     </row>
     <row r="215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D215" t="s" s="100">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="229" spans="8:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H229" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J229" s="23"/>
       <c r="K229" s="23"/>
@@ -10912,7 +10915,7 @@
     </row>
     <row r="259" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D259" s="100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E259" s="58"/>
       <c r="F259" s="58"/>
@@ -10922,7 +10925,7 @@
     </row>
     <row r="260" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D260" s="100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E260" s="58"/>
       <c r="F260" s="58"/>
@@ -10932,7 +10935,7 @@
     </row>
     <row r="263" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H263" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I263" s="23"/>
       <c r="J263" s="23"/>
@@ -10942,17 +10945,17 @@
       <c r="N263" s="24"/>
     </row>
     <row r="266" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B266" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="C266" s="127"/>
-      <c r="D266" s="127"/>
+      <c r="B266" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="C266" s="136"/>
+      <c r="D266" s="136"/>
       <c r="E266" s="44"/>
       <c r="F266" s="44"/>
-      <c r="G266" s="127" t="s">
-        <v>52</v>
-      </c>
-      <c r="H266" s="127"/>
+      <c r="G266" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="H266" s="136"/>
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E267" s="36"/>
@@ -10991,27 +10994,27 @@
       <c r="E278" s="36"/>
     </row>
     <row r="279" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B279" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="C279" s="139"/>
-      <c r="D279" s="139"/>
+      <c r="B279" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="C279" s="138"/>
+      <c r="D279" s="138"/>
       <c r="E279" s="36"/>
-      <c r="G279" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="H279" s="139"/>
+      <c r="G279" s="138" t="s">
+        <v>53</v>
+      </c>
+      <c r="H279" s="138"/>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="101" t="n">
-        <v>29.20353982300885</v>
-      </c>
-      <c r="C280" s="138"/>
-      <c r="D280" s="138"/>
+        <v>35.91269841269841</v>
+      </c>
+      <c r="C280" s="137"/>
+      <c r="D280" s="137"/>
       <c r="G280" s="101" t="n">
-        <v>43.56435643564357</v>
-      </c>
-      <c r="H280" s="138"/>
+        <v>36.60418963616318</v>
+      </c>
+      <c r="H280" s="137"/>
     </row>
     <row r="282" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C282" s="25"/>
@@ -11025,17 +11028,17 @@
     </row>
     <row r="284" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B284" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="285" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B285" s="100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="296" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H296" s="63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="297" spans="8:13" ht="23.25" x14ac:dyDescent="0.35">
@@ -11047,12 +11050,12 @@
     </row>
     <row r="325">
       <c r="D325" t="s" s="100">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="326">
       <c r="D326" t="s" s="100">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="327" spans="4:13" ht="21" x14ac:dyDescent="0.35">
@@ -11079,7 +11082,7 @@
     </row>
     <row r="329" spans="4:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H329" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="331" spans="4:13" ht="21" x14ac:dyDescent="0.35">
@@ -11090,7 +11093,7 @@
     </row>
     <row r="358">
       <c r="D358" t="s" s="100">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="361" spans="4:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -11106,7 +11109,7 @@
     </row>
     <row r="365" spans="4:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H365" s="63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="366" spans="4:15" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -11122,92 +11125,92 @@
     <row r="367" spans="4:15" ht="7.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="368" spans="4:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="370" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="C370" s="122"/>
-      <c r="D370" s="122"/>
-      <c r="E370" s="122"/>
-      <c r="F370" s="122"/>
-      <c r="G370" s="122"/>
+      <c r="B370" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C370" s="117"/>
+      <c r="D370" s="117"/>
+      <c r="E370" s="117"/>
+      <c r="F370" s="117"/>
+      <c r="G370" s="117"/>
       <c r="H370" t="n" s="99">
         <v>40.0</v>
       </c>
-      <c r="I370" s="134"/>
+      <c r="I370" s="132"/>
     </row>
     <row r="371" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C371" s="136"/>
-      <c r="D371" s="136"/>
-      <c r="E371" s="136"/>
-      <c r="F371" s="136"/>
-      <c r="G371" s="136"/>
+      <c r="B371" s="134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C371" s="134"/>
+      <c r="D371" s="134"/>
+      <c r="E371" s="134"/>
+      <c r="F371" s="134"/>
+      <c r="G371" s="134"/>
       <c r="H371" t="n" s="95">
-        <v>19.0</v>
-      </c>
-      <c r="I371" s="135"/>
+        <v>18.0</v>
+      </c>
+      <c r="I371" s="133"/>
     </row>
     <row r="372" spans="2:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="137" t="s">
-        <v>74</v>
-      </c>
-      <c r="C372" s="137"/>
-      <c r="D372" s="137"/>
-      <c r="E372" s="137"/>
-      <c r="F372" s="137"/>
-      <c r="G372" s="137"/>
+      <c r="B372" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C372" s="135"/>
+      <c r="D372" s="135"/>
+      <c r="E372" s="135"/>
+      <c r="F372" s="135"/>
+      <c r="G372" s="135"/>
       <c r="H372" t="n" s="99">
-        <v>47.5</v>
-      </c>
-      <c r="I372" s="134"/>
+        <v>45.0</v>
+      </c>
+      <c r="I372" s="132"/>
     </row>
     <row r="376" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K376" s="122" t="s">
-        <v>97</v>
-      </c>
-      <c r="L376" s="122"/>
-      <c r="M376" s="122"/>
-      <c r="N376" s="122"/>
-      <c r="O376" s="122"/>
+      <c r="K376" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="L376" s="117"/>
+      <c r="M376" s="117"/>
+      <c r="N376" s="117"/>
+      <c r="O376" s="117"/>
       <c r="P376" t="n" s="99">
-        <v>8.432134913892863</v>
-      </c>
-      <c r="Q376" s="123"/>
-      <c r="R376" s="123"/>
+        <v>8.412686038395297</v>
+      </c>
+      <c r="Q376" s="118"/>
+      <c r="R376" s="118"/>
     </row>
     <row r="377" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K377" s="121" t="s">
-        <v>96</v>
-      </c>
-      <c r="L377" s="121"/>
-      <c r="M377" s="121"/>
-      <c r="N377" s="121"/>
-      <c r="O377" s="121"/>
+      <c r="K377" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="L377" s="116"/>
+      <c r="M377" s="116"/>
+      <c r="N377" s="116"/>
+      <c r="O377" s="116"/>
       <c r="P377" t="n" s="95">
-        <v>4.00516885342107</v>
-      </c>
-      <c r="Q377" s="140"/>
-      <c r="R377" s="140"/>
+        <v>3.8844839191140155</v>
+      </c>
+      <c r="Q377" s="139"/>
+      <c r="R377" s="139"/>
     </row>
     <row r="378" spans="2:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K378" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="L378" s="122"/>
-      <c r="M378" s="122"/>
-      <c r="N378" s="122"/>
-      <c r="O378" s="122"/>
+      <c r="K378" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="L378" s="117"/>
+      <c r="M378" s="117"/>
+      <c r="N378" s="117"/>
+      <c r="O378" s="117"/>
       <c r="P378" t="n" s="99">
-        <v>47.49887062198349</v>
-      </c>
-      <c r="Q378" s="141"/>
-      <c r="R378" s="141"/>
+        <v>46.17412205073771</v>
+      </c>
+      <c r="Q378" s="140"/>
+      <c r="R378" s="140"/>
     </row>
     <row r="388" spans="2:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="H388" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I388" s="63"/>
       <c r="J388" s="63"/>
@@ -11217,50 +11220,50 @@
       <c r="N388" s="40"/>
     </row>
     <row r="391" spans="2:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="117" t="s">
+      <c r="B391" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C391" s="112"/>
+      <c r="D391" s="112"/>
+      <c r="E391" s="112"/>
+      <c r="F391" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="G391" s="112"/>
+      <c r="H391" s="112"/>
+      <c r="I391" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="C391" s="117"/>
-      <c r="D391" s="117"/>
-      <c r="E391" s="117"/>
-      <c r="F391" s="117" t="s">
+      <c r="J391" s="112"/>
+      <c r="K391" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="L391" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="G391" s="117"/>
-      <c r="H391" s="117"/>
-      <c r="I391" s="117" t="s">
+      <c r="M391" s="113"/>
+      <c r="N391" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="O391" s="113"/>
+      <c r="P391" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="J391" s="117"/>
-      <c r="K391" s="73" t="s">
+      <c r="Q391" s="112"/>
+      <c r="R391" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="S391" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="L391" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="M391" s="118"/>
-      <c r="N391" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="O391" s="118"/>
-      <c r="P391" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q391" s="117"/>
-      <c r="R391" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="S391" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="T391" s="118"/>
+      <c r="T391" s="113"/>
     </row>
     <row r="392">
       <c r="B392" t="s" s="75">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F392" t="s" s="75">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I392" t="n" s="75">
         <v>20.0</v>
@@ -11286,18 +11289,18 @@
     </row>
     <row r="393" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" t="s" s="106">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C393" s="72"/>
       <c r="D393" s="72"/>
       <c r="E393" s="72"/>
       <c r="F393" t="s" s="106">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G393" s="72"/>
       <c r="H393" s="72"/>
       <c r="I393" t="n" s="106">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="J393" s="72"/>
       <c r="K393" t="n" s="106">
@@ -11312,11 +11315,11 @@
       </c>
       <c r="O393" s="72"/>
       <c r="P393" t="n" s="106">
-        <v>200.27115127779632</v>
+        <v>200.2318945819982</v>
       </c>
       <c r="Q393" s="72"/>
       <c r="R393" t="n" s="106">
-        <v>0.09900990099009901</v>
+        <v>0.11</v>
       </c>
       <c r="S393" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11325,22 +11328,22 @@
     </row>
     <row r="394" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" t="s" s="75">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C394" s="72"/>
       <c r="D394" s="72"/>
       <c r="E394" s="72"/>
       <c r="F394" t="s" s="75">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G394" s="72"/>
       <c r="H394" s="72"/>
       <c r="I394" t="n" s="75">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="J394" s="72"/>
       <c r="K394" t="n" s="75">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="L394" t="n" s="75">
         <v>0.0</v>
@@ -11351,11 +11354,11 @@
       </c>
       <c r="O394" s="72"/>
       <c r="P394" t="n" s="75">
-        <v>200.50758166174148</v>
+        <v>200.77034482105316</v>
       </c>
       <c r="Q394" s="72"/>
       <c r="R394" t="n" s="75">
-        <v>0.09569377990430622</v>
+        <v>0.18552036199095023</v>
       </c>
       <c r="S394" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11364,22 +11367,22 @@
     </row>
     <row r="395" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" t="s" s="106">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C395" s="72"/>
       <c r="D395" s="72"/>
       <c r="E395" s="72"/>
       <c r="F395" t="s" s="106">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G395" s="72"/>
       <c r="H395" s="72"/>
       <c r="I395" t="n" s="106">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="J395" s="72"/>
       <c r="K395" t="n" s="106">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="L395" t="n" s="106">
         <v>0.0</v>
@@ -11390,11 +11393,11 @@
       </c>
       <c r="O395" s="72"/>
       <c r="P395" t="n" s="106">
-        <v>200.83821110502524</v>
+        <v>200.85165462381937</v>
       </c>
       <c r="Q395" s="72"/>
       <c r="R395" t="n" s="106">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="S395" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11403,13 +11406,13 @@
     </row>
     <row r="396" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" t="s" s="75">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C396" s="72"/>
       <c r="D396" s="72"/>
       <c r="E396" s="72"/>
       <c r="F396" t="s" s="75">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G396" s="72"/>
       <c r="H396" s="72"/>
@@ -11418,7 +11421,7 @@
       </c>
       <c r="J396" s="72"/>
       <c r="K396" t="n" s="75">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L396" t="n" s="75">
         <v>0.0</v>
@@ -11429,11 +11432,11 @@
       </c>
       <c r="O396" s="72"/>
       <c r="P396" t="n" s="75">
-        <v>202.2229957947878</v>
+        <v>201.01351845868186</v>
       </c>
       <c r="Q396" s="72"/>
       <c r="R396" t="n" s="75">
-        <v>0.09803921568627451</v>
+        <v>0.1</v>
       </c>
       <c r="S396" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11442,22 +11445,22 @@
     </row>
     <row r="397" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" t="s" s="106">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C397" s="72"/>
       <c r="D397" s="72"/>
       <c r="E397" s="72"/>
       <c r="F397" t="s" s="106">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G397" s="72"/>
       <c r="H397" s="72"/>
       <c r="I397" t="n" s="106">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="J397" s="72"/>
       <c r="K397" t="n" s="106">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="L397" t="n" s="106">
         <v>0.0</v>
@@ -11468,11 +11471,11 @@
       </c>
       <c r="O397" s="72"/>
       <c r="P397" t="n" s="106">
-        <v>203.21111547220062</v>
+        <v>201.13715678313164</v>
       </c>
       <c r="Q397" s="72"/>
       <c r="R397" t="n" s="106">
-        <v>0.185</v>
+        <v>0.16</v>
       </c>
       <c r="S397" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11481,13 +11484,13 @@
     </row>
     <row r="398" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" t="s" s="75">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C398" s="72"/>
       <c r="D398" s="72"/>
       <c r="E398" s="72"/>
       <c r="F398" t="s" s="75">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G398" s="72"/>
       <c r="H398" s="72"/>
@@ -11496,7 +11499,7 @@
       </c>
       <c r="J398" s="72"/>
       <c r="K398" t="n" s="75">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="L398" t="n" s="75">
         <v>0.0</v>
@@ -11507,7 +11510,7 @@
       </c>
       <c r="O398" s="72"/>
       <c r="P398" t="n" s="75">
-        <v>204.41718498684304</v>
+        <v>201.29367928154147</v>
       </c>
       <c r="Q398" s="72"/>
       <c r="R398" t="n" s="75">
@@ -11520,22 +11523,22 @@
     </row>
     <row r="399" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" t="s" s="106">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C399" s="72"/>
       <c r="D399" s="72"/>
       <c r="E399" s="72"/>
       <c r="F399" t="s" s="106">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G399" s="72"/>
       <c r="H399" s="72"/>
       <c r="I399" t="n" s="106">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="J399" s="72"/>
       <c r="K399" t="n" s="106">
-        <v>37.0</v>
+        <v>5.0</v>
       </c>
       <c r="L399" t="n" s="106">
         <v>0.0</v>
@@ -11546,11 +11549,11 @@
       </c>
       <c r="O399" s="72"/>
       <c r="P399" t="n" s="106">
-        <v>204.5833943540974</v>
+        <v>201.6427625480135</v>
       </c>
       <c r="Q399" s="72"/>
       <c r="R399" t="n" s="106">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="S399" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11559,22 +11562,22 @@
     </row>
     <row r="400" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" t="s" s="75">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C400" s="72"/>
       <c r="D400" s="72"/>
       <c r="E400" s="72"/>
       <c r="F400" t="s" s="75">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G400" s="72"/>
       <c r="H400" s="72"/>
       <c r="I400" t="n" s="75">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J400" s="72"/>
       <c r="K400" t="n" s="75">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="L400" t="n" s="75">
         <v>0.0</v>
@@ -11585,11 +11588,11 @@
       </c>
       <c r="O400" s="72"/>
       <c r="P400" t="n" s="75">
-        <v>206.63090715523134</v>
+        <v>201.85030248539763</v>
       </c>
       <c r="Q400" s="72"/>
       <c r="R400" t="n" s="75">
-        <v>0.14285714285714285</v>
+        <v>0.1</v>
       </c>
       <c r="S400" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11598,13 +11601,13 @@
     </row>
     <row r="401" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" t="s" s="106">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C401" s="72"/>
       <c r="D401" s="72"/>
       <c r="E401" s="72"/>
       <c r="F401" t="s" s="106">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G401" s="72"/>
       <c r="H401" s="72"/>
@@ -11613,7 +11616,7 @@
       </c>
       <c r="J401" s="72"/>
       <c r="K401" t="n" s="106">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="L401" t="n" s="106">
         <v>0.0</v>
@@ -11624,7 +11627,7 @@
       </c>
       <c r="O401" s="72"/>
       <c r="P401" t="n" s="106">
-        <v>206.93729166221215</v>
+        <v>202.00484307300738</v>
       </c>
       <c r="Q401" s="72"/>
       <c r="R401" t="n" s="106">
@@ -11637,22 +11640,22 @@
     </row>
     <row r="402" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" t="s" s="75">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C402" s="72"/>
       <c r="D402" s="72"/>
       <c r="E402" s="72"/>
       <c r="F402" t="s" s="75">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G402" s="72"/>
       <c r="H402" s="72"/>
       <c r="I402" t="n" s="75">
-        <v>20.0</v>
+        <v>47.0</v>
       </c>
       <c r="J402" s="72"/>
       <c r="K402" t="n" s="75">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="L402" t="n" s="75">
         <v>0.0</v>
@@ -11663,11 +11666,11 @@
       </c>
       <c r="O402" s="72"/>
       <c r="P402" t="n" s="75">
-        <v>207.2150669472843</v>
+        <v>202.9067858061243</v>
       </c>
       <c r="Q402" s="72"/>
       <c r="R402" t="n" s="75">
-        <v>0.08658008658008658</v>
+        <v>0.235</v>
       </c>
       <c r="S402" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11676,22 +11679,22 @@
     </row>
     <row r="403" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" t="s" s="106">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C403" s="72"/>
       <c r="D403" s="72"/>
       <c r="E403" s="72"/>
       <c r="F403" t="s" s="106">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G403" s="72"/>
       <c r="H403" s="72"/>
       <c r="I403" t="n" s="106">
-        <v>34.0</v>
+        <v>20.0</v>
       </c>
       <c r="J403" s="72"/>
       <c r="K403" t="n" s="106">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="L403" t="n" s="106">
         <v>0.0</v>
@@ -11702,11 +11705,11 @@
       </c>
       <c r="O403" s="72"/>
       <c r="P403" t="n" s="106">
-        <v>209.16695849871326</v>
+        <v>203.71767543442084</v>
       </c>
       <c r="Q403" s="72"/>
       <c r="R403" t="n" s="106">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="S403" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11715,13 +11718,13 @@
     </row>
     <row r="404" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" t="s" s="75">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C404" s="72"/>
       <c r="D404" s="72"/>
       <c r="E404" s="72"/>
       <c r="F404" t="s" s="75">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G404" s="72"/>
       <c r="H404" s="72"/>
@@ -11730,7 +11733,7 @@
       </c>
       <c r="J404" s="72"/>
       <c r="K404" t="n" s="75">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="L404" t="n" s="75">
         <v>0.0</v>
@@ -11741,11 +11744,11 @@
       </c>
       <c r="O404" s="72"/>
       <c r="P404" t="n" s="75">
-        <v>210.16568436417663</v>
+        <v>203.94785400582757</v>
       </c>
       <c r="Q404" s="72"/>
       <c r="R404" t="n" s="75">
-        <v>0.1</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="S404" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11754,22 +11757,22 @@
     </row>
     <row r="405" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" t="s" s="106">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C405" s="72"/>
       <c r="D405" s="72"/>
       <c r="E405" s="72"/>
       <c r="F405" t="s" s="106">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G405" s="72"/>
       <c r="H405" s="72"/>
       <c r="I405" t="n" s="106">
-        <v>20.0</v>
+        <v>44.0</v>
       </c>
       <c r="J405" s="72"/>
       <c r="K405" t="n" s="106">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="L405" t="n" s="106">
         <v>0.0</v>
@@ -11780,11 +11783,11 @@
       </c>
       <c r="O405" s="72"/>
       <c r="P405" t="n" s="106">
-        <v>213.63527902505842</v>
+        <v>204.76358258830473</v>
       </c>
       <c r="Q405" s="72"/>
       <c r="R405" t="n" s="106">
-        <v>0.08849557522123894</v>
+        <v>0.22</v>
       </c>
       <c r="S405" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11793,22 +11796,22 @@
     </row>
     <row r="406" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" t="s" s="75">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C406" s="72"/>
       <c r="D406" s="72"/>
       <c r="E406" s="72"/>
       <c r="F406" t="s" s="75">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G406" s="72"/>
       <c r="H406" s="72"/>
       <c r="I406" t="n" s="75">
-        <v>48.0</v>
+        <v>20.0</v>
       </c>
       <c r="J406" s="72"/>
       <c r="K406" t="n" s="75">
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
       <c r="L406" t="n" s="75">
         <v>0.0</v>
@@ -11819,11 +11822,11 @@
       </c>
       <c r="O406" s="72"/>
       <c r="P406" t="n" s="75">
-        <v>217.62270883817868</v>
+        <v>205.84458457135042</v>
       </c>
       <c r="Q406" s="72"/>
       <c r="R406" t="n" s="75">
-        <v>0.21052631578947367</v>
+        <v>0.1</v>
       </c>
       <c r="S406" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11832,22 +11835,22 @@
     </row>
     <row r="407" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" t="s" s="106">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C407" s="72"/>
       <c r="D407" s="72"/>
       <c r="E407" s="72"/>
       <c r="F407" t="s" s="106">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G407" s="72"/>
       <c r="H407" s="72"/>
       <c r="I407" t="n" s="106">
-        <v>54.0</v>
+        <v>39.0</v>
       </c>
       <c r="J407" s="72"/>
       <c r="K407" t="n" s="106">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="L407" t="n" s="106">
         <v>0.0</v>
@@ -11858,11 +11861,11 @@
       </c>
       <c r="O407" s="72"/>
       <c r="P407" t="n" s="106">
-        <v>218.80423391235743</v>
+        <v>206.81612201909155</v>
       </c>
       <c r="Q407" s="72"/>
       <c r="R407" t="n" s="106">
-        <v>0.27</v>
+        <v>0.195</v>
       </c>
       <c r="S407" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11871,16 +11874,16 @@
     </row>
     <row r="408">
       <c r="B408" t="s" s="75">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F408" t="s" s="75">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I408" t="n" s="75">
+        <v>40.0</v>
+      </c>
+      <c r="K408" t="n" s="75">
         <v>20.0</v>
-      </c>
-      <c r="K408" t="n" s="75">
-        <v>23.0</v>
       </c>
       <c r="L408" t="n" s="75">
         <v>0.0</v>
@@ -11889,10 +11892,10 @@
         <v>0.0</v>
       </c>
       <c r="P408" t="n" s="75">
-        <v>220.37946694522722</v>
+        <v>207.60488296643686</v>
       </c>
       <c r="R408" t="n" s="75">
-        <v>0.08968609865470852</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="S408" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11900,16 +11903,16 @@
     </row>
     <row r="409">
       <c r="B409" t="s" s="106">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F409" t="s" s="106">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I409" t="n" s="106">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="K409" t="n" s="106">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="L409" t="n" s="106">
         <v>0.0</v>
@@ -11918,10 +11921,10 @@
         <v>0.0</v>
       </c>
       <c r="P409" t="n" s="106">
-        <v>220.6014734326706</v>
+        <v>208.67287964642853</v>
       </c>
       <c r="R409" t="n" s="106">
-        <v>0.1</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="S409" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11929,16 +11932,16 @@
     </row>
     <row r="410">
       <c r="B410" t="s" s="75">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F410" t="s" s="75">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I410" t="n" s="75">
-        <v>58.0</v>
+        <v>20.0</v>
       </c>
       <c r="K410" t="n" s="75">
-        <v>38.0</v>
+        <v>17.0</v>
       </c>
       <c r="L410" t="n" s="75">
         <v>0.0</v>
@@ -11947,10 +11950,10 @@
         <v>0.0</v>
       </c>
       <c r="P410" t="n" s="75">
-        <v>223.87658306534837</v>
+        <v>210.4871951515456</v>
       </c>
       <c r="R410" t="n" s="75">
-        <v>0.29</v>
+        <v>0.09216589861751152</v>
       </c>
       <c r="S410" t="e" s="75">
         <v>#DIV/0!</v>
@@ -11958,13 +11961,13 @@
     </row>
     <row r="411">
       <c r="B411" t="s" s="106">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F411" t="s" s="106">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I411" t="n" s="106">
-        <v>20.0</v>
+        <v>49.0</v>
       </c>
       <c r="K411" t="n" s="106">
         <v>29.0</v>
@@ -11976,10 +11979,10 @@
         <v>0.0</v>
       </c>
       <c r="P411" t="n" s="106">
-        <v>225.8384325183242</v>
+        <v>214.0205870996037</v>
       </c>
       <c r="R411" t="n" s="106">
-        <v>0.08733624454148471</v>
+        <v>0.21397379912663755</v>
       </c>
       <c r="S411" t="e" s="106">
         <v>#DIV/0!</v>
@@ -11987,16 +11990,16 @@
     </row>
     <row r="412">
       <c r="B412" t="s" s="75">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F412" t="s" s="75">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I412" t="n" s="75">
-        <v>56.0</v>
+        <v>20.0</v>
       </c>
       <c r="K412" t="n" s="75">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="L412" t="n" s="75">
         <v>0.0</v>
@@ -12005,564 +12008,564 @@
         <v>0.0</v>
       </c>
       <c r="P412" t="n" s="75">
-        <v>230.04033945451658</v>
+        <v>219.55236253488033</v>
       </c>
       <c r="R412" t="n" s="75">
-        <v>0.28</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="S412" t="e" s="75">
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="413">
-      <c r="B413" t="s" s="84">
-        <v>206</v>
-      </c>
-      <c r="F413" t="s" s="84">
+      <c r="B413" t="s" s="106">
         <v>207</v>
       </c>
-      <c r="I413" t="n" s="84">
-        <v>21.0</v>
-      </c>
-      <c r="K413" t="n" s="84">
-        <v>1.0</v>
-      </c>
-      <c r="L413" t="n" s="84">
-        <v>1.0</v>
-      </c>
-      <c r="N413" t="n" s="84">
-        <v>0.047619047619047616</v>
-      </c>
-      <c r="P413" t="n" s="84">
-        <v>200.7927804980524</v>
-      </c>
-      <c r="R413" t="n" s="84">
-        <v>0.105</v>
-      </c>
-      <c r="S413" t="n" s="84">
-        <v>200.7927804980524</v>
+      <c r="F413" t="s" s="106">
+        <v>208</v>
+      </c>
+      <c r="I413" t="n" s="106">
+        <v>20.0</v>
+      </c>
+      <c r="K413" t="n" s="106">
+        <v>35.0</v>
+      </c>
+      <c r="L413" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="N413" t="n" s="106">
+        <v>0.0</v>
+      </c>
+      <c r="P413" t="n" s="106">
+        <v>229.07145080062404</v>
+      </c>
+      <c r="R413" t="n" s="106">
+        <v>0.1</v>
+      </c>
+      <c r="S413" t="e" s="106">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="414">
       <c r="B414" t="s" s="81">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F414" t="s" s="81">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I414" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K414" t="n" s="81">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="L414" t="n" s="81">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="N414" t="n" s="81">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="P414" t="n" s="81">
-        <v>201.97596530465432</v>
+        <v>201.3006108135353</v>
       </c>
       <c r="R414" t="n" s="81">
-        <v>0.1</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="S414" t="n" s="81">
-        <v>67.3253217682181</v>
+        <v>28.757230116219326</v>
       </c>
     </row>
     <row r="415">
       <c r="B415" t="s" s="84">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F415" t="s" s="84">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I415" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K415" t="n" s="84">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="L415" t="n" s="84">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="N415" t="n" s="84">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P415" t="n" s="84">
-        <v>204.44460952520998</v>
+        <v>205.6358657133879</v>
       </c>
       <c r="R415" t="n" s="84">
         <v>0.1</v>
       </c>
       <c r="S415" t="n" s="84">
-        <v>34.074101587535</v>
+        <v>20.56358657133879</v>
       </c>
     </row>
     <row r="416">
       <c r="B416" t="s" s="81">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F416" t="s" s="81">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I416" t="n" s="81">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="K416" t="n" s="81">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="L416" t="n" s="81">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="N416" t="n" s="81">
-        <v>0.25925925925925924</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="P416" t="n" s="81">
-        <v>206.61383722314906</v>
+        <v>210.1526237026748</v>
       </c>
       <c r="R416" t="n" s="81">
-        <v>0.135</v>
+        <v>0.14691943127962084</v>
       </c>
       <c r="S416" t="n" s="81">
-        <v>29.516262460449866</v>
+        <v>19.104783972970434</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" t="s" s="84">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F417" t="s" s="84">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I417" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K417" t="n" s="84">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="L417" t="n" s="84">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="N417" t="n" s="84">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="P417" t="n" s="84">
-        <v>203.43207135632107</v>
+        <v>205.4330083694221</v>
       </c>
       <c r="R417" t="n" s="84">
-        <v>0.09615384615384616</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="S417" t="n" s="84">
-        <v>25.429008919540134</v>
+        <v>13.695533891294808</v>
       </c>
     </row>
     <row r="418">
       <c r="B418" t="s" s="81">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F418" t="s" s="81">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I418" t="n" s="81">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="K418" t="n" s="81">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="L418" t="n" s="81">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="N418" t="n" s="81">
-        <v>0.65</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="P418" t="n" s="81">
-        <v>207.41548201385626</v>
+        <v>207.59020643956734</v>
       </c>
       <c r="R418" t="n" s="81">
-        <v>0.09389671361502347</v>
+        <v>0.18</v>
       </c>
       <c r="S418" t="n" s="81">
-        <v>15.955037077988944</v>
+        <v>12.974387902472959</v>
       </c>
     </row>
     <row r="419">
       <c r="B419" t="s" s="84">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F419" t="s" s="84">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I419" t="n" s="84">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="K419" t="n" s="84">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="L419" t="n" s="84">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="N419" t="n" s="84">
-        <v>0.42857142857142855</v>
+        <v>0.9</v>
       </c>
       <c r="P419" t="n" s="84">
-        <v>213.9782319324611</v>
+        <v>215.83682948789595</v>
       </c>
       <c r="R419" t="n" s="84">
-        <v>0.175</v>
+        <v>0.1</v>
       </c>
       <c r="S419" t="n" s="84">
-        <v>14.265215462164074</v>
+        <v>11.990934971549775</v>
       </c>
     </row>
     <row r="420">
       <c r="B420" t="s" s="81">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F420" t="s" s="81">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I420" t="n" s="81">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="K420" t="n" s="81">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="L420" t="n" s="81">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="N420" t="n" s="81">
-        <v>0.4444444444444444</v>
+        <v>1.1</v>
       </c>
       <c r="P420" t="n" s="81">
-        <v>207.0875218409998</v>
+        <v>210.36552514082663</v>
       </c>
       <c r="R420" t="n" s="81">
-        <v>0.16666666666666666</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="S420" t="n" s="81">
-        <v>12.942970115062488</v>
+        <v>9.562069324583028</v>
       </c>
     </row>
     <row r="421">
       <c r="B421" t="s" s="84">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F421" t="s" s="84">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I421" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K421" t="n" s="84">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="L421" t="n" s="84">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="N421" t="n" s="84">
-        <v>0.9</v>
+        <v>1.15</v>
       </c>
       <c r="P421" t="n" s="84">
-        <v>209.8739111016345</v>
+        <v>218.49212419241925</v>
       </c>
       <c r="R421" t="n" s="84">
-        <v>0.09174311926605505</v>
+        <v>0.1</v>
       </c>
       <c r="S421" t="n" s="84">
-        <v>11.659661727868583</v>
+        <v>9.499657573583447</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" t="s" s="81">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F422" t="s" s="81">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I422" t="n" s="81">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="K422" t="n" s="81">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="L422" t="n" s="81">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="N422" t="n" s="81">
-        <v>0.95</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="P422" t="n" s="81">
-        <v>200.62865057700844</v>
+        <v>208.15298472229856</v>
       </c>
       <c r="R422" t="n" s="81">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S422" t="n" s="81">
-        <v>10.559402661947813</v>
+        <v>8.326119388891943</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="s" s="84">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F423" t="s" s="84">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I423" t="n" s="84">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="K423" t="n" s="84">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="L423" t="n" s="84">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="N423" t="n" s="84">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="P423" t="n" s="84">
-        <v>210.09474471953683</v>
+        <v>210.6863307730956</v>
       </c>
       <c r="R423" t="n" s="84">
-        <v>0.2</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="S423" t="n" s="84">
-        <v>10.504737235976842</v>
+        <v>8.103320414349831</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="s" s="81">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F424" t="s" s="81">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I424" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K424" t="n" s="81">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="L424" t="n" s="81">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="N424" t="n" s="81">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P424" t="n" s="81">
-        <v>221.77886692473353</v>
+        <v>223.50158053493806</v>
       </c>
       <c r="R424" t="n" s="81">
-        <v>0.08928571428571429</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S424" t="n" s="81">
-        <v>9.240786121863897</v>
+        <v>7.450052684497935</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" t="s" s="84">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F425" t="s" s="84">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I425" t="n" s="84">
         <v>20.0</v>
       </c>
       <c r="K425" t="n" s="84">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="L425" t="n" s="84">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="N425" t="n" s="84">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="P425" t="n" s="84">
-        <v>224.47698134167211</v>
+        <v>220.708081654516</v>
       </c>
       <c r="R425" t="n" s="84">
-        <v>0.1</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S425" t="n" s="84">
-        <v>8.313962271913782</v>
+        <v>7.119615537242452</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" t="s" s="81">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F426" t="s" s="81">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I426" t="n" s="81">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
       <c r="K426" t="n" s="81">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="L426" t="n" s="81">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="N426" t="n" s="81">
-        <v>0.5555555555555556</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="P426" t="n" s="81">
-        <v>206.7458301716731</v>
+        <v>229.0242363218559</v>
       </c>
       <c r="R426" t="n" s="81">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="S426" t="n" s="81">
-        <v>8.269833206866924</v>
+        <v>6.736006950642821</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" t="s" s="84">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F427" t="s" s="84">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I427" t="n" s="84">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="K427" t="n" s="84">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="L427" t="n" s="84">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="N427" t="n" s="84">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="P427" t="n" s="84">
-        <v>219.88916526372157</v>
+        <v>212.4798340592485</v>
       </c>
       <c r="R427" t="n" s="84">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="S427" t="n" s="84">
-        <v>7.329638842124052</v>
+        <v>6.639994814351516</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" t="s" s="81">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F428" t="s" s="81">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I428" t="n" s="81">
-        <v>55.0</v>
+        <v>20.0</v>
       </c>
       <c r="K428" t="n" s="81">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="L428" t="n" s="81">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="N428" t="n" s="81">
-        <v>0.6363636363636364</v>
+        <v>1.65</v>
       </c>
       <c r="P428" t="n" s="81">
-        <v>234.6862198246963</v>
+        <v>216.75288458817042</v>
       </c>
       <c r="R428" t="n" s="81">
-        <v>0.275</v>
+        <v>0.1</v>
       </c>
       <c r="S428" t="n" s="81">
-        <v>6.7053205664198945</v>
+        <v>6.568269229944558</v>
       </c>
     </row>
     <row r="429">
       <c r="B429" t="s" s="84">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F429" t="s" s="84">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I429" t="n" s="84">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="K429" t="n" s="84">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="L429" t="n" s="84">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="N429" t="n" s="84">
-        <v>0.6226415094339622</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="P429" t="n" s="84">
-        <v>216.13387558812212</v>
+        <v>235.86769517917364</v>
       </c>
       <c r="R429" t="n" s="84">
-        <v>0.22746781115879827</v>
+        <v>0.23728813559322035</v>
       </c>
       <c r="S429" t="n" s="84">
-        <v>6.549511381458246</v>
+        <v>6.5518804216437125</v>
       </c>
     </row>
     <row r="430">
       <c r="B430" t="s" s="81">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F430" t="s" s="81">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I430" t="n" s="81">
         <v>20.0</v>
       </c>
       <c r="K430" t="n" s="81">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
       <c r="L430" t="n" s="81">
-        <v>32.0</v>
+        <v>39.0</v>
       </c>
       <c r="N430" t="n" s="81">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="P430" t="n" s="81">
-        <v>200.97835987708768</v>
+        <v>232.57558831939497</v>
       </c>
       <c r="R430" t="n" s="81">
-        <v>0.08620689655172414</v>
+        <v>0.1</v>
       </c>
       <c r="S430" t="n" s="81">
-        <v>6.28057374615899</v>
+        <v>5.96347662357423</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" t="s" s="84">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F431" t="s" s="84">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I431" t="n" s="84">
-        <v>59.0</v>
+        <v>20.0</v>
       </c>
       <c r="K431" t="n" s="84">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="L431" t="n" s="84">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="N431" t="n" s="84">
-        <v>0.6610169491525424</v>
+        <v>1.85</v>
       </c>
       <c r="P431" t="n" s="84">
-        <v>214.14174833648048</v>
+        <v>219.92790910159508</v>
       </c>
       <c r="R431" t="n" s="84">
-        <v>0.295</v>
+        <v>0.1</v>
       </c>
       <c r="S431" t="n" s="84">
-        <v>5.490814059909756</v>
+        <v>5.943997543286353</v>
       </c>
     </row>
   </sheetData>
@@ -12577,18 +12580,16 @@
     <mergeCell ref="L147:M147"/>
     <mergeCell ref="L148:M148"/>
     <mergeCell ref="K376:O376"/>
+    <mergeCell ref="L203:Q203"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B372:G372"/>
     <mergeCell ref="B266:D266"/>
     <mergeCell ref="G266:H266"/>
     <mergeCell ref="B280:D280"/>
     <mergeCell ref="G280:H280"/>
     <mergeCell ref="B279:D279"/>
     <mergeCell ref="G279:H279"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B372:G372"/>
     <mergeCell ref="F141:G141"/>
     <mergeCell ref="F142:G142"/>
     <mergeCell ref="H146:K146"/>
@@ -12626,7 +12627,6 @@
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="D203:G203"/>
     <mergeCell ref="H203:K203"/>
-    <mergeCell ref="L203:Q203"/>
     <mergeCell ref="B391:E391"/>
     <mergeCell ref="F391:H391"/>
     <mergeCell ref="L391:M391"/>
@@ -12640,6 +12640,9 @@
     <mergeCell ref="K377:O377"/>
     <mergeCell ref="K378:O378"/>
     <mergeCell ref="P376:R376"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
     <mergeCell ref="B392:E392"/>
     <mergeCell ref="F392:H392"/>
     <mergeCell ref="I392:J392"/>
@@ -12992,369 +12995,423 @@
         <v>15</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>47</v>
-      </c>
       <c r="O1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>62</v>
-      </c>
       <c r="U1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>67</v>
-      </c>
       <c r="X1" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1156.0</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" t="n">
-        <v>75.0</v>
+        <v>664.0</v>
       </c>
       <c r="G2" t="n" s="109">
-        <v>42697.0</v>
+        <v>42704.0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.0</v>
+        <v>107.0</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K2" t="n">
-        <v>2.0</v>
+        <v>2004.0</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" t="n">
-        <v>94.0</v>
+        <v>739.0</v>
       </c>
       <c r="N2" t="n">
-        <v>36.0</v>
+        <v>283.0</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P2" t="n">
-        <v>101.0</v>
+        <v>1008.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.0</v>
+        <v>362.0</v>
       </c>
       <c r="R2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S2" t="n">
-        <v>56.0</v>
+        <v>433.0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.0</v>
+        <v>159.0</v>
       </c>
       <c r="X2" t="n" s="99">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y2" t="n" s="99">
-        <v>4.426966060471791</v>
+        <v>4.528202119281283</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>23.0</v>
+        <v>197.0</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>238.0</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>28.0</v>
+        <v>226.0</v>
       </c>
       <c r="G3" t="n" s="109">
-        <v>42698.0</v>
+        <v>42705.0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="I3" t="n">
-        <v>56.0</v>
+        <v>107.0</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K3" t="n">
-        <v>241.0</v>
+        <v>55.0</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M3" t="n">
-        <v>66.0</v>
+        <v>706.0</v>
       </c>
       <c r="N3" t="n">
-        <v>21.0</v>
+        <v>263.0</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P3" t="n">
-        <v>113.0</v>
+        <v>907.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.0</v>
+        <v>332.0</v>
       </c>
       <c r="R3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S3" t="n">
-        <v>52.0</v>
+        <v>417.0</v>
       </c>
       <c r="T3" t="n">
-        <v>23.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>155.0</v>
+        <v>202.0</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>105.0</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
-        <v>24.0</v>
+        <v>157.0</v>
       </c>
       <c r="G4" t="n" s="109">
-        <v>42699.0</v>
+        <v>42706.0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="I4" t="n">
-        <v>45.0</v>
+        <v>92.0</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K4" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" t="n">
-        <v>30.0</v>
+        <v>235.0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.0</v>
+        <v>74.0</v>
       </c>
       <c r="R4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S4" t="n">
-        <v>58.0</v>
+        <v>375.0</v>
       </c>
       <c r="T4" t="n">
-        <v>14.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>28.0</v>
+        <v>138.0</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>113.0</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" t="n">
-        <v>17.0</v>
+        <v>77.0</v>
       </c>
       <c r="G5" t="n" s="109">
-        <v>42700.0</v>
+        <v>42709.0</v>
       </c>
       <c r="H5" t="n">
-        <v>8.0</v>
+        <v>93.0</v>
       </c>
       <c r="I5" t="n">
-        <v>47.0</v>
+        <v>179.0</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>56.0</v>
       </c>
       <c r="L5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M5" t="n">
-        <v>7.0</v>
+        <v>198.0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.0</v>
+        <v>49.0</v>
       </c>
       <c r="R5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S5" t="n">
-        <v>45.0</v>
+        <v>340.0</v>
       </c>
       <c r="T5" t="n">
-        <v>12.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="n">
-        <v>26.0</v>
+        <v>1573.0</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="G6" t="n" s="109">
-        <v>42701.0</v>
+        <v>42710.0</v>
       </c>
       <c r="H6" t="n">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.0</v>
+        <v>106.0</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M6" t="n">
-        <v>22.0</v>
+        <v>71.0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.0</v>
+        <v>34.0</v>
       </c>
       <c r="R6" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G7" t="n" s="109">
+        <v>42711.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R7" t="s">
         <v>160</v>
       </c>
-      <c r="S6" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C7" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.0</v>
+      <c r="S7" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" t="n">
-        <v>11.0</v>
+        <v>62.0</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G8" t="n" s="109">
+        <v>42716.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>161</v>
+      </c>
+      <c r="S8" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25"/>
@@ -13390,68 +13447,68 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -13486,14 +13543,14 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="47"/>
@@ -13535,235 +13592,235 @@
     </row>
     <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="145"/>
       <c r="E24" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="145"/>
       <c r="G24" s="145"/>
       <c r="H24" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="145"/>
       <c r="J24" s="67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24" s="142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L24" s="142"/>
       <c r="M24" s="142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N24" s="142"/>
       <c r="O24" s="145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P24" s="145"/>
       <c r="Q24" s="67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R24" s="142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S24" s="142"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="143" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="143"/>
       <c r="C25" s="143"/>
       <c r="D25" s="143"/>
       <c r="E25" s="143" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="143"/>
       <c r="G25" s="143"/>
       <c r="H25" s="143" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I25" s="143"/>
       <c r="J25" s="68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K25" s="144" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L25" s="144"/>
       <c r="M25" s="144" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N25" s="144"/>
       <c r="O25" s="143" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P25" s="143"/>
       <c r="Q25" s="68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R25" s="144" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S25" s="144"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="149"/>
       <c r="C26" s="149"/>
       <c r="D26" s="149"/>
       <c r="E26" s="149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" s="149"/>
       <c r="G26" s="149"/>
       <c r="H26" s="149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I26" s="149"/>
       <c r="J26" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26" s="146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N26" s="146"/>
       <c r="O26" s="149" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P26" s="149"/>
       <c r="Q26" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R26" s="146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S26" s="146"/>
     </row>
     <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" s="147"/>
       <c r="C27" s="147"/>
       <c r="D27" s="147"/>
       <c r="E27" s="147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
       <c r="H27" s="147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="147"/>
       <c r="J27" s="69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K27" s="148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L27" s="148"/>
       <c r="M27" s="148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N27" s="148"/>
       <c r="O27" s="147" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P27" s="147"/>
       <c r="Q27" s="69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R27" s="148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S27" s="148"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="153"/>
       <c r="C28" s="153"/>
       <c r="D28" s="153"/>
       <c r="E28" s="153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="153"/>
       <c r="G28" s="153"/>
       <c r="H28" s="153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="153"/>
       <c r="J28" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K28" s="150" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L28" s="150"/>
       <c r="M28" s="150" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N28" s="150"/>
       <c r="O28" s="153" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P28" s="153"/>
       <c r="Q28" s="70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R28" s="150" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S28" s="150"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="151"/>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
       <c r="E29" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F29" s="151"/>
       <c r="G29" s="151"/>
       <c r="H29" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K29" s="152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L29" s="152"/>
       <c r="M29" s="152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N29" s="152"/>
       <c r="O29" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P29" s="151"/>
       <c r="Q29" s="71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R29" s="152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S29" s="152"/>
     </row>
@@ -13989,7 +14046,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -13997,7 +14054,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -14005,7 +14062,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -14013,7 +14070,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -14021,7 +14078,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -14029,7 +14086,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -14037,7 +14094,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -14045,7 +14102,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -14053,7 +14110,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -14061,7 +14118,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -14069,7 +14126,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -14077,7 +14134,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -14085,7 +14142,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -14093,7 +14150,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -14101,7 +14158,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -14109,7 +14166,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -14117,7 +14174,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -14125,7 +14182,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -14133,7 +14190,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -14141,7 +14198,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -14149,7 +14206,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -14157,7 +14214,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -14165,7 +14222,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -14173,7 +14230,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -14181,7 +14238,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -14189,7 +14246,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -14197,7 +14254,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>42</v>
